--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihoon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\ABot\결과분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="10월" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>파인디엔씨</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>매도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 종목당 할당 금액 : 30만원 / 매수매도범위 : 상승 1%, 하락 2.5%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -185,13 +189,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="180" formatCode="hh:mm:ss.000"/>
-    <numFmt numFmtId="181" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="187" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="188" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,7 +395,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -598,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -780,6 +793,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -912,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,37 +949,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -964,7 +964,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
@@ -973,7 +973,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
@@ -982,53 +982,95 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1355,7 +1397,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1376,815 +1418,819 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4">
+      <c r="A2" s="36">
         <v>42650</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="9">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35">
         <v>5</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="35">
         <v>10.5</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>0.37617184027777778</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>0.37617817129629633</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <f>D4-C4</f>
         <v>6.3310185185461165E-6</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="6">
         <v>0.37617907407407408</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="6">
         <v>0.37620431712962965</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <f>G4-F4</f>
         <v>2.5243055555568272E-5</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>4990</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>5040</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="5">
         <v>0.67</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="5">
         <v>2013</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="12">
-        <f>((I4/100)*O$3)+I4</f>
+        <f t="shared" ref="O4:O13" si="0">((I4/100)*O$3)+I4</f>
         <v>5239.5</v>
       </c>
       <c r="P4" s="12">
-        <f>J4-((J4/100)*P$3)</f>
+        <f t="shared" ref="P4:P13" si="1">J4-((J4/100)*P$3)</f>
         <v>4510.8</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>5650</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="41">
         <f>((Q4-$I4)*100/$I4)</f>
         <v>13.226452905811623</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="13">
         <v>5350</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="41">
         <f>((S4-$I4)*100/$I4)</f>
         <v>7.214428857715431</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>0.39078499999999999</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>0.3907902430555556</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" ref="E5:E13" si="0">D5-C5</f>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E13" si="2">D5-C5</f>
         <v>5.2430555556037817E-6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>0.3907993402777778</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>0.39111098379629627</v>
       </c>
-      <c r="H5" s="11">
-        <f t="shared" ref="H5:H13" si="1">G5-F5</f>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H13" si="3">G5-F5</f>
         <v>3.1164351851847849E-4</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <v>4120</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="5">
         <v>4165</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="5">
         <v>0.76</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="5">
         <v>2266</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="18"/>
+      <c r="N5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="12">
-        <f>((I5/100)*O$3)+I5</f>
+        <f t="shared" si="0"/>
         <v>4326</v>
       </c>
       <c r="P5" s="12">
-        <f>J5-((J5/100)*P$3)</f>
+        <f t="shared" si="1"/>
         <v>3727.6750000000002</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>4400</v>
       </c>
-      <c r="R5" s="14">
-        <f t="shared" ref="R5:R13" si="2">((Q5-$I5)*100/$I5)</f>
+      <c r="R5" s="41">
+        <f t="shared" ref="R5:R13" si="4">((Q5-$I5)*100/$I5)</f>
         <v>6.7961165048543686</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="13">
         <v>4050</v>
       </c>
-      <c r="T5" s="14">
-        <f t="shared" ref="T5:T13" si="3">((S5-$I5)*100/$I5)</f>
+      <c r="T5" s="41">
+        <f t="shared" ref="T5:T13" si="5">((S5-$I5)*100/$I5)</f>
         <v>-1.6990291262135921</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>0.39433062499999999</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>0.39433207175925927</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4467592592826151E-6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.39433568287037035</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.39474612268518516</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>4.104398148148114E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>11300</v>
+      </c>
+      <c r="J6" s="5">
+        <v>11450</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2927</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="12">
         <f t="shared" si="0"/>
-        <v>1.4467592592826151E-6</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.39433568287037035</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.39474612268518516</v>
-      </c>
-      <c r="H6" s="11">
+        <v>11865</v>
+      </c>
+      <c r="P6" s="12">
         <f t="shared" si="1"/>
-        <v>4.104398148148114E-4</v>
-      </c>
-      <c r="I6" s="10">
-        <v>11300</v>
-      </c>
-      <c r="J6" s="10">
-        <v>11450</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>2927</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="12">
-        <f>((I6/100)*O$3)+I6</f>
-        <v>11865</v>
-      </c>
-      <c r="P6" s="12">
-        <f>J6-((J6/100)*P$3)</f>
         <v>10247.75</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>11900</v>
       </c>
-      <c r="R6" s="14">
-        <f t="shared" si="2"/>
+      <c r="R6" s="41">
+        <f t="shared" si="4"/>
         <v>5.3097345132743365</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="13">
         <v>9960</v>
       </c>
-      <c r="T6" s="14">
-        <f t="shared" si="3"/>
+      <c r="T6" s="41">
+        <f t="shared" si="5"/>
         <v>-11.858407079646017</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>0.41149203703703702</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>0.41149332175925929</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2847222222722721E-6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.41150709490740739</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.41153013888888884</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3043981481452036E-5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3540</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3580</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2378</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="12">
         <f t="shared" si="0"/>
-        <v>1.2847222222722721E-6</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.41150709490740739</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.41153013888888884</v>
-      </c>
-      <c r="H7" s="11">
+        <v>3717</v>
+      </c>
+      <c r="P7" s="12">
         <f t="shared" si="1"/>
-        <v>2.3043981481452036E-5</v>
-      </c>
-      <c r="I7" s="10">
-        <v>3540</v>
-      </c>
-      <c r="J7" s="10">
-        <v>3580</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L7" s="10">
-        <v>2378</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="12">
-        <f>((I7/100)*O$3)+I7</f>
-        <v>3717</v>
-      </c>
-      <c r="P7" s="12">
-        <f>J7-((J7/100)*P$3)</f>
         <v>3204.1</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>3765</v>
       </c>
-      <c r="R7" s="14">
-        <f t="shared" si="2"/>
+      <c r="R7" s="41">
+        <f t="shared" si="4"/>
         <v>6.3559322033898304</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="13">
         <v>3340</v>
       </c>
-      <c r="T7" s="14">
-        <f t="shared" si="3"/>
+      <c r="T7" s="41">
+        <f t="shared" si="5"/>
         <v>-5.6497175141242941</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>0.42578164351851849</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>0.42578309027777778</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4467592592826151E-6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.42578648148148152</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.44397582175925926</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8189340277777744E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4330</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4375</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2120</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="12">
         <f t="shared" si="0"/>
-        <v>1.4467592592826151E-6</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.42578648148148152</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.44397582175925926</v>
-      </c>
-      <c r="H8" s="11">
+        <v>4546.5</v>
+      </c>
+      <c r="P8" s="12">
         <f t="shared" si="1"/>
-        <v>1.8189340277777744E-2</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4330</v>
-      </c>
-      <c r="J8" s="15">
-        <v>4375</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0.71</v>
-      </c>
-      <c r="L8" s="15">
-        <v>2120</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="12">
-        <f>((I8/100)*O$3)+I8</f>
-        <v>4546.5</v>
-      </c>
-      <c r="P8" s="12">
-        <f>J8-((J8/100)*P$3)</f>
         <v>3915.625</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>4735</v>
       </c>
-      <c r="R8" s="14">
-        <f t="shared" si="2"/>
+      <c r="R8" s="41">
+        <f t="shared" si="4"/>
         <v>9.3533487297921472</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="13">
         <v>4265</v>
       </c>
-      <c r="T8" s="14">
-        <f t="shared" si="3"/>
+      <c r="T8" s="41">
+        <f t="shared" si="5"/>
         <v>-1.5011547344110854</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="9">
         <v>0.46740060185185189</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="9">
         <v>0.46740186342592588</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2615740739851944E-6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.46740486111111107</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.46787874999999995</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="3"/>
+        <v>4.7388888888888481E-4</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1555</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1515</v>
+      </c>
+      <c r="K9" s="11">
+        <v>-2.89</v>
+      </c>
+      <c r="L9" s="11">
+        <v>-8632</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="0"/>
-        <v>1.2615740739851944E-6</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.46740486111111107</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.46787874999999995</v>
-      </c>
-      <c r="H9" s="17">
+        <v>1632.75</v>
+      </c>
+      <c r="P9" s="12">
         <f t="shared" si="1"/>
-        <v>4.7388888888888481E-4</v>
-      </c>
-      <c r="I9" s="18">
-        <v>1555</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1515</v>
-      </c>
-      <c r="K9" s="19">
-        <v>-2.89</v>
-      </c>
-      <c r="L9" s="19">
-        <v>-8632</v>
-      </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="12">
-        <f>((I9/100)*O$3)+I9</f>
-        <v>1632.75</v>
-      </c>
-      <c r="P9" s="12">
-        <f>J9-((J9/100)*P$3)</f>
         <v>1355.925</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="12">
         <v>1715</v>
       </c>
-      <c r="R9" s="14">
-        <f t="shared" si="2"/>
+      <c r="R9" s="41">
+        <f t="shared" si="4"/>
         <v>10.289389067524116</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="13">
         <v>1500</v>
       </c>
-      <c r="T9" s="14">
-        <f t="shared" si="3"/>
+      <c r="T9" s="41">
+        <f t="shared" si="5"/>
         <v>-3.536977491961415</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>0.48487979166666667</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>0.48526768518518515</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>3.8789351851847842E-4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.48527094907407409</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.48622261574074077</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>9.5166666666668398E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3625</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3665</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2299</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="0"/>
-        <v>3.8789351851847842E-4</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.48527094907407409</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.48622261574074077</v>
-      </c>
-      <c r="H10" s="11">
+        <v>3806.25</v>
+      </c>
+      <c r="P10" s="12">
         <f t="shared" si="1"/>
-        <v>9.5166666666668398E-4</v>
-      </c>
-      <c r="I10" s="10">
-        <v>3625</v>
-      </c>
-      <c r="J10" s="15">
-        <v>3665</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.77</v>
-      </c>
-      <c r="L10" s="15">
-        <v>2299</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="12">
-        <f>((I10/100)*O$3)+I10</f>
-        <v>3806.25</v>
-      </c>
-      <c r="P10" s="12">
-        <f>J10-((J10/100)*P$3)</f>
         <v>3280.1750000000002</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>3950</v>
       </c>
-      <c r="R10" s="14">
-        <f t="shared" si="2"/>
+      <c r="R10" s="41">
+        <f t="shared" si="4"/>
         <v>8.9655172413793096</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="13">
         <v>3580</v>
       </c>
-      <c r="T10" s="14">
-        <f t="shared" si="3"/>
+      <c r="T10" s="41">
+        <f t="shared" si="5"/>
         <v>-1.2413793103448276</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>0.49759053240740742</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>0.49759269675925927</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1643518518521532E-6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.49759613425925925</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.49778790509259258</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9177083333332678E-4</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8870</v>
+      </c>
+      <c r="J11" s="7">
+        <v>8960</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2003</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="0"/>
-        <v>2.1643518518521532E-6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.49759613425925925</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.49778790509259258</v>
-      </c>
-      <c r="H11" s="11">
+        <v>9313.5</v>
+      </c>
+      <c r="P11" s="12">
         <f t="shared" si="1"/>
-        <v>1.9177083333332678E-4</v>
-      </c>
-      <c r="I11" s="10">
-        <v>8870</v>
-      </c>
-      <c r="J11" s="15">
-        <v>8960</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0.68</v>
-      </c>
-      <c r="L11" s="15">
-        <v>2003</v>
-      </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="12">
-        <f>((I11/100)*O$3)+I11</f>
-        <v>9313.5</v>
-      </c>
-      <c r="P11" s="12">
-        <f>J11-((J11/100)*P$3)</f>
         <v>8019.2</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <v>9750</v>
       </c>
-      <c r="R11" s="14">
-        <f t="shared" si="2"/>
+      <c r="R11" s="41">
+        <f t="shared" si="4"/>
         <v>9.9210822998872601</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="13">
         <v>8800</v>
       </c>
-      <c r="T11" s="14">
-        <f t="shared" si="3"/>
+      <c r="T11" s="41">
+        <f t="shared" si="5"/>
         <v>-0.78917700112739575</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>0.56084158564814812</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>0.56084409722222228</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5115740741599168E-6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.56084912037037038</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.56275040509259255</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>1.901284722222174E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5080</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5130</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1962</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="0"/>
-        <v>2.5115740741599168E-6</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.56084912037037038</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.56275040509259255</v>
-      </c>
-      <c r="H12" s="11">
+        <v>5334</v>
+      </c>
+      <c r="P12" s="12">
         <f t="shared" si="1"/>
-        <v>1.901284722222174E-3</v>
-      </c>
-      <c r="I12" s="10">
-        <v>5080</v>
-      </c>
-      <c r="J12" s="15">
-        <v>5130</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1962</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="12">
-        <f>((I12/100)*O$3)+I12</f>
-        <v>5334</v>
-      </c>
-      <c r="P12" s="12">
-        <f>J12-((J12/100)*P$3)</f>
         <v>4591.3500000000004</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="12">
         <v>5190</v>
       </c>
-      <c r="R12" s="14">
-        <f t="shared" si="2"/>
+      <c r="R12" s="41">
+        <f t="shared" si="4"/>
         <v>2.1653543307086616</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="13">
         <v>4385</v>
       </c>
-      <c r="T12" s="14">
-        <f t="shared" si="3"/>
+      <c r="T12" s="41">
+        <f t="shared" si="5"/>
         <v>-13.681102362204724</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="9">
         <v>0.5911277430555556</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="9">
         <v>0.59112884259259257</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="9">
+        <f t="shared" si="2"/>
+        <v>1.0995370369748514E-6</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.5911320717592593</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.59262534722222215</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="3"/>
+        <v>1.4932754629628509E-3</v>
+      </c>
+      <c r="I13" s="10">
+        <v>7750</v>
+      </c>
+      <c r="J13" s="11">
+        <v>7550</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-2.9</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-8540</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="12">
         <f t="shared" si="0"/>
-        <v>1.0995370369748514E-6</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0.5911320717592593</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.59262534722222215</v>
-      </c>
-      <c r="H13" s="17">
+        <v>8137.5</v>
+      </c>
+      <c r="P13" s="12">
         <f t="shared" si="1"/>
-        <v>1.4932754629628509E-3</v>
-      </c>
-      <c r="I13" s="18">
-        <v>7750</v>
-      </c>
-      <c r="J13" s="19">
-        <v>7550</v>
-      </c>
-      <c r="K13" s="19">
-        <v>-2.9</v>
-      </c>
-      <c r="L13" s="19">
-        <v>-8540</v>
-      </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="12">
-        <f>((I13/100)*O$3)+I13</f>
-        <v>8137.5</v>
-      </c>
-      <c r="P13" s="12">
-        <f>J13-((J13/100)*P$3)</f>
         <v>6757.25</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="12">
         <v>8100</v>
       </c>
-      <c r="R13" s="14">
-        <f t="shared" si="2"/>
+      <c r="R13" s="41">
+        <f t="shared" si="4"/>
         <v>4.5161290322580649</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="13">
         <v>7500</v>
       </c>
-      <c r="T13" s="14">
-        <f t="shared" si="3"/>
+      <c r="T13" s="41">
+        <f t="shared" si="5"/>
         <v>-3.225806451612903</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="22.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24">
+      <c r="K14" s="15">
         <f>SUM(K4:K13)/100</f>
         <v>2.5000000000000044E-3</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="16">
         <f>SUM(L4:L13)</f>
         <v>796</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="38" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="44">
         <f>AVERAGE(R4:R13)</f>
         <v>7.6899056828879706</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="44">
         <f>AVERAGE(T4:T13)</f>
         <v>-3.5968322213930826</v>
       </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="39"/>
     </row>
     <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:K3"/>
@@ -2193,6 +2239,7 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -611,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -804,6 +804,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -936,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,27 +999,42 @@
     <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,35 +1044,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,22 +1062,22 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1405,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1418,125 +1426,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="36">
+      <c r="A2" s="26">
         <v>42650</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="34"/>
-      <c r="O3" s="35">
+      <c r="O3" s="20">
         <v>5</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="20">
         <v>10.5</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="23"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1566,13 +1574,13 @@
       <c r="J4" s="5">
         <v>5040</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="41">
         <v>0.67</v>
       </c>
       <c r="L4" s="5">
         <v>2013</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1587,20 +1595,20 @@
       <c r="Q4" s="12">
         <v>5650</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="22">
         <f>((Q4-$I4)*100/$I4)</f>
         <v>13.226452905811623</v>
       </c>
       <c r="S4" s="13">
         <v>5350</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="22">
         <f>((S4-$I4)*100/$I4)</f>
         <v>7.214428857715431</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1630,13 +1638,13 @@
       <c r="J5" s="5">
         <v>4165</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="41">
         <v>0.76</v>
       </c>
       <c r="L5" s="5">
         <v>2266</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1651,20 +1659,20 @@
       <c r="Q5" s="12">
         <v>4400</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="22">
         <f t="shared" ref="R5:R13" si="4">((Q5-$I5)*100/$I5)</f>
         <v>6.7961165048543686</v>
       </c>
       <c r="S5" s="13">
         <v>4050</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="22">
         <f t="shared" ref="T5:T13" si="5">((S5-$I5)*100/$I5)</f>
         <v>-1.6990291262135921</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="23"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1694,13 +1702,13 @@
       <c r="J6" s="5">
         <v>11450</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="41">
         <v>1</v>
       </c>
       <c r="L6" s="5">
         <v>2927</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="39"/>
       <c r="N6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1715,20 +1723,20 @@
       <c r="Q6" s="12">
         <v>11900</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="22">
         <f t="shared" si="4"/>
         <v>5.3097345132743365</v>
       </c>
       <c r="S6" s="13">
         <v>9960</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="22">
         <f t="shared" si="5"/>
         <v>-11.858407079646017</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="23"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1758,13 +1766,13 @@
       <c r="J7" s="5">
         <v>3580</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="41">
         <v>0.8</v>
       </c>
       <c r="L7" s="5">
         <v>2378</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1779,20 +1787,20 @@
       <c r="Q7" s="12">
         <v>3765</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="22">
         <f t="shared" si="4"/>
         <v>6.3559322033898304</v>
       </c>
       <c r="S7" s="13">
         <v>3340</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="22">
         <f t="shared" si="5"/>
         <v>-5.6497175141242941</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="23"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1822,13 +1830,13 @@
       <c r="J8" s="7">
         <v>4375</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="42">
         <v>0.71</v>
       </c>
       <c r="L8" s="7">
         <v>2120</v>
       </c>
-      <c r="M8" s="19"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1843,20 +1851,20 @@
       <c r="Q8" s="12">
         <v>4735</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="22">
         <f t="shared" si="4"/>
         <v>9.3533487297921472</v>
       </c>
       <c r="S8" s="13">
         <v>4265</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="22">
         <f t="shared" si="5"/>
         <v>-1.5011547344110854</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -1886,13 +1894,13 @@
       <c r="J9" s="11">
         <v>1515</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="43">
         <v>-2.89</v>
       </c>
       <c r="L9" s="11">
         <v>-8632</v>
       </c>
-      <c r="M9" s="20"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1907,20 +1915,20 @@
       <c r="Q9" s="12">
         <v>1715</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="22">
         <f t="shared" si="4"/>
         <v>10.289389067524116</v>
       </c>
       <c r="S9" s="13">
         <v>1500</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="22">
         <f t="shared" si="5"/>
         <v>-3.536977491961415</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1950,13 +1958,13 @@
       <c r="J10" s="7">
         <v>3665</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="42">
         <v>0.77</v>
       </c>
       <c r="L10" s="7">
         <v>2299</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1971,20 +1979,20 @@
       <c r="Q10" s="12">
         <v>3950</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="22">
         <f t="shared" si="4"/>
         <v>8.9655172413793096</v>
       </c>
       <c r="S10" s="13">
         <v>3580</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="22">
         <f t="shared" si="5"/>
         <v>-1.2413793103448276</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="23"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2014,13 +2022,13 @@
       <c r="J11" s="7">
         <v>8960</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="42">
         <v>0.68</v>
       </c>
       <c r="L11" s="7">
         <v>2003</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2035,20 +2043,20 @@
       <c r="Q11" s="12">
         <v>9750</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="22">
         <f t="shared" si="4"/>
         <v>9.9210822998872601</v>
       </c>
       <c r="S11" s="13">
         <v>8800</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="22">
         <f t="shared" si="5"/>
         <v>-0.78917700112739575</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2078,13 +2086,13 @@
       <c r="J12" s="7">
         <v>5130</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="42">
         <v>0.65</v>
       </c>
       <c r="L12" s="7">
         <v>1962</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="14" t="s">
         <v>24</v>
       </c>
@@ -2099,20 +2107,20 @@
       <c r="Q12" s="12">
         <v>5190</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="22">
         <f t="shared" si="4"/>
         <v>2.1653543307086616</v>
       </c>
       <c r="S12" s="13">
         <v>4385</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="22">
         <f t="shared" si="5"/>
         <v>-13.681102362204724</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="23"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2142,13 +2150,13 @@
       <c r="J13" s="11">
         <v>7550</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="43">
         <v>-2.9</v>
       </c>
       <c r="L13" s="11">
         <v>-8540</v>
       </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="4" t="s">
         <v>21</v>
       </c>
@@ -2163,30 +2171,30 @@
       <c r="Q13" s="12">
         <v>8100</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="22">
         <f t="shared" si="4"/>
         <v>4.5161290322580649</v>
       </c>
       <c r="S13" s="13">
         <v>7500</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="22">
         <f t="shared" si="5"/>
         <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2198,37 +2206,39 @@
         <f>SUM(L4:L13)</f>
         <v>796</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="42" t="s">
+      <c r="O14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="43" t="s">
+      <c r="Q14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="25">
         <f>AVERAGE(R4:R13)</f>
         <v>7.6899056828879706</v>
       </c>
-      <c r="S14" s="43" t="s">
+      <c r="S14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="44">
+      <c r="T14" s="25">
         <f>AVERAGE(T4:T13)</f>
         <v>-3.5968322213930826</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="39"/>
+      <c r="B15" s="21"/>
     </row>
     <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="M2:M14"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A1:T1"/>
@@ -2239,7 +2249,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>파인디엔씨</t>
   </si>
@@ -181,6 +181,16 @@
   </si>
   <si>
     <t>※ 종목당 할당 금액 : 30만원 / 매수매도범위 : 상승 1%, 하락 2.5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종
+수익률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>승패
+승률</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -815,6 +825,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -947,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,9 +1027,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,16 +1039,40 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,32 +1093,23 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1402,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1421,63 +1452,65 @@
     <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="7.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="22" width="7.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:22" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="34">
         <v>42650</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="33" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="40" t="s">
         <v>38</v>
       </c>
       <c r="O2" s="18" t="s">
@@ -1486,16 +1519,20 @@
       <c r="P2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="24">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:22" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
@@ -1520,31 +1557,37 @@
       <c r="J3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="20">
-        <v>5</v>
-      </c>
-      <c r="P3" s="20">
-        <v>10.5</v>
-      </c>
-      <c r="Q3" s="19" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="18">
+        <v>4</v>
+      </c>
+      <c r="P3" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="24" t="s">
         <v>32</v>
       </c>
+      <c r="U3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="45" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="35"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1574,41 +1617,49 @@
       <c r="J4" s="5">
         <v>5040</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="25">
         <v>0.67</v>
       </c>
       <c r="L4" s="5">
         <v>2013</v>
       </c>
-      <c r="M4" s="39"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="12">
-        <f t="shared" ref="O4:O13" si="0">((I4/100)*O$3)+I4</f>
-        <v>5239.5</v>
+        <f>I4+((I4/100)*O$3)</f>
+        <v>5189.6000000000004</v>
       </c>
       <c r="P4" s="12">
-        <f t="shared" ref="P4:P13" si="1">J4-((J4/100)*P$3)</f>
-        <v>4510.8</v>
+        <f>I4-((I4/100)*P$3)</f>
+        <v>4790.3999999999996</v>
       </c>
       <c r="Q4" s="12">
         <v>5650</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <f>((Q4-$I4)*100/$I4)</f>
         <v>13.226452905811623</v>
       </c>
       <c r="S4" s="13">
         <v>5350</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="21">
         <f>((S4-$I4)*100/$I4)</f>
         <v>7.214428857715431</v>
       </c>
+      <c r="U4" s="4" t="str">
+        <f>IF( P4&lt;=S4, IF(O4&lt;=Q4, "승리", "패배"), "패배")</f>
+        <v>승리</v>
+      </c>
+      <c r="V4" s="4">
+        <f>IF(U4="승리", $O$3-$V$2, -($P$3+$V$2))</f>
+        <v>3.67</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="35"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1670,7 @@
         <v>0.3907902430555556</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E13" si="2">D5-C5</f>
+        <f t="shared" ref="E5:E13" si="0">D5-C5</f>
         <v>5.2430555556037817E-6</v>
       </c>
       <c r="F5" s="6">
@@ -1629,7 +1680,7 @@
         <v>0.39111098379629627</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H13" si="3">G5-F5</f>
+        <f t="shared" ref="H5:H13" si="1">G5-F5</f>
         <v>3.1164351851847849E-4</v>
       </c>
       <c r="I5" s="5">
@@ -1638,41 +1689,49 @@
       <c r="J5" s="5">
         <v>4165</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="25">
         <v>0.76</v>
       </c>
       <c r="L5" s="5">
         <v>2266</v>
       </c>
-      <c r="M5" s="39"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" si="0"/>
-        <v>4326</v>
+        <f t="shared" ref="O5:O13" si="2">I5+((I5/100)*O$3)</f>
+        <v>4284.8</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" si="1"/>
-        <v>3727.6750000000002</v>
+        <f t="shared" ref="P5:P13" si="3">I5-((I5/100)*P$3)</f>
+        <v>3955.2</v>
       </c>
       <c r="Q5" s="12">
         <v>4400</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="21">
         <f t="shared" ref="R5:R13" si="4">((Q5-$I5)*100/$I5)</f>
         <v>6.7961165048543686</v>
       </c>
       <c r="S5" s="13">
         <v>4050</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <f t="shared" ref="T5:T13" si="5">((S5-$I5)*100/$I5)</f>
         <v>-1.6990291262135921</v>
       </c>
+      <c r="U5" s="4" t="str">
+        <f t="shared" ref="U5:U13" si="6">IF( P5&lt;=S5, IF(O5&lt;=Q5, "승리", "패배"), "패배")</f>
+        <v>승리</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" ref="V5:V13" si="7">IF(U5="승리", $O$3-$V$2, -($P$3+$V$2))</f>
+        <v>3.67</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1683,7 +1742,7 @@
         <v>0.39433207175925927</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.4467592592826151E-6</v>
       </c>
       <c r="F6" s="6">
@@ -1693,7 +1752,7 @@
         <v>0.39474612268518516</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.104398148148114E-4</v>
       </c>
       <c r="I6" s="5">
@@ -1702,41 +1761,49 @@
       <c r="J6" s="5">
         <v>11450</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="25">
         <v>1</v>
       </c>
       <c r="L6" s="5">
         <v>2927</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="0"/>
-        <v>11865</v>
+        <f t="shared" si="2"/>
+        <v>11752</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" si="1"/>
-        <v>10247.75</v>
+        <f t="shared" si="3"/>
+        <v>10848</v>
       </c>
       <c r="Q6" s="12">
         <v>11900</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="21">
         <f t="shared" si="4"/>
         <v>5.3097345132743365</v>
       </c>
       <c r="S6" s="13">
         <v>9960</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="21">
         <f t="shared" si="5"/>
         <v>-11.858407079646017</v>
       </c>
+      <c r="U6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>패배</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="7"/>
+        <v>-4.33</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="35"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1814,7 @@
         <v>0.41149332175925929</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.2847222222722721E-6</v>
       </c>
       <c r="F7" s="6">
@@ -1757,7 +1824,7 @@
         <v>0.41153013888888884</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.3043981481452036E-5</v>
       </c>
       <c r="I7" s="5">
@@ -1766,41 +1833,49 @@
       <c r="J7" s="5">
         <v>3580</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="25">
         <v>0.8</v>
       </c>
       <c r="L7" s="5">
         <v>2378</v>
       </c>
-      <c r="M7" s="39"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O7" s="12">
-        <f t="shared" si="0"/>
-        <v>3717</v>
+        <f t="shared" si="2"/>
+        <v>3681.6</v>
       </c>
       <c r="P7" s="12">
-        <f t="shared" si="1"/>
-        <v>3204.1</v>
+        <f t="shared" si="3"/>
+        <v>3398.4</v>
       </c>
       <c r="Q7" s="12">
         <v>3765</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <f t="shared" si="4"/>
         <v>6.3559322033898304</v>
       </c>
       <c r="S7" s="13">
         <v>3340</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="21">
         <f t="shared" si="5"/>
         <v>-5.6497175141242941</v>
       </c>
+      <c r="U7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>패배</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="7"/>
+        <v>-4.33</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="35"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1886,7 @@
         <v>0.42578309027777778</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.4467592592826151E-6</v>
       </c>
       <c r="F8" s="6">
@@ -1821,7 +1896,7 @@
         <v>0.44397582175925926</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8189340277777744E-2</v>
       </c>
       <c r="I8" s="5">
@@ -1830,41 +1905,49 @@
       <c r="J8" s="7">
         <v>4375</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="26">
         <v>0.71</v>
       </c>
       <c r="L8" s="7">
         <v>2120</v>
       </c>
-      <c r="M8" s="39"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O8" s="12">
-        <f t="shared" si="0"/>
-        <v>4546.5</v>
+        <f t="shared" si="2"/>
+        <v>4503.2</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" si="1"/>
-        <v>3915.625</v>
+        <f t="shared" si="3"/>
+        <v>4156.8</v>
       </c>
       <c r="Q8" s="12">
         <v>4735</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="21">
         <f t="shared" si="4"/>
         <v>9.3533487297921472</v>
       </c>
       <c r="S8" s="13">
         <v>4265</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="21">
         <f t="shared" si="5"/>
         <v>-1.5011547344110854</v>
       </c>
+      <c r="U8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="7"/>
+        <v>3.67</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -1875,7 +1958,7 @@
         <v>0.46740186342592588</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.2615740739851944E-6</v>
       </c>
       <c r="F9" s="9">
@@ -1885,7 +1968,7 @@
         <v>0.46787874999999995</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.7388888888888481E-4</v>
       </c>
       <c r="I9" s="10">
@@ -1894,41 +1977,49 @@
       <c r="J9" s="11">
         <v>1515</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="27">
         <v>-2.89</v>
       </c>
       <c r="L9" s="11">
         <v>-8632</v>
       </c>
-      <c r="M9" s="39"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="12">
-        <f t="shared" si="0"/>
-        <v>1632.75</v>
+        <f t="shared" si="2"/>
+        <v>1617.2</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" si="1"/>
-        <v>1355.925</v>
+        <f t="shared" si="3"/>
+        <v>1492.8</v>
       </c>
       <c r="Q9" s="12">
         <v>1715</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="21">
         <f t="shared" si="4"/>
         <v>10.289389067524116</v>
       </c>
       <c r="S9" s="13">
         <v>1500</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="21">
         <f t="shared" si="5"/>
         <v>-3.536977491961415</v>
       </c>
+      <c r="U9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="7"/>
+        <v>3.67</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="35"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +2030,7 @@
         <v>0.48526768518518515</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.8789351851847842E-4</v>
       </c>
       <c r="F10" s="6">
@@ -1949,7 +2040,7 @@
         <v>0.48622261574074077</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.5166666666668398E-4</v>
       </c>
       <c r="I10" s="5">
@@ -1958,41 +2049,49 @@
       <c r="J10" s="7">
         <v>3665</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="26">
         <v>0.77</v>
       </c>
       <c r="L10" s="7">
         <v>2299</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" si="0"/>
-        <v>3806.25</v>
+        <f t="shared" si="2"/>
+        <v>3770</v>
       </c>
       <c r="P10" s="12">
-        <f t="shared" si="1"/>
-        <v>3280.1750000000002</v>
+        <f t="shared" si="3"/>
+        <v>3480</v>
       </c>
       <c r="Q10" s="12">
         <v>3950</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="21">
         <f t="shared" si="4"/>
         <v>8.9655172413793096</v>
       </c>
       <c r="S10" s="13">
         <v>3580</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="21">
         <f t="shared" si="5"/>
         <v>-1.2413793103448276</v>
       </c>
+      <c r="U10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="7"/>
+        <v>3.67</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="35"/>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2003,7 +2102,7 @@
         <v>0.49759269675925927</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.1643518518521532E-6</v>
       </c>
       <c r="F11" s="6">
@@ -2013,7 +2112,7 @@
         <v>0.49778790509259258</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.9177083333332678E-4</v>
       </c>
       <c r="I11" s="5">
@@ -2022,41 +2121,49 @@
       <c r="J11" s="7">
         <v>8960</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="26">
         <v>0.68</v>
       </c>
       <c r="L11" s="7">
         <v>2003</v>
       </c>
-      <c r="M11" s="39"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" si="0"/>
-        <v>9313.5</v>
+        <f t="shared" si="2"/>
+        <v>9224.7999999999993</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" si="1"/>
-        <v>8019.2</v>
+        <f t="shared" si="3"/>
+        <v>8515.2000000000007</v>
       </c>
       <c r="Q11" s="12">
         <v>9750</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="21">
         <f t="shared" si="4"/>
         <v>9.9210822998872601</v>
       </c>
       <c r="S11" s="13">
         <v>8800</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="21">
         <f t="shared" si="5"/>
         <v>-0.78917700112739575</v>
       </c>
+      <c r="U11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="7"/>
+        <v>3.67</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="35"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2174,7 @@
         <v>0.56084409722222228</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.5115740741599168E-6</v>
       </c>
       <c r="F12" s="6">
@@ -2077,7 +2184,7 @@
         <v>0.56275040509259255</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.901284722222174E-3</v>
       </c>
       <c r="I12" s="5">
@@ -2086,41 +2193,49 @@
       <c r="J12" s="7">
         <v>5130</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="26">
         <v>0.65</v>
       </c>
       <c r="L12" s="7">
         <v>1962</v>
       </c>
-      <c r="M12" s="39"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="14" t="s">
         <v>24</v>
       </c>
       <c r="O12" s="12">
-        <f t="shared" si="0"/>
-        <v>5334</v>
+        <f t="shared" si="2"/>
+        <v>5283.2</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="1"/>
-        <v>4591.3500000000004</v>
+        <f t="shared" si="3"/>
+        <v>4876.8</v>
       </c>
       <c r="Q12" s="12">
         <v>5190</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="21">
         <f t="shared" si="4"/>
         <v>2.1653543307086616</v>
       </c>
       <c r="S12" s="13">
         <v>4385</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="21">
         <f t="shared" si="5"/>
         <v>-13.681102362204724</v>
       </c>
+      <c r="U12" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>패배</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="7"/>
+        <v>-4.33</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="35"/>
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2246,7 @@
         <v>0.59112884259259257</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.0995370369748514E-6</v>
       </c>
       <c r="F13" s="9">
@@ -2141,7 +2256,7 @@
         <v>0.59262534722222215</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.4932754629628509E-3</v>
       </c>
       <c r="I13" s="10">
@@ -2150,51 +2265,59 @@
       <c r="J13" s="11">
         <v>7550</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="27">
         <v>-2.9</v>
       </c>
       <c r="L13" s="11">
         <v>-8540</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="0"/>
-        <v>8137.5</v>
+        <f t="shared" si="2"/>
+        <v>8060</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" si="1"/>
-        <v>6757.25</v>
+        <f t="shared" si="3"/>
+        <v>7440</v>
       </c>
       <c r="Q13" s="12">
         <v>8100</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="21">
         <f t="shared" si="4"/>
         <v>4.5161290322580649</v>
       </c>
       <c r="S13" s="13">
         <v>7500</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="21">
         <f t="shared" si="5"/>
         <v>-3.225806451612903</v>
       </c>
+      <c r="U13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="7"/>
+        <v>3.67</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:22" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2206,52 +2329,69 @@
         <f>SUM(L4:L13)</f>
         <v>796</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="42">
         <f>AVERAGE(R4:R13)</f>
         <v>7.6899056828879706</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="42">
         <f>AVERAGE(T4:T13)</f>
         <v>-3.5968322213930826</v>
       </c>
+      <c r="U14" s="46">
+        <f>COUNTIF(U4:U13, "승리")/COUNTA(U4:U13)</f>
+        <v>0.7</v>
+      </c>
+      <c r="V14" s="4">
+        <f>AVERAGE(V4:V13)</f>
+        <v>1.27</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="20"/>
     </row>
-    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" spans="24:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="24:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="X19" s="2"/>
+    </row>
+    <row r="30" spans="24:24" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="M2:M14"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A1:T1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="U14" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>파인디엔씨</t>
   </si>
@@ -87,30 +87,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>상승</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>하락</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>매수시점이후</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -160,6 +136,78 @@
   </si>
   <si>
     <t>Abot 10월 결산</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 종목당 할당 금액 : 30만원 / 매수매도범위 : 상승 1%, 하락 2.5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종
+수익률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>승패
+승률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한솔PNS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바른손이앤에이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이제이엠게임즈</t>
+  </si>
+  <si>
+    <t>아이이</t>
+  </si>
+  <si>
+    <t>동양물산</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>에스티아이</t>
+  </si>
+  <si>
+    <t>제이엠아이</t>
+  </si>
+  <si>
+    <t>파라텍</t>
+  </si>
+  <si>
+    <t>코리아에스이</t>
+  </si>
+  <si>
+    <t>한국팩키지</t>
+  </si>
+  <si>
+    <t>위노바</t>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>▽</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -168,29 +216,26 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>금액</t>
+    <t>먼저만난
+상승하강</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>매수</t>
+    <t>먼저
+만난 것</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>매도</t>
+    <t>▲</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>※ 종목당 할당 금액 : 30만원 / 매수매도범위 : 상승 1%, 하락 2.5%</t>
+    <t>▲</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최종
-수익률</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>승패
-승률</t>
+    <t>※ 종목당 할당 금액 : 30만원 / 매수매도범위 : 상승 1%, 하락 2.5%
+검색식 수정 : 검색범위 10%부터 -&gt; 9%부터, 코스닥에서 코스피, 코스닥으로 변경</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +250,7 @@
     <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +466,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,12 +676,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -966,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,34 +1079,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1050,6 +1105,84 @@
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="34" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="34" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1060,13 +1193,28 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,40 +1223,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,16 +1551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.2109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
@@ -1451,143 +1569,147 @@
     <col min="9" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="7.140625" customWidth="1"/>
-    <col min="21" max="22" width="7.140625" style="2" customWidth="1"/>
+    <col min="14" max="21" width="8.35546875" customWidth="1"/>
+    <col min="22" max="23" width="8.35546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:23" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="60">
+        <v>42650</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="19">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
+      <c r="W3" s="25" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34">
-        <v>42650</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="24">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="18">
-        <v>4</v>
-      </c>
-      <c r="P3" s="18">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="61"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1617,49 +1739,52 @@
       <c r="J4" s="5">
         <v>5040</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="20">
         <v>0.67</v>
       </c>
       <c r="L4" s="5">
         <v>2013</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="4" t="s">
-        <v>19</v>
+      <c r="M4" s="58"/>
+      <c r="N4" s="12">
+        <f t="shared" ref="N4:N13" si="0">I4+((I4/100)*N$3)</f>
+        <v>5114.75</v>
       </c>
       <c r="O4" s="12">
-        <f>I4+((I4/100)*O$3)</f>
-        <v>5189.6000000000004</v>
+        <f t="shared" ref="O4:O13" si="1">I4-((I4/100)*O$3)</f>
+        <v>4940.1000000000004</v>
       </c>
       <c r="P4" s="12">
-        <f>I4-((I4/100)*P$3)</f>
-        <v>4790.3999999999996</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>5650</v>
-      </c>
-      <c r="R4" s="21">
-        <f>((Q4-$I4)*100/$I4)</f>
-        <v>13.226452905811623</v>
-      </c>
-      <c r="S4" s="13">
+        <v>5830</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>((P4-$I4)*100/$I4)</f>
+        <v>16.83366733466934</v>
+      </c>
+      <c r="R4" s="13">
         <v>5350</v>
       </c>
-      <c r="T4" s="21">
-        <f>((S4-$I4)*100/$I4)</f>
+      <c r="S4" s="16">
+        <f>((R4-$I4)*100/$I4)</f>
         <v>7.214428857715431</v>
       </c>
-      <c r="U4" s="4" t="str">
-        <f>IF( P4&lt;=S4, IF(O4&lt;=Q4, "승리", "패배"), "패배")</f>
+      <c r="T4" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f>IF(U4="▲",IF(N4&lt;=P4,"승리","패배"),IF(O4&gt;=R4,"패배",IF(N4&lt;=P4,"승리","패배")))</f>
         <v>승리</v>
       </c>
-      <c r="V4" s="4">
-        <f>IF(U4="승리", $O$3-$V$2, -($P$3+$V$2))</f>
-        <v>3.67</v>
+      <c r="W4" s="4">
+        <f>IF(V4="승리", $N$3-$W$2, -($O$3+$W$2))</f>
+        <v>2.17</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="61"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1670,7 +1795,7 @@
         <v>0.3907902430555556</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E13" si="0">D5-C5</f>
+        <f t="shared" ref="E5:E13" si="2">D5-C5</f>
         <v>5.2430555556037817E-6</v>
       </c>
       <c r="F5" s="6">
@@ -1680,7 +1805,7 @@
         <v>0.39111098379629627</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H13" si="1">G5-F5</f>
+        <f t="shared" ref="H5:H13" si="3">G5-F5</f>
         <v>3.1164351851847849E-4</v>
       </c>
       <c r="I5" s="5">
@@ -1689,49 +1814,52 @@
       <c r="J5" s="5">
         <v>4165</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="20">
         <v>0.76</v>
       </c>
       <c r="L5" s="5">
         <v>2266</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
+      <c r="M5" s="58"/>
+      <c r="N5" s="12">
+        <f t="shared" si="0"/>
+        <v>4223</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O13" si="2">I5+((I5/100)*O$3)</f>
-        <v>4284.8</v>
+        <f t="shared" si="1"/>
+        <v>4078.8</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" ref="P5:P13" si="3">I5-((I5/100)*P$3)</f>
-        <v>3955.2</v>
-      </c>
-      <c r="Q5" s="12">
         <v>4400</v>
       </c>
-      <c r="R5" s="21">
-        <f t="shared" ref="R5:R13" si="4">((Q5-$I5)*100/$I5)</f>
+      <c r="Q5" s="16">
+        <f t="shared" ref="Q5:Q13" si="4">((P5-$I5)*100/$I5)</f>
         <v>6.7961165048543686</v>
       </c>
-      <c r="S5" s="13">
+      <c r="R5" s="13">
         <v>4050</v>
       </c>
-      <c r="T5" s="21">
-        <f t="shared" ref="T5:T13" si="5">((S5-$I5)*100/$I5)</f>
+      <c r="S5" s="16">
+        <f t="shared" ref="S5:S13" si="5">((R5-$I5)*100/$I5)</f>
         <v>-1.6990291262135921</v>
       </c>
-      <c r="U5" s="4" t="str">
-        <f t="shared" ref="U5:U13" si="6">IF( P5&lt;=S5, IF(O5&lt;=Q5, "승리", "패배"), "패배")</f>
-        <v>승리</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" ref="V5:V13" si="7">IF(U5="승리", $O$3-$V$2, -($P$3+$V$2))</f>
-        <v>3.67</v>
+      <c r="T5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ref="V5:V13" si="6">IF(U5="▲",IF(N5&lt;=P5,"승리","패배"),IF(O5&gt;=R5,"패배",IF(N5&lt;=P5,"승리","패배")))</f>
+        <v>패배</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" ref="W5:W13" si="7">IF(V5="승리", $N$3-$W$2, -($O$3+$W$2))</f>
+        <v>-1.33</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="35"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="61"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1870,7 @@
         <v>0.39433207175925927</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4467592592826151E-6</v>
       </c>
       <c r="F6" s="6">
@@ -1752,7 +1880,7 @@
         <v>0.39474612268518516</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.104398148148114E-4</v>
       </c>
       <c r="I6" s="5">
@@ -1761,619 +1889,1884 @@
       <c r="J6" s="5">
         <v>11450</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="20">
         <v>1</v>
       </c>
       <c r="L6" s="5">
         <v>2927</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
+      <c r="M6" s="58"/>
+      <c r="N6" s="12">
+        <f t="shared" si="0"/>
+        <v>11582.5</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="2"/>
-        <v>11752</v>
+        <f t="shared" si="1"/>
+        <v>11187</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" si="3"/>
-        <v>10848</v>
-      </c>
-      <c r="Q6" s="12">
         <v>11900</v>
       </c>
-      <c r="R6" s="21">
+      <c r="Q6" s="16">
         <f t="shared" si="4"/>
         <v>5.3097345132743365</v>
       </c>
-      <c r="S6" s="13">
+      <c r="R6" s="13">
         <v>9960</v>
       </c>
-      <c r="T6" s="21">
+      <c r="S6" s="16">
         <f t="shared" si="5"/>
         <v>-11.858407079646017</v>
       </c>
-      <c r="U6" s="4" t="str">
+      <c r="T6" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="7"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="61"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.41149203703703702</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.41149332175925929</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2847222222722721E-6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.41150709490740739</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.41153013888888884</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3043981481452036E-5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3540</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3580</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2378</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="12">
+        <f t="shared" si="0"/>
+        <v>3628.5</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="1"/>
+        <v>3504.6</v>
+      </c>
+      <c r="P7" s="12">
+        <v>3765</v>
+      </c>
+      <c r="Q7" s="16">
+        <f t="shared" si="4"/>
+        <v>6.3559322033898304</v>
+      </c>
+      <c r="R7" s="13">
+        <v>3340</v>
+      </c>
+      <c r="S7" s="16">
+        <f t="shared" si="5"/>
+        <v>-5.6497175141242941</v>
+      </c>
+      <c r="T7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="7"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="61"/>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.42578164351851849</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.42578309027777778</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4467592592826151E-6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.42578648148148152</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.44397582175925926</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8189340277777744E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4330</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4375</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2120</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="12">
+        <f t="shared" si="0"/>
+        <v>4438.25</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="1"/>
+        <v>4286.7</v>
+      </c>
+      <c r="P8" s="12">
+        <v>4735</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="4"/>
+        <v>9.3533487297921472</v>
+      </c>
+      <c r="R8" s="13">
+        <v>4030</v>
+      </c>
+      <c r="S8" s="16">
+        <f t="shared" si="5"/>
+        <v>-6.9284064665127021</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="7"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="61"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.46740060185185189</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.46740186342592588</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2615740739851944E-6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.46740486111111107</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.46787874999999995</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="3"/>
+        <v>4.7388888888888481E-4</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1555</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1515</v>
+      </c>
+      <c r="K9" s="22">
+        <v>-2.89</v>
+      </c>
+      <c r="L9" s="11">
+        <v>-8632</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="12">
+        <f t="shared" si="0"/>
+        <v>1593.875</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="1"/>
+        <v>1539.45</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1715</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="4"/>
+        <v>10.289389067524116</v>
+      </c>
+      <c r="R9" s="13">
+        <v>1500</v>
+      </c>
+      <c r="S9" s="16">
+        <f t="shared" si="5"/>
+        <v>-3.536977491961415</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="4" t="str">
         <f t="shared" si="6"/>
         <v>패배</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W9" s="4">
         <f t="shared" si="7"/>
-        <v>-4.33</v>
+        <v>-1.33</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35"/>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.41149203703703702</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.41149332175925929</v>
-      </c>
-      <c r="E7" s="6">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="61"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.48487979166666667</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.48526768518518515</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>3.8789351851847842E-4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.48527094907407409</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.48622261574074077</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>9.5166666666668398E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3625</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3665</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2299</v>
+      </c>
+      <c r="M10" s="58"/>
+      <c r="N10" s="12">
         <f t="shared" si="0"/>
-        <v>1.2847222222722721E-6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.41150709490740739</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.41153013888888884</v>
-      </c>
-      <c r="H7" s="6">
+        <v>3715.625</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="1"/>
-        <v>2.3043981481452036E-5</v>
-      </c>
-      <c r="I7" s="5">
-        <v>3540</v>
-      </c>
-      <c r="J7" s="5">
-        <v>3580</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="L7" s="5">
-        <v>2378</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="12">
+        <v>3588.75</v>
+      </c>
+      <c r="P10" s="12">
+        <v>3950</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="4"/>
+        <v>8.9655172413793096</v>
+      </c>
+      <c r="R10" s="13">
+        <v>3464</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" si="5"/>
+        <v>-4.4413793103448276</v>
+      </c>
+      <c r="T10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="7"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="61"/>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.49759053240740742</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.49759269675925927</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="2"/>
-        <v>3681.6</v>
-      </c>
-      <c r="P7" s="12">
+        <v>2.1643518518521532E-6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.49759613425925925</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.49778790509259258</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="3"/>
-        <v>3398.4</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>3765</v>
-      </c>
-      <c r="R7" s="21">
+        <v>1.9177083333332678E-4</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8870</v>
+      </c>
+      <c r="J11" s="7">
+        <v>8960</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2003</v>
+      </c>
+      <c r="M11" s="58"/>
+      <c r="N11" s="12">
+        <f t="shared" si="0"/>
+        <v>9091.75</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="1"/>
+        <v>8781.2999999999993</v>
+      </c>
+      <c r="P11" s="12">
+        <v>9750</v>
+      </c>
+      <c r="Q11" s="16">
         <f t="shared" si="4"/>
-        <v>6.3559322033898304</v>
-      </c>
-      <c r="S7" s="13">
-        <v>3340</v>
-      </c>
-      <c r="T7" s="21">
+        <v>9.9210822998872601</v>
+      </c>
+      <c r="R11" s="13">
+        <v>8800</v>
+      </c>
+      <c r="S11" s="16">
         <f t="shared" si="5"/>
-        <v>-5.6497175141242941</v>
-      </c>
-      <c r="U7" s="4" t="str">
+        <v>-0.78917700112739575</v>
+      </c>
+      <c r="T11" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>승리</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="7"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="61"/>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.56084158564814812</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.56084409722222228</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5115740741599168E-6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.56084912037037038</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.56275040509259255</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>1.901284722222174E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5080</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5130</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1962</v>
+      </c>
+      <c r="M12" s="58"/>
+      <c r="N12" s="12">
+        <f t="shared" si="0"/>
+        <v>5207</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="1"/>
+        <v>5029.2</v>
+      </c>
+      <c r="P12" s="12">
+        <v>5190</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="4"/>
+        <v>2.1653543307086616</v>
+      </c>
+      <c r="R12" s="13">
+        <v>4309</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="5"/>
+        <v>-15.177165354330709</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" s="4" t="str">
         <f t="shared" si="6"/>
         <v>패배</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W12" s="4">
         <f t="shared" si="7"/>
-        <v>-4.33</v>
+        <v>-1.33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="35"/>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.42578164351851849</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.42578309027777778</v>
-      </c>
-      <c r="E8" s="6">
+    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="61"/>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.5911277430555556</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.59112884259259257</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="2"/>
+        <v>1.0995370369748514E-6</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.5911320717592593</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.59262534722222215</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="3"/>
+        <v>1.4932754629628509E-3</v>
+      </c>
+      <c r="I13" s="10">
+        <v>7750</v>
+      </c>
+      <c r="J13" s="11">
+        <v>7550</v>
+      </c>
+      <c r="K13" s="22">
+        <v>-2.9</v>
+      </c>
+      <c r="L13" s="11">
+        <v>-8540</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="12">
         <f t="shared" si="0"/>
-        <v>1.4467592592826151E-6</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.42578648148148152</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.44397582175925926</v>
-      </c>
-      <c r="H8" s="6">
+        <v>7943.75</v>
+      </c>
+      <c r="O13" s="12">
         <f t="shared" si="1"/>
-        <v>1.8189340277777744E-2</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4330</v>
-      </c>
-      <c r="J8" s="7">
-        <v>4375</v>
-      </c>
-      <c r="K8" s="26">
-        <v>0.71</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2120</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="2"/>
-        <v>4503.2</v>
-      </c>
-      <c r="P8" s="12">
-        <f t="shared" si="3"/>
-        <v>4156.8</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>4735</v>
-      </c>
-      <c r="R8" s="21">
+        <v>7672.5</v>
+      </c>
+      <c r="P13" s="12">
+        <v>8100</v>
+      </c>
+      <c r="Q13" s="16">
         <f t="shared" si="4"/>
-        <v>9.3533487297921472</v>
-      </c>
-      <c r="S8" s="13">
-        <v>4265</v>
-      </c>
-      <c r="T8" s="21">
+        <v>4.5161290322580649</v>
+      </c>
+      <c r="R13" s="13">
+        <v>7360</v>
+      </c>
+      <c r="S13" s="16">
         <f t="shared" si="5"/>
-        <v>-1.5011547344110854</v>
-      </c>
-      <c r="U8" s="4" t="str">
+        <v>-5.032258064516129</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="4" t="str">
         <f t="shared" si="6"/>
         <v>승리</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W13" s="4">
         <f t="shared" si="7"/>
-        <v>3.67</v>
+        <v>2.17</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35"/>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.46740060185185189</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.46740186342592588</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2615740739851944E-6</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.46740486111111107</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.46787874999999995</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="1"/>
-        <v>4.7388888888888481E-4</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1555</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1515</v>
-      </c>
-      <c r="K9" s="27">
-        <v>-2.89</v>
-      </c>
-      <c r="L9" s="11">
-        <v>-8632</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="2"/>
-        <v>1617.2</v>
-      </c>
-      <c r="P9" s="12">
-        <f t="shared" si="3"/>
-        <v>1492.8</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>1715</v>
-      </c>
-      <c r="R9" s="21">
-        <f t="shared" si="4"/>
-        <v>10.289389067524116</v>
-      </c>
-      <c r="S9" s="13">
-        <v>1500</v>
-      </c>
-      <c r="T9" s="21">
-        <f t="shared" si="5"/>
-        <v>-3.536977491961415</v>
-      </c>
-      <c r="U9" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>승리</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" si="7"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="35"/>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.48487979166666667</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.48526768518518515</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>3.8789351851847842E-4</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.48527094907407409</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.48622261574074077</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>9.5166666666668398E-4</v>
-      </c>
-      <c r="I10" s="5">
-        <v>3625</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3665</v>
-      </c>
-      <c r="K10" s="26">
-        <v>0.77</v>
-      </c>
-      <c r="L10" s="7">
-        <v>2299</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="2"/>
-        <v>3770</v>
-      </c>
-      <c r="P10" s="12">
-        <f t="shared" si="3"/>
-        <v>3480</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>3950</v>
-      </c>
-      <c r="R10" s="21">
-        <f t="shared" si="4"/>
-        <v>8.9655172413793096</v>
-      </c>
-      <c r="S10" s="13">
-        <v>3580</v>
-      </c>
-      <c r="T10" s="21">
-        <f t="shared" si="5"/>
-        <v>-1.2413793103448276</v>
-      </c>
-      <c r="U10" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>승리</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="7"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35"/>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.49759053240740742</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.49759269675925927</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1643518518521532E-6</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.49759613425925925</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.49778790509259258</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>1.9177083333332678E-4</v>
-      </c>
-      <c r="I11" s="5">
-        <v>8870</v>
-      </c>
-      <c r="J11" s="7">
-        <v>8960</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0.68</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2003</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="2"/>
-        <v>9224.7999999999993</v>
-      </c>
-      <c r="P11" s="12">
-        <f t="shared" si="3"/>
-        <v>8515.2000000000007</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>9750</v>
-      </c>
-      <c r="R11" s="21">
-        <f t="shared" si="4"/>
-        <v>9.9210822998872601</v>
-      </c>
-      <c r="S11" s="13">
-        <v>8800</v>
-      </c>
-      <c r="T11" s="21">
-        <f t="shared" si="5"/>
-        <v>-0.78917700112739575</v>
-      </c>
-      <c r="U11" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>승리</v>
-      </c>
-      <c r="V11" s="4">
-        <f t="shared" si="7"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="35"/>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.56084158564814812</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.56084409722222228</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5115740741599168E-6</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.56084912037037038</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.56275040509259255</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>1.901284722222174E-3</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5080</v>
-      </c>
-      <c r="J12" s="7">
-        <v>5130</v>
-      </c>
-      <c r="K12" s="26">
-        <v>0.65</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1962</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="14" t="s">
+    <row r="14" spans="1:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="12">
-        <f t="shared" si="2"/>
-        <v>5283.2</v>
-      </c>
-      <c r="P12" s="12">
-        <f t="shared" si="3"/>
-        <v>4876.8</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>5190</v>
-      </c>
-      <c r="R12" s="21">
-        <f t="shared" si="4"/>
-        <v>2.1653543307086616</v>
-      </c>
-      <c r="S12" s="13">
-        <v>4385</v>
-      </c>
-      <c r="T12" s="21">
-        <f t="shared" si="5"/>
-        <v>-13.681102362204724</v>
-      </c>
-      <c r="U12" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>패배</v>
-      </c>
-      <c r="V12" s="4">
-        <f t="shared" si="7"/>
-        <v>-4.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35"/>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.5911277430555556</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.59112884259259257</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0995370369748514E-6</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.5911320717592593</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.59262534722222215</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" si="1"/>
-        <v>1.4932754629628509E-3</v>
-      </c>
-      <c r="I13" s="10">
-        <v>7750</v>
-      </c>
-      <c r="J13" s="11">
-        <v>7550</v>
-      </c>
-      <c r="K13" s="27">
-        <v>-2.9</v>
-      </c>
-      <c r="L13" s="11">
-        <v>-8540</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="2"/>
-        <v>8060</v>
-      </c>
-      <c r="P13" s="12">
-        <f t="shared" si="3"/>
-        <v>7440</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>8100</v>
-      </c>
-      <c r="R13" s="21">
-        <f t="shared" si="4"/>
-        <v>4.5161290322580649</v>
-      </c>
-      <c r="S13" s="13">
-        <v>7500</v>
-      </c>
-      <c r="T13" s="21">
-        <f t="shared" si="5"/>
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="U13" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>승리</v>
-      </c>
-      <c r="V13" s="4">
-        <f t="shared" si="7"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="15">
+      <c r="K14" s="39">
         <f>SUM(K4:K13)/100</f>
         <v>2.5000000000000044E-3</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="38">
         <f>SUM(L4:L13)</f>
         <v>796</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="42">
-        <f>AVERAGE(R4:R13)</f>
-        <v>7.6899056828879706</v>
-      </c>
-      <c r="S14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="24">
+        <f>AVERAGE(Q4:Q13)</f>
+        <v>8.0506271257737438</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="24">
+        <f>AVERAGE(S4:S13)</f>
+        <v>-4.7898088551061653</v>
+      </c>
+      <c r="T14" s="48">
+        <f>COUNTIF(T4:T13, "▲")/COUNTA(T4:T13)</f>
+        <v>0.9</v>
+      </c>
+      <c r="U14" s="48">
+        <f>COUNTIF(U4:U13, "▲")/COUNTA(U4:U13)</f>
+        <v>0.7</v>
+      </c>
+      <c r="V14" s="26">
+        <f>COUNTIF(V4:V13, "승리")/COUNTA(V4:V13)</f>
+        <v>0.7</v>
+      </c>
+      <c r="W14" s="4">
+        <f>AVERAGE(W4:W13)</f>
+        <v>1.1199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="4.8499999999999996" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+    </row>
+    <row r="16" spans="1:23" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="60">
+        <v>42653</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="57"/>
+      <c r="N16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="23">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="42">
-        <f>AVERAGE(T4:T13)</f>
-        <v>-3.5968322213930826</v>
-      </c>
-      <c r="U14" s="46">
-        <f>COUNTIF(U4:U13, "승리")/COUNTA(U4:U13)</f>
-        <v>0.7</v>
-      </c>
-      <c r="V14" s="4">
-        <f>AVERAGE(V4:V13)</f>
-        <v>1.27</v>
-      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="20"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="61"/>
+      <c r="B18" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="41">
+        <v>0.37656221064814815</v>
+      </c>
+      <c r="D18" s="41">
+        <v>0.37656221064814815</v>
+      </c>
+      <c r="E18" s="41">
+        <f>D18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0.37656221064814815</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0.37656221064814815</v>
+      </c>
+      <c r="H18" s="41">
+        <f>G18-F18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="40">
+        <v>5600</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
+        <v>0</v>
+      </c>
+      <c r="L18" s="40">
+        <v>0</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="12">
+        <f>I18+((I18/100)*N$17)</f>
+        <v>5740</v>
+      </c>
+      <c r="O18" s="12">
+        <f>I18-((I18/100)*O$17)</f>
+        <v>5544</v>
+      </c>
+      <c r="P18" s="12">
+        <v>5740</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>((P18-$I18)*100/$I18)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R18" s="13">
+        <v>4280</v>
+      </c>
+      <c r="S18" s="16">
+        <f>((R18-$I18)*100/$I18)</f>
+        <v>-23.571428571428573</v>
+      </c>
+      <c r="T18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" s="4" t="str">
+        <f t="shared" ref="V18:V31" si="8">IF(U18="▲",IF(N18&lt;=P18,"승리","패배"),IF(O18&gt;=R18,"패배",IF(N18&lt;=P18,"승리","패배")))</f>
+        <v>승리</v>
+      </c>
+      <c r="W18" s="4">
+        <f>IF(V18="승리", $N$17-$W$2, -($O$17+$W$2))</f>
+        <v>2.17</v>
+      </c>
     </row>
-    <row r="18" spans="24:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="X18" s="2"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="61"/>
+      <c r="B19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="41">
+        <v>0.3771644097222222</v>
+      </c>
+      <c r="D19" s="41">
+        <v>0.3771644097222222</v>
+      </c>
+      <c r="E19" s="41">
+        <f t="shared" ref="E19:E27" si="9">D19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="41">
+        <v>0.3771644097222222</v>
+      </c>
+      <c r="G19" s="41">
+        <v>0.3771644097222222</v>
+      </c>
+      <c r="H19" s="41">
+        <f t="shared" ref="H19:H27" si="10">G19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="40">
+        <v>2930</v>
+      </c>
+      <c r="J19" s="40">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
+        <v>0</v>
+      </c>
+      <c r="M19" s="58"/>
+      <c r="N19" s="12">
+        <f t="shared" ref="N19:N31" si="11">I19+((I19/100)*N$17)</f>
+        <v>3003.25</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" ref="O19:O31" si="12">I19-((I19/100)*O$17)</f>
+        <v>2900.7</v>
+      </c>
+      <c r="P19" s="12">
+        <v>2975</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" ref="Q19:Q26" si="13">((P19-$I19)*100/$I19)</f>
+        <v>1.5358361774744027</v>
+      </c>
+      <c r="R19" s="13">
+        <v>2650</v>
+      </c>
+      <c r="S19" s="16">
+        <f t="shared" ref="S19:S26" si="14">((R19-$I19)*100/$I19)</f>
+        <v>-9.5563139931740615</v>
+      </c>
+      <c r="T19" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>패배</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" ref="W19:W31" si="15">IF(V19="승리", $N$17-$W$2, -($O$17+$W$2))</f>
+        <v>-1.33</v>
+      </c>
     </row>
-    <row r="19" spans="24:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="X19" s="2"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="61"/>
+      <c r="B20" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="41">
+        <v>0.38334341435185187</v>
+      </c>
+      <c r="D20" s="41">
+        <v>0.38334341435185187</v>
+      </c>
+      <c r="E20" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="41">
+        <v>0.38334341435185187</v>
+      </c>
+      <c r="G20" s="41">
+        <v>0.38334341435185187</v>
+      </c>
+      <c r="H20" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <v>3810</v>
+      </c>
+      <c r="J20" s="40">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
+        <v>0</v>
+      </c>
+      <c r="M20" s="58"/>
+      <c r="N20" s="12">
+        <f t="shared" si="11"/>
+        <v>3905.25</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="12"/>
+        <v>3771.9</v>
+      </c>
+      <c r="P20" s="12">
+        <v>4235</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="13"/>
+        <v>11.15485564304462</v>
+      </c>
+      <c r="R20" s="13">
+        <v>3735</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="14"/>
+        <v>-1.9685039370078741</v>
+      </c>
+      <c r="T20" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>패배</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="15"/>
+        <v>-1.33</v>
+      </c>
     </row>
-    <row r="30" spans="24:24" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="61"/>
+      <c r="B21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="41">
+        <v>0.40115490740740739</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0.40115490740740739</v>
+      </c>
+      <c r="E21" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="41">
+        <v>0.40115490740740739</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0.40115490740740739</v>
+      </c>
+      <c r="H21" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="40">
+        <v>5570</v>
+      </c>
+      <c r="J21" s="40">
+        <v>0</v>
+      </c>
+      <c r="K21" s="42">
+        <v>0</v>
+      </c>
+      <c r="L21" s="40">
+        <v>0</v>
+      </c>
+      <c r="M21" s="58"/>
+      <c r="N21" s="12">
+        <f t="shared" si="11"/>
+        <v>5709.25</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="12"/>
+        <v>5514.3</v>
+      </c>
+      <c r="P21" s="12">
+        <v>5900</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="13"/>
+        <v>5.9245960502693</v>
+      </c>
+      <c r="R21" s="13">
+        <v>5399</v>
+      </c>
+      <c r="S21" s="16">
+        <f t="shared" si="14"/>
+        <v>-3.0700179533213645</v>
+      </c>
+      <c r="T21" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>승리</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="15"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="61"/>
+      <c r="B22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0.43719008101851853</v>
+      </c>
+      <c r="D22" s="41">
+        <v>0.43719008101851853</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="41">
+        <v>0.43719008101851853</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0.43719008101851853</v>
+      </c>
+      <c r="H22" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
+        <v>1745</v>
+      </c>
+      <c r="J22" s="43">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
+        <v>0</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0</v>
+      </c>
+      <c r="M22" s="58"/>
+      <c r="N22" s="12">
+        <f t="shared" si="11"/>
+        <v>1788.625</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="12"/>
+        <v>1727.55</v>
+      </c>
+      <c r="P22" s="12">
+        <v>1725</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="13"/>
+        <v>-1.1461318051575931</v>
+      </c>
+      <c r="R22" s="13">
+        <v>1625</v>
+      </c>
+      <c r="S22" s="16">
+        <f t="shared" si="14"/>
+        <v>-6.8767908309455583</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>패배</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="15"/>
+        <v>-1.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="61"/>
+      <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0.44663356481481481</v>
+      </c>
+      <c r="D23" s="41">
+        <v>0.44663356481481481</v>
+      </c>
+      <c r="E23" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="41">
+        <v>0.44663356481481481</v>
+      </c>
+      <c r="G23" s="41">
+        <v>0.44663356481481481</v>
+      </c>
+      <c r="H23" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1020</v>
+      </c>
+      <c r="J23" s="43">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
+        <v>0</v>
+      </c>
+      <c r="L23" s="43">
+        <v>0</v>
+      </c>
+      <c r="M23" s="58"/>
+      <c r="N23" s="12">
+        <f t="shared" si="11"/>
+        <v>1045.5</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="12"/>
+        <v>1009.8</v>
+      </c>
+      <c r="P23" s="12">
+        <v>1045</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="13"/>
+        <v>2.4509803921568629</v>
+      </c>
+      <c r="R23" s="13">
+        <v>937</v>
+      </c>
+      <c r="S23" s="16">
+        <f t="shared" si="14"/>
+        <v>-8.1372549019607838</v>
+      </c>
+      <c r="T23" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>패배</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="15"/>
+        <v>-1.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="61"/>
+      <c r="B24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="41">
+        <v>0.46312246527777773</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0.46312246527777773</v>
+      </c>
+      <c r="E24" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="41">
+        <v>0.46312246527777773</v>
+      </c>
+      <c r="G24" s="41">
+        <v>0.46312246527777773</v>
+      </c>
+      <c r="H24" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
+        <v>3365</v>
+      </c>
+      <c r="J24" s="43">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42">
+        <v>0</v>
+      </c>
+      <c r="L24" s="43">
+        <v>0</v>
+      </c>
+      <c r="M24" s="58"/>
+      <c r="N24" s="12">
+        <f t="shared" si="11"/>
+        <v>3449.125</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="12"/>
+        <v>3331.35</v>
+      </c>
+      <c r="P24" s="12">
+        <v>3485</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="13"/>
+        <v>3.5661218424962855</v>
+      </c>
+      <c r="R24" s="13">
+        <v>3120</v>
+      </c>
+      <c r="S24" s="16">
+        <f t="shared" si="14"/>
+        <v>-7.2808320950965824</v>
+      </c>
+      <c r="T24" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>승리</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="15"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="61"/>
+      <c r="B25" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="41">
+        <v>0.51390546296296302</v>
+      </c>
+      <c r="D25" s="41">
+        <v>0.51390546296296302</v>
+      </c>
+      <c r="E25" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="41">
+        <v>0.51390546296296302</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0.51390546296296302</v>
+      </c>
+      <c r="H25" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="40">
+        <v>2145</v>
+      </c>
+      <c r="J25" s="43">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42">
+        <v>0</v>
+      </c>
+      <c r="L25" s="43">
+        <v>0</v>
+      </c>
+      <c r="M25" s="58"/>
+      <c r="N25" s="12">
+        <f t="shared" si="11"/>
+        <v>2198.625</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="12"/>
+        <v>2123.5500000000002</v>
+      </c>
+      <c r="P25" s="12">
+        <v>2175</v>
+      </c>
+      <c r="Q25" s="16">
+        <f t="shared" si="13"/>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="R25" s="13">
+        <v>2025</v>
+      </c>
+      <c r="S25" s="16">
+        <f t="shared" si="14"/>
+        <v>-5.5944055944055942</v>
+      </c>
+      <c r="T25" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>패배</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="15"/>
+        <v>-1.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="61"/>
+      <c r="B26" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="41">
+        <v>0.52166662037037037</v>
+      </c>
+      <c r="D26" s="41">
+        <v>0.52166662037037037</v>
+      </c>
+      <c r="E26" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="41">
+        <v>0.52166662037037037</v>
+      </c>
+      <c r="G26" s="41">
+        <v>0.52166662037037037</v>
+      </c>
+      <c r="H26" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="40">
+        <v>10800</v>
+      </c>
+      <c r="J26" s="43">
+        <v>0</v>
+      </c>
+      <c r="K26" s="42">
+        <v>0</v>
+      </c>
+      <c r="L26" s="43">
+        <v>0</v>
+      </c>
+      <c r="M26" s="58"/>
+      <c r="N26" s="12">
+        <f t="shared" si="11"/>
+        <v>11070</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="12"/>
+        <v>10692</v>
+      </c>
+      <c r="P26" s="12">
+        <v>11400</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="13"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="R26" s="13">
+        <v>10050</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="14"/>
+        <v>-6.9444444444444446</v>
+      </c>
+      <c r="T26" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>승리</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="15"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="61"/>
+      <c r="B27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="41">
+        <v>0.56307472222222221</v>
+      </c>
+      <c r="D27" s="41">
+        <v>0.56307472222222221</v>
+      </c>
+      <c r="E27" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="41">
+        <v>0.56307472222222221</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0.56307472222222221</v>
+      </c>
+      <c r="H27" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="40">
+        <v>1675</v>
+      </c>
+      <c r="J27" s="43">
+        <v>0</v>
+      </c>
+      <c r="K27" s="42">
+        <v>0</v>
+      </c>
+      <c r="L27" s="43">
+        <v>0</v>
+      </c>
+      <c r="M27" s="58"/>
+      <c r="N27" s="12">
+        <f t="shared" si="11"/>
+        <v>1716.875</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="12"/>
+        <v>1658.25</v>
+      </c>
+      <c r="P27" s="12">
+        <v>1700</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" ref="Q27:Q31" si="16">((P27-$I27)*100/$I27)</f>
+        <v>1.4925373134328359</v>
+      </c>
+      <c r="R27" s="13">
+        <v>1595</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" ref="S27:S31" si="17">((R27-$I27)*100/$I27)</f>
+        <v>-4.7761194029850742</v>
+      </c>
+      <c r="T27" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V27" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>패배</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="15"/>
+        <v>-1.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="61"/>
+      <c r="B28" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="41">
+        <v>0.57979715277777777</v>
+      </c>
+      <c r="D28" s="41">
+        <v>0.57979715277777777</v>
+      </c>
+      <c r="E28" s="41">
+        <f t="shared" ref="E28:E31" si="18">D28-C28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="41">
+        <v>0.57979715277777777</v>
+      </c>
+      <c r="G28" s="41">
+        <v>0.57979715277777777</v>
+      </c>
+      <c r="H28" s="41">
+        <f t="shared" ref="H28:H31" si="19">G28-F28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <v>7500</v>
+      </c>
+      <c r="J28" s="43">
+        <v>0</v>
+      </c>
+      <c r="K28" s="42">
+        <v>0</v>
+      </c>
+      <c r="L28" s="43">
+        <v>0</v>
+      </c>
+      <c r="M28" s="58"/>
+      <c r="N28" s="12">
+        <f t="shared" si="11"/>
+        <v>7687.5</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="12"/>
+        <v>7425</v>
+      </c>
+      <c r="P28" s="12">
+        <v>7700</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="16"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="R28" s="13">
+        <v>6760</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="17"/>
+        <v>-9.8666666666666671</v>
+      </c>
+      <c r="T28" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>승리</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="15"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="61"/>
+      <c r="B29" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="41">
+        <v>0.58587526620370367</v>
+      </c>
+      <c r="D29" s="41">
+        <v>0.58587526620370367</v>
+      </c>
+      <c r="E29" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="41">
+        <v>0.58587526620370367</v>
+      </c>
+      <c r="G29" s="41">
+        <v>0.58587526620370367</v>
+      </c>
+      <c r="H29" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="40">
+        <v>2520</v>
+      </c>
+      <c r="J29" s="43">
+        <v>0</v>
+      </c>
+      <c r="K29" s="42">
+        <v>0</v>
+      </c>
+      <c r="L29" s="43">
+        <v>0</v>
+      </c>
+      <c r="M29" s="58"/>
+      <c r="N29" s="12">
+        <f t="shared" si="11"/>
+        <v>2583</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="12"/>
+        <v>2494.8000000000002</v>
+      </c>
+      <c r="P29" s="12">
+        <v>2670</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="16"/>
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="R29" s="13">
+        <v>2380</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="17"/>
+        <v>-5.5555555555555554</v>
+      </c>
+      <c r="T29" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>승리</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" si="15"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="61"/>
+      <c r="B30" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="41">
+        <v>0.60253489583333331</v>
+      </c>
+      <c r="D30" s="41">
+        <v>0.60253489583333331</v>
+      </c>
+      <c r="E30" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="41">
+        <v>0.60253489583333331</v>
+      </c>
+      <c r="G30" s="41">
+        <v>0.60253489583333331</v>
+      </c>
+      <c r="H30" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="40">
+        <v>2340</v>
+      </c>
+      <c r="J30" s="43">
+        <v>0</v>
+      </c>
+      <c r="K30" s="42">
+        <v>0</v>
+      </c>
+      <c r="L30" s="43">
+        <v>0</v>
+      </c>
+      <c r="M30" s="58"/>
+      <c r="N30" s="12">
+        <f t="shared" si="11"/>
+        <v>2398.5</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="12"/>
+        <v>2316.6</v>
+      </c>
+      <c r="P30" s="12">
+        <v>2775</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="16"/>
+        <v>18.589743589743591</v>
+      </c>
+      <c r="R30" s="13">
+        <v>2400</v>
+      </c>
+      <c r="S30" s="16">
+        <f t="shared" si="17"/>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="T30" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>승리</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="15"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="61"/>
+      <c r="B31" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="41">
+        <v>0.61712174768518524</v>
+      </c>
+      <c r="D31" s="41">
+        <v>0.61712174768518524</v>
+      </c>
+      <c r="E31" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="41">
+        <v>0.61712174768518524</v>
+      </c>
+      <c r="G31" s="41">
+        <v>0.61712174768518524</v>
+      </c>
+      <c r="H31" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="40">
+        <v>2160</v>
+      </c>
+      <c r="J31" s="43">
+        <v>0</v>
+      </c>
+      <c r="K31" s="42">
+        <v>0</v>
+      </c>
+      <c r="L31" s="43">
+        <v>0</v>
+      </c>
+      <c r="M31" s="58"/>
+      <c r="N31" s="12">
+        <f t="shared" si="11"/>
+        <v>2214</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="12"/>
+        <v>2138.4</v>
+      </c>
+      <c r="P31" s="12">
+        <v>2245</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="16"/>
+        <v>3.9351851851851851</v>
+      </c>
+      <c r="R31" s="13">
+        <v>2100</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="17"/>
+        <v>-2.7777777777777777</v>
+      </c>
+      <c r="T31" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>승리</v>
+      </c>
+      <c r="W31" s="4">
+        <f t="shared" si="15"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="39">
+        <f>SUM(K18:K31)/100</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="38">
+        <f>SUM(L18:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="59"/>
+      <c r="N32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="24">
+        <f>AVERAGE(Q18:Q31)</f>
+        <v>4.6840663544178627</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="24">
+        <f>AVERAGE(S18:S31)</f>
+        <v>-6.6722863686190967</v>
+      </c>
+      <c r="T32" s="48">
+        <f>COUNTIF(T22:T31, "▲")/COUNTA(T22:T31)</f>
+        <v>0.9</v>
+      </c>
+      <c r="U32" s="48">
+        <f>COUNTIF(U22:U31, "▲")/COUNTA(U22:U31)</f>
+        <v>0.8</v>
+      </c>
+      <c r="V32" s="26">
+        <f>COUNTIF(V18:V31, "승리")/COUNTA(V18:V31)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="W32" s="47">
+        <f>AVERAGE(W18:W31)</f>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="21">
+    <mergeCell ref="A1:W1"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="M2:M14"/>
     <mergeCell ref="A2:A13"/>
@@ -2381,17 +3774,25 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="P16:V16"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M32"/>
+    <mergeCell ref="A16:A31"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="U14" formula="1"/>
+    <ignoredError sqref="V14" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -1184,6 +1184,12 @@
     <xf numFmtId="9" fontId="20" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,40 +1199,34 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I32"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1574,82 +1574,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="60">
+      <c r="A2" s="57">
         <v>42650</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="52" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="57"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="54"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="60"/>
       <c r="W2" s="19">
         <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
@@ -1674,14 +1674,14 @@
       <c r="J3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="58"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O3" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>20</v>
@@ -1709,7 +1709,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="61"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1745,14 +1745,14 @@
       <c r="L4" s="5">
         <v>2013</v>
       </c>
-      <c r="M4" s="58"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="12">
         <f t="shared" ref="N4:N13" si="0">I4+((I4/100)*N$3)</f>
-        <v>5114.75</v>
+        <v>5139.7</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" ref="O4:O13" si="1">I4-((I4/100)*O$3)</f>
-        <v>4940.1000000000004</v>
+        <v>4890.2</v>
       </c>
       <c r="P4" s="12">
         <v>5830</v>
@@ -1780,11 +1780,11 @@
       </c>
       <c r="W4" s="4">
         <f>IF(V4="승리", $N$3-$W$2, -($O$3+$W$2))</f>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="61"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1820,14 +1820,14 @@
       <c r="L5" s="5">
         <v>2266</v>
       </c>
-      <c r="M5" s="58"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>4223</v>
+        <v>4243.6000000000004</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>4078.8</v>
+        <v>4037.6</v>
       </c>
       <c r="P5" s="12">
         <v>4400</v>
@@ -1851,15 +1851,15 @@
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" ref="V5:V13" si="6">IF(U5="▲",IF(N5&lt;=P5,"승리","패배"),IF(O5&gt;=R5,"패배",IF(N5&lt;=P5,"승리","패배")))</f>
-        <v>패배</v>
+        <v>승리</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" ref="W5:W13" si="7">IF(V5="승리", $N$3-$W$2, -($O$3+$W$2))</f>
-        <v>-1.33</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="61"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1895,14 +1895,14 @@
       <c r="L6" s="5">
         <v>2927</v>
       </c>
-      <c r="M6" s="58"/>
+      <c r="M6" s="55"/>
       <c r="N6" s="12">
         <f t="shared" si="0"/>
-        <v>11582.5</v>
+        <v>11639</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>11187</v>
+        <v>11074</v>
       </c>
       <c r="P6" s="12">
         <v>11900</v>
@@ -1930,11 +1930,11 @@
       </c>
       <c r="W6" s="4">
         <f t="shared" si="7"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="61"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1970,14 +1970,14 @@
       <c r="L7" s="5">
         <v>2378</v>
       </c>
-      <c r="M7" s="58"/>
+      <c r="M7" s="55"/>
       <c r="N7" s="12">
         <f t="shared" si="0"/>
-        <v>3628.5</v>
+        <v>3646.2</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
-        <v>3504.6</v>
+        <v>3469.2</v>
       </c>
       <c r="P7" s="12">
         <v>3765</v>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="W7" s="4">
         <f t="shared" si="7"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="61"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2045,14 +2045,14 @@
       <c r="L8" s="7">
         <v>2120</v>
       </c>
-      <c r="M8" s="58"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="12">
         <f t="shared" si="0"/>
-        <v>4438.25</v>
+        <v>4459.8999999999996</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>4286.7</v>
+        <v>4243.3999999999996</v>
       </c>
       <c r="P8" s="12">
         <v>4735</v>
@@ -2080,11 +2080,11 @@
       </c>
       <c r="W8" s="4">
         <f t="shared" si="7"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="61"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2120,14 +2120,14 @@
       <c r="L9" s="11">
         <v>-8632</v>
       </c>
-      <c r="M9" s="58"/>
+      <c r="M9" s="55"/>
       <c r="N9" s="12">
         <f t="shared" si="0"/>
-        <v>1593.875</v>
+        <v>1601.65</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="1"/>
-        <v>1539.45</v>
+        <v>1523.9</v>
       </c>
       <c r="P9" s="12">
         <v>1715</v>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="W9" s="4">
         <f t="shared" si="7"/>
-        <v>-1.33</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="61"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2195,14 +2195,14 @@
       <c r="L10" s="7">
         <v>2299</v>
       </c>
-      <c r="M10" s="58"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="12">
         <f t="shared" si="0"/>
-        <v>3715.625</v>
+        <v>3733.75</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="1"/>
-        <v>3588.75</v>
+        <v>3552.5</v>
       </c>
       <c r="P10" s="12">
         <v>3950</v>
@@ -2230,11 +2230,11 @@
       </c>
       <c r="W10" s="4">
         <f t="shared" si="7"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="61"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2270,14 +2270,14 @@
       <c r="L11" s="7">
         <v>2003</v>
       </c>
-      <c r="M11" s="58"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="12">
         <f t="shared" si="0"/>
-        <v>9091.75</v>
+        <v>9136.1</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="1"/>
-        <v>8781.2999999999993</v>
+        <v>8692.6</v>
       </c>
       <c r="P11" s="12">
         <v>9750</v>
@@ -2305,11 +2305,11 @@
       </c>
       <c r="W11" s="4">
         <f t="shared" si="7"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="61"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2345,14 +2345,14 @@
       <c r="L12" s="7">
         <v>1962</v>
       </c>
-      <c r="M12" s="58"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="12">
         <f t="shared" si="0"/>
-        <v>5207</v>
+        <v>5232.3999999999996</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="1"/>
-        <v>5029.2</v>
+        <v>4978.3999999999996</v>
       </c>
       <c r="P12" s="12">
         <v>5190</v>
@@ -2380,11 +2380,11 @@
       </c>
       <c r="W12" s="4">
         <f t="shared" si="7"/>
-        <v>-1.33</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="61"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2420,14 +2420,14 @@
       <c r="L13" s="11">
         <v>-8540</v>
       </c>
-      <c r="M13" s="58"/>
+      <c r="M13" s="55"/>
       <c r="N13" s="12">
         <f t="shared" si="0"/>
-        <v>7943.75</v>
+        <v>7982.5</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="1"/>
-        <v>7672.5</v>
+        <v>7595</v>
       </c>
       <c r="P13" s="12">
         <v>8100</v>
@@ -2437,39 +2437,39 @@
         <v>4.5161290322580649</v>
       </c>
       <c r="R13" s="13">
-        <v>7360</v>
+        <v>7500</v>
       </c>
       <c r="S13" s="16">
         <f t="shared" si="5"/>
-        <v>-5.032258064516129</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="T13" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="44" t="s">
-        <v>50</v>
+      <c r="U13" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>승리</v>
+        <v>패배</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="7"/>
-        <v>2.17</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2481,7 +2481,7 @@
         <f>SUM(L4:L13)</f>
         <v>796</v>
       </c>
-      <c r="M14" s="59"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="17" t="s">
         <v>28</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="S14" s="24">
         <f>AVERAGE(S4:S13)</f>
-        <v>-4.7898088551061653</v>
+        <v>-4.6091636938158427</v>
       </c>
       <c r="T14" s="48">
         <f>COUNTIF(T4:T13, "▲")/COUNTA(T4:T13)</f>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="U14" s="48">
         <f>COUNTIF(U4:U13, "▲")/COUNTA(U4:U13)</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="V14" s="26">
         <f>COUNTIF(V4:V13, "승리")/COUNTA(V4:V13)</f>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="W14" s="4">
         <f>AVERAGE(W4:W13)</f>
-        <v>1.1199999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="4.8499999999999996" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2545,55 +2545,55 @@
       <c r="W15" s="37"/>
     </row>
     <row r="16" spans="1:23" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="60">
+      <c r="A16" s="57">
         <v>42653</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="52" t="s">
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55" t="s">
+      <c r="J16" s="60"/>
+      <c r="K16" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="57"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="54"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="60"/>
       <c r="W16" s="23">
         <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="23" t="s">
         <v>12</v>
       </c>
@@ -2618,14 +2618,14 @@
       <c r="J17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="58"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O17" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="23" t="s">
         <v>20</v>
@@ -2653,7 +2653,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="61"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="40" t="s">
         <v>0</v>
       </c>
@@ -2689,14 +2689,14 @@
       <c r="L18" s="40">
         <v>0</v>
       </c>
-      <c r="M18" s="58"/>
+      <c r="M18" s="55"/>
       <c r="N18" s="12">
         <f>I18+((I18/100)*N$17)</f>
-        <v>5740</v>
+        <v>5768</v>
       </c>
       <c r="O18" s="12">
         <f>I18-((I18/100)*O$17)</f>
-        <v>5544</v>
+        <v>5488</v>
       </c>
       <c r="P18" s="12">
         <v>5740</v>
@@ -2720,15 +2720,15 @@
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" ref="V18:V31" si="8">IF(U18="▲",IF(N18&lt;=P18,"승리","패배"),IF(O18&gt;=R18,"패배",IF(N18&lt;=P18,"승리","패배")))</f>
-        <v>승리</v>
+        <v>패배</v>
       </c>
       <c r="W18" s="4">
         <f>IF(V18="승리", $N$17-$W$2, -($O$17+$W$2))</f>
-        <v>2.17</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="61"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="40" t="s">
         <v>38</v>
       </c>
@@ -2764,14 +2764,14 @@
       <c r="L19" s="40">
         <v>0</v>
       </c>
-      <c r="M19" s="58"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="12">
         <f t="shared" ref="N19:N31" si="11">I19+((I19/100)*N$17)</f>
-        <v>3003.25</v>
+        <v>3017.9</v>
       </c>
       <c r="O19" s="12">
         <f t="shared" ref="O19:O31" si="12">I19-((I19/100)*O$17)</f>
-        <v>2900.7</v>
+        <v>2871.4</v>
       </c>
       <c r="P19" s="12">
         <v>2975</v>
@@ -2799,11 +2799,11 @@
       </c>
       <c r="W19" s="4">
         <f t="shared" ref="W19:W31" si="15">IF(V19="승리", $N$17-$W$2, -($O$17+$W$2))</f>
-        <v>-1.33</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="61"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="40" t="s">
         <v>39</v>
       </c>
@@ -2839,14 +2839,14 @@
       <c r="L20" s="40">
         <v>0</v>
       </c>
-      <c r="M20" s="58"/>
+      <c r="M20" s="55"/>
       <c r="N20" s="12">
         <f t="shared" si="11"/>
-        <v>3905.25</v>
+        <v>3924.3</v>
       </c>
       <c r="O20" s="12">
         <f t="shared" si="12"/>
-        <v>3771.9</v>
+        <v>3733.8</v>
       </c>
       <c r="P20" s="12">
         <v>4235</v>
@@ -2870,15 +2870,15 @@
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>패배</v>
+        <v>승리</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="15"/>
-        <v>-1.33</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="61"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2914,14 +2914,14 @@
       <c r="L21" s="40">
         <v>0</v>
       </c>
-      <c r="M21" s="58"/>
+      <c r="M21" s="55"/>
       <c r="N21" s="12">
         <f t="shared" si="11"/>
-        <v>5709.25</v>
+        <v>5737.1</v>
       </c>
       <c r="O21" s="12">
         <f t="shared" si="12"/>
-        <v>5514.3</v>
+        <v>5458.6</v>
       </c>
       <c r="P21" s="12">
         <v>5900</v>
@@ -2949,11 +2949,11 @@
       </c>
       <c r="W21" s="4">
         <f t="shared" si="15"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="61"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="40" t="s">
         <v>5</v>
       </c>
@@ -2989,14 +2989,14 @@
       <c r="L22" s="43">
         <v>0</v>
       </c>
-      <c r="M22" s="58"/>
+      <c r="M22" s="55"/>
       <c r="N22" s="12">
         <f t="shared" si="11"/>
-        <v>1788.625</v>
+        <v>1797.35</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="12"/>
-        <v>1727.55</v>
+        <v>1710.1</v>
       </c>
       <c r="P22" s="12">
         <v>1725</v>
@@ -3024,11 +3024,11 @@
       </c>
       <c r="W22" s="4">
         <f t="shared" si="15"/>
-        <v>-1.33</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="61"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="13" t="s">
         <v>41</v>
       </c>
@@ -3064,14 +3064,14 @@
       <c r="L23" s="43">
         <v>0</v>
       </c>
-      <c r="M23" s="58"/>
+      <c r="M23" s="55"/>
       <c r="N23" s="12">
         <f t="shared" si="11"/>
-        <v>1045.5</v>
+        <v>1050.5999999999999</v>
       </c>
       <c r="O23" s="12">
         <f t="shared" si="12"/>
-        <v>1009.8</v>
+        <v>999.6</v>
       </c>
       <c r="P23" s="12">
         <v>1045</v>
@@ -3081,17 +3081,17 @@
         <v>2.4509803921568629</v>
       </c>
       <c r="R23" s="13">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="S23" s="16">
         <f t="shared" si="14"/>
-        <v>-8.1372549019607838</v>
+        <v>-1.9607843137254901</v>
       </c>
       <c r="T23" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="U23" s="44" t="s">
-        <v>50</v>
+      <c r="U23" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3099,11 +3099,11 @@
       </c>
       <c r="W23" s="4">
         <f t="shared" si="15"/>
-        <v>-1.33</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="61"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="40" t="s">
         <v>42</v>
       </c>
@@ -3139,14 +3139,14 @@
       <c r="L24" s="43">
         <v>0</v>
       </c>
-      <c r="M24" s="58"/>
+      <c r="M24" s="55"/>
       <c r="N24" s="12">
         <f t="shared" si="11"/>
-        <v>3449.125</v>
+        <v>3465.95</v>
       </c>
       <c r="O24" s="12">
         <f t="shared" si="12"/>
-        <v>3331.35</v>
+        <v>3297.7</v>
       </c>
       <c r="P24" s="12">
         <v>3485</v>
@@ -3174,11 +3174,11 @@
       </c>
       <c r="W24" s="4">
         <f t="shared" si="15"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="61"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="40" t="s">
         <v>43</v>
       </c>
@@ -3214,14 +3214,14 @@
       <c r="L25" s="43">
         <v>0</v>
       </c>
-      <c r="M25" s="58"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="12">
         <f t="shared" si="11"/>
-        <v>2198.625</v>
+        <v>2209.35</v>
       </c>
       <c r="O25" s="12">
         <f t="shared" si="12"/>
-        <v>2123.5500000000002</v>
+        <v>2102.1</v>
       </c>
       <c r="P25" s="12">
         <v>2175</v>
@@ -3231,17 +3231,17 @@
         <v>1.3986013986013985</v>
       </c>
       <c r="R25" s="13">
-        <v>2025</v>
+        <v>2120</v>
       </c>
       <c r="S25" s="16">
         <f t="shared" si="14"/>
-        <v>-5.5944055944055942</v>
+        <v>-1.1655011655011656</v>
       </c>
       <c r="T25" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="U25" s="44" t="s">
-        <v>50</v>
+      <c r="U25" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3249,11 +3249,11 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="15"/>
-        <v>-1.33</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="61"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="40" t="s">
         <v>44</v>
       </c>
@@ -3289,14 +3289,14 @@
       <c r="L26" s="43">
         <v>0</v>
       </c>
-      <c r="M26" s="58"/>
+      <c r="M26" s="55"/>
       <c r="N26" s="12">
         <f t="shared" si="11"/>
-        <v>11070</v>
+        <v>11124</v>
       </c>
       <c r="O26" s="12">
         <f t="shared" si="12"/>
-        <v>10692</v>
+        <v>10584</v>
       </c>
       <c r="P26" s="12">
         <v>11400</v>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="W26" s="4">
         <f t="shared" si="15"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="61"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="13" t="s">
         <v>45</v>
       </c>
@@ -3364,14 +3364,14 @@
       <c r="L27" s="43">
         <v>0</v>
       </c>
-      <c r="M27" s="58"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="12">
         <f t="shared" si="11"/>
-        <v>1716.875</v>
+        <v>1725.25</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="12"/>
-        <v>1658.25</v>
+        <v>1641.5</v>
       </c>
       <c r="P27" s="12">
         <v>1700</v>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="W27" s="4">
         <f t="shared" si="15"/>
-        <v>-1.33</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="61"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="40" t="s">
         <v>46</v>
       </c>
@@ -3439,14 +3439,14 @@
       <c r="L28" s="43">
         <v>0</v>
       </c>
-      <c r="M28" s="58"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="12">
         <f t="shared" si="11"/>
-        <v>7687.5</v>
+        <v>7725</v>
       </c>
       <c r="O28" s="12">
         <f t="shared" si="12"/>
-        <v>7425</v>
+        <v>7350</v>
       </c>
       <c r="P28" s="12">
         <v>7700</v>
@@ -3470,15 +3470,15 @@
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>승리</v>
+        <v>패배</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" si="15"/>
-        <v>2.17</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="61"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="40" t="s">
         <v>47</v>
       </c>
@@ -3514,14 +3514,14 @@
       <c r="L29" s="43">
         <v>0</v>
       </c>
-      <c r="M29" s="58"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="12">
         <f t="shared" si="11"/>
-        <v>2583</v>
+        <v>2595.6</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="12"/>
-        <v>2494.8000000000002</v>
+        <v>2469.6</v>
       </c>
       <c r="P29" s="12">
         <v>2670</v>
@@ -3531,29 +3531,29 @@
         <v>5.9523809523809526</v>
       </c>
       <c r="R29" s="13">
-        <v>2380</v>
+        <v>2425</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" si="17"/>
-        <v>-5.5555555555555554</v>
+        <v>-3.7698412698412698</v>
       </c>
       <c r="T29" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="U29" s="44" t="s">
-        <v>50</v>
+      <c r="U29" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="V29" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>승리</v>
+        <v>패배</v>
       </c>
       <c r="W29" s="4">
         <f t="shared" si="15"/>
-        <v>2.17</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="61"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="40" t="s">
         <v>48</v>
       </c>
@@ -3589,14 +3589,14 @@
       <c r="L30" s="43">
         <v>0</v>
       </c>
-      <c r="M30" s="58"/>
+      <c r="M30" s="55"/>
       <c r="N30" s="12">
         <f t="shared" si="11"/>
-        <v>2398.5</v>
+        <v>2410.1999999999998</v>
       </c>
       <c r="O30" s="12">
         <f t="shared" si="12"/>
-        <v>2316.6</v>
+        <v>2293.1999999999998</v>
       </c>
       <c r="P30" s="12">
         <v>2775</v>
@@ -3606,29 +3606,29 @@
         <v>18.589743589743591</v>
       </c>
       <c r="R30" s="13">
-        <v>2400</v>
+        <v>2275</v>
       </c>
       <c r="S30" s="16">
         <f t="shared" si="17"/>
-        <v>2.5641025641025643</v>
+        <v>-2.7777777777777777</v>
       </c>
       <c r="T30" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="U30" s="44" t="s">
-        <v>50</v>
+      <c r="U30" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>승리</v>
+        <v>패배</v>
       </c>
       <c r="W30" s="4">
         <f t="shared" si="15"/>
-        <v>2.17</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="61"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="40" t="s">
         <v>49</v>
       </c>
@@ -3664,14 +3664,14 @@
       <c r="L31" s="43">
         <v>0</v>
       </c>
-      <c r="M31" s="58"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="12">
         <f t="shared" si="11"/>
-        <v>2214</v>
+        <v>2224.8000000000002</v>
       </c>
       <c r="O31" s="12">
         <f t="shared" si="12"/>
-        <v>2138.4</v>
+        <v>2116.8000000000002</v>
       </c>
       <c r="P31" s="12">
         <v>2245</v>
@@ -3681,17 +3681,17 @@
         <v>3.9351851851851851</v>
       </c>
       <c r="R31" s="13">
-        <v>2100</v>
+        <v>2150</v>
       </c>
       <c r="S31" s="16">
         <f t="shared" si="17"/>
-        <v>-2.7777777777777777</v>
+        <v>-0.46296296296296297</v>
       </c>
       <c r="T31" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="U31" s="44" t="s">
-        <v>50</v>
+      <c r="U31" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="V31" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3699,21 +3699,21 @@
       </c>
       <c r="W31" s="4">
         <f t="shared" si="15"/>
-        <v>2.17</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="3" t="s">
         <v>24</v>
       </c>
@@ -3725,7 +3725,7 @@
         <f>SUM(L18:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="59"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="17" t="s">
         <v>28</v>
       </c>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="S32" s="24">
         <f>AVERAGE(S18:S31)</f>
-        <v>-6.6722863686190967</v>
+        <v>-6.003427527491346</v>
       </c>
       <c r="T32" s="48">
         <f>COUNTIF(T22:T31, "▲")/COUNTA(T22:T31)</f>
@@ -3752,28 +3752,20 @@
       </c>
       <c r="U32" s="48">
         <f>COUNTIF(U22:U31, "▲")/COUNTA(U22:U31)</f>
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="V32" s="26">
         <f>COUNTIF(V18:V31, "승리")/COUNTA(V18:V31)</f>
-        <v>0.5714285714285714</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="W32" s="47">
         <f>AVERAGE(W18:W31)</f>
-        <v>0.66999999999999993</v>
+        <v>-0.54428571428571437</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="M2:M14"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="P16:V16"/>
@@ -3787,6 +3779,14 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="M2:M14"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="203">
   <si>
     <t>파인디엔씨</t>
   </si>
@@ -236,6 +237,448 @@
   <si>
     <t>※ 종목당 할당 금액 : 30만원 / 매수매도범위 : 상승 1%, 하락 2.5%
 검색식 수정 : 검색범위 10%부터 -&gt; 9%부터, 코스닥에서 코스피, 코스닥으로 변경</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려산업</t>
+  </si>
+  <si>
+    <t>모두 찾기 "매수 완료 되었습니다.", 하위 폴더, 찾기 결과 1, "C:\ABot\161011", ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  일치하는 줄 수: 10    일치하는 파일 수: 4    검색된 총 파일 수: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610110729</t>
+  </si>
+  <si>
+    <t>2016/10/11]</t>
+  </si>
+  <si>
+    <t>고려산업]</t>
+  </si>
+  <si>
+    <t>에이테크솔루션]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610111010</t>
+  </si>
+  <si>
+    <t>한국컴퓨터]</t>
+  </si>
+  <si>
+    <t>뉴로스]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610111126</t>
+  </si>
+  <si>
+    <t>보락]</t>
+  </si>
+  <si>
+    <t>파인디앤씨]</t>
+  </si>
+  <si>
+    <t>한솔PNS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610111235</t>
+  </si>
+  <si>
+    <t>KJ프리텍]</t>
+  </si>
+  <si>
+    <t>와이비엠넷]</t>
+  </si>
+  <si>
+    <t>옵트론텍]</t>
+  </si>
+  <si>
+    <t>에이테크솔루션</t>
+  </si>
+  <si>
+    <t>뉴로스</t>
+  </si>
+  <si>
+    <t>한솔PNS</t>
+  </si>
+  <si>
+    <t>KJ프리텍</t>
+  </si>
+  <si>
+    <t>와이비엠넷</t>
+  </si>
+  <si>
+    <t>옵트론텍</t>
+  </si>
+  <si>
+    <t>모두 찾기 "매도 되었습니다", 하위 폴더, 찾기 결과 1, "C:\ABot\161011", ""</t>
+  </si>
+  <si>
+    <t>0].log(4472):</t>
+  </si>
+  <si>
+    <t>WAITSELLMARKETVALUE],단가</t>
+  </si>
+  <si>
+    <t>3590],수량</t>
+  </si>
+  <si>
+    <t>81],잔량</t>
+  </si>
+  <si>
+    <t>0], 매도 되었습니다.</t>
+  </si>
+  <si>
+    <t>1].log(1484):</t>
+  </si>
+  <si>
+    <t>WAITSELL],단가</t>
+  </si>
+  <si>
+    <t>10350],수량</t>
+  </si>
+  <si>
+    <t>29],잔량</t>
+  </si>
+  <si>
+    <t>1].log(3729):</t>
+  </si>
+  <si>
+    <t>4515],수량</t>
+  </si>
+  <si>
+    <t>65],잔량</t>
+  </si>
+  <si>
+    <t>2].log(106):</t>
+  </si>
+  <si>
+    <t>5540],수량</t>
+  </si>
+  <si>
+    <t>53],잔량</t>
+  </si>
+  <si>
+    <t>2].log(2866):</t>
+  </si>
+  <si>
+    <t>4865],수량</t>
+  </si>
+  <si>
+    <t>63],잔량</t>
+  </si>
+  <si>
+    <t>2].log(4023):</t>
+  </si>
+  <si>
+    <t>6430],수량</t>
+  </si>
+  <si>
+    <t>45],잔량</t>
+  </si>
+  <si>
+    <t>3].log(367):</t>
+  </si>
+  <si>
+    <t>2915],수량</t>
+  </si>
+  <si>
+    <t>100],잔량</t>
+  </si>
+  <si>
+    <t>3].log(1230):</t>
+  </si>
+  <si>
+    <t>7540],수량</t>
+  </si>
+  <si>
+    <t>38],잔량</t>
+  </si>
+  <si>
+    <t>3].log(2383):</t>
+  </si>
+  <si>
+    <t>6280],수량</t>
+  </si>
+  <si>
+    <t>46],잔량</t>
+  </si>
+  <si>
+    <t>3].log(3302):</t>
+  </si>
+  <si>
+    <t>6740],수량</t>
+  </si>
+  <si>
+    <t>43],잔량</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610110729[0</t>
+  </si>
+  <si>
+    <t>.log(266):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[10:00:54.844</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[002140</t>
+  </si>
+  <si>
+    <t>[고려산업</t>
+  </si>
+  <si>
+    <t>[HOLDING</t>
+  </si>
+  <si>
+    <t>,수량[81</t>
+  </si>
+  <si>
+    <t>,재시도회수[0</t>
+  </si>
+  <si>
+    <t>, 매수 완료 되었습니다.</t>
+  </si>
+  <si>
+    <t>.log(688):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[10:01:32.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[071670</t>
+  </si>
+  <si>
+    <t>[에이테크솔루션</t>
+  </si>
+  <si>
+    <t>,수량[29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610111010[1</t>
+  </si>
+  <si>
+    <t>.log(1651):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[10:28:05.491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[054040</t>
+  </si>
+  <si>
+    <t>[한국컴퓨터</t>
+  </si>
+  <si>
+    <t>,수량[65</t>
+  </si>
+  <si>
+    <t>.log(3899):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[11:19:47.386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[126870</t>
+  </si>
+  <si>
+    <t>[뉴로스</t>
+  </si>
+  <si>
+    <t>,수량[53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610111126[2</t>
+  </si>
+  <si>
+    <t>.log(321):[2016/10/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[002760</t>
+  </si>
+  <si>
+    <t>[보락</t>
+  </si>
+  <si>
+    <t>,수량[45</t>
+  </si>
+  <si>
+    <t>.log(847):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[11:51:42.520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[049120</t>
+  </si>
+  <si>
+    <t>[파인디앤씨</t>
+  </si>
+  <si>
+    <t>,수량[63</t>
+  </si>
+  <si>
+    <t>.log(4246):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[12:32:14.226</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[010420</t>
+  </si>
+  <si>
+    <t>[한솔PNS</t>
+  </si>
+  <si>
+    <t>,수량[100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C:\ABot\161011\ABotLog_201610111235[3</t>
+  </si>
+  <si>
+    <t>.log(496):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[12:37:20.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[083470</t>
+  </si>
+  <si>
+    <t>[KJ프리텍</t>
+  </si>
+  <si>
+    <t>,수량[38</t>
+  </si>
+  <si>
+    <t>.log(1621):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[13:36:03.793</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[057030</t>
+  </si>
+  <si>
+    <t>[와이비엠넷</t>
+  </si>
+  <si>
+    <t>,수량[46</t>
+  </si>
+  <si>
+    <t>.log(2546):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[14:02:33.970</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : ___________________::[082210</t>
+  </si>
+  <si>
+    <t>[옵트론텍</t>
+  </si>
+  <si>
+    <t>,수량[43</t>
+  </si>
+  <si>
+    <t>.log(4472):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[10:09:01.221</t>
+  </si>
+  <si>
+    <t>[WAITSELLMARKETVALUE</t>
+  </si>
+  <si>
+    <t>,잔량[0</t>
+  </si>
+  <si>
+    <t>, 매도 되었습니다.</t>
+  </si>
+  <si>
+    <t>.log(1484):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[10:27:11.722</t>
+  </si>
+  <si>
+    <t>[WAITSELL</t>
+  </si>
+  <si>
+    <t>.log(3729):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[10:34:33.902</t>
+  </si>
+  <si>
+    <t>.log(106):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[11:26:17.433</t>
+  </si>
+  <si>
+    <t>.log(2866):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[11:55:20.556</t>
+  </si>
+  <si>
+    <t>.log(4023):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[12:01:28.289</t>
+  </si>
+  <si>
+    <t>.log(367):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[12:36:39.631</t>
+  </si>
+  <si>
+    <t>.log(1230):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[12:41:07.432</t>
+  </si>
+  <si>
+    <t>.log(2383):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[13:37:45.895</t>
+  </si>
+  <si>
+    <t>.log(3302):[2016/10/11</t>
+  </si>
+  <si>
+    <t>[14:02:57.013</t>
+  </si>
+  <si>
+    <t>[11:50:12.384</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보락</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파인디엔씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최저가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 종목당 할당 금액 : 30만원 / 매수매도범위 : 상승 3%, 하락 2%
+검색식 수정 : 검색범위 10%부터, 코스닥에서 코스피, 코스닥으로 변경</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -243,14 +686,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="hh:mm:ss.000"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +940,22 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1036,7 +1496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,50 +1644,95 @@
     <xf numFmtId="9" fontId="20" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1551,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1563,93 +2068,98 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.35546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.7109375" customWidth="1"/>
     <col min="14" max="21" width="8.35546875" customWidth="1"/>
-    <col min="22" max="23" width="8.35546875" style="2" customWidth="1"/>
+    <col min="22" max="25" width="8.35546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:25" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+    </row>
+    <row r="2" spans="1:25" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="69">
         <v>42650</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="54"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="60"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="65"/>
       <c r="W2" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
@@ -1674,14 +2184,14 @@
       <c r="J3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="55"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="14">
+        <v>4</v>
+      </c>
+      <c r="O3" s="14">
         <v>3</v>
-      </c>
-      <c r="O3" s="14">
-        <v>2</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>20</v>
@@ -1707,9 +2217,11 @@
       <c r="W3" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="58"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="70"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1745,14 +2257,14 @@
       <c r="L4" s="5">
         <v>2013</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="12">
         <f t="shared" ref="N4:N13" si="0">I4+((I4/100)*N$3)</f>
-        <v>5139.7</v>
+        <v>5189.6000000000004</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" ref="O4:O13" si="1">I4-((I4/100)*O$3)</f>
-        <v>4890.2</v>
+        <v>4840.3</v>
       </c>
       <c r="P4" s="12">
         <v>5830</v>
@@ -1780,11 +2292,13 @@
       </c>
       <c r="W4" s="4">
         <f>IF(V4="승리", $N$3-$W$2, -($O$3+$W$2))</f>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1820,14 +2334,14 @@
       <c r="L5" s="5">
         <v>2266</v>
       </c>
-      <c r="M5" s="55"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="12">
         <f t="shared" si="0"/>
-        <v>4243.6000000000004</v>
+        <v>4284.8</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>4037.6</v>
+        <v>3996.4</v>
       </c>
       <c r="P5" s="12">
         <v>4400</v>
@@ -1855,11 +2369,13 @@
       </c>
       <c r="W5" s="4">
         <f t="shared" ref="W5:W13" si="7">IF(V5="승리", $N$3-$W$2, -($O$3+$W$2))</f>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X5"/>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="70"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1895,14 +2411,14 @@
       <c r="L6" s="5">
         <v>2927</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="12">
         <f t="shared" si="0"/>
-        <v>11639</v>
+        <v>11752</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>11074</v>
+        <v>10961</v>
       </c>
       <c r="P6" s="12">
         <v>11900</v>
@@ -1930,11 +2446,13 @@
       </c>
       <c r="W6" s="4">
         <f t="shared" si="7"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X6"/>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="70"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1970,14 +2488,14 @@
       <c r="L7" s="5">
         <v>2378</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="12">
         <f t="shared" si="0"/>
-        <v>3646.2</v>
+        <v>3681.6</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
-        <v>3469.2</v>
+        <v>3433.8</v>
       </c>
       <c r="P7" s="12">
         <v>3765</v>
@@ -2005,11 +2523,13 @@
       </c>
       <c r="W7" s="4">
         <f t="shared" si="7"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X7"/>
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="70"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2045,14 +2565,14 @@
       <c r="L8" s="7">
         <v>2120</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="12">
         <f t="shared" si="0"/>
-        <v>4459.8999999999996</v>
+        <v>4503.2</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>4243.3999999999996</v>
+        <v>4200.1000000000004</v>
       </c>
       <c r="P8" s="12">
         <v>4735</v>
@@ -2080,11 +2600,13 @@
       </c>
       <c r="W8" s="4">
         <f t="shared" si="7"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="70"/>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2120,14 +2642,14 @@
       <c r="L9" s="11">
         <v>-8632</v>
       </c>
-      <c r="M9" s="55"/>
+      <c r="M9" s="61"/>
       <c r="N9" s="12">
         <f t="shared" si="0"/>
-        <v>1601.65</v>
+        <v>1617.2</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="1"/>
-        <v>1523.9</v>
+        <v>1508.35</v>
       </c>
       <c r="P9" s="12">
         <v>1715</v>
@@ -2155,11 +2677,11 @@
       </c>
       <c r="W9" s="4">
         <f t="shared" si="7"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="58"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="70"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2195,14 +2717,14 @@
       <c r="L10" s="7">
         <v>2299</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="12">
         <f t="shared" si="0"/>
-        <v>3733.75</v>
+        <v>3770</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="1"/>
-        <v>3552.5</v>
+        <v>3516.25</v>
       </c>
       <c r="P10" s="12">
         <v>3950</v>
@@ -2230,11 +2752,13 @@
       </c>
       <c r="W10" s="4">
         <f t="shared" si="7"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="70"/>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2270,14 +2794,14 @@
       <c r="L11" s="7">
         <v>2003</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="12">
         <f t="shared" si="0"/>
-        <v>9136.1</v>
+        <v>9224.7999999999993</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="1"/>
-        <v>8692.6</v>
+        <v>8603.9</v>
       </c>
       <c r="P11" s="12">
         <v>9750</v>
@@ -2305,11 +2829,13 @@
       </c>
       <c r="W11" s="4">
         <f t="shared" si="7"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="70"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2345,14 +2871,14 @@
       <c r="L12" s="7">
         <v>1962</v>
       </c>
-      <c r="M12" s="55"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="12">
         <f t="shared" si="0"/>
-        <v>5232.3999999999996</v>
+        <v>5283.2</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="1"/>
-        <v>4978.3999999999996</v>
+        <v>4927.6000000000004</v>
       </c>
       <c r="P12" s="12">
         <v>5190</v>
@@ -2380,11 +2906,13 @@
       </c>
       <c r="W12" s="4">
         <f t="shared" si="7"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X12"/>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="70"/>
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2420,14 +2948,14 @@
       <c r="L13" s="11">
         <v>-8540</v>
       </c>
-      <c r="M13" s="55"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="12">
         <f t="shared" si="0"/>
-        <v>7982.5</v>
+        <v>8060</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="1"/>
-        <v>7595</v>
+        <v>7517.5</v>
       </c>
       <c r="P13" s="12">
         <v>8100</v>
@@ -2455,21 +2983,21 @@
       </c>
       <c r="W13" s="4">
         <f t="shared" si="7"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="51" t="s">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2481,7 +3009,7 @@
         <f>SUM(L4:L13)</f>
         <v>796</v>
       </c>
-      <c r="M14" s="56"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="17" t="s">
         <v>28</v>
       </c>
@@ -2516,10 +3044,12 @@
       </c>
       <c r="W14" s="4">
         <f>AVERAGE(W4:W13)</f>
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="4.8499999999999996" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>1.57</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
+    </row>
+    <row r="15" spans="1:25" ht="4.8499999999999996" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2543,57 +3073,65 @@
       <c r="U15" s="35"/>
       <c r="V15" s="36"/>
       <c r="W15" s="37"/>
-    </row>
-    <row r="16" spans="1:23" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="57">
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+    </row>
+    <row r="16" spans="1:25" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="69">
         <v>42653</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59" t="s">
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61" t="s">
+      <c r="J16" s="65"/>
+      <c r="K16" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="61" t="s">
+      <c r="L16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="54"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="60"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="65"/>
       <c r="W16" s="23">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
+      <c r="X16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="23" t="s">
         <v>12</v>
       </c>
@@ -2618,14 +3156,14 @@
       <c r="J17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="55"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="14">
+        <v>4</v>
+      </c>
+      <c r="O17" s="14">
         <v>3</v>
-      </c>
-      <c r="O17" s="14">
-        <v>2</v>
       </c>
       <c r="P17" s="23" t="s">
         <v>20</v>
@@ -2651,9 +3189,33 @@
       <c r="W17" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="58"/>
+      <c r="X17" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB17" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC17" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE17" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="70"/>
       <c r="B18" s="40" t="s">
         <v>0</v>
       </c>
@@ -2689,14 +3251,14 @@
       <c r="L18" s="40">
         <v>0</v>
       </c>
-      <c r="M18" s="55"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="12">
         <f>I18+((I18/100)*N$17)</f>
-        <v>5768</v>
+        <v>5824</v>
       </c>
       <c r="O18" s="12">
         <f>I18-((I18/100)*O$17)</f>
-        <v>5488</v>
+        <v>5432</v>
       </c>
       <c r="P18" s="12">
         <v>5740</v>
@@ -2724,11 +3286,41 @@
       </c>
       <c r="W18" s="4">
         <f>IF(V18="승리", $N$17-$W$2, -($O$17+$W$2))</f>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X18" s="12">
+        <f>I18+((I18/100)*X$17)</f>
+        <v>5824</v>
+      </c>
+      <c r="Y18" s="12">
+        <f>I18-((I18/100)*Y$17)</f>
+        <v>5432</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>5740</v>
+      </c>
+      <c r="AA18" s="16">
+        <f>((Z18-$I18)*100/$I18)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>4280</v>
+      </c>
+      <c r="AC18" s="16">
+        <f>((AB18-$I18)*100/$I18)</f>
+        <v>-23.571428571428573</v>
+      </c>
+      <c r="AD18" s="4" t="str">
+        <f>IF(Z18&gt;=X18,"승리","패배")</f>
+        <v>패배</v>
+      </c>
+      <c r="AE18" s="4">
+        <f>IF(AD18="승리", $X$17-$W$2, -($Y$17+$W$2))</f>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="70"/>
       <c r="B19" s="40" t="s">
         <v>38</v>
       </c>
@@ -2764,14 +3356,14 @@
       <c r="L19" s="40">
         <v>0</v>
       </c>
-      <c r="M19" s="55"/>
+      <c r="M19" s="61"/>
       <c r="N19" s="12">
         <f t="shared" ref="N19:N31" si="11">I19+((I19/100)*N$17)</f>
-        <v>3017.9</v>
+        <v>3047.2</v>
       </c>
       <c r="O19" s="12">
         <f t="shared" ref="O19:O31" si="12">I19-((I19/100)*O$17)</f>
-        <v>2871.4</v>
+        <v>2842.1</v>
       </c>
       <c r="P19" s="12">
         <v>2975</v>
@@ -2799,11 +3391,41 @@
       </c>
       <c r="W19" s="4">
         <f t="shared" ref="W19:W31" si="15">IF(V19="승리", $N$17-$W$2, -($O$17+$W$2))</f>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" ref="X19:X31" si="16">I19+((I19/100)*X$17)</f>
+        <v>3047.2</v>
+      </c>
+      <c r="Y19" s="12">
+        <f t="shared" ref="Y19:Y31" si="17">I19-((I19/100)*Y$17)</f>
+        <v>2842.1</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>2975</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" ref="AA19:AA27" si="18">((Z19-$I19)*100/$I19)</f>
+        <v>1.5358361774744027</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>2650</v>
+      </c>
+      <c r="AC19" s="16">
+        <f t="shared" ref="AC19:AC27" si="19">((AB19-$I19)*100/$I19)</f>
+        <v>-9.5563139931740615</v>
+      </c>
+      <c r="AD19" s="4" t="str">
+        <f t="shared" ref="AD19:AD27" si="20">IF(Z19&gt;=X19,"승리","패배")</f>
+        <v>패배</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" ref="AE19:AE31" si="21">IF(AD19="승리", $X$17-$W$2, -($Y$17+$W$2))</f>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="70"/>
       <c r="B20" s="40" t="s">
         <v>39</v>
       </c>
@@ -2839,14 +3461,14 @@
       <c r="L20" s="40">
         <v>0</v>
       </c>
-      <c r="M20" s="55"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="12">
         <f t="shared" si="11"/>
-        <v>3924.3</v>
+        <v>3962.4</v>
       </c>
       <c r="O20" s="12">
         <f t="shared" si="12"/>
-        <v>3733.8</v>
+        <v>3695.7</v>
       </c>
       <c r="P20" s="12">
         <v>4235</v>
@@ -2874,11 +3496,41 @@
       </c>
       <c r="W20" s="4">
         <f t="shared" si="15"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="16"/>
+        <v>3962.4</v>
+      </c>
+      <c r="Y20" s="12">
+        <f t="shared" si="17"/>
+        <v>3695.7</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>4235</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="18"/>
+        <v>11.15485564304462</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>3660</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="19"/>
+        <v>-3.9370078740157481</v>
+      </c>
+      <c r="AD20" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>승리</v>
+      </c>
+      <c r="AE20" s="4">
+        <f t="shared" si="21"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="70"/>
       <c r="B21" s="40" t="s">
         <v>40</v>
       </c>
@@ -2914,14 +3566,14 @@
       <c r="L21" s="40">
         <v>0</v>
       </c>
-      <c r="M21" s="55"/>
+      <c r="M21" s="61"/>
       <c r="N21" s="12">
         <f t="shared" si="11"/>
-        <v>5737.1</v>
+        <v>5792.8</v>
       </c>
       <c r="O21" s="12">
         <f t="shared" si="12"/>
-        <v>5458.6</v>
+        <v>5402.9</v>
       </c>
       <c r="P21" s="12">
         <v>5900</v>
@@ -2949,11 +3601,41 @@
       </c>
       <c r="W21" s="4">
         <f t="shared" si="15"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" si="16"/>
+        <v>5792.8</v>
+      </c>
+      <c r="Y21" s="12">
+        <f t="shared" si="17"/>
+        <v>5402.9</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>5900</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="18"/>
+        <v>5.9245960502693</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>5399</v>
+      </c>
+      <c r="AC21" s="16">
+        <f t="shared" si="19"/>
+        <v>-3.0700179533213645</v>
+      </c>
+      <c r="AD21" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>승리</v>
+      </c>
+      <c r="AE21" s="4">
+        <f t="shared" si="21"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="70"/>
       <c r="B22" s="40" t="s">
         <v>5</v>
       </c>
@@ -2989,14 +3671,14 @@
       <c r="L22" s="43">
         <v>0</v>
       </c>
-      <c r="M22" s="55"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="12">
         <f t="shared" si="11"/>
-        <v>1797.35</v>
+        <v>1814.8</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="12"/>
-        <v>1710.1</v>
+        <v>1692.65</v>
       </c>
       <c r="P22" s="12">
         <v>1725</v>
@@ -3024,11 +3706,41 @@
       </c>
       <c r="W22" s="4">
         <f t="shared" si="15"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X22" s="12">
+        <f t="shared" si="16"/>
+        <v>1814.8</v>
+      </c>
+      <c r="Y22" s="12">
+        <f t="shared" si="17"/>
+        <v>1692.65</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>1755</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="18"/>
+        <v>0.57306590257879653</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AC22" s="16">
+        <f t="shared" si="19"/>
+        <v>-6.8767908309455583</v>
+      </c>
+      <c r="AD22" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>패배</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="70"/>
       <c r="B23" s="13" t="s">
         <v>41</v>
       </c>
@@ -3064,14 +3776,14 @@
       <c r="L23" s="43">
         <v>0</v>
       </c>
-      <c r="M23" s="55"/>
+      <c r="M23" s="61"/>
       <c r="N23" s="12">
         <f t="shared" si="11"/>
-        <v>1050.5999999999999</v>
+        <v>1060.8</v>
       </c>
       <c r="O23" s="12">
         <f t="shared" si="12"/>
-        <v>999.6</v>
+        <v>989.4</v>
       </c>
       <c r="P23" s="12">
         <v>1045</v>
@@ -3099,11 +3811,41 @@
       </c>
       <c r="W23" s="4">
         <f t="shared" si="15"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X23" s="12">
+        <f t="shared" si="16"/>
+        <v>1060.8</v>
+      </c>
+      <c r="Y23" s="12">
+        <f t="shared" si="17"/>
+        <v>989.4</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>1045</v>
+      </c>
+      <c r="AA23" s="16">
+        <f t="shared" si="18"/>
+        <v>2.4509803921568629</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>936</v>
+      </c>
+      <c r="AC23" s="16">
+        <f t="shared" si="19"/>
+        <v>-8.235294117647058</v>
+      </c>
+      <c r="AD23" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>패배</v>
+      </c>
+      <c r="AE23" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="70"/>
       <c r="B24" s="40" t="s">
         <v>42</v>
       </c>
@@ -3139,14 +3881,14 @@
       <c r="L24" s="43">
         <v>0</v>
       </c>
-      <c r="M24" s="55"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="12">
         <f t="shared" si="11"/>
-        <v>3465.95</v>
+        <v>3499.6</v>
       </c>
       <c r="O24" s="12">
         <f t="shared" si="12"/>
-        <v>3297.7</v>
+        <v>3264.05</v>
       </c>
       <c r="P24" s="12">
         <v>3485</v>
@@ -3170,15 +3912,45 @@
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>승리</v>
+        <v>패배</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="15"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X24" s="12">
+        <f t="shared" si="16"/>
+        <v>3499.6</v>
+      </c>
+      <c r="Y24" s="12">
+        <f t="shared" si="17"/>
+        <v>3264.05</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>3485</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="18"/>
+        <v>3.5661218424962855</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>3120</v>
+      </c>
+      <c r="AC24" s="16">
+        <f t="shared" si="19"/>
+        <v>-7.2808320950965824</v>
+      </c>
+      <c r="AD24" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>패배</v>
+      </c>
+      <c r="AE24" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="70"/>
       <c r="B25" s="40" t="s">
         <v>43</v>
       </c>
@@ -3214,14 +3986,14 @@
       <c r="L25" s="43">
         <v>0</v>
       </c>
-      <c r="M25" s="55"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="12">
         <f t="shared" si="11"/>
-        <v>2209.35</v>
+        <v>2230.8000000000002</v>
       </c>
       <c r="O25" s="12">
         <f t="shared" si="12"/>
-        <v>2102.1</v>
+        <v>2080.65</v>
       </c>
       <c r="P25" s="12">
         <v>2175</v>
@@ -3249,11 +4021,41 @@
       </c>
       <c r="W25" s="4">
         <f t="shared" si="15"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" si="16"/>
+        <v>2230.8000000000002</v>
+      </c>
+      <c r="Y25" s="12">
+        <f t="shared" si="17"/>
+        <v>2080.65</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>2175</v>
+      </c>
+      <c r="AA25" s="16">
+        <f t="shared" si="18"/>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>2025</v>
+      </c>
+      <c r="AC25" s="16">
+        <f t="shared" si="19"/>
+        <v>-5.5944055944055942</v>
+      </c>
+      <c r="AD25" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>패배</v>
+      </c>
+      <c r="AE25" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="70"/>
       <c r="B26" s="40" t="s">
         <v>44</v>
       </c>
@@ -3289,14 +4091,14 @@
       <c r="L26" s="43">
         <v>0</v>
       </c>
-      <c r="M26" s="55"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="12">
         <f t="shared" si="11"/>
-        <v>11124</v>
+        <v>11232</v>
       </c>
       <c r="O26" s="12">
         <f t="shared" si="12"/>
-        <v>10584</v>
+        <v>10476</v>
       </c>
       <c r="P26" s="12">
         <v>11400</v>
@@ -3324,11 +4126,41 @@
       </c>
       <c r="W26" s="4">
         <f t="shared" si="15"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X26" s="12">
+        <f t="shared" si="16"/>
+        <v>11232</v>
+      </c>
+      <c r="Y26" s="12">
+        <f t="shared" si="17"/>
+        <v>10476</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>11400</v>
+      </c>
+      <c r="AA26" s="16">
+        <f t="shared" si="18"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>10050</v>
+      </c>
+      <c r="AC26" s="16">
+        <f t="shared" si="19"/>
+        <v>-6.9444444444444446</v>
+      </c>
+      <c r="AD26" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>승리</v>
+      </c>
+      <c r="AE26" s="4">
+        <f t="shared" si="21"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="70"/>
       <c r="B27" s="13" t="s">
         <v>45</v>
       </c>
@@ -3364,27 +4196,27 @@
       <c r="L27" s="43">
         <v>0</v>
       </c>
-      <c r="M27" s="55"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="12">
         <f t="shared" si="11"/>
-        <v>1725.25</v>
+        <v>1742</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="12"/>
-        <v>1641.5</v>
+        <v>1624.75</v>
       </c>
       <c r="P27" s="12">
         <v>1700</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" ref="Q27:Q31" si="16">((P27-$I27)*100/$I27)</f>
+        <f t="shared" ref="Q27:Q31" si="22">((P27-$I27)*100/$I27)</f>
         <v>1.4925373134328359</v>
       </c>
       <c r="R27" s="13">
         <v>1595</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" ref="S27:S31" si="17">((R27-$I27)*100/$I27)</f>
+        <f t="shared" ref="S27:S31" si="23">((R27-$I27)*100/$I27)</f>
         <v>-4.7761194029850742</v>
       </c>
       <c r="T27" s="44" t="s">
@@ -3399,11 +4231,41 @@
       </c>
       <c r="W27" s="4">
         <f t="shared" si="15"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X27" s="12">
+        <f t="shared" si="16"/>
+        <v>1742</v>
+      </c>
+      <c r="Y27" s="12">
+        <f t="shared" si="17"/>
+        <v>1624.75</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>1700</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="18"/>
+        <v>1.4925373134328359</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>1700</v>
+      </c>
+      <c r="AC27" s="16">
+        <f t="shared" si="19"/>
+        <v>1.4925373134328359</v>
+      </c>
+      <c r="AD27" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>패배</v>
+      </c>
+      <c r="AE27" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="70"/>
       <c r="B28" s="40" t="s">
         <v>46</v>
       </c>
@@ -3414,7 +4276,7 @@
         <v>0.57979715277777777</v>
       </c>
       <c r="E28" s="41">
-        <f t="shared" ref="E28:E31" si="18">D28-C28</f>
+        <f t="shared" ref="E28:E31" si="24">D28-C28</f>
         <v>0</v>
       </c>
       <c r="F28" s="41">
@@ -3424,7 +4286,7 @@
         <v>0.57979715277777777</v>
       </c>
       <c r="H28" s="41">
-        <f t="shared" ref="H28:H31" si="19">G28-F28</f>
+        <f t="shared" ref="H28:H31" si="25">G28-F28</f>
         <v>0</v>
       </c>
       <c r="I28" s="40">
@@ -3439,27 +4301,27 @@
       <c r="L28" s="43">
         <v>0</v>
       </c>
-      <c r="M28" s="55"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="12">
         <f t="shared" si="11"/>
-        <v>7725</v>
+        <v>7800</v>
       </c>
       <c r="O28" s="12">
         <f t="shared" si="12"/>
-        <v>7350</v>
+        <v>7275</v>
       </c>
       <c r="P28" s="12">
         <v>7700</v>
       </c>
       <c r="Q28" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="R28" s="13">
         <v>6760</v>
       </c>
       <c r="S28" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-9.8666666666666671</v>
       </c>
       <c r="T28" s="44" t="s">
@@ -3474,11 +4336,41 @@
       </c>
       <c r="W28" s="4">
         <f t="shared" si="15"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X28" s="12">
+        <f t="shared" si="16"/>
+        <v>7800</v>
+      </c>
+      <c r="Y28" s="12">
+        <f t="shared" si="17"/>
+        <v>7275</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>8090</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" ref="AA28:AA31" si="26">((Z28-$I28)*100/$I28)</f>
+        <v>7.8666666666666663</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>6760</v>
+      </c>
+      <c r="AC28" s="16">
+        <f t="shared" ref="AC28:AC31" si="27">((AB28-$I28)*100/$I28)</f>
+        <v>-9.8666666666666671</v>
+      </c>
+      <c r="AD28" s="4" t="str">
+        <f t="shared" ref="AD28:AD31" si="28">IF(Z28&gt;=X28,"승리","패배")</f>
+        <v>승리</v>
+      </c>
+      <c r="AE28" s="4">
+        <f t="shared" si="21"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="70"/>
       <c r="B29" s="40" t="s">
         <v>47</v>
       </c>
@@ -3489,7 +4381,7 @@
         <v>0.58587526620370367</v>
       </c>
       <c r="E29" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F29" s="41">
@@ -3499,7 +4391,7 @@
         <v>0.58587526620370367</v>
       </c>
       <c r="H29" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I29" s="40">
@@ -3514,27 +4406,27 @@
       <c r="L29" s="43">
         <v>0</v>
       </c>
-      <c r="M29" s="55"/>
+      <c r="M29" s="61"/>
       <c r="N29" s="12">
         <f t="shared" si="11"/>
-        <v>2595.6</v>
+        <v>2620.8000000000002</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="12"/>
-        <v>2469.6</v>
+        <v>2444.4</v>
       </c>
       <c r="P29" s="12">
         <v>2670</v>
       </c>
       <c r="Q29" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.9523809523809526</v>
       </c>
       <c r="R29" s="13">
         <v>2425</v>
       </c>
       <c r="S29" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-3.7698412698412698</v>
       </c>
       <c r="T29" s="44" t="s">
@@ -3549,11 +4441,41 @@
       </c>
       <c r="W29" s="4">
         <f t="shared" si="15"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="58"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X29" s="12">
+        <f t="shared" si="16"/>
+        <v>2620.8000000000002</v>
+      </c>
+      <c r="Y29" s="12">
+        <f t="shared" si="17"/>
+        <v>2444.4</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>2670</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="26"/>
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>2380</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="27"/>
+        <v>-5.5555555555555554</v>
+      </c>
+      <c r="AD29" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>승리</v>
+      </c>
+      <c r="AE29" s="4">
+        <f t="shared" si="21"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="70"/>
       <c r="B30" s="40" t="s">
         <v>48</v>
       </c>
@@ -3564,7 +4486,7 @@
         <v>0.60253489583333331</v>
       </c>
       <c r="E30" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F30" s="41">
@@ -3574,7 +4496,7 @@
         <v>0.60253489583333331</v>
       </c>
       <c r="H30" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I30" s="40">
@@ -3589,27 +4511,27 @@
       <c r="L30" s="43">
         <v>0</v>
       </c>
-      <c r="M30" s="55"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="12">
         <f t="shared" si="11"/>
-        <v>2410.1999999999998</v>
+        <v>2433.6</v>
       </c>
       <c r="O30" s="12">
         <f t="shared" si="12"/>
-        <v>2293.1999999999998</v>
+        <v>2269.8000000000002</v>
       </c>
       <c r="P30" s="12">
         <v>2775</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>18.589743589743591</v>
       </c>
       <c r="R30" s="13">
         <v>2275</v>
       </c>
       <c r="S30" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-2.7777777777777777</v>
       </c>
       <c r="T30" s="44" t="s">
@@ -3620,15 +4542,45 @@
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>패배</v>
+        <v>승리</v>
       </c>
       <c r="W30" s="4">
         <f t="shared" si="15"/>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="58"/>
+        <v>3.67</v>
+      </c>
+      <c r="X30" s="12">
+        <f t="shared" si="16"/>
+        <v>2433.6</v>
+      </c>
+      <c r="Y30" s="12">
+        <f t="shared" si="17"/>
+        <v>2269.8000000000002</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>2775</v>
+      </c>
+      <c r="AA30" s="16">
+        <f t="shared" si="26"/>
+        <v>18.589743589743591</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>2465</v>
+      </c>
+      <c r="AC30" s="16">
+        <f t="shared" si="27"/>
+        <v>5.3418803418803416</v>
+      </c>
+      <c r="AD30" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>승리</v>
+      </c>
+      <c r="AE30" s="4">
+        <f t="shared" si="21"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="70"/>
       <c r="B31" s="40" t="s">
         <v>49</v>
       </c>
@@ -3639,7 +4591,7 @@
         <v>0.61712174768518524</v>
       </c>
       <c r="E31" s="41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F31" s="41">
@@ -3649,7 +4601,7 @@
         <v>0.61712174768518524</v>
       </c>
       <c r="H31" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I31" s="40">
@@ -3664,27 +4616,27 @@
       <c r="L31" s="43">
         <v>0</v>
       </c>
-      <c r="M31" s="55"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="12">
         <f t="shared" si="11"/>
-        <v>2224.8000000000002</v>
+        <v>2246.4</v>
       </c>
       <c r="O31" s="12">
         <f t="shared" si="12"/>
-        <v>2116.8000000000002</v>
+        <v>2095.1999999999998</v>
       </c>
       <c r="P31" s="12">
         <v>2245</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.9351851851851851</v>
       </c>
       <c r="R31" s="13">
         <v>2150</v>
       </c>
       <c r="S31" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.46296296296296297</v>
       </c>
       <c r="T31" s="44" t="s">
@@ -3695,25 +4647,55 @@
       </c>
       <c r="V31" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>승리</v>
+        <v>패배</v>
       </c>
       <c r="W31" s="4">
         <f t="shared" si="15"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="51" t="s">
+        <v>-3.33</v>
+      </c>
+      <c r="X31" s="12">
+        <f t="shared" si="16"/>
+        <v>2246.4</v>
+      </c>
+      <c r="Y31" s="12">
+        <f t="shared" si="17"/>
+        <v>2095.1999999999998</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>2245</v>
+      </c>
+      <c r="AA31" s="16">
+        <f t="shared" si="26"/>
+        <v>3.9351851851851851</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>2100</v>
+      </c>
+      <c r="AC31" s="16">
+        <f t="shared" si="27"/>
+        <v>-2.7777777777777777</v>
+      </c>
+      <c r="AD31" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>패배</v>
+      </c>
+      <c r="AE31" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="3" t="s">
         <v>24</v>
       </c>
@@ -3725,7 +4707,7 @@
         <f>SUM(L18:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="56"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="17" t="s">
         <v>28</v>
       </c>
@@ -3756,16 +4738,1372 @@
       </c>
       <c r="V32" s="26">
         <f>COUNTIF(V18:V31, "승리")/COUNTA(V18:V31)</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="W32" s="47">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W32" s="55">
         <f>AVERAGE(W18:W31)</f>
-        <v>-0.54428571428571437</v>
-      </c>
-    </row>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+        <v>-1.33</v>
+      </c>
+      <c r="X32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA32" s="24">
+        <f>AVERAGE(AA18:AA31)</f>
+        <v>5.1782947621133184</v>
+      </c>
+      <c r="AB32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC32" s="24">
+        <f>AVERAGE(AC18:AC31)</f>
+        <v>-6.1737227013689866</v>
+      </c>
+      <c r="AD32" s="26">
+        <f>COUNTIF(AD18:AD31, "승리")/COUNTA(AD18:AD31)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE32" s="47">
+        <f>AVERAGE(AE18:AE31)</f>
+        <v>-0.33000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="4.8499999999999996" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+    </row>
+    <row r="34" spans="1:31" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="69">
+        <v>42654</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="65"/>
+      <c r="K34" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="60"/>
+      <c r="N34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="51">
+        <v>0.33</v>
+      </c>
+      <c r="X34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y34" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="14">
+        <v>4</v>
+      </c>
+      <c r="O35" s="14">
+        <v>3</v>
+      </c>
+      <c r="P35" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="V35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W35" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="14">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA35" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB35" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC35" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE35" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="70"/>
+      <c r="B36" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="74">
+        <v>0.4173014351851852</v>
+      </c>
+      <c r="D36" s="74">
+        <v>0.4173014351851852</v>
+      </c>
+      <c r="E36" s="74">
+        <f>D36-C36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="74">
+        <v>0.4229307986111111</v>
+      </c>
+      <c r="G36" s="74">
+        <v>0.4229307986111111</v>
+      </c>
+      <c r="H36" s="74">
+        <f>G36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="75">
+        <v>3665</v>
+      </c>
+      <c r="J36" s="75">
+        <v>3590</v>
+      </c>
+      <c r="K36" s="76">
+        <v>-2.37</v>
+      </c>
+      <c r="L36" s="77">
+        <v>-7035</v>
+      </c>
+      <c r="M36" s="61"/>
+      <c r="N36" s="12">
+        <f>I36+((I36/100)*N$35)</f>
+        <v>3811.6</v>
+      </c>
+      <c r="O36" s="12">
+        <f>I36-((I36/100)*O$35)</f>
+        <v>3555.05</v>
+      </c>
+      <c r="P36" s="12">
+        <v>3950</v>
+      </c>
+      <c r="Q36" s="16">
+        <f>((P36-$I36)*100/$I36)</f>
+        <v>7.7762619372442021</v>
+      </c>
+      <c r="R36" s="13">
+        <v>3550</v>
+      </c>
+      <c r="S36" s="16">
+        <f>((R36-$I36)*100/$I36)</f>
+        <v>-3.1377899045020463</v>
+      </c>
+      <c r="T36" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U36" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" s="4" t="str">
+        <f t="shared" ref="V36:V45" si="29">IF(U36="▲",IF(N36&lt;=P36,"승리","패배"),IF(O36&gt;=R36,"패배",IF(N36&lt;=P36,"승리","패배")))</f>
+        <v>패배</v>
+      </c>
+      <c r="W36" s="4">
+        <f>IF(V36="승리", $N$35-$W$2, -($O$35+$W$2))</f>
+        <v>-3.33</v>
+      </c>
+      <c r="X36" s="12">
+        <f>I36+((I36/100)*X$35)</f>
+        <v>3811.6</v>
+      </c>
+      <c r="Y36" s="12">
+        <f>I36-((I36/100)*Y$35)</f>
+        <v>3555.05</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>3960</v>
+      </c>
+      <c r="AA36" s="16">
+        <f>((Z36-$I36)*100/$I36)</f>
+        <v>8.0491132332878585</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>3364</v>
+      </c>
+      <c r="AC36" s="16">
+        <f>((AB36-$I36)*100/$I36)</f>
+        <v>-8.2128240109140513</v>
+      </c>
+      <c r="AD36" s="4" t="str">
+        <f>IF(Z36&gt;=X36,"승리","패배")</f>
+        <v>승리</v>
+      </c>
+      <c r="AE36" s="4">
+        <f>IF(AD36="승리", $X$35-$W$2, -($Y$35+$W$2))</f>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="70"/>
+      <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.41773509259259262</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.41773509259259262</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" ref="E37:E45" si="30">D37-C37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.43555233796296294</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.43555233796296294</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" ref="H37:H45" si="31">G37-F37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="78">
+        <v>10050</v>
+      </c>
+      <c r="J37" s="78">
+        <v>10350</v>
+      </c>
+      <c r="K37" s="21">
+        <v>2.65</v>
+      </c>
+      <c r="L37" s="7">
+        <v>7711</v>
+      </c>
+      <c r="M37" s="61"/>
+      <c r="N37" s="12">
+        <f t="shared" ref="N37:N45" si="32">I37+((I37/100)*N$35)</f>
+        <v>10452</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" ref="O37:O45" si="33">I37-((I37/100)*O$35)</f>
+        <v>9748.5</v>
+      </c>
+      <c r="P37" s="12">
+        <v>11200</v>
+      </c>
+      <c r="Q37" s="16">
+        <f t="shared" ref="Q37:Q45" si="34">((P37-$I37)*100/$I37)</f>
+        <v>11.442786069651742</v>
+      </c>
+      <c r="R37" s="13">
+        <v>9950</v>
+      </c>
+      <c r="S37" s="16">
+        <f t="shared" ref="S37:S45" si="35">((R37-$I37)*100/$I37)</f>
+        <v>-0.99502487562189057</v>
+      </c>
+      <c r="T37" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U37" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>승리</v>
+      </c>
+      <c r="W37" s="4">
+        <f t="shared" ref="W37:W45" si="36">IF(V37="승리", $N$35-$W$2, -($O$35+$W$2))</f>
+        <v>3.67</v>
+      </c>
+      <c r="X37" s="12">
+        <f t="shared" ref="X37:X45" si="37">I37+((I37/100)*X$35)</f>
+        <v>10452</v>
+      </c>
+      <c r="Y37" s="12">
+        <f t="shared" ref="Y37:Y45" si="38">I37-((I37/100)*Y$35)</f>
+        <v>9748.5</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>11200</v>
+      </c>
+      <c r="AA37" s="16">
+        <f t="shared" ref="AA37:AA45" si="39">((Z37-$I37)*100/$I37)</f>
+        <v>11.442786069651742</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>9600</v>
+      </c>
+      <c r="AC37" s="16">
+        <f t="shared" ref="AC37:AC45" si="40">((AB37-$I37)*100/$I37)</f>
+        <v>-4.4776119402985071</v>
+      </c>
+      <c r="AD37" s="4" t="str">
+        <f t="shared" ref="AD37:AD45" si="41">IF(Z37&gt;=X37,"승리","패배")</f>
+        <v>승리</v>
+      </c>
+      <c r="AE37" s="4">
+        <f t="shared" ref="AE37:AE45" si="42">IF(AD37="승리", $X$35-$W$2, -($Y$35+$W$2))</f>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="70"/>
+      <c r="B38" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="74">
+        <v>0.43617466435185187</v>
+      </c>
+      <c r="D38" s="74">
+        <v>0.43617466435185187</v>
+      </c>
+      <c r="E38" s="74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="74">
+        <v>0.44067016203703702</v>
+      </c>
+      <c r="G38" s="74">
+        <v>0.44067016203703702</v>
+      </c>
+      <c r="H38" s="74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="75">
+        <v>4565</v>
+      </c>
+      <c r="J38" s="75">
+        <v>4515</v>
+      </c>
+      <c r="K38" s="76">
+        <v>-1.42</v>
+      </c>
+      <c r="L38" s="77">
+        <v>-4219</v>
+      </c>
+      <c r="M38" s="61"/>
+      <c r="N38" s="12">
+        <f t="shared" si="32"/>
+        <v>4747.6000000000004</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="33"/>
+        <v>4428.05</v>
+      </c>
+      <c r="P38" s="12">
+        <v>4935</v>
+      </c>
+      <c r="Q38" s="16">
+        <f t="shared" si="34"/>
+        <v>8.1051478641840085</v>
+      </c>
+      <c r="R38" s="13">
+        <v>4455</v>
+      </c>
+      <c r="S38" s="16">
+        <f t="shared" si="35"/>
+        <v>-2.4096385542168677</v>
+      </c>
+      <c r="T38" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U38" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V38" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>승리</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="36"/>
+        <v>3.67</v>
+      </c>
+      <c r="X38" s="12">
+        <f t="shared" si="37"/>
+        <v>4747.6000000000004</v>
+      </c>
+      <c r="Y38" s="12">
+        <f t="shared" si="38"/>
+        <v>4428.05</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>4935</v>
+      </c>
+      <c r="AA38" s="16">
+        <f t="shared" si="39"/>
+        <v>8.1051478641840085</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>4315</v>
+      </c>
+      <c r="AC38" s="16">
+        <f t="shared" si="40"/>
+        <v>-5.47645125958379</v>
+      </c>
+      <c r="AD38" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>승리</v>
+      </c>
+      <c r="AE38" s="4">
+        <f t="shared" si="42"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="70"/>
+      <c r="B39" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="74">
+        <v>0.47207622685185185</v>
+      </c>
+      <c r="D39" s="74">
+        <v>0.47207622685185185</v>
+      </c>
+      <c r="E39" s="74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="74">
+        <v>0.47659065972222225</v>
+      </c>
+      <c r="G39" s="74">
+        <v>0.47659065972222225</v>
+      </c>
+      <c r="H39" s="74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="75">
+        <v>5660</v>
+      </c>
+      <c r="J39" s="75">
+        <v>5540</v>
+      </c>
+      <c r="K39" s="76">
+        <v>-2.44</v>
+      </c>
+      <c r="L39" s="77">
+        <v>-7329</v>
+      </c>
+      <c r="M39" s="61"/>
+      <c r="N39" s="12">
+        <f t="shared" si="32"/>
+        <v>5886.4</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="33"/>
+        <v>5490.2</v>
+      </c>
+      <c r="P39" s="12">
+        <v>5660</v>
+      </c>
+      <c r="Q39" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="13">
+        <v>5230</v>
+      </c>
+      <c r="S39" s="16">
+        <f t="shared" si="35"/>
+        <v>-7.5971731448763249</v>
+      </c>
+      <c r="T39" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="U39" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V39" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>패배</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" si="36"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X39" s="12">
+        <f t="shared" si="37"/>
+        <v>5886.4</v>
+      </c>
+      <c r="Y39" s="12">
+        <f t="shared" si="38"/>
+        <v>5490.2</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>5560</v>
+      </c>
+      <c r="AA39" s="16">
+        <f t="shared" si="39"/>
+        <v>-1.7667844522968197</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>5230</v>
+      </c>
+      <c r="AC39" s="16">
+        <f t="shared" si="40"/>
+        <v>-7.5971731448763249</v>
+      </c>
+      <c r="AD39" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>패배</v>
+      </c>
+      <c r="AE39" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="70"/>
+      <c r="B40" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="74">
+        <v>0.49319888888888891</v>
+      </c>
+      <c r="D40" s="74">
+        <v>0.49319888888888891</v>
+      </c>
+      <c r="E40" s="74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="74">
+        <v>0.50102186342592592</v>
+      </c>
+      <c r="G40" s="74">
+        <v>0.50102186342592592</v>
+      </c>
+      <c r="H40" s="74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="75">
+        <v>6560</v>
+      </c>
+      <c r="J40" s="75">
+        <v>4865</v>
+      </c>
+      <c r="K40" s="76">
+        <v>-2.31</v>
+      </c>
+      <c r="L40" s="77">
+        <v>-6806</v>
+      </c>
+      <c r="M40" s="61"/>
+      <c r="N40" s="12">
+        <f t="shared" si="32"/>
+        <v>6822.4</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="33"/>
+        <v>6363.2</v>
+      </c>
+      <c r="P40" s="12">
+        <v>6700</v>
+      </c>
+      <c r="Q40" s="16">
+        <f t="shared" si="34"/>
+        <v>2.1341463414634148</v>
+      </c>
+      <c r="R40" s="13">
+        <v>5899</v>
+      </c>
+      <c r="S40" s="16">
+        <f t="shared" si="35"/>
+        <v>-10.076219512195122</v>
+      </c>
+      <c r="T40" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U40" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V40" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>패배</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="36"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X40" s="12">
+        <f t="shared" si="37"/>
+        <v>6822.4</v>
+      </c>
+      <c r="Y40" s="12">
+        <f t="shared" si="38"/>
+        <v>6363.2</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>6700</v>
+      </c>
+      <c r="AA40" s="16">
+        <f t="shared" si="39"/>
+        <v>2.1341463414634148</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>5899</v>
+      </c>
+      <c r="AC40" s="16">
+        <f t="shared" si="40"/>
+        <v>-10.076219512195122</v>
+      </c>
+      <c r="AD40" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>패배</v>
+      </c>
+      <c r="AE40" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="70"/>
+      <c r="B41" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.4942421296296296</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.4942421296296296</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.49676569444444446</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.49676569444444446</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="78">
+        <v>4725</v>
+      </c>
+      <c r="J41" s="78">
+        <v>6430</v>
+      </c>
+      <c r="K41" s="21">
+        <v>2.62</v>
+      </c>
+      <c r="L41" s="7">
+        <v>7810</v>
+      </c>
+      <c r="M41" s="61"/>
+      <c r="N41" s="12">
+        <f t="shared" si="32"/>
+        <v>4914</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" si="33"/>
+        <v>4583.25</v>
+      </c>
+      <c r="P41" s="12">
+        <v>4935</v>
+      </c>
+      <c r="Q41" s="16">
+        <f t="shared" si="34"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="R41" s="13">
+        <v>4705</v>
+      </c>
+      <c r="S41" s="16">
+        <f t="shared" si="35"/>
+        <v>-0.42328042328042326</v>
+      </c>
+      <c r="T41" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V41" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>승리</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="36"/>
+        <v>3.67</v>
+      </c>
+      <c r="X41" s="12">
+        <f t="shared" si="37"/>
+        <v>4914</v>
+      </c>
+      <c r="Y41" s="12">
+        <f t="shared" si="38"/>
+        <v>4583.25</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>5060</v>
+      </c>
+      <c r="AA41" s="16">
+        <f t="shared" si="39"/>
+        <v>7.0899470899470902</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>4340</v>
+      </c>
+      <c r="AC41" s="16">
+        <f t="shared" si="40"/>
+        <v>-8.1481481481481488</v>
+      </c>
+      <c r="AD41" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>승리</v>
+      </c>
+      <c r="AE41" s="4">
+        <f t="shared" si="42"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="70"/>
+      <c r="B42" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="74">
+        <v>0.52238687500000003</v>
+      </c>
+      <c r="D42" s="74">
+        <v>0.52238687500000003</v>
+      </c>
+      <c r="E42" s="74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="74">
+        <v>0.5254586921296297</v>
+      </c>
+      <c r="G42" s="74">
+        <v>0.5254586921296297</v>
+      </c>
+      <c r="H42" s="74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="75">
+        <v>2980</v>
+      </c>
+      <c r="J42" s="75">
+        <v>2915</v>
+      </c>
+      <c r="K42" s="76">
+        <v>-2.5</v>
+      </c>
+      <c r="L42" s="77">
+        <v>-7463</v>
+      </c>
+      <c r="M42" s="61"/>
+      <c r="N42" s="12">
+        <f t="shared" si="32"/>
+        <v>3099.2</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" si="33"/>
+        <v>2890.6</v>
+      </c>
+      <c r="P42" s="12">
+        <v>3260</v>
+      </c>
+      <c r="Q42" s="16">
+        <f t="shared" si="34"/>
+        <v>9.3959731543624159</v>
+      </c>
+      <c r="R42" s="13">
+        <v>2900</v>
+      </c>
+      <c r="S42" s="16">
+        <f t="shared" si="35"/>
+        <v>-2.6845637583892619</v>
+      </c>
+      <c r="T42" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U42" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V42" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>승리</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="36"/>
+        <v>3.67</v>
+      </c>
+      <c r="X42" s="12">
+        <f t="shared" si="37"/>
+        <v>3099.2</v>
+      </c>
+      <c r="Y42" s="12">
+        <f t="shared" si="38"/>
+        <v>2890.6</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>3260</v>
+      </c>
+      <c r="AA42" s="16">
+        <f t="shared" si="39"/>
+        <v>9.3959731543624159</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>2840</v>
+      </c>
+      <c r="AC42" s="16">
+        <f t="shared" si="40"/>
+        <v>-4.6979865771812079</v>
+      </c>
+      <c r="AD42" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>승리</v>
+      </c>
+      <c r="AE42" s="4">
+        <f t="shared" si="42"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="70"/>
+      <c r="B43" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="74">
+        <v>0.52592731481481481</v>
+      </c>
+      <c r="D43" s="74">
+        <v>0.52592731481481481</v>
+      </c>
+      <c r="E43" s="74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="74">
+        <v>0.52855824074074076</v>
+      </c>
+      <c r="G43" s="74">
+        <v>0.52855824074074076</v>
+      </c>
+      <c r="H43" s="74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="75">
+        <v>7700</v>
+      </c>
+      <c r="J43" s="75">
+        <v>7540</v>
+      </c>
+      <c r="K43" s="76">
+        <v>-2.4</v>
+      </c>
+      <c r="L43" s="77">
+        <v>-7026</v>
+      </c>
+      <c r="M43" s="61"/>
+      <c r="N43" s="12">
+        <f t="shared" si="32"/>
+        <v>8008</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="33"/>
+        <v>7469</v>
+      </c>
+      <c r="P43" s="12">
+        <v>8300</v>
+      </c>
+      <c r="Q43" s="16">
+        <f t="shared" si="34"/>
+        <v>7.7922077922077921</v>
+      </c>
+      <c r="R43" s="13">
+        <v>7230</v>
+      </c>
+      <c r="S43" s="16">
+        <f t="shared" si="35"/>
+        <v>-6.1038961038961039</v>
+      </c>
+      <c r="T43" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U43" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V43" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>패배</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="36"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X43" s="12">
+        <f t="shared" si="37"/>
+        <v>8008</v>
+      </c>
+      <c r="Y43" s="12">
+        <f t="shared" si="38"/>
+        <v>7469</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>8300</v>
+      </c>
+      <c r="AA43" s="16">
+        <f t="shared" si="39"/>
+        <v>7.7922077922077921</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>7230</v>
+      </c>
+      <c r="AC43" s="16">
+        <f t="shared" si="40"/>
+        <v>-6.1038961038961039</v>
+      </c>
+      <c r="AD43" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>승리</v>
+      </c>
+      <c r="AE43" s="4">
+        <f t="shared" si="42"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="70"/>
+      <c r="B44" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="74">
+        <v>0.56671056712962964</v>
+      </c>
+      <c r="D44" s="74">
+        <v>0.56671056712962964</v>
+      </c>
+      <c r="E44" s="74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="74">
+        <v>0.56789230324074069</v>
+      </c>
+      <c r="G44" s="74">
+        <v>0.56789230324074069</v>
+      </c>
+      <c r="H44" s="74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="75">
+        <v>6420</v>
+      </c>
+      <c r="J44" s="75">
+        <v>6280</v>
+      </c>
+      <c r="K44" s="76">
+        <v>-2.5</v>
+      </c>
+      <c r="L44" s="77">
+        <v>-7394</v>
+      </c>
+      <c r="M44" s="61"/>
+      <c r="N44" s="12">
+        <f t="shared" si="32"/>
+        <v>6676.8</v>
+      </c>
+      <c r="O44" s="12">
+        <f t="shared" si="33"/>
+        <v>6227.4</v>
+      </c>
+      <c r="P44" s="12">
+        <v>6450</v>
+      </c>
+      <c r="Q44" s="16">
+        <f t="shared" si="34"/>
+        <v>0.46728971962616822</v>
+      </c>
+      <c r="R44" s="13">
+        <v>5970</v>
+      </c>
+      <c r="S44" s="16">
+        <f t="shared" si="35"/>
+        <v>-7.009345794392523</v>
+      </c>
+      <c r="T44" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="U44" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V44" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>패배</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="36"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X44" s="12">
+        <f t="shared" si="37"/>
+        <v>6676.8</v>
+      </c>
+      <c r="Y44" s="12">
+        <f t="shared" si="38"/>
+        <v>6227.4</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>6450</v>
+      </c>
+      <c r="AA44" s="16">
+        <f t="shared" si="39"/>
+        <v>0.46728971962616822</v>
+      </c>
+      <c r="AB44" s="13">
+        <v>5970</v>
+      </c>
+      <c r="AC44" s="16">
+        <f t="shared" si="40"/>
+        <v>-7.009345794392523</v>
+      </c>
+      <c r="AD44" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>패배</v>
+      </c>
+      <c r="AE44" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="70"/>
+      <c r="B45" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="74">
+        <v>0.58511539351851849</v>
+      </c>
+      <c r="D45" s="74">
+        <v>0.58511539351851849</v>
+      </c>
+      <c r="E45" s="74">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="74">
+        <v>0.58538209490740745</v>
+      </c>
+      <c r="G45" s="74">
+        <v>0.58538209490740745</v>
+      </c>
+      <c r="H45" s="74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="75">
+        <v>6820</v>
+      </c>
+      <c r="J45" s="75">
+        <v>6740</v>
+      </c>
+      <c r="K45" s="76">
+        <v>-1.5</v>
+      </c>
+      <c r="L45" s="77">
+        <v>-4396</v>
+      </c>
+      <c r="M45" s="61"/>
+      <c r="N45" s="12">
+        <f t="shared" si="32"/>
+        <v>7092.8</v>
+      </c>
+      <c r="O45" s="12">
+        <f t="shared" si="33"/>
+        <v>6615.4</v>
+      </c>
+      <c r="P45" s="12">
+        <v>6870</v>
+      </c>
+      <c r="Q45" s="16">
+        <f t="shared" si="34"/>
+        <v>0.73313782991202348</v>
+      </c>
+      <c r="R45" s="13">
+        <v>6200</v>
+      </c>
+      <c r="S45" s="16">
+        <f t="shared" si="35"/>
+        <v>-9.0909090909090917</v>
+      </c>
+      <c r="T45" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="U45" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V45" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>패배</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="36"/>
+        <v>-3.33</v>
+      </c>
+      <c r="X45" s="12">
+        <f t="shared" si="37"/>
+        <v>7092.8</v>
+      </c>
+      <c r="Y45" s="12">
+        <f t="shared" si="38"/>
+        <v>6615.4</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>6870</v>
+      </c>
+      <c r="AA45" s="16">
+        <f t="shared" si="39"/>
+        <v>0.73313782991202348</v>
+      </c>
+      <c r="AB45" s="13">
+        <v>6200</v>
+      </c>
+      <c r="AC45" s="16">
+        <f t="shared" si="40"/>
+        <v>-9.0909090909090917</v>
+      </c>
+      <c r="AD45" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>패배</v>
+      </c>
+      <c r="AE45" s="4">
+        <f t="shared" si="42"/>
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="39">
+        <f>SUM(K36:K45)/100</f>
+        <v>-0.1217</v>
+      </c>
+      <c r="L46" s="53">
+        <f>SUM(L36:L45)</f>
+        <v>-36147</v>
+      </c>
+      <c r="M46" s="62"/>
+      <c r="N46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="24">
+        <f>AVERAGE(Q36:Q45)</f>
+        <v>5.2291395153096207</v>
+      </c>
+      <c r="R46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="24">
+        <f>AVERAGE(S36:S45)</f>
+        <v>-4.9527841162279653</v>
+      </c>
+      <c r="T46" s="48">
+        <f>COUNTIF(T40:T45, "▲")/COUNTA(T40:T45)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U46" s="48">
+        <f>COUNTIF(U40:U45, "▲")/COUNTA(U40:U45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V46" s="26">
+        <f>COUNTIF(V36:V45, "승리")/COUNTA(V36:V45)</f>
+        <v>0.4</v>
+      </c>
+      <c r="W46" s="47">
+        <f>AVERAGE(W36:W45)</f>
+        <v>-0.53</v>
+      </c>
+      <c r="X46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA46" s="24">
+        <f>AVERAGE(AA36:AA45)</f>
+        <v>5.3442964642345689</v>
+      </c>
+      <c r="AB46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC46" s="24">
+        <f>AVERAGE(AC36:AC45)</f>
+        <v>-7.0890565582394869</v>
+      </c>
+      <c r="AD46" s="26">
+        <f>COUNTIF(AD36:AD45, "승리")/COUNTA(AD36:AD45)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AE46" s="47">
+        <f>AVERAGE(AE36:AE45)</f>
+        <v>0.86999999999999988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="54"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="31">
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="P16:V16"/>
@@ -3787,12 +6125,1029 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M46"/>
+    <mergeCell ref="P34:V34"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="V14" formula="1"/>
+    <ignoredError sqref="V14 AD46 AD32" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.92578125" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="52">
+        <v>0.4229307986111111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="52">
+        <v>0.43555233796296294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="52">
+        <v>0.44067016203703702</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.47659065972222225</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0.49676569444444446</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.50102186342592592</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.5254586921296297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.52855824074074076</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="52">
+        <v>0.56789230324074069</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0.58538209490740745</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15">
+        <v>3665</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16">
+        <v>10050</v>
+      </c>
+      <c r="H16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17">
+        <v>4565</v>
+      </c>
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18">
+        <v>5660</v>
+      </c>
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19">
+        <v>6560</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20">
+        <v>4725</v>
+      </c>
+      <c r="H20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21">
+        <v>2980</v>
+      </c>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22">
+        <v>7700</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23">
+        <v>6420</v>
+      </c>
+      <c r="H23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24">
+        <v>6820</v>
+      </c>
+      <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27">
+        <v>3590</v>
+      </c>
+      <c r="K27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28">
+        <v>10350</v>
+      </c>
+      <c r="K28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29">
+        <v>4515</v>
+      </c>
+      <c r="K29" t="s">
+        <v>136</v>
+      </c>
+      <c r="L29" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30">
+        <v>5540</v>
+      </c>
+      <c r="K30" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31">
+        <v>4865</v>
+      </c>
+      <c r="K31" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" t="s">
+        <v>176</v>
+      </c>
+      <c r="M31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32">
+        <v>6430</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" t="s">
+        <v>176</v>
+      </c>
+      <c r="M32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33">
+        <v>2915</v>
+      </c>
+      <c r="K33" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34">
+        <v>7540</v>
+      </c>
+      <c r="K34" t="s">
+        <v>162</v>
+      </c>
+      <c r="L34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35">
+        <v>6280</v>
+      </c>
+      <c r="K35" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36">
+        <v>6740</v>
+      </c>
+      <c r="K36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36" t="s">
+        <v>176</v>
+      </c>
+      <c r="M36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -2033,7 +2033,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="166">
   <si>
     <t>파인디엔씨</t>
   </si>
@@ -2613,6 +2613,40 @@
   </si>
   <si>
     <t>승리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국영지앤엠</t>
+  </si>
+  <si>
+    <t>해마로푸드서비스</t>
+  </si>
+  <si>
+    <t>고점전</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고점후</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고점전</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고점전</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고점전</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3730,7 +3764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4148,14 +4182,218 @@
     <xf numFmtId="179" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="38" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4166,205 +4404,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="38" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="33" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4689,12 +4732,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK118"/>
+  <dimension ref="A1:AK132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="O114" sqref="O114:O117"/>
+      <selection pane="topRight" activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4720,94 +4763,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
       <c r="AC1" s="57"/>
       <c r="AD1" s="57"/>
       <c r="AE1" s="57"/>
     </row>
     <row r="2" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="171">
+      <c r="A2" s="197">
         <v>42650</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="198" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="153" t="s">
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="153" t="s">
+      <c r="H2" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="152" t="s">
+      <c r="I2" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
       <c r="M2" s="114"/>
-      <c r="N2" s="149" t="s">
+      <c r="N2" s="188" t="s">
         <v>106</v>
       </c>
       <c r="O2" s="93"/>
-      <c r="P2" s="158" t="s">
+      <c r="P2" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="158" t="s">
+      <c r="Q2" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="160"/>
+      <c r="R2" s="201"/>
       <c r="S2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="163" t="s">
+      <c r="U2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="165"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="206"/>
       <c r="AB2" s="56">
         <v>0.33</v>
       </c>
@@ -4816,8 +4859,8 @@
       <c r="AE2"/>
     </row>
     <row r="3" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
       <c r="C3" s="56" t="s">
         <v>79</v>
       </c>
@@ -4830,8 +4873,8 @@
       <c r="F3" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
       <c r="I3" s="112" t="s">
         <v>107</v>
       </c>
@@ -4843,11 +4886,11 @@
         <v>28</v>
       </c>
       <c r="M3" s="115"/>
-      <c r="N3" s="140"/>
+      <c r="N3" s="155"/>
       <c r="O3" s="94"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="161"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="202"/>
       <c r="S3" s="13">
         <v>3</v>
       </c>
@@ -4883,7 +4926,7 @@
       <c r="AE3"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="157"/>
+      <c r="A4" s="198"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -4924,7 +4967,7 @@
       <c r="Q4" s="4">
         <v>2013</v>
       </c>
-      <c r="R4" s="161"/>
+      <c r="R4" s="202"/>
       <c r="S4" s="11">
         <f t="shared" ref="S4:S13" si="1">K4+((K4/100)*S$3)</f>
         <v>5139.7</v>
@@ -4966,7 +5009,7 @@
       <c r="AE4"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="157"/>
+      <c r="A5" s="198"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -5007,7 +5050,7 @@
       <c r="Q5" s="4">
         <v>2266</v>
       </c>
-      <c r="R5" s="161"/>
+      <c r="R5" s="202"/>
       <c r="S5" s="11">
         <f t="shared" si="1"/>
         <v>4243.6000000000004</v>
@@ -5049,7 +5092,7 @@
       <c r="AE5"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="157"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -5090,7 +5133,7 @@
       <c r="Q6" s="4">
         <v>2927</v>
       </c>
-      <c r="R6" s="161"/>
+      <c r="R6" s="202"/>
       <c r="S6" s="11">
         <f t="shared" si="1"/>
         <v>11639</v>
@@ -5132,7 +5175,7 @@
       <c r="AE6"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="157"/>
+      <c r="A7" s="198"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -5173,7 +5216,7 @@
       <c r="Q7" s="4">
         <v>2378</v>
       </c>
-      <c r="R7" s="161"/>
+      <c r="R7" s="202"/>
       <c r="S7" s="11">
         <f t="shared" si="1"/>
         <v>3646.2</v>
@@ -5215,7 +5258,7 @@
       <c r="AE7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="157"/>
+      <c r="A8" s="198"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5256,7 +5299,7 @@
       <c r="Q8" s="6">
         <v>2120</v>
       </c>
-      <c r="R8" s="161"/>
+      <c r="R8" s="202"/>
       <c r="S8" s="11">
         <f t="shared" si="1"/>
         <v>4459.8999999999996</v>
@@ -5298,7 +5341,7 @@
       <c r="AE8"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="157"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -5339,7 +5382,7 @@
       <c r="Q9" s="10">
         <v>-8632</v>
       </c>
-      <c r="R9" s="161"/>
+      <c r="R9" s="202"/>
       <c r="S9" s="11">
         <f t="shared" si="1"/>
         <v>1601.65</v>
@@ -5379,7 +5422,7 @@
       <c r="AC9" s="79"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="157"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -5420,7 +5463,7 @@
       <c r="Q10" s="6">
         <v>2299</v>
       </c>
-      <c r="R10" s="161"/>
+      <c r="R10" s="202"/>
       <c r="S10" s="11">
         <f t="shared" si="1"/>
         <v>3733.75</v>
@@ -5462,7 +5505,7 @@
       <c r="AE10"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="157"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -5503,7 +5546,7 @@
       <c r="Q11" s="6">
         <v>2003</v>
       </c>
-      <c r="R11" s="161"/>
+      <c r="R11" s="202"/>
       <c r="S11" s="11">
         <f t="shared" si="1"/>
         <v>9136.1</v>
@@ -5545,7 +5588,7 @@
       <c r="AE11"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="157"/>
+      <c r="A12" s="198"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -5586,7 +5629,7 @@
       <c r="Q12" s="6">
         <v>1962</v>
       </c>
-      <c r="R12" s="161"/>
+      <c r="R12" s="202"/>
       <c r="S12" s="11">
         <f t="shared" si="1"/>
         <v>5232.3999999999996</v>
@@ -5628,7 +5671,7 @@
       <c r="AE12"/>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="157"/>
+      <c r="A13" s="198"/>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
@@ -5669,7 +5712,7 @@
       <c r="Q13" s="10">
         <v>-8540</v>
       </c>
-      <c r="R13" s="161"/>
+      <c r="R13" s="202"/>
       <c r="S13" s="11">
         <f t="shared" si="1"/>
         <v>7982.5</v>
@@ -5709,24 +5752,24 @@
       <c r="AC13" s="79"/>
     </row>
     <row r="14" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="145" t="s">
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="146"/>
+      <c r="H14" s="192"/>
       <c r="I14" s="109"/>
       <c r="J14" s="109"/>
-      <c r="K14" s="147" t="s">
+      <c r="K14" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="148"/>
+      <c r="L14" s="194"/>
       <c r="M14" s="118"/>
       <c r="N14" s="102"/>
       <c r="O14" s="102"/>
@@ -5738,7 +5781,7 @@
         <f>SUM(Q4:Q13)</f>
         <v>796</v>
       </c>
-      <c r="R14" s="162"/>
+      <c r="R14" s="203"/>
       <c r="S14" s="15" t="s">
         <v>23</v>
       </c>
@@ -5819,59 +5862,59 @@
       <c r="AK15" s="47"/>
     </row>
     <row r="16" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="171">
+      <c r="A16" s="197">
         <v>42653</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="198" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="153" t="s">
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="153" t="s">
+      <c r="H16" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="152" t="s">
+      <c r="I16" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
       <c r="M16" s="114"/>
-      <c r="N16" s="149" t="s">
+      <c r="N16" s="188" t="s">
         <v>106</v>
       </c>
       <c r="O16" s="93"/>
-      <c r="P16" s="158" t="s">
+      <c r="P16" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="158" t="s">
+      <c r="Q16" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="160"/>
+      <c r="R16" s="201"/>
       <c r="S16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U16" s="163" t="s">
+      <c r="U16" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="165"/>
+      <c r="V16" s="205"/>
+      <c r="W16" s="205"/>
+      <c r="X16" s="205"/>
+      <c r="Y16" s="205"/>
+      <c r="Z16" s="205"/>
+      <c r="AA16" s="206"/>
       <c r="AB16" s="56">
         <v>0.33</v>
       </c>
@@ -5884,8 +5927,8 @@
       </c>
     </row>
     <row r="17" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="157"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="56" t="s">
         <v>74</v>
       </c>
@@ -5898,8 +5941,8 @@
       <c r="F17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="155"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="174"/>
       <c r="I17" s="112" t="s">
         <v>107</v>
       </c>
@@ -5911,11 +5954,11 @@
         <v>13</v>
       </c>
       <c r="M17" s="115"/>
-      <c r="N17" s="140"/>
+      <c r="N17" s="155"/>
       <c r="O17" s="94"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="161"/>
+      <c r="P17" s="200"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="202"/>
       <c r="S17" s="13">
         <v>4</v>
       </c>
@@ -5973,7 +6016,7 @@
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="157"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="36" t="s">
         <v>0</v>
       </c>
@@ -6014,7 +6057,7 @@
       <c r="Q18" s="36">
         <v>0</v>
       </c>
-      <c r="R18" s="161"/>
+      <c r="R18" s="202"/>
       <c r="S18" s="11">
         <f t="shared" ref="S18:S31" si="9">K18+((K18/100)*S$17)</f>
         <v>5824</v>
@@ -6084,7 +6127,7 @@
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="157"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="36" t="s">
         <v>32</v>
       </c>
@@ -6125,7 +6168,7 @@
       <c r="Q19" s="36">
         <v>0</v>
       </c>
-      <c r="R19" s="161"/>
+      <c r="R19" s="202"/>
       <c r="S19" s="11">
         <f t="shared" si="9"/>
         <v>3047.2</v>
@@ -6195,7 +6238,7 @@
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="157"/>
+      <c r="A20" s="198"/>
       <c r="B20" s="36" t="s">
         <v>33</v>
       </c>
@@ -6236,7 +6279,7 @@
       <c r="Q20" s="36">
         <v>0</v>
       </c>
-      <c r="R20" s="161"/>
+      <c r="R20" s="202"/>
       <c r="S20" s="11">
         <f t="shared" si="9"/>
         <v>3962.4</v>
@@ -6306,7 +6349,7 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="157"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="36" t="s">
         <v>34</v>
       </c>
@@ -6347,7 +6390,7 @@
       <c r="Q21" s="36">
         <v>0</v>
       </c>
-      <c r="R21" s="161"/>
+      <c r="R21" s="202"/>
       <c r="S21" s="11">
         <f t="shared" si="9"/>
         <v>5792.8</v>
@@ -6417,7 +6460,7 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="157"/>
+      <c r="A22" s="198"/>
       <c r="B22" s="36" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6501,7 @@
       <c r="Q22" s="39">
         <v>0</v>
       </c>
-      <c r="R22" s="161"/>
+      <c r="R22" s="202"/>
       <c r="S22" s="11">
         <f t="shared" si="9"/>
         <v>1814.8</v>
@@ -6528,7 +6571,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="157"/>
+      <c r="A23" s="198"/>
       <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
@@ -6569,7 +6612,7 @@
       <c r="Q23" s="39">
         <v>0</v>
       </c>
-      <c r="R23" s="161"/>
+      <c r="R23" s="202"/>
       <c r="S23" s="11">
         <f t="shared" si="9"/>
         <v>1060.8</v>
@@ -6639,7 +6682,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="157"/>
+      <c r="A24" s="198"/>
       <c r="B24" s="36" t="s">
         <v>36</v>
       </c>
@@ -6680,7 +6723,7 @@
       <c r="Q24" s="39">
         <v>0</v>
       </c>
-      <c r="R24" s="161"/>
+      <c r="R24" s="202"/>
       <c r="S24" s="11">
         <f t="shared" si="9"/>
         <v>3499.6</v>
@@ -6750,7 +6793,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="157"/>
+      <c r="A25" s="198"/>
       <c r="B25" s="36" t="s">
         <v>37</v>
       </c>
@@ -6791,7 +6834,7 @@
       <c r="Q25" s="39">
         <v>0</v>
       </c>
-      <c r="R25" s="161"/>
+      <c r="R25" s="202"/>
       <c r="S25" s="11">
         <f t="shared" si="9"/>
         <v>2230.8000000000002</v>
@@ -6861,7 +6904,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="157"/>
+      <c r="A26" s="198"/>
       <c r="B26" s="36" t="s">
         <v>38</v>
       </c>
@@ -6902,7 +6945,7 @@
       <c r="Q26" s="39">
         <v>0</v>
       </c>
-      <c r="R26" s="161"/>
+      <c r="R26" s="202"/>
       <c r="S26" s="11">
         <f t="shared" si="9"/>
         <v>11232</v>
@@ -6972,7 +7015,7 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="157"/>
+      <c r="A27" s="198"/>
       <c r="B27" s="12" t="s">
         <v>39</v>
       </c>
@@ -7013,7 +7056,7 @@
       <c r="Q27" s="39">
         <v>0</v>
       </c>
-      <c r="R27" s="161"/>
+      <c r="R27" s="202"/>
       <c r="S27" s="11">
         <f t="shared" si="9"/>
         <v>1742</v>
@@ -7083,7 +7126,7 @@
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="157"/>
+      <c r="A28" s="198"/>
       <c r="B28" s="36" t="s">
         <v>40</v>
       </c>
@@ -7124,7 +7167,7 @@
       <c r="Q28" s="39">
         <v>0</v>
       </c>
-      <c r="R28" s="161"/>
+      <c r="R28" s="202"/>
       <c r="S28" s="11">
         <f t="shared" si="9"/>
         <v>7800</v>
@@ -7194,7 +7237,7 @@
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="157"/>
+      <c r="A29" s="198"/>
       <c r="B29" s="36" t="s">
         <v>41</v>
       </c>
@@ -7235,7 +7278,7 @@
       <c r="Q29" s="39">
         <v>0</v>
       </c>
-      <c r="R29" s="161"/>
+      <c r="R29" s="202"/>
       <c r="S29" s="11">
         <f t="shared" si="9"/>
         <v>2620.8000000000002</v>
@@ -7305,7 +7348,7 @@
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="157"/>
+      <c r="A30" s="198"/>
       <c r="B30" s="36" t="s">
         <v>42</v>
       </c>
@@ -7346,7 +7389,7 @@
       <c r="Q30" s="39">
         <v>0</v>
       </c>
-      <c r="R30" s="161"/>
+      <c r="R30" s="202"/>
       <c r="S30" s="11">
         <f t="shared" si="9"/>
         <v>2433.6</v>
@@ -7416,7 +7459,7 @@
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="157"/>
+      <c r="A31" s="198"/>
       <c r="B31" s="36" t="s">
         <v>43</v>
       </c>
@@ -7457,7 +7500,7 @@
       <c r="Q31" s="39">
         <v>0</v>
       </c>
-      <c r="R31" s="161"/>
+      <c r="R31" s="202"/>
       <c r="S31" s="11">
         <f t="shared" si="9"/>
         <v>2246.4</v>
@@ -7527,24 +7570,24 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="145" t="s">
+      <c r="B32" s="208"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="146"/>
+      <c r="H32" s="192"/>
       <c r="I32" s="109"/>
       <c r="J32" s="109"/>
-      <c r="K32" s="147" t="s">
+      <c r="K32" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="148"/>
+      <c r="L32" s="194"/>
       <c r="M32" s="118"/>
       <c r="N32" s="102"/>
       <c r="O32" s="102"/>
@@ -7556,7 +7599,7 @@
         <f>SUM(Q18:Q31)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="162"/>
+      <c r="R32" s="203"/>
       <c r="S32" s="15" t="s">
         <v>23</v>
       </c>
@@ -7663,63 +7706,63 @@
       <c r="AK33" s="47"/>
     </row>
     <row r="34" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="171">
+      <c r="A34" s="197">
         <v>42654</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="198" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="157" t="s">
+      <c r="D34" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="153" t="s">
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="153" t="s">
+      <c r="H34" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="152" t="s">
+      <c r="I34" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="156" t="s">
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="N34" s="149" t="s">
+      <c r="N34" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="O34" s="149" t="s">
+      <c r="O34" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="P34" s="158" t="s">
+      <c r="P34" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" s="158" t="s">
+      <c r="Q34" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="160"/>
+      <c r="R34" s="201"/>
       <c r="S34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U34" s="163" t="s">
+      <c r="U34" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="V34" s="164"/>
-      <c r="W34" s="164"/>
-      <c r="X34" s="164"/>
-      <c r="Y34" s="164"/>
-      <c r="Z34" s="164"/>
-      <c r="AA34" s="165"/>
+      <c r="V34" s="205"/>
+      <c r="W34" s="205"/>
+      <c r="X34" s="205"/>
+      <c r="Y34" s="205"/>
+      <c r="Z34" s="205"/>
+      <c r="AA34" s="206"/>
       <c r="AB34" s="54">
         <v>0.33</v>
       </c>
@@ -7732,8 +7775,8 @@
       </c>
     </row>
     <row r="35" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="157"/>
-      <c r="B35" s="157"/>
+      <c r="A35" s="198"/>
+      <c r="B35" s="198"/>
       <c r="C35" s="56" t="s">
         <v>81</v>
       </c>
@@ -7746,8 +7789,8 @@
       <c r="F35" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="154"/>
-      <c r="H35" s="155"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="174"/>
       <c r="I35" s="112" t="s">
         <v>107</v>
       </c>
@@ -7760,12 +7803,12 @@
       <c r="L35" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="154"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="150"/>
-      <c r="P35" s="159"/>
-      <c r="Q35" s="159"/>
-      <c r="R35" s="161"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="200"/>
+      <c r="Q35" s="200"/>
+      <c r="R35" s="202"/>
       <c r="S35" s="13">
         <v>3</v>
       </c>
@@ -7823,7 +7866,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="157"/>
+      <c r="A36" s="198"/>
       <c r="B36" s="48" t="s">
         <v>51</v>
       </c>
@@ -7876,7 +7919,7 @@
       <c r="Q36" s="52">
         <v>-7035</v>
       </c>
-      <c r="R36" s="161"/>
+      <c r="R36" s="202"/>
       <c r="S36" s="11">
         <f t="shared" ref="S36:S45" si="24">K36+((K36/100)*S$35)</f>
         <v>3774.95</v>
@@ -7946,7 +7989,7 @@
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="157"/>
+      <c r="A37" s="198"/>
       <c r="B37" s="4" t="s">
         <v>52</v>
       </c>
@@ -7999,7 +8042,7 @@
       <c r="Q37" s="6">
         <v>7711</v>
       </c>
-      <c r="R37" s="161"/>
+      <c r="R37" s="202"/>
       <c r="S37" s="11">
         <f t="shared" si="24"/>
         <v>10351.5</v>
@@ -8069,7 +8112,7 @@
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="157"/>
+      <c r="A38" s="198"/>
       <c r="B38" s="48" t="s">
         <v>4</v>
       </c>
@@ -8122,7 +8165,7 @@
       <c r="Q38" s="52">
         <v>-4219</v>
       </c>
-      <c r="R38" s="161"/>
+      <c r="R38" s="202"/>
       <c r="S38" s="11">
         <f t="shared" si="24"/>
         <v>4701.95</v>
@@ -8192,7 +8235,7 @@
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="157"/>
+      <c r="A39" s="198"/>
       <c r="B39" s="48" t="s">
         <v>53</v>
       </c>
@@ -8245,7 +8288,7 @@
       <c r="Q39" s="52">
         <v>-7329</v>
       </c>
-      <c r="R39" s="161"/>
+      <c r="R39" s="202"/>
       <c r="S39" s="11">
         <f t="shared" si="24"/>
         <v>5829.8</v>
@@ -8315,7 +8358,7 @@
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="157"/>
+      <c r="A40" s="198"/>
       <c r="B40" s="48" t="s">
         <v>58</v>
       </c>
@@ -8368,7 +8411,7 @@
       <c r="Q40" s="52">
         <v>-6806</v>
       </c>
-      <c r="R40" s="161"/>
+      <c r="R40" s="202"/>
       <c r="S40" s="11">
         <f t="shared" si="24"/>
         <v>6756.8</v>
@@ -8438,7 +8481,7 @@
       </c>
     </row>
     <row r="41" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="157"/>
+      <c r="A41" s="198"/>
       <c r="B41" s="53" t="s">
         <v>59</v>
       </c>
@@ -8491,7 +8534,7 @@
       <c r="Q41" s="6">
         <v>7810</v>
       </c>
-      <c r="R41" s="161"/>
+      <c r="R41" s="202"/>
       <c r="S41" s="11">
         <f t="shared" si="24"/>
         <v>4866.75</v>
@@ -8561,7 +8604,7 @@
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="157"/>
+      <c r="A42" s="198"/>
       <c r="B42" s="50" t="s">
         <v>54</v>
       </c>
@@ -8614,7 +8657,7 @@
       <c r="Q42" s="52">
         <v>-7463</v>
       </c>
-      <c r="R42" s="161"/>
+      <c r="R42" s="202"/>
       <c r="S42" s="11">
         <f t="shared" si="24"/>
         <v>3069.4</v>
@@ -8684,7 +8727,7 @@
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="157"/>
+      <c r="A43" s="198"/>
       <c r="B43" s="50" t="s">
         <v>55</v>
       </c>
@@ -8737,7 +8780,7 @@
       <c r="Q43" s="52">
         <v>-7026</v>
       </c>
-      <c r="R43" s="161"/>
+      <c r="R43" s="202"/>
       <c r="S43" s="11">
         <f t="shared" si="24"/>
         <v>7931</v>
@@ -8807,7 +8850,7 @@
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="157"/>
+      <c r="A44" s="198"/>
       <c r="B44" s="50" t="s">
         <v>56</v>
       </c>
@@ -8860,7 +8903,7 @@
       <c r="Q44" s="52">
         <v>-7394</v>
       </c>
-      <c r="R44" s="161"/>
+      <c r="R44" s="202"/>
       <c r="S44" s="11">
         <f t="shared" si="24"/>
         <v>6612.6</v>
@@ -8930,7 +8973,7 @@
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="157"/>
+      <c r="A45" s="198"/>
       <c r="B45" s="50" t="s">
         <v>57</v>
       </c>
@@ -8983,7 +9026,7 @@
       <c r="Q45" s="52">
         <v>-4396</v>
       </c>
-      <c r="R45" s="161"/>
+      <c r="R45" s="202"/>
       <c r="S45" s="11">
         <f t="shared" si="24"/>
         <v>7024.6</v>
@@ -9053,24 +9096,24 @@
       </c>
     </row>
     <row r="46" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="166" t="s">
+      <c r="A46" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="145" t="s">
+      <c r="B46" s="208"/>
+      <c r="C46" s="208"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="208"/>
+      <c r="G46" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="146"/>
+      <c r="H46" s="192"/>
       <c r="I46" s="109"/>
       <c r="J46" s="109"/>
-      <c r="K46" s="147" t="s">
+      <c r="K46" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="148"/>
+      <c r="L46" s="194"/>
       <c r="M46" s="96"/>
       <c r="N46" s="96"/>
       <c r="O46" s="102"/>
@@ -9082,7 +9125,7 @@
         <f>SUM(Q36:Q45)</f>
         <v>-36147</v>
       </c>
-      <c r="R46" s="162"/>
+      <c r="R46" s="203"/>
       <c r="S46" s="15" t="s">
         <v>23</v>
       </c>
@@ -9189,63 +9232,63 @@
       <c r="AK47" s="47"/>
     </row>
     <row r="48" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="151">
+      <c r="A48" s="189">
         <v>42655</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="171" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="157" t="s">
+      <c r="D48" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="153" t="s">
+      <c r="E48" s="198"/>
+      <c r="F48" s="198"/>
+      <c r="G48" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="H48" s="153" t="s">
+      <c r="H48" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="152" t="s">
+      <c r="I48" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="156" t="s">
+      <c r="J48" s="171"/>
+      <c r="K48" s="171"/>
+      <c r="L48" s="171"/>
+      <c r="M48" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="N48" s="149" t="s">
+      <c r="N48" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="O48" s="149" t="s">
+      <c r="O48" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="P48" s="139" t="s">
+      <c r="P48" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="139" t="s">
+      <c r="Q48" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="R48" s="141"/>
+      <c r="R48" s="157"/>
       <c r="S48" s="58" t="s">
         <v>18</v>
       </c>
       <c r="T48" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="U48" s="152" t="s">
+      <c r="U48" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="V48" s="152"/>
-      <c r="W48" s="152"/>
-      <c r="X48" s="152"/>
-      <c r="Y48" s="152"/>
-      <c r="Z48" s="152"/>
-      <c r="AA48" s="152"/>
+      <c r="V48" s="171"/>
+      <c r="W48" s="171"/>
+      <c r="X48" s="171"/>
+      <c r="Y48" s="171"/>
+      <c r="Z48" s="171"/>
+      <c r="AA48" s="171"/>
       <c r="AB48" s="59">
         <v>0.33</v>
       </c>
@@ -9263,8 +9306,8 @@
       <c r="AJ48" s="75"/>
     </row>
     <row r="49" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="151"/>
-      <c r="B49" s="152"/>
+      <c r="A49" s="189"/>
+      <c r="B49" s="171"/>
       <c r="C49" s="56" t="s">
         <v>81</v>
       </c>
@@ -9277,8 +9320,8 @@
       <c r="F49" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="154"/>
-      <c r="H49" s="155"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="174"/>
       <c r="I49" s="112" t="s">
         <v>107</v>
       </c>
@@ -9291,12 +9334,12 @@
       <c r="L49" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="154"/>
-      <c r="N49" s="140"/>
-      <c r="O49" s="150"/>
-      <c r="P49" s="140"/>
-      <c r="Q49" s="140"/>
-      <c r="R49" s="141"/>
+      <c r="M49" s="173"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="177"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="155"/>
+      <c r="R49" s="157"/>
       <c r="S49" s="58">
         <v>3.3</v>
       </c>
@@ -9354,7 +9397,7 @@
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="151"/>
+      <c r="A50" s="189"/>
       <c r="B50" s="53" t="s">
         <v>1</v>
       </c>
@@ -9407,7 +9450,7 @@
       <c r="Q50" s="76">
         <v>7243</v>
       </c>
-      <c r="R50" s="141"/>
+      <c r="R50" s="157"/>
       <c r="S50" s="11">
         <f t="shared" ref="S50:S60" si="42">K50+((K50/100)*S$49)</f>
         <v>4643.335</v>
@@ -9477,7 +9520,7 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="151"/>
+      <c r="A51" s="189"/>
       <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
@@ -9530,7 +9573,7 @@
       <c r="Q51" s="68">
         <v>-7099</v>
       </c>
-      <c r="R51" s="141"/>
+      <c r="R51" s="157"/>
       <c r="S51" s="11">
         <f t="shared" si="42"/>
         <v>3037.02</v>
@@ -9600,7 +9643,7 @@
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="151"/>
+      <c r="A52" s="189"/>
       <c r="B52" s="53" t="s">
         <v>64</v>
       </c>
@@ -9653,7 +9696,7 @@
       <c r="Q52" s="76">
         <v>7240</v>
       </c>
-      <c r="R52" s="141"/>
+      <c r="R52" s="157"/>
       <c r="S52" s="11">
         <f t="shared" si="42"/>
         <v>1554.665</v>
@@ -9723,7 +9766,7 @@
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="151"/>
+      <c r="A53" s="189"/>
       <c r="B53" s="53" t="s">
         <v>65</v>
       </c>
@@ -9776,7 +9819,7 @@
       <c r="Q53" s="76">
         <v>4073</v>
       </c>
-      <c r="R53" s="141"/>
+      <c r="R53" s="157"/>
       <c r="S53" s="11">
         <f t="shared" si="42"/>
         <v>4389.2169999999996</v>
@@ -9846,7 +9889,7 @@
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="151"/>
+      <c r="A54" s="189"/>
       <c r="B54" s="9" t="s">
         <v>66</v>
       </c>
@@ -9899,7 +9942,7 @@
       <c r="Q54" s="68">
         <v>-6723</v>
       </c>
-      <c r="R54" s="141"/>
+      <c r="R54" s="157"/>
       <c r="S54" s="11">
         <f t="shared" si="42"/>
         <v>9730.86</v>
@@ -9969,7 +10012,7 @@
       </c>
     </row>
     <row r="55" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="151"/>
+      <c r="A55" s="189"/>
       <c r="B55" s="53" t="s">
         <v>67</v>
       </c>
@@ -10022,7 +10065,7 @@
       <c r="Q55" s="76">
         <v>7324</v>
       </c>
-      <c r="R55" s="141"/>
+      <c r="R55" s="157"/>
       <c r="S55" s="11">
         <f t="shared" si="42"/>
         <v>4075.1849999999999</v>
@@ -10092,7 +10135,7 @@
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="151"/>
+      <c r="A56" s="189"/>
       <c r="B56" s="9" t="s">
         <v>68</v>
       </c>
@@ -10145,7 +10188,7 @@
       <c r="Q56" s="68">
         <v>-6598</v>
       </c>
-      <c r="R56" s="141"/>
+      <c r="R56" s="157"/>
       <c r="S56" s="11">
         <f t="shared" si="42"/>
         <v>5361.27</v>
@@ -10215,7 +10258,7 @@
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="151"/>
+      <c r="A57" s="189"/>
       <c r="B57" s="53" t="s">
         <v>69</v>
       </c>
@@ -10268,7 +10311,7 @@
       <c r="Q57" s="76">
         <v>7145</v>
       </c>
-      <c r="R57" s="141"/>
+      <c r="R57" s="157"/>
       <c r="S57" s="11">
         <f t="shared" si="42"/>
         <v>4426.4049999999997</v>
@@ -10338,7 +10381,7 @@
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="151"/>
+      <c r="A58" s="189"/>
       <c r="B58" s="53" t="s">
         <v>70</v>
       </c>
@@ -10391,7 +10434,7 @@
       <c r="Q58" s="76">
         <v>7063</v>
       </c>
-      <c r="R58" s="141"/>
+      <c r="R58" s="157"/>
       <c r="S58" s="11">
         <f t="shared" si="42"/>
         <v>2375.9</v>
@@ -10461,7 +10504,7 @@
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="151"/>
+      <c r="A59" s="189"/>
       <c r="B59" s="9" t="s">
         <v>71</v>
       </c>
@@ -10514,7 +10557,7 @@
       <c r="Q59" s="68">
         <v>-6843</v>
       </c>
-      <c r="R59" s="141"/>
+      <c r="R59" s="157"/>
       <c r="S59" s="11">
         <f t="shared" si="42"/>
         <v>2820.09</v>
@@ -10584,7 +10627,7 @@
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="151"/>
+      <c r="A60" s="189"/>
       <c r="B60" s="53" t="s">
         <v>72</v>
       </c>
@@ -10637,7 +10680,7 @@
       <c r="Q60" s="76">
         <v>814</v>
       </c>
-      <c r="R60" s="141"/>
+      <c r="R60" s="157"/>
       <c r="S60" s="11">
         <f t="shared" si="42"/>
         <v>3486.375</v>
@@ -10707,24 +10750,24 @@
       </c>
     </row>
     <row r="61" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="145" t="s">
+      <c r="B61" s="211"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="211"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="212"/>
+      <c r="G61" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="H61" s="146"/>
+      <c r="H61" s="192"/>
       <c r="I61" s="109"/>
       <c r="J61" s="109"/>
-      <c r="K61" s="147" t="s">
+      <c r="K61" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="148"/>
+      <c r="L61" s="194"/>
       <c r="M61" s="118"/>
       <c r="N61" s="102"/>
       <c r="O61" s="102"/>
@@ -10736,7 +10779,7 @@
         <f>SUM(Q50:Q60)</f>
         <v>13639</v>
       </c>
-      <c r="R61" s="141"/>
+      <c r="R61" s="157"/>
       <c r="S61" s="15" t="s">
         <v>23</v>
       </c>
@@ -10843,63 +10886,63 @@
       <c r="AK62" s="47"/>
     </row>
     <row r="63" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="151">
+      <c r="A63" s="189">
         <v>42656</v>
       </c>
-      <c r="B63" s="152" t="s">
+      <c r="B63" s="171" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="152" t="s">
+      <c r="D63" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="153" t="s">
+      <c r="E63" s="171"/>
+      <c r="F63" s="171"/>
+      <c r="G63" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="153" t="s">
+      <c r="H63" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="152" t="s">
+      <c r="I63" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="152"/>
-      <c r="K63" s="152"/>
-      <c r="L63" s="152"/>
-      <c r="M63" s="156" t="s">
+      <c r="J63" s="171"/>
+      <c r="K63" s="171"/>
+      <c r="L63" s="171"/>
+      <c r="M63" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="N63" s="149" t="s">
+      <c r="N63" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="O63" s="149" t="s">
+      <c r="O63" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="P63" s="139" t="s">
+      <c r="P63" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="Q63" s="139" t="s">
+      <c r="Q63" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="R63" s="141"/>
+      <c r="R63" s="157"/>
       <c r="S63" s="58" t="s">
         <v>18</v>
       </c>
       <c r="T63" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="U63" s="152" t="s">
+      <c r="U63" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="V63" s="152"/>
-      <c r="W63" s="152"/>
-      <c r="X63" s="152"/>
-      <c r="Y63" s="152"/>
-      <c r="Z63" s="152"/>
-      <c r="AA63" s="152"/>
+      <c r="V63" s="171"/>
+      <c r="W63" s="171"/>
+      <c r="X63" s="171"/>
+      <c r="Y63" s="171"/>
+      <c r="Z63" s="171"/>
+      <c r="AA63" s="171"/>
       <c r="AB63" s="59">
         <v>0.33</v>
       </c>
@@ -10917,8 +10960,8 @@
       <c r="AJ63" s="75"/>
     </row>
     <row r="64" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="151"/>
-      <c r="B64" s="152"/>
+      <c r="A64" s="189"/>
+      <c r="B64" s="171"/>
       <c r="C64" s="59" t="s">
         <v>81</v>
       </c>
@@ -10931,8 +10974,8 @@
       <c r="F64" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="154"/>
-      <c r="H64" s="155"/>
+      <c r="G64" s="173"/>
+      <c r="H64" s="174"/>
       <c r="I64" s="112" t="s">
         <v>107</v>
       </c>
@@ -10945,12 +10988,12 @@
       <c r="L64" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M64" s="154"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="150"/>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140"/>
-      <c r="R64" s="141"/>
+      <c r="M64" s="173"/>
+      <c r="N64" s="155"/>
+      <c r="O64" s="177"/>
+      <c r="P64" s="155"/>
+      <c r="Q64" s="155"/>
+      <c r="R64" s="157"/>
       <c r="S64" s="58">
         <v>3.3</v>
       </c>
@@ -11008,7 +11051,7 @@
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="151"/>
+      <c r="A65" s="189"/>
       <c r="B65" s="12" t="s">
         <v>70</v>
       </c>
@@ -11061,7 +11104,7 @@
       <c r="Q65" s="95">
         <v>8797</v>
       </c>
-      <c r="R65" s="141"/>
+      <c r="R65" s="157"/>
       <c r="S65" s="11">
         <f t="shared" ref="S65:S72" si="58">K65+((K65/100)*S$64)</f>
         <v>2820.09</v>
@@ -11131,7 +11174,7 @@
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="151"/>
+      <c r="A66" s="189"/>
       <c r="B66" s="12" t="s">
         <v>40</v>
       </c>
@@ -11184,7 +11227,7 @@
       <c r="Q66" s="95">
         <v>8793</v>
       </c>
-      <c r="R66" s="141"/>
+      <c r="R66" s="157"/>
       <c r="S66" s="11">
         <f t="shared" si="58"/>
         <v>8728.85</v>
@@ -11254,7 +11297,7 @@
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="151"/>
+      <c r="A67" s="189"/>
       <c r="B67" s="12" t="s">
         <v>85</v>
       </c>
@@ -11307,7 +11350,7 @@
       <c r="Q67" s="95">
         <v>-9270</v>
       </c>
-      <c r="R67" s="141"/>
+      <c r="R67" s="157"/>
       <c r="S67" s="11">
         <f t="shared" si="58"/>
         <v>5877.77</v>
@@ -11377,7 +11420,7 @@
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="151"/>
+      <c r="A68" s="189"/>
       <c r="B68" s="12" t="s">
         <v>67</v>
       </c>
@@ -11430,7 +11473,7 @@
       <c r="Q68" s="95">
         <v>-8659</v>
       </c>
-      <c r="R68" s="141"/>
+      <c r="R68" s="157"/>
       <c r="S68" s="11">
         <f t="shared" si="58"/>
         <v>3997.71</v>
@@ -11500,7 +11543,7 @@
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="151"/>
+      <c r="A69" s="189"/>
       <c r="B69" s="12" t="s">
         <v>86</v>
       </c>
@@ -11553,7 +11596,7 @@
       <c r="Q69" s="95">
         <v>-6715</v>
       </c>
-      <c r="R69" s="141"/>
+      <c r="R69" s="157"/>
       <c r="S69" s="11">
         <f t="shared" si="58"/>
         <v>6342.62</v>
@@ -11623,7 +11666,7 @@
       </c>
     </row>
     <row r="70" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="151"/>
+      <c r="A70" s="189"/>
       <c r="B70" s="12" t="s">
         <v>55</v>
       </c>
@@ -11676,7 +11719,7 @@
       <c r="Q70" s="95">
         <v>8577</v>
       </c>
-      <c r="R70" s="141"/>
+      <c r="R70" s="157"/>
       <c r="S70" s="11">
         <f t="shared" si="58"/>
         <v>9131.7199999999993</v>
@@ -11746,7 +11789,7 @@
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="151"/>
+      <c r="A71" s="189"/>
       <c r="B71" s="12" t="s">
         <v>87</v>
       </c>
@@ -11799,7 +11842,7 @@
       <c r="Q71" s="95">
         <v>-9088</v>
       </c>
-      <c r="R71" s="141"/>
+      <c r="R71" s="157"/>
       <c r="S71" s="11">
         <f t="shared" si="58"/>
         <v>8233.01</v>
@@ -11869,7 +11912,7 @@
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="151"/>
+      <c r="A72" s="189"/>
       <c r="B72" s="12" t="s">
         <v>88</v>
       </c>
@@ -11922,7 +11965,7 @@
       <c r="Q72" s="95">
         <v>-8636</v>
       </c>
-      <c r="R72" s="141"/>
+      <c r="R72" s="157"/>
       <c r="S72" s="11">
         <f t="shared" si="58"/>
         <v>27322.85</v>
@@ -11992,24 +12035,24 @@
       </c>
     </row>
     <row r="73" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="142" t="s">
+      <c r="A73" s="210" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="143"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="143"/>
-      <c r="F73" s="144"/>
-      <c r="G73" s="145" t="s">
+      <c r="B73" s="211"/>
+      <c r="C73" s="211"/>
+      <c r="D73" s="211"/>
+      <c r="E73" s="211"/>
+      <c r="F73" s="212"/>
+      <c r="G73" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="H73" s="146"/>
+      <c r="H73" s="192"/>
       <c r="I73" s="109"/>
       <c r="J73" s="109"/>
-      <c r="K73" s="147" t="s">
+      <c r="K73" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="L73" s="148"/>
+      <c r="L73" s="194"/>
       <c r="M73" s="118"/>
       <c r="N73" s="102"/>
       <c r="O73" s="102"/>
@@ -12021,7 +12064,7 @@
         <f>SUM(Q65:Q72)</f>
         <v>-16201</v>
       </c>
-      <c r="R73" s="141"/>
+      <c r="R73" s="157"/>
       <c r="S73" s="15" t="s">
         <v>23</v>
       </c>
@@ -12128,63 +12171,63 @@
       <c r="AK74" s="47"/>
     </row>
     <row r="75" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="151">
+      <c r="A75" s="189">
         <v>42657</v>
       </c>
-      <c r="B75" s="152" t="s">
+      <c r="B75" s="171" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="152" t="s">
+      <c r="D75" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="152"/>
-      <c r="F75" s="152"/>
-      <c r="G75" s="153" t="s">
+      <c r="E75" s="171"/>
+      <c r="F75" s="171"/>
+      <c r="G75" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="H75" s="153" t="s">
+      <c r="H75" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="152" t="s">
+      <c r="I75" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J75" s="152"/>
-      <c r="K75" s="152"/>
-      <c r="L75" s="152"/>
-      <c r="M75" s="156" t="s">
+      <c r="J75" s="171"/>
+      <c r="K75" s="171"/>
+      <c r="L75" s="171"/>
+      <c r="M75" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="N75" s="149" t="s">
+      <c r="N75" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="O75" s="149" t="s">
+      <c r="O75" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="P75" s="139" t="s">
+      <c r="P75" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="Q75" s="139" t="s">
+      <c r="Q75" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="R75" s="141"/>
+      <c r="R75" s="157"/>
       <c r="S75" s="58" t="s">
         <v>18</v>
       </c>
       <c r="T75" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="U75" s="152" t="s">
+      <c r="U75" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="V75" s="152"/>
-      <c r="W75" s="152"/>
-      <c r="X75" s="152"/>
-      <c r="Y75" s="152"/>
-      <c r="Z75" s="152"/>
-      <c r="AA75" s="152"/>
+      <c r="V75" s="171"/>
+      <c r="W75" s="171"/>
+      <c r="X75" s="171"/>
+      <c r="Y75" s="171"/>
+      <c r="Z75" s="171"/>
+      <c r="AA75" s="171"/>
       <c r="AB75" s="88">
         <v>0.33</v>
       </c>
@@ -12202,8 +12245,8 @@
       <c r="AJ75" s="75"/>
     </row>
     <row r="76" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="151"/>
-      <c r="B76" s="152"/>
+      <c r="A76" s="189"/>
+      <c r="B76" s="171"/>
       <c r="C76" s="88" t="s">
         <v>74</v>
       </c>
@@ -12216,8 +12259,8 @@
       <c r="F76" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="G76" s="154"/>
-      <c r="H76" s="155"/>
+      <c r="G76" s="173"/>
+      <c r="H76" s="174"/>
       <c r="I76" s="112" t="s">
         <v>107</v>
       </c>
@@ -12230,12 +12273,12 @@
       <c r="L76" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="M76" s="154"/>
-      <c r="N76" s="140"/>
-      <c r="O76" s="150"/>
-      <c r="P76" s="140"/>
-      <c r="Q76" s="140"/>
-      <c r="R76" s="141"/>
+      <c r="M76" s="173"/>
+      <c r="N76" s="155"/>
+      <c r="O76" s="177"/>
+      <c r="P76" s="155"/>
+      <c r="Q76" s="155"/>
+      <c r="R76" s="157"/>
       <c r="S76" s="58">
         <v>4</v>
       </c>
@@ -12293,7 +12336,7 @@
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="151"/>
+      <c r="A77" s="189"/>
       <c r="B77" s="12" t="s">
         <v>97</v>
       </c>
@@ -12346,7 +12389,7 @@
       <c r="Q77" s="95">
         <v>-13305</v>
       </c>
-      <c r="R77" s="141"/>
+      <c r="R77" s="157"/>
       <c r="S77" s="11">
         <f t="shared" ref="S77:S86" si="73">K77+((K77/100)*S$76)</f>
         <v>4804.8</v>
@@ -12416,7 +12459,7 @@
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="151"/>
+      <c r="A78" s="189"/>
       <c r="B78" s="12" t="s">
         <v>52</v>
       </c>
@@ -12469,7 +12512,7 @@
       <c r="Q78" s="95">
         <v>14262</v>
       </c>
-      <c r="R78" s="141"/>
+      <c r="R78" s="157"/>
       <c r="S78" s="11">
         <f t="shared" si="73"/>
         <v>10504</v>
@@ -12539,7 +12582,7 @@
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="151"/>
+      <c r="A79" s="189"/>
       <c r="B79" s="12" t="s">
         <v>98</v>
       </c>
@@ -12592,7 +12635,7 @@
       <c r="Q79" s="95">
         <v>-13334</v>
       </c>
-      <c r="R79" s="141"/>
+      <c r="R79" s="157"/>
       <c r="S79" s="11">
         <f t="shared" si="73"/>
         <v>5813.6</v>
@@ -12662,7 +12705,7 @@
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="151"/>
+      <c r="A80" s="189"/>
       <c r="B80" s="12" t="s">
         <v>99</v>
       </c>
@@ -12715,7 +12758,7 @@
       <c r="Q80" s="95">
         <v>-13512</v>
       </c>
-      <c r="R80" s="141"/>
+      <c r="R80" s="157"/>
       <c r="S80" s="11">
         <f t="shared" si="73"/>
         <v>2886</v>
@@ -12785,7 +12828,7 @@
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="151"/>
+      <c r="A81" s="189"/>
       <c r="B81" s="12" t="s">
         <v>100</v>
       </c>
@@ -12838,7 +12881,7 @@
       <c r="Q81" s="95">
         <v>-13846</v>
       </c>
-      <c r="R81" s="141"/>
+      <c r="R81" s="157"/>
       <c r="S81" s="11">
         <f t="shared" si="73"/>
         <v>5865.6</v>
@@ -12908,7 +12951,7 @@
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="151"/>
+      <c r="A82" s="189"/>
       <c r="B82" s="12" t="s">
         <v>42</v>
       </c>
@@ -12961,7 +13004,7 @@
       <c r="Q82" s="95">
         <v>-14949</v>
       </c>
-      <c r="R82" s="141"/>
+      <c r="R82" s="157"/>
       <c r="S82" s="11">
         <f t="shared" si="73"/>
         <v>2574</v>
@@ -13031,7 +13074,7 @@
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="151"/>
+      <c r="A83" s="189"/>
       <c r="B83" s="12" t="s">
         <v>101</v>
       </c>
@@ -13084,7 +13127,7 @@
       <c r="Q83" s="95">
         <v>-13509</v>
       </c>
-      <c r="R83" s="141"/>
+      <c r="R83" s="157"/>
       <c r="S83" s="11">
         <f t="shared" si="73"/>
         <v>5761.6</v>
@@ -13154,7 +13197,7 @@
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="151"/>
+      <c r="A84" s="189"/>
       <c r="B84" s="12" t="s">
         <v>102</v>
       </c>
@@ -13207,7 +13250,7 @@
       <c r="Q84" s="95">
         <v>14913</v>
       </c>
-      <c r="R84" s="141"/>
+      <c r="R84" s="157"/>
       <c r="S84" s="11">
         <f t="shared" si="73"/>
         <v>5616</v>
@@ -13277,7 +13320,7 @@
       </c>
     </row>
     <row r="85" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="151"/>
+      <c r="A85" s="189"/>
       <c r="B85" s="12" t="s">
         <v>103</v>
       </c>
@@ -13330,7 +13373,7 @@
       <c r="Q85" s="95">
         <v>0</v>
       </c>
-      <c r="R85" s="141"/>
+      <c r="R85" s="157"/>
       <c r="S85" s="11">
         <f t="shared" si="73"/>
         <v>4487.6000000000004</v>
@@ -13400,7 +13443,7 @@
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="151"/>
+      <c r="A86" s="189"/>
       <c r="B86" s="12" t="s">
         <v>104</v>
       </c>
@@ -13453,7 +13496,7 @@
       <c r="Q86" s="95">
         <v>14568</v>
       </c>
-      <c r="R86" s="141"/>
+      <c r="R86" s="157"/>
       <c r="S86" s="11">
         <f t="shared" si="73"/>
         <v>7020</v>
@@ -13523,24 +13566,24 @@
       </c>
     </row>
     <row r="87" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="142" t="s">
+      <c r="A87" s="210" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="144"/>
-      <c r="G87" s="145" t="s">
+      <c r="B87" s="211"/>
+      <c r="C87" s="211"/>
+      <c r="D87" s="211"/>
+      <c r="E87" s="211"/>
+      <c r="F87" s="212"/>
+      <c r="G87" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="H87" s="146"/>
+      <c r="H87" s="192"/>
       <c r="I87" s="109"/>
       <c r="J87" s="109"/>
-      <c r="K87" s="147" t="s">
+      <c r="K87" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="L87" s="148"/>
+      <c r="L87" s="194"/>
       <c r="M87" s="118"/>
       <c r="N87" s="102"/>
       <c r="O87" s="102"/>
@@ -13552,7 +13595,7 @@
         <f>SUM(Q77:Q86)</f>
         <v>-38712</v>
       </c>
-      <c r="R87" s="141"/>
+      <c r="R87" s="157"/>
       <c r="S87" s="15" t="s">
         <v>23</v>
       </c>
@@ -13659,48 +13702,48 @@
       <c r="AK88" s="47"/>
     </row>
     <row r="89" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="151">
+      <c r="A89" s="189">
         <v>42660</v>
       </c>
-      <c r="B89" s="152" t="s">
+      <c r="B89" s="171" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="152" t="s">
+      <c r="D89" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="152"/>
-      <c r="F89" s="152"/>
-      <c r="G89" s="153" t="s">
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
+      <c r="G89" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="H89" s="153" t="s">
+      <c r="H89" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="I89" s="152" t="s">
+      <c r="I89" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J89" s="152"/>
-      <c r="K89" s="152"/>
-      <c r="L89" s="152"/>
-      <c r="M89" s="156" t="s">
+      <c r="J89" s="171"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="171"/>
+      <c r="M89" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="N89" s="149" t="s">
+      <c r="N89" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="O89" s="149" t="s">
+      <c r="O89" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="P89" s="139" t="s">
+      <c r="P89" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="Q89" s="139" t="s">
+      <c r="Q89" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="R89" s="141"/>
+      <c r="R89" s="157"/>
       <c r="AA89"/>
       <c r="AB89"/>
       <c r="AC89"/>
@@ -13708,8 +13751,8 @@
       <c r="AE89"/>
     </row>
     <row r="90" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="151"/>
-      <c r="B90" s="152"/>
+      <c r="A90" s="189"/>
+      <c r="B90" s="171"/>
       <c r="C90" s="128" t="s">
         <v>74</v>
       </c>
@@ -13722,8 +13765,8 @@
       <c r="F90" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="G90" s="154"/>
-      <c r="H90" s="155"/>
+      <c r="G90" s="173"/>
+      <c r="H90" s="174"/>
       <c r="I90" s="112" t="s">
         <v>107</v>
       </c>
@@ -13736,12 +13779,12 @@
       <c r="L90" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="M90" s="154"/>
-      <c r="N90" s="140"/>
-      <c r="O90" s="150"/>
-      <c r="P90" s="140"/>
-      <c r="Q90" s="140"/>
-      <c r="R90" s="141"/>
+      <c r="M90" s="173"/>
+      <c r="N90" s="155"/>
+      <c r="O90" s="177"/>
+      <c r="P90" s="155"/>
+      <c r="Q90" s="155"/>
+      <c r="R90" s="157"/>
       <c r="AA90"/>
       <c r="AB90"/>
       <c r="AC90"/>
@@ -13749,7 +13792,7 @@
       <c r="AE90"/>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="151"/>
+      <c r="A91" s="189"/>
       <c r="B91" s="12" t="s">
         <v>56</v>
       </c>
@@ -13803,7 +13846,7 @@
       <c r="Q91" s="95">
         <v>-3513</v>
       </c>
-      <c r="R91" s="141"/>
+      <c r="R91" s="157"/>
       <c r="AA91"/>
       <c r="AB91"/>
       <c r="AC91"/>
@@ -13811,7 +13854,7 @@
       <c r="AE91"/>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="151"/>
+      <c r="A92" s="189"/>
       <c r="B92" s="12" t="s">
         <v>134</v>
       </c>
@@ -13865,7 +13908,7 @@
       <c r="Q92" s="95">
         <v>-3632</v>
       </c>
-      <c r="R92" s="141"/>
+      <c r="R92" s="157"/>
       <c r="AA92"/>
       <c r="AB92"/>
       <c r="AC92"/>
@@ -13873,7 +13916,7 @@
       <c r="AE92"/>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="151"/>
+      <c r="A93" s="189"/>
       <c r="B93" s="12" t="s">
         <v>104</v>
       </c>
@@ -13927,7 +13970,7 @@
       <c r="Q93" s="95">
         <v>-4200</v>
       </c>
-      <c r="R93" s="141"/>
+      <c r="R93" s="157"/>
       <c r="AA93"/>
       <c r="AB93"/>
       <c r="AC93"/>
@@ -13935,7 +13978,7 @@
       <c r="AE93"/>
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="151"/>
+      <c r="A94" s="189"/>
       <c r="B94" s="12" t="s">
         <v>135</v>
       </c>
@@ -13989,7 +14032,7 @@
       <c r="Q94" s="95">
         <v>3482</v>
       </c>
-      <c r="R94" s="141"/>
+      <c r="R94" s="157"/>
       <c r="AA94"/>
       <c r="AB94"/>
       <c r="AC94"/>
@@ -13997,7 +14040,7 @@
       <c r="AE94"/>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="151"/>
+      <c r="A95" s="189"/>
       <c r="B95" s="12" t="s">
         <v>55</v>
       </c>
@@ -14051,7 +14094,7 @@
       <c r="Q95" s="95">
         <v>0</v>
       </c>
-      <c r="R95" s="141"/>
+      <c r="R95" s="157"/>
       <c r="AA95"/>
       <c r="AB95"/>
       <c r="AC95"/>
@@ -14059,7 +14102,7 @@
       <c r="AE95"/>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="151"/>
+      <c r="A96" s="189"/>
       <c r="B96" s="12" t="s">
         <v>87</v>
       </c>
@@ -14113,7 +14156,7 @@
       <c r="Q96" s="95">
         <v>-4740</v>
       </c>
-      <c r="R96" s="141"/>
+      <c r="R96" s="157"/>
       <c r="AA96"/>
       <c r="AB96"/>
       <c r="AC96"/>
@@ -14121,32 +14164,32 @@
       <c r="AE96"/>
     </row>
     <row r="97" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A97" s="172"/>
-      <c r="B97" s="173"/>
-      <c r="C97" s="173"/>
-      <c r="D97" s="173"/>
-      <c r="E97" s="173"/>
-      <c r="F97" s="174"/>
-      <c r="G97" s="175"/>
-      <c r="H97" s="176"/>
-      <c r="I97" s="177"/>
-      <c r="J97" s="177"/>
-      <c r="K97" s="178" t="s">
+      <c r="A97" s="180"/>
+      <c r="B97" s="181"/>
+      <c r="C97" s="181"/>
+      <c r="D97" s="181"/>
+      <c r="E97" s="181"/>
+      <c r="F97" s="182"/>
+      <c r="G97" s="183"/>
+      <c r="H97" s="184"/>
+      <c r="I97" s="140"/>
+      <c r="J97" s="140"/>
+      <c r="K97" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="L97" s="179"/>
-      <c r="M97" s="180"/>
-      <c r="N97" s="181"/>
-      <c r="O97" s="181"/>
-      <c r="P97" s="182">
+      <c r="L97" s="186"/>
+      <c r="M97" s="141"/>
+      <c r="N97" s="142"/>
+      <c r="O97" s="142"/>
+      <c r="P97" s="143">
         <f>AVERAGE(P91:P96)/100</f>
         <v>-2.148333333333333E-2</v>
       </c>
-      <c r="Q97" s="183">
+      <c r="Q97" s="144">
         <f>SUM(Q91:Q96)</f>
         <v>-12603</v>
       </c>
-      <c r="R97" s="184"/>
+      <c r="R97" s="179"/>
       <c r="AA97"/>
       <c r="AB97"/>
       <c r="AC97"/>
@@ -14154,49 +14197,49 @@
       <c r="AE97"/>
     </row>
     <row r="98" spans="1:31" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="185">
+      <c r="A98" s="168">
         <v>42661</v>
       </c>
-      <c r="B98" s="186" t="s">
+      <c r="B98" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="187" t="s">
+      <c r="C98" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="186" t="s">
+      <c r="D98" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="186"/>
-      <c r="F98" s="186"/>
-      <c r="G98" s="188" t="s">
+      <c r="E98" s="170"/>
+      <c r="F98" s="170"/>
+      <c r="G98" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="H98" s="188" t="s">
+      <c r="H98" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="I98" s="186" t="s">
+      <c r="I98" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="J98" s="186"/>
-      <c r="K98" s="186"/>
-      <c r="L98" s="186"/>
-      <c r="M98" s="189" t="s">
+      <c r="J98" s="170"/>
+      <c r="K98" s="170"/>
+      <c r="L98" s="170"/>
+      <c r="M98" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="N98" s="190" t="s">
+      <c r="N98" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="O98" s="190" t="s">
+      <c r="O98" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="P98" s="191" t="s">
+      <c r="P98" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="Q98" s="191" t="s">
+      <c r="Q98" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="R98" s="192"/>
-      <c r="S98" s="193" t="s">
+      <c r="R98" s="156"/>
+      <c r="S98" s="159" t="s">
         <v>143</v>
       </c>
       <c r="AA98"/>
@@ -14206,8 +14249,8 @@
       <c r="AE98"/>
     </row>
     <row r="99" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="194"/>
-      <c r="B99" s="152"/>
+      <c r="A99" s="169"/>
+      <c r="B99" s="171"/>
       <c r="C99" s="130" t="s">
         <v>74</v>
       </c>
@@ -14220,8 +14263,8 @@
       <c r="F99" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="G99" s="154"/>
-      <c r="H99" s="155"/>
+      <c r="G99" s="173"/>
+      <c r="H99" s="174"/>
       <c r="I99" s="112" t="s">
         <v>107</v>
       </c>
@@ -14234,13 +14277,13 @@
       <c r="L99" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="M99" s="154"/>
-      <c r="N99" s="140"/>
-      <c r="O99" s="150"/>
-      <c r="P99" s="140"/>
-      <c r="Q99" s="140"/>
-      <c r="R99" s="141"/>
-      <c r="S99" s="195"/>
+      <c r="M99" s="173"/>
+      <c r="N99" s="155"/>
+      <c r="O99" s="177"/>
+      <c r="P99" s="155"/>
+      <c r="Q99" s="155"/>
+      <c r="R99" s="157"/>
+      <c r="S99" s="160"/>
       <c r="AA99"/>
       <c r="AB99"/>
       <c r="AC99"/>
@@ -14248,7 +14291,7 @@
       <c r="AE99"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="194"/>
+      <c r="A100" s="169"/>
       <c r="B100" s="137" t="s">
         <v>52</v>
       </c>
@@ -14302,8 +14345,8 @@
       <c r="Q100" s="134">
         <v>274</v>
       </c>
-      <c r="R100" s="141"/>
-      <c r="S100" s="196" t="s">
+      <c r="R100" s="157"/>
+      <c r="S100" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA100"/>
@@ -14313,7 +14356,7 @@
       <c r="AE100"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="194"/>
+      <c r="A101" s="169"/>
       <c r="B101" s="137" t="s">
         <v>63</v>
       </c>
@@ -14367,8 +14410,8 @@
       <c r="Q101" s="134">
         <v>-2388</v>
       </c>
-      <c r="R101" s="141"/>
-      <c r="S101" s="196" t="s">
+      <c r="R101" s="157"/>
+      <c r="S101" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA101"/>
@@ -14378,7 +14421,7 @@
       <c r="AE101"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="194"/>
+      <c r="A102" s="169"/>
       <c r="B102" s="137" t="s">
         <v>135</v>
       </c>
@@ -14432,8 +14475,8 @@
       <c r="Q102" s="134">
         <v>-2404</v>
       </c>
-      <c r="R102" s="141"/>
-      <c r="S102" s="196" t="s">
+      <c r="R102" s="157"/>
+      <c r="S102" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA102"/>
@@ -14443,7 +14486,7 @@
       <c r="AE102"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="194"/>
+      <c r="A103" s="169"/>
       <c r="B103" s="137" t="s">
         <v>137</v>
       </c>
@@ -14497,8 +14540,8 @@
       <c r="Q103" s="134">
         <v>3812</v>
       </c>
-      <c r="R103" s="141"/>
-      <c r="S103" s="196" t="s">
+      <c r="R103" s="157"/>
+      <c r="S103" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA103"/>
@@ -14508,7 +14551,7 @@
       <c r="AE103"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="194"/>
+      <c r="A104" s="169"/>
       <c r="B104" s="137" t="s">
         <v>138</v>
       </c>
@@ -14562,8 +14605,8 @@
       <c r="Q104" s="134">
         <v>-3099</v>
       </c>
-      <c r="R104" s="141"/>
-      <c r="S104" s="196" t="s">
+      <c r="R104" s="157"/>
+      <c r="S104" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA104"/>
@@ -14573,7 +14616,7 @@
       <c r="AE104"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="194"/>
+      <c r="A105" s="169"/>
       <c r="B105" s="137" t="s">
         <v>85</v>
       </c>
@@ -14627,8 +14670,8 @@
       <c r="Q105" s="134">
         <v>-2846</v>
       </c>
-      <c r="R105" s="141"/>
-      <c r="S105" s="196" t="s">
+      <c r="R105" s="157"/>
+      <c r="S105" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA105"/>
@@ -14638,7 +14681,7 @@
       <c r="AE105"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="194"/>
+      <c r="A106" s="169"/>
       <c r="B106" s="137" t="s">
         <v>52</v>
       </c>
@@ -14692,8 +14735,8 @@
       <c r="Q106" s="134">
         <v>0</v>
       </c>
-      <c r="R106" s="141"/>
-      <c r="S106" s="196" t="s">
+      <c r="R106" s="157"/>
+      <c r="S106" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA106"/>
@@ -14703,7 +14746,7 @@
       <c r="AE106"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="194"/>
+      <c r="A107" s="169"/>
       <c r="B107" s="137" t="s">
         <v>137</v>
       </c>
@@ -14757,8 +14800,8 @@
       <c r="Q107" s="134">
         <v>0</v>
       </c>
-      <c r="R107" s="141"/>
-      <c r="S107" s="196" t="s">
+      <c r="R107" s="157"/>
+      <c r="S107" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA107"/>
@@ -14768,7 +14811,7 @@
       <c r="AE107"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="194"/>
+      <c r="A108" s="169"/>
       <c r="B108" s="137" t="s">
         <v>139</v>
       </c>
@@ -14822,8 +14865,8 @@
       <c r="Q108" s="134">
         <v>658</v>
       </c>
-      <c r="R108" s="141"/>
-      <c r="S108" s="196" t="s">
+      <c r="R108" s="157"/>
+      <c r="S108" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA108"/>
@@ -14833,7 +14876,7 @@
       <c r="AE108"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="194"/>
+      <c r="A109" s="169"/>
       <c r="B109" s="137" t="s">
         <v>140</v>
       </c>
@@ -14887,8 +14930,8 @@
       <c r="Q109" s="134">
         <v>758</v>
       </c>
-      <c r="R109" s="141"/>
-      <c r="S109" s="196" t="s">
+      <c r="R109" s="157"/>
+      <c r="S109" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA109"/>
@@ -14898,7 +14941,7 @@
       <c r="AE109"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="194"/>
+      <c r="A110" s="169"/>
       <c r="B110" s="137" t="s">
         <v>56</v>
       </c>
@@ -14952,8 +14995,8 @@
       <c r="Q110" s="134">
         <v>724</v>
       </c>
-      <c r="R110" s="141"/>
-      <c r="S110" s="196" t="s">
+      <c r="R110" s="157"/>
+      <c r="S110" s="146" t="s">
         <v>145</v>
       </c>
       <c r="AA110"/>
@@ -14963,35 +15006,35 @@
       <c r="AE110"/>
     </row>
     <row r="111" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A111" s="197" t="s">
+      <c r="A111" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="198"/>
-      <c r="C111" s="198"/>
-      <c r="D111" s="198"/>
-      <c r="E111" s="198"/>
-      <c r="F111" s="199"/>
-      <c r="G111" s="200"/>
-      <c r="H111" s="201"/>
-      <c r="I111" s="202"/>
-      <c r="J111" s="202"/>
-      <c r="K111" s="203" t="s">
+      <c r="B111" s="162"/>
+      <c r="C111" s="162"/>
+      <c r="D111" s="162"/>
+      <c r="E111" s="162"/>
+      <c r="F111" s="163"/>
+      <c r="G111" s="164"/>
+      <c r="H111" s="165"/>
+      <c r="I111" s="147"/>
+      <c r="J111" s="147"/>
+      <c r="K111" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="L111" s="204"/>
-      <c r="M111" s="205"/>
-      <c r="N111" s="206"/>
-      <c r="O111" s="206"/>
-      <c r="P111" s="207">
+      <c r="L111" s="167"/>
+      <c r="M111" s="148"/>
+      <c r="N111" s="149"/>
+      <c r="O111" s="149"/>
+      <c r="P111" s="150">
         <f>AVERAGE(P100:P110)/100</f>
         <v>-6.2818181818181818E-3</v>
       </c>
-      <c r="Q111" s="208">
+      <c r="Q111" s="151">
         <f>SUM(Q100:Q110)</f>
         <v>-4511</v>
       </c>
-      <c r="R111" s="209"/>
-      <c r="S111" s="210"/>
+      <c r="R111" s="158"/>
+      <c r="S111" s="152"/>
       <c r="AA111"/>
       <c r="AB111"/>
       <c r="AC111"/>
@@ -14999,49 +15042,49 @@
       <c r="AE111"/>
     </row>
     <row r="112" spans="1:31" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="185">
+      <c r="A112" s="168">
         <v>42662</v>
       </c>
-      <c r="B112" s="186" t="s">
+      <c r="B112" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="187" t="s">
+      <c r="C112" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="186" t="s">
+      <c r="D112" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="186"/>
-      <c r="F112" s="186"/>
-      <c r="G112" s="188" t="s">
+      <c r="E112" s="170"/>
+      <c r="F112" s="170"/>
+      <c r="G112" s="172" t="s">
         <v>89</v>
       </c>
-      <c r="H112" s="188" t="s">
+      <c r="H112" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="I112" s="186" t="s">
+      <c r="I112" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="J112" s="186"/>
-      <c r="K112" s="186"/>
-      <c r="L112" s="186"/>
-      <c r="M112" s="189" t="s">
+      <c r="J112" s="170"/>
+      <c r="K112" s="170"/>
+      <c r="L112" s="170"/>
+      <c r="M112" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="N112" s="190" t="s">
+      <c r="N112" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="O112" s="190" t="s">
+      <c r="O112" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="P112" s="191" t="s">
+      <c r="P112" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="Q112" s="191" t="s">
+      <c r="Q112" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="R112" s="192"/>
-      <c r="S112" s="193" t="s">
+      <c r="R112" s="156"/>
+      <c r="S112" s="159" t="s">
         <v>143</v>
       </c>
       <c r="AA112"/>
@@ -15051,8 +15094,8 @@
       <c r="AE112"/>
     </row>
     <row r="113" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="194"/>
-      <c r="B113" s="152"/>
+      <c r="A113" s="169"/>
+      <c r="B113" s="171"/>
       <c r="C113" s="130" t="s">
         <v>74</v>
       </c>
@@ -15065,8 +15108,8 @@
       <c r="F113" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="G113" s="154"/>
-      <c r="H113" s="155"/>
+      <c r="G113" s="173"/>
+      <c r="H113" s="174"/>
       <c r="I113" s="112" t="s">
         <v>107</v>
       </c>
@@ -15079,13 +15122,13 @@
       <c r="L113" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="M113" s="154"/>
-      <c r="N113" s="140"/>
-      <c r="O113" s="150"/>
-      <c r="P113" s="140"/>
-      <c r="Q113" s="140"/>
-      <c r="R113" s="141"/>
-      <c r="S113" s="195"/>
+      <c r="M113" s="173"/>
+      <c r="N113" s="155"/>
+      <c r="O113" s="177"/>
+      <c r="P113" s="155"/>
+      <c r="Q113" s="155"/>
+      <c r="R113" s="157"/>
+      <c r="S113" s="160"/>
       <c r="AA113"/>
       <c r="AB113"/>
       <c r="AC113"/>
@@ -15093,7 +15136,7 @@
       <c r="AE113"/>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="194"/>
+      <c r="A114" s="169"/>
       <c r="B114" s="137" t="s">
         <v>147</v>
       </c>
@@ -15141,15 +15184,15 @@
       <c r="O114" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="P114" s="138">
+      <c r="P114" s="213">
         <f>((L114-K114)*100/K114)-0.33</f>
         <v>0.33777963272120198</v>
       </c>
       <c r="Q114" s="134">
         <v>332</v>
       </c>
-      <c r="R114" s="141"/>
-      <c r="S114" s="196" t="s">
+      <c r="R114" s="157"/>
+      <c r="S114" s="146" t="s">
         <v>154</v>
       </c>
       <c r="AA114"/>
@@ -15159,7 +15202,7 @@
       <c r="AE114"/>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="194"/>
+      <c r="A115" s="169"/>
       <c r="B115" s="137" t="s">
         <v>148</v>
       </c>
@@ -15193,7 +15236,7 @@
       <c r="K115" s="134">
         <v>10100</v>
       </c>
-      <c r="L115" s="211">
+      <c r="L115" s="153">
         <v>9840</v>
       </c>
       <c r="M115" s="96">
@@ -15207,15 +15250,15 @@
       <c r="O115" s="136" t="s">
         <v>152</v>
       </c>
-      <c r="P115" s="138">
+      <c r="P115" s="213">
         <f t="shared" ref="P115:P117" si="111">((L115-K115)*100/K115)-0.33</f>
         <v>-2.9042574257425744</v>
       </c>
       <c r="Q115" s="134">
         <v>-2625</v>
       </c>
-      <c r="R115" s="141"/>
-      <c r="S115" s="196" t="s">
+      <c r="R115" s="157"/>
+      <c r="S115" s="146" t="s">
         <v>155</v>
       </c>
       <c r="AA115"/>
@@ -15225,7 +15268,7 @@
       <c r="AE115"/>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="194"/>
+      <c r="A116" s="169"/>
       <c r="B116" s="137" t="s">
         <v>149</v>
       </c>
@@ -15273,15 +15316,15 @@
       <c r="O116" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="P116" s="138">
+      <c r="P116" s="213">
         <f t="shared" si="111"/>
         <v>0.65730606488011278</v>
       </c>
       <c r="Q116" s="134">
         <v>660</v>
       </c>
-      <c r="R116" s="141"/>
-      <c r="S116" s="196" t="s">
+      <c r="R116" s="157"/>
+      <c r="S116" s="146" t="s">
         <v>156</v>
       </c>
       <c r="AA116"/>
@@ -15291,7 +15334,7 @@
       <c r="AE116"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="194"/>
+      <c r="A117" s="169"/>
       <c r="B117" s="137" t="s">
         <v>150</v>
       </c>
@@ -15339,15 +15382,15 @@
       <c r="O117" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="P117" s="138">
+      <c r="P117" s="213">
         <f t="shared" si="111"/>
         <v>0.62440084835630971</v>
       </c>
       <c r="Q117" s="134">
         <v>626</v>
       </c>
-      <c r="R117" s="141"/>
-      <c r="S117" s="196" t="s">
+      <c r="R117" s="157"/>
+      <c r="S117" s="146" t="s">
         <v>154</v>
       </c>
       <c r="AA117"/>
@@ -15357,84 +15400,946 @@
       <c r="AE117"/>
     </row>
     <row r="118" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A118" s="197" t="s">
+      <c r="A118" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B118" s="198"/>
-      <c r="C118" s="198"/>
-      <c r="D118" s="198"/>
-      <c r="E118" s="198"/>
-      <c r="F118" s="199"/>
-      <c r="G118" s="200"/>
-      <c r="H118" s="201"/>
-      <c r="I118" s="202"/>
-      <c r="J118" s="202"/>
-      <c r="K118" s="203" t="s">
+      <c r="B118" s="162"/>
+      <c r="C118" s="162"/>
+      <c r="D118" s="162"/>
+      <c r="E118" s="162"/>
+      <c r="F118" s="163"/>
+      <c r="G118" s="164"/>
+      <c r="H118" s="165"/>
+      <c r="I118" s="147"/>
+      <c r="J118" s="147"/>
+      <c r="K118" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="L118" s="204"/>
-      <c r="M118" s="205"/>
-      <c r="N118" s="206"/>
-      <c r="O118" s="206"/>
-      <c r="P118" s="207">
+      <c r="L118" s="167"/>
+      <c r="M118" s="148"/>
+      <c r="N118" s="149"/>
+      <c r="O118" s="149"/>
+      <c r="P118" s="150">
         <f>AVERAGE(P114:P117)/100</f>
         <v>-3.2119271994623748E-3</v>
       </c>
-      <c r="Q118" s="208">
+      <c r="Q118" s="151">
         <f>SUM(Q114:Q117)</f>
         <v>-1007</v>
       </c>
-      <c r="R118" s="209"/>
-      <c r="S118" s="210"/>
+      <c r="R118" s="158"/>
+      <c r="S118" s="152"/>
       <c r="AA118"/>
       <c r="AB118"/>
       <c r="AC118"/>
       <c r="AD118"/>
       <c r="AE118"/>
     </row>
+    <row r="119" spans="1:31" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="168">
+        <v>42662</v>
+      </c>
+      <c r="B119" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="170"/>
+      <c r="F119" s="170"/>
+      <c r="G119" s="172" t="s">
+        <v>89</v>
+      </c>
+      <c r="H119" s="172" t="s">
+        <v>142</v>
+      </c>
+      <c r="I119" s="170" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" s="170"/>
+      <c r="K119" s="170"/>
+      <c r="L119" s="170"/>
+      <c r="M119" s="175" t="s">
+        <v>109</v>
+      </c>
+      <c r="N119" s="176" t="s">
+        <v>110</v>
+      </c>
+      <c r="O119" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="P119" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q119" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="R119" s="156"/>
+      <c r="S119" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AD119"/>
+      <c r="AE119"/>
+    </row>
+    <row r="120" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="169"/>
+      <c r="B120" s="171"/>
+      <c r="C120" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D120" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="139" t="s">
+        <v>75</v>
+      </c>
+      <c r="F120" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="G120" s="173"/>
+      <c r="H120" s="174"/>
+      <c r="I120" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="J120" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="K120" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="L120" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="M120" s="173"/>
+      <c r="N120" s="155"/>
+      <c r="O120" s="177"/>
+      <c r="P120" s="155"/>
+      <c r="Q120" s="155"/>
+      <c r="R120" s="157"/>
+      <c r="S120" s="160"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="169"/>
+      <c r="B121" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="131">
+        <v>0.3794514814814815</v>
+      </c>
+      <c r="D121" s="37">
+        <f>C121</f>
+        <v>0.3794514814814815</v>
+      </c>
+      <c r="E121" s="131">
+        <v>0.37981343750000002</v>
+      </c>
+      <c r="F121" s="37">
+        <f>E121-D121</f>
+        <v>3.6195601851851666E-4</v>
+      </c>
+      <c r="G121" s="132">
+        <v>22.89</v>
+      </c>
+      <c r="H121" s="96">
+        <f>G121-N121</f>
+        <v>10.065324675324677</v>
+      </c>
+      <c r="I121" s="133">
+        <v>3080</v>
+      </c>
+      <c r="J121" s="133">
+        <v>3625</v>
+      </c>
+      <c r="K121" s="134">
+        <v>3475</v>
+      </c>
+      <c r="L121" s="214">
+        <v>3510</v>
+      </c>
+      <c r="M121" s="96">
+        <f>(J121-I121)*100/I121</f>
+        <v>17.694805194805195</v>
+      </c>
+      <c r="N121" s="96">
+        <f>(K121-I121)*100/I121</f>
+        <v>12.824675324675324</v>
+      </c>
+      <c r="O121" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="P121" s="213">
+        <f>((L121-K121)*100/K121)-0.33</f>
+        <v>0.67719424460431643</v>
+      </c>
+      <c r="Q121" s="134"/>
+      <c r="R121" s="157"/>
+      <c r="S121" s="146"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="169"/>
+      <c r="B122" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="131">
+        <v>0.38125643518518521</v>
+      </c>
+      <c r="D122" s="37">
+        <f t="shared" ref="D122:D131" si="114">C122</f>
+        <v>0.38125643518518521</v>
+      </c>
+      <c r="E122" s="131">
+        <v>0.38185525462962966</v>
+      </c>
+      <c r="F122" s="37">
+        <f>E122-D122</f>
+        <v>5.988194444444539E-4</v>
+      </c>
+      <c r="G122" s="132">
+        <v>22.89</v>
+      </c>
+      <c r="H122" s="96">
+        <f t="shared" ref="H122:H131" si="115">G122-N122</f>
+        <v>9.7406493506493508</v>
+      </c>
+      <c r="I122" s="133">
+        <v>3080</v>
+      </c>
+      <c r="J122" s="133">
+        <v>3625</v>
+      </c>
+      <c r="K122" s="134">
+        <v>3485</v>
+      </c>
+      <c r="L122" s="214">
+        <v>3520</v>
+      </c>
+      <c r="M122" s="96">
+        <f t="shared" ref="M122:M124" si="116">(J122-I122)*100/I122</f>
+        <v>17.694805194805195</v>
+      </c>
+      <c r="N122" s="96">
+        <f t="shared" ref="N122:N124" si="117">(K122-I122)*100/I122</f>
+        <v>13.14935064935065</v>
+      </c>
+      <c r="O122" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="P122" s="213">
+        <f t="shared" ref="P122:P131" si="118">((L122-K122)*100/K122)-0.33</f>
+        <v>0.67430416068866572</v>
+      </c>
+      <c r="Q122" s="134"/>
+      <c r="R122" s="157"/>
+      <c r="S122" s="146"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+      <c r="AC122"/>
+      <c r="AD122"/>
+      <c r="AE122"/>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="169"/>
+      <c r="B123" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="131">
+        <v>0.38520648148148151</v>
+      </c>
+      <c r="D123" s="37">
+        <f t="shared" ref="D123:D126" si="119">C123</f>
+        <v>0.38520648148148151</v>
+      </c>
+      <c r="E123" s="131">
+        <v>0.38950825231481478</v>
+      </c>
+      <c r="F123" s="37">
+        <f t="shared" ref="F123:F126" si="120">E123-D123</f>
+        <v>4.3017708333332738E-3</v>
+      </c>
+      <c r="G123" s="132">
+        <v>22.89</v>
+      </c>
+      <c r="H123" s="96">
+        <f t="shared" ref="H123:H126" si="121">G123-N123</f>
+        <v>9.5783116883116897</v>
+      </c>
+      <c r="I123" s="133">
+        <v>3080</v>
+      </c>
+      <c r="J123" s="133">
+        <v>3625</v>
+      </c>
+      <c r="K123" s="134">
+        <v>3490</v>
+      </c>
+      <c r="L123" s="214">
+        <v>3410</v>
+      </c>
+      <c r="M123" s="96">
+        <f t="shared" si="116"/>
+        <v>17.694805194805195</v>
+      </c>
+      <c r="N123" s="96">
+        <f t="shared" si="117"/>
+        <v>13.311688311688311</v>
+      </c>
+      <c r="O123" s="136" t="s">
+        <v>160</v>
+      </c>
+      <c r="P123" s="213">
+        <f t="shared" ref="P123:P126" si="122">((L123-K123)*100/K123)-0.33</f>
+        <v>-2.6222636103151862</v>
+      </c>
+      <c r="Q123" s="134"/>
+      <c r="R123" s="157"/>
+      <c r="S123" s="146"/>
+      <c r="AA123"/>
+      <c r="AB123"/>
+      <c r="AC123"/>
+      <c r="AD123"/>
+      <c r="AE123"/>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="169"/>
+      <c r="B124" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="131">
+        <v>0.39996087962962962</v>
+      </c>
+      <c r="D124" s="37">
+        <f t="shared" si="119"/>
+        <v>0.39996087962962962</v>
+      </c>
+      <c r="E124" s="131">
+        <v>0.41716468749999996</v>
+      </c>
+      <c r="F124" s="37">
+        <f t="shared" si="120"/>
+        <v>1.7203807870370347E-2</v>
+      </c>
+      <c r="G124" s="132">
+        <v>22.89</v>
+      </c>
+      <c r="H124" s="96">
+        <f t="shared" si="121"/>
+        <v>10.877012987012987</v>
+      </c>
+      <c r="I124" s="133">
+        <v>3080</v>
+      </c>
+      <c r="J124" s="133">
+        <v>3625</v>
+      </c>
+      <c r="K124" s="134">
+        <v>3450</v>
+      </c>
+      <c r="L124" s="214">
+        <v>3375</v>
+      </c>
+      <c r="M124" s="96">
+        <f t="shared" si="116"/>
+        <v>17.694805194805195</v>
+      </c>
+      <c r="N124" s="96">
+        <f t="shared" si="117"/>
+        <v>12.012987012987013</v>
+      </c>
+      <c r="O124" s="136" t="s">
+        <v>161</v>
+      </c>
+      <c r="P124" s="213">
+        <f t="shared" si="122"/>
+        <v>-2.5039130434782608</v>
+      </c>
+      <c r="Q124" s="134"/>
+      <c r="R124" s="157"/>
+      <c r="S124" s="146"/>
+      <c r="AA124"/>
+      <c r="AB124"/>
+      <c r="AC124"/>
+      <c r="AD124"/>
+      <c r="AE124"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="169"/>
+      <c r="B125" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="131">
+        <v>0.42008327546296292</v>
+      </c>
+      <c r="D125" s="37">
+        <f t="shared" si="119"/>
+        <v>0.42008327546296292</v>
+      </c>
+      <c r="E125" s="131">
+        <v>0.43331533564814811</v>
+      </c>
+      <c r="F125" s="37">
+        <f t="shared" si="120"/>
+        <v>1.323206018518519E-2</v>
+      </c>
+      <c r="G125" s="132">
+        <v>22.89</v>
+      </c>
+      <c r="H125" s="96">
+        <f t="shared" si="121"/>
+        <v>11.526363636363637</v>
+      </c>
+      <c r="I125" s="133">
+        <v>3080</v>
+      </c>
+      <c r="J125" s="133">
+        <v>3625</v>
+      </c>
+      <c r="K125" s="134">
+        <v>3430</v>
+      </c>
+      <c r="L125" s="134">
+        <v>3445</v>
+      </c>
+      <c r="M125" s="96">
+        <f t="shared" ref="M125:M126" si="123">(J125-I125)*100/I125</f>
+        <v>17.694805194805195</v>
+      </c>
+      <c r="N125" s="96">
+        <f>(K125-I125)*100/I125</f>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="O125" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="P125" s="213">
+        <f t="shared" si="122"/>
+        <v>0.10731778425655975</v>
+      </c>
+      <c r="Q125" s="134"/>
+      <c r="R125" s="157"/>
+      <c r="S125" s="146"/>
+      <c r="AA125"/>
+      <c r="AB125"/>
+      <c r="AC125"/>
+      <c r="AD125"/>
+      <c r="AE125"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="169"/>
+      <c r="B126" s="137" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" s="131">
+        <v>0.42598759259259261</v>
+      </c>
+      <c r="D126" s="37">
+        <f t="shared" si="119"/>
+        <v>0.42598759259259261</v>
+      </c>
+      <c r="E126" s="131">
+        <v>0.42626809027777779</v>
+      </c>
+      <c r="F126" s="37">
+        <f t="shared" si="120"/>
+        <v>2.8049768518517704E-4</v>
+      </c>
+      <c r="G126" s="132">
+        <v>10.09</v>
+      </c>
+      <c r="H126" s="96">
+        <f t="shared" si="121"/>
+        <v>-1.7431192660559702E-3</v>
+      </c>
+      <c r="I126" s="133">
+        <v>10900</v>
+      </c>
+      <c r="J126" s="133">
+        <v>10600</v>
+      </c>
+      <c r="K126" s="134">
+        <v>12000</v>
+      </c>
+      <c r="L126" s="134">
+        <v>11700</v>
+      </c>
+      <c r="M126" s="96">
+        <f t="shared" si="123"/>
+        <v>-2.7522935779816513</v>
+      </c>
+      <c r="N126" s="96">
+        <f t="shared" ref="N126" si="124">(K126-I126)*100/I126</f>
+        <v>10.091743119266056</v>
+      </c>
+      <c r="O126" s="135" t="s">
+        <v>161</v>
+      </c>
+      <c r="P126" s="213">
+        <f t="shared" si="122"/>
+        <v>-2.83</v>
+      </c>
+      <c r="Q126" s="134"/>
+      <c r="R126" s="157"/>
+      <c r="S126" s="146"/>
+      <c r="AA126"/>
+      <c r="AB126"/>
+      <c r="AC126"/>
+      <c r="AD126"/>
+      <c r="AE126"/>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="169"/>
+      <c r="B127" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="131">
+        <v>0.4410954861111111</v>
+      </c>
+      <c r="D127" s="37">
+        <f t="shared" si="114"/>
+        <v>0.4410954861111111</v>
+      </c>
+      <c r="E127" s="131">
+        <v>0.50084819444444439</v>
+      </c>
+      <c r="F127" s="37">
+        <f t="shared" ref="F127:F131" si="125">E127-D127</f>
+        <v>5.9752708333333293E-2</v>
+      </c>
+      <c r="G127" s="132">
+        <v>22.89</v>
+      </c>
+      <c r="H127" s="96">
+        <f t="shared" si="115"/>
+        <v>9.7406493506493508</v>
+      </c>
+      <c r="I127" s="133">
+        <v>3080</v>
+      </c>
+      <c r="J127" s="133">
+        <v>3625</v>
+      </c>
+      <c r="K127" s="134">
+        <v>3485</v>
+      </c>
+      <c r="L127" s="214">
+        <v>3410</v>
+      </c>
+      <c r="M127" s="96">
+        <f t="shared" ref="M127:M131" si="126">(J127-I127)*100/I127</f>
+        <v>17.694805194805195</v>
+      </c>
+      <c r="N127" s="96">
+        <f t="shared" ref="N127:N131" si="127">(K127-I127)*100/I127</f>
+        <v>13.14935064935065</v>
+      </c>
+      <c r="O127" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="P127" s="213">
+        <f t="shared" si="118"/>
+        <v>-2.482080344332855</v>
+      </c>
+      <c r="Q127" s="134"/>
+      <c r="R127" s="157"/>
+      <c r="S127" s="146"/>
+      <c r="AA127"/>
+      <c r="AB127"/>
+      <c r="AC127"/>
+      <c r="AD127"/>
+      <c r="AE127"/>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="169"/>
+      <c r="B128" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" s="131">
+        <v>0.50475129629629623</v>
+      </c>
+      <c r="D128" s="37">
+        <f t="shared" ref="D128:D130" si="128">C128</f>
+        <v>0.50475129629629623</v>
+      </c>
+      <c r="E128" s="131">
+        <v>0.50485934027777779</v>
+      </c>
+      <c r="F128" s="37">
+        <f t="shared" ref="F128:F130" si="129">E128-D128</f>
+        <v>1.080439814815648E-4</v>
+      </c>
+      <c r="G128" s="132">
+        <v>14.51</v>
+      </c>
+      <c r="H128" s="96">
+        <f t="shared" ref="H128:H130" si="130">G128-N128</f>
+        <v>4.6406240928882436</v>
+      </c>
+      <c r="I128" s="133">
+        <v>6890</v>
+      </c>
+      <c r="J128" s="133">
+        <v>7000</v>
+      </c>
+      <c r="K128" s="134">
+        <v>7570</v>
+      </c>
+      <c r="L128" s="214">
+        <v>7650</v>
+      </c>
+      <c r="M128" s="96">
+        <f t="shared" ref="M128:M130" si="131">(J128-I128)*100/I128</f>
+        <v>1.5965166908563135</v>
+      </c>
+      <c r="N128" s="96">
+        <f t="shared" ref="N128" si="132">(K128-I128)*100/I128</f>
+        <v>9.8693759071117562</v>
+      </c>
+      <c r="O128" s="136" t="s">
+        <v>164</v>
+      </c>
+      <c r="P128" s="213">
+        <f t="shared" ref="P128:P130" si="133">((L128-K128)*100/K128)-0.33</f>
+        <v>0.72680317040951126</v>
+      </c>
+      <c r="Q128" s="134"/>
+      <c r="R128" s="157"/>
+      <c r="S128" s="146"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+      <c r="AC128"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="169"/>
+      <c r="B129" s="137" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="131">
+        <v>0.50692420138888894</v>
+      </c>
+      <c r="D129" s="37">
+        <f t="shared" si="128"/>
+        <v>0.50692420138888894</v>
+      </c>
+      <c r="E129" s="131">
+        <v>0.517712650462963</v>
+      </c>
+      <c r="F129" s="37">
+        <f t="shared" si="129"/>
+        <v>1.0788449074074058E-2</v>
+      </c>
+      <c r="G129" s="132">
+        <v>22.89</v>
+      </c>
+      <c r="H129" s="96">
+        <f t="shared" si="130"/>
+        <v>11.201688311688311</v>
+      </c>
+      <c r="I129" s="133">
+        <v>3080</v>
+      </c>
+      <c r="J129" s="133">
+        <v>3625</v>
+      </c>
+      <c r="K129" s="134">
+        <v>3440</v>
+      </c>
+      <c r="L129" s="134">
+        <v>3455</v>
+      </c>
+      <c r="M129" s="96">
+        <f t="shared" si="131"/>
+        <v>17.694805194805195</v>
+      </c>
+      <c r="N129" s="96">
+        <f>(K129-I129)*100/I129</f>
+        <v>11.688311688311689</v>
+      </c>
+      <c r="O129" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="P129" s="213">
+        <f t="shared" si="133"/>
+        <v>0.10604651162790696</v>
+      </c>
+      <c r="Q129" s="134"/>
+      <c r="R129" s="157"/>
+      <c r="S129" s="146"/>
+      <c r="AA129"/>
+      <c r="AB129"/>
+      <c r="AC129"/>
+      <c r="AD129"/>
+      <c r="AE129"/>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="169"/>
+      <c r="B130" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="131">
+        <v>0.555789837962963</v>
+      </c>
+      <c r="D130" s="37">
+        <f t="shared" si="128"/>
+        <v>0.555789837962963</v>
+      </c>
+      <c r="E130" s="131">
+        <v>0.55985863425925919</v>
+      </c>
+      <c r="F130" s="37">
+        <f t="shared" si="129"/>
+        <v>4.0687962962961954E-3</v>
+      </c>
+      <c r="G130" s="132">
+        <v>12.07</v>
+      </c>
+      <c r="H130" s="96">
+        <f t="shared" si="130"/>
+        <v>1.8975862068965519</v>
+      </c>
+      <c r="I130" s="133">
+        <v>5800</v>
+      </c>
+      <c r="J130" s="133">
+        <v>5780</v>
+      </c>
+      <c r="K130" s="134">
+        <v>6390</v>
+      </c>
+      <c r="L130" s="134">
+        <v>6250</v>
+      </c>
+      <c r="M130" s="96">
+        <f t="shared" si="131"/>
+        <v>-0.34482758620689657</v>
+      </c>
+      <c r="N130" s="96">
+        <f t="shared" ref="N130" si="134">(K130-I130)*100/I130</f>
+        <v>10.172413793103448</v>
+      </c>
+      <c r="O130" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="P130" s="213">
+        <f t="shared" si="133"/>
+        <v>-2.5209233176838812</v>
+      </c>
+      <c r="Q130" s="134"/>
+      <c r="R130" s="157"/>
+      <c r="S130" s="146"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+      <c r="AC130"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="169"/>
+      <c r="B131" s="137" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="131">
+        <v>0.63308092592592591</v>
+      </c>
+      <c r="D131" s="37">
+        <f t="shared" si="114"/>
+        <v>0.63308092592592591</v>
+      </c>
+      <c r="E131" s="131">
+        <v>0.63434634259259259</v>
+      </c>
+      <c r="F131" s="37">
+        <f t="shared" si="125"/>
+        <v>1.2654166666666855E-3</v>
+      </c>
+      <c r="G131" s="132">
+        <v>29.87</v>
+      </c>
+      <c r="H131" s="96">
+        <f t="shared" si="115"/>
+        <v>16.803333333333335</v>
+      </c>
+      <c r="I131" s="133">
+        <v>1875</v>
+      </c>
+      <c r="J131" s="133">
+        <v>1890</v>
+      </c>
+      <c r="K131" s="134">
+        <v>2120</v>
+      </c>
+      <c r="L131" s="214">
+        <v>2135</v>
+      </c>
+      <c r="M131" s="96">
+        <f t="shared" si="126"/>
+        <v>0.8</v>
+      </c>
+      <c r="N131" s="96">
+        <f t="shared" si="127"/>
+        <v>13.066666666666666</v>
+      </c>
+      <c r="O131" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="P131" s="213">
+        <f t="shared" si="118"/>
+        <v>0.37754716981132069</v>
+      </c>
+      <c r="Q131" s="134"/>
+      <c r="R131" s="157"/>
+      <c r="S131" s="146"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+    </row>
+    <row r="132" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A132" s="161" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="162"/>
+      <c r="C132" s="162"/>
+      <c r="D132" s="162"/>
+      <c r="E132" s="162"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="164"/>
+      <c r="H132" s="165"/>
+      <c r="I132" s="147"/>
+      <c r="J132" s="147"/>
+      <c r="K132" s="166" t="s">
+        <v>19</v>
+      </c>
+      <c r="L132" s="167"/>
+      <c r="M132" s="148"/>
+      <c r="N132" s="149"/>
+      <c r="O132" s="149"/>
+      <c r="P132" s="150">
+        <f>AVERAGE(P121:P131)/100</f>
+        <v>-9.3545157040108191E-3</v>
+      </c>
+      <c r="Q132" s="151">
+        <f>SUM(Q121:Q131)</f>
+        <v>0</v>
+      </c>
+      <c r="R132" s="158"/>
+      <c r="S132" s="152"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+    </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="P112:P113"/>
-    <mergeCell ref="Q112:Q113"/>
-    <mergeCell ref="R112:R118"/>
-    <mergeCell ref="S112:S113"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="N112:N113"/>
-    <mergeCell ref="O112:O113"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R97"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
+  <mergeCells count="156">
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R132"/>
+    <mergeCell ref="S119:S120"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="A119:A131"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="R98:R111"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A48:A60"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R63:R73"/>
+    <mergeCell ref="U63:AA63"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="R48:R61"/>
+    <mergeCell ref="U48:AA48"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R46"/>
+    <mergeCell ref="U34:AA34"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="P75:P76"/>
     <mergeCell ref="Q75:Q76"/>
     <mergeCell ref="R75:R87"/>
@@ -15459,81 +16364,47 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A16:A31"/>
     <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="R48:R61"/>
-    <mergeCell ref="U48:AA48"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R46"/>
-    <mergeCell ref="U34:AA34"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R63:R73"/>
-    <mergeCell ref="U63:AA63"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A48:A60"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="R98:R111"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="S98:S99"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R97"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="P112:P113"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="R112:R118"/>
+    <mergeCell ref="S112:S113"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="N112:N113"/>
+    <mergeCell ref="O112:O113"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/결과분석/분석 내용.xlsx
+++ b/결과분석/분석 내용.xlsx
@@ -2662,7 +2662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="333">
   <si>
     <t>파인디엔씨</t>
   </si>
@@ -3814,6 +3814,10 @@
   <si>
     <t>D+2
 고가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 28일</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4958,7 +4962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5571,9 +5575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5595,6 +5596,15 @@
     <xf numFmtId="179" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5667,9 +5677,87 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5694,84 +5782,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5795,15 +5805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -6158,94 +6159,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="254"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="254"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="263"/>
+      <c r="T1" s="263"/>
+      <c r="U1" s="263"/>
+      <c r="V1" s="263"/>
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="263"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="263"/>
+      <c r="AB1" s="263"/>
       <c r="AC1" s="57"/>
       <c r="AD1" s="57"/>
       <c r="AE1" s="57"/>
     </row>
     <row r="2" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="255">
+      <c r="A2" s="264">
         <v>42650</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="241" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="256" t="s">
+      <c r="D2" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="248" t="s">
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="248" t="s">
+      <c r="H2" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="229" t="s">
+      <c r="I2" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
       <c r="M2" s="114"/>
-      <c r="N2" s="246" t="s">
+      <c r="N2" s="247" t="s">
         <v>106</v>
       </c>
       <c r="O2" s="93"/>
-      <c r="P2" s="257" t="s">
+      <c r="P2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="257" t="s">
+      <c r="Q2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="259"/>
+      <c r="R2" s="253"/>
       <c r="S2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="262" t="s">
+      <c r="U2" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="264"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="257"/>
+      <c r="AA2" s="258"/>
       <c r="AB2" s="56">
         <v>0.33</v>
       </c>
@@ -6254,8 +6255,8 @@
       <c r="AE2"/>
     </row>
     <row r="3" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="241"/>
       <c r="C3" s="56" t="s">
         <v>79</v>
       </c>
@@ -6268,8 +6269,8 @@
       <c r="F3" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="232"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="234"/>
       <c r="I3" s="112" t="s">
         <v>107</v>
       </c>
@@ -6281,11 +6282,11 @@
         <v>28</v>
       </c>
       <c r="M3" s="115"/>
-      <c r="N3" s="213"/>
+      <c r="N3" s="215"/>
       <c r="O3" s="94"/>
-      <c r="P3" s="258"/>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="260"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="254"/>
       <c r="S3" s="13">
         <v>3</v>
       </c>
@@ -6321,7 +6322,7 @@
       <c r="AE3"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="256"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -6362,7 +6363,7 @@
       <c r="Q4" s="4">
         <v>2013</v>
       </c>
-      <c r="R4" s="260"/>
+      <c r="R4" s="254"/>
       <c r="S4" s="11">
         <f t="shared" ref="S4:S13" si="2">K4+((K4/100)*S$3)</f>
         <v>5139.7</v>
@@ -6404,7 +6405,7 @@
       <c r="AE4"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="256"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -6445,7 +6446,7 @@
       <c r="Q5" s="4">
         <v>2266</v>
       </c>
-      <c r="R5" s="260"/>
+      <c r="R5" s="254"/>
       <c r="S5" s="11">
         <f t="shared" si="2"/>
         <v>4243.6000000000004</v>
@@ -6487,7 +6488,7 @@
       <c r="AE5"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="256"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -6528,7 +6529,7 @@
       <c r="Q6" s="4">
         <v>2927</v>
       </c>
-      <c r="R6" s="260"/>
+      <c r="R6" s="254"/>
       <c r="S6" s="11">
         <f t="shared" si="2"/>
         <v>11639</v>
@@ -6570,7 +6571,7 @@
       <c r="AE6"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="256"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6611,7 +6612,7 @@
       <c r="Q7" s="4">
         <v>2378</v>
       </c>
-      <c r="R7" s="260"/>
+      <c r="R7" s="254"/>
       <c r="S7" s="11">
         <f t="shared" si="2"/>
         <v>3646.2</v>
@@ -6653,7 +6654,7 @@
       <c r="AE7"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="256"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -6694,7 +6695,7 @@
       <c r="Q8" s="6">
         <v>2120</v>
       </c>
-      <c r="R8" s="260"/>
+      <c r="R8" s="254"/>
       <c r="S8" s="11">
         <f t="shared" si="2"/>
         <v>4459.8999999999996</v>
@@ -6736,7 +6737,7 @@
       <c r="AE8"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="256"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
@@ -6777,7 +6778,7 @@
       <c r="Q9" s="10">
         <v>-8632</v>
       </c>
-      <c r="R9" s="260"/>
+      <c r="R9" s="254"/>
       <c r="S9" s="11">
         <f t="shared" si="2"/>
         <v>1601.65</v>
@@ -6817,7 +6818,7 @@
       <c r="AC9" s="79"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="256"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -6858,7 +6859,7 @@
       <c r="Q10" s="6">
         <v>2299</v>
       </c>
-      <c r="R10" s="260"/>
+      <c r="R10" s="254"/>
       <c r="S10" s="11">
         <f t="shared" si="2"/>
         <v>3733.75</v>
@@ -6900,7 +6901,7 @@
       <c r="AE10"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="256"/>
+      <c r="A11" s="241"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -6941,7 +6942,7 @@
       <c r="Q11" s="6">
         <v>2003</v>
       </c>
-      <c r="R11" s="260"/>
+      <c r="R11" s="254"/>
       <c r="S11" s="11">
         <f t="shared" si="2"/>
         <v>9136.1</v>
@@ -6983,7 +6984,7 @@
       <c r="AE11"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="256"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -7024,7 +7025,7 @@
       <c r="Q12" s="6">
         <v>1962</v>
       </c>
-      <c r="R12" s="260"/>
+      <c r="R12" s="254"/>
       <c r="S12" s="11">
         <f t="shared" si="2"/>
         <v>5232.3999999999996</v>
@@ -7066,7 +7067,7 @@
       <c r="AE12"/>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="256"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
@@ -7107,7 +7108,7 @@
       <c r="Q13" s="10">
         <v>-8540</v>
       </c>
-      <c r="R13" s="260"/>
+      <c r="R13" s="254"/>
       <c r="S13" s="11">
         <f t="shared" si="2"/>
         <v>7982.5</v>
@@ -7147,24 +7148,24 @@
       <c r="AC13" s="79"/>
     </row>
     <row r="14" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="265" t="s">
+      <c r="A14" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="266"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="267"/>
-      <c r="G14" s="249" t="s">
+      <c r="B14" s="260"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="244" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="250"/>
+      <c r="H14" s="245"/>
       <c r="I14" s="109"/>
       <c r="J14" s="109"/>
-      <c r="K14" s="251" t="s">
+      <c r="K14" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="252"/>
+      <c r="L14" s="250"/>
       <c r="M14" s="118"/>
       <c r="N14" s="102"/>
       <c r="O14" s="102"/>
@@ -7176,7 +7177,7 @@
         <f>SUM(Q4:Q13)</f>
         <v>796</v>
       </c>
-      <c r="R14" s="261"/>
+      <c r="R14" s="255"/>
       <c r="S14" s="15" t="s">
         <v>23</v>
       </c>
@@ -7257,59 +7258,59 @@
       <c r="AK15" s="47"/>
     </row>
     <row r="16" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="255">
+      <c r="A16" s="264">
         <v>42653</v>
       </c>
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="241" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="256" t="s">
+      <c r="D16" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="248" t="s">
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="248" t="s">
+      <c r="H16" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="229" t="s">
+      <c r="I16" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="229"/>
-      <c r="K16" s="229"/>
-      <c r="L16" s="229"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="231"/>
+      <c r="L16" s="231"/>
       <c r="M16" s="114"/>
-      <c r="N16" s="246" t="s">
+      <c r="N16" s="247" t="s">
         <v>106</v>
       </c>
       <c r="O16" s="93"/>
-      <c r="P16" s="257" t="s">
+      <c r="P16" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="257" t="s">
+      <c r="Q16" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="259"/>
+      <c r="R16" s="253"/>
       <c r="S16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U16" s="262" t="s">
+      <c r="U16" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="263"/>
-      <c r="W16" s="263"/>
-      <c r="X16" s="263"/>
-      <c r="Y16" s="263"/>
-      <c r="Z16" s="263"/>
-      <c r="AA16" s="264"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="257"/>
+      <c r="X16" s="257"/>
+      <c r="Y16" s="257"/>
+      <c r="Z16" s="257"/>
+      <c r="AA16" s="258"/>
       <c r="AB16" s="56">
         <v>0.33</v>
       </c>
@@ -7322,8 +7323,8 @@
       </c>
     </row>
     <row r="17" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="256"/>
-      <c r="B17" s="256"/>
+      <c r="A17" s="241"/>
+      <c r="B17" s="241"/>
       <c r="C17" s="56" t="s">
         <v>74</v>
       </c>
@@ -7336,8 +7337,8 @@
       <c r="F17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="231"/>
-      <c r="H17" s="232"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="234"/>
       <c r="I17" s="112" t="s">
         <v>107</v>
       </c>
@@ -7349,11 +7350,11 @@
         <v>13</v>
       </c>
       <c r="M17" s="115"/>
-      <c r="N17" s="213"/>
+      <c r="N17" s="215"/>
       <c r="O17" s="94"/>
-      <c r="P17" s="258"/>
-      <c r="Q17" s="258"/>
-      <c r="R17" s="260"/>
+      <c r="P17" s="252"/>
+      <c r="Q17" s="252"/>
+      <c r="R17" s="254"/>
       <c r="S17" s="13">
         <v>4</v>
       </c>
@@ -7411,7 +7412,7 @@
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="256"/>
+      <c r="A18" s="241"/>
       <c r="B18" s="36" t="s">
         <v>0</v>
       </c>
@@ -7452,7 +7453,7 @@
       <c r="Q18" s="36">
         <v>0</v>
       </c>
-      <c r="R18" s="260"/>
+      <c r="R18" s="254"/>
       <c r="S18" s="11">
         <f t="shared" ref="S18:S31" si="10">K18+((K18/100)*S$17)</f>
         <v>5824</v>
@@ -7522,7 +7523,7 @@
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="256"/>
+      <c r="A19" s="241"/>
       <c r="B19" s="36" t="s">
         <v>32</v>
       </c>
@@ -7563,7 +7564,7 @@
       <c r="Q19" s="36">
         <v>0</v>
       </c>
-      <c r="R19" s="260"/>
+      <c r="R19" s="254"/>
       <c r="S19" s="11">
         <f t="shared" si="10"/>
         <v>3047.2</v>
@@ -7633,7 +7634,7 @@
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="256"/>
+      <c r="A20" s="241"/>
       <c r="B20" s="36" t="s">
         <v>33</v>
       </c>
@@ -7674,7 +7675,7 @@
       <c r="Q20" s="36">
         <v>0</v>
       </c>
-      <c r="R20" s="260"/>
+      <c r="R20" s="254"/>
       <c r="S20" s="11">
         <f t="shared" si="10"/>
         <v>3962.4</v>
@@ -7744,7 +7745,7 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="256"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="36" t="s">
         <v>34</v>
       </c>
@@ -7785,7 +7786,7 @@
       <c r="Q21" s="36">
         <v>0</v>
       </c>
-      <c r="R21" s="260"/>
+      <c r="R21" s="254"/>
       <c r="S21" s="11">
         <f t="shared" si="10"/>
         <v>5792.8</v>
@@ -7855,7 +7856,7 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="256"/>
+      <c r="A22" s="241"/>
       <c r="B22" s="36" t="s">
         <v>5</v>
       </c>
@@ -7896,7 +7897,7 @@
       <c r="Q22" s="39">
         <v>0</v>
       </c>
-      <c r="R22" s="260"/>
+      <c r="R22" s="254"/>
       <c r="S22" s="11">
         <f t="shared" si="10"/>
         <v>1814.8</v>
@@ -7966,7 +7967,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="256"/>
+      <c r="A23" s="241"/>
       <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
@@ -8007,7 +8008,7 @@
       <c r="Q23" s="39">
         <v>0</v>
       </c>
-      <c r="R23" s="260"/>
+      <c r="R23" s="254"/>
       <c r="S23" s="11">
         <f t="shared" si="10"/>
         <v>1060.8</v>
@@ -8077,7 +8078,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="256"/>
+      <c r="A24" s="241"/>
       <c r="B24" s="36" t="s">
         <v>36</v>
       </c>
@@ -8118,7 +8119,7 @@
       <c r="Q24" s="39">
         <v>0</v>
       </c>
-      <c r="R24" s="260"/>
+      <c r="R24" s="254"/>
       <c r="S24" s="11">
         <f t="shared" si="10"/>
         <v>3499.6</v>
@@ -8188,7 +8189,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="256"/>
+      <c r="A25" s="241"/>
       <c r="B25" s="36" t="s">
         <v>37</v>
       </c>
@@ -8229,7 +8230,7 @@
       <c r="Q25" s="39">
         <v>0</v>
       </c>
-      <c r="R25" s="260"/>
+      <c r="R25" s="254"/>
       <c r="S25" s="11">
         <f t="shared" si="10"/>
         <v>2230.8000000000002</v>
@@ -8299,7 +8300,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="256"/>
+      <c r="A26" s="241"/>
       <c r="B26" s="36" t="s">
         <v>38</v>
       </c>
@@ -8340,7 +8341,7 @@
       <c r="Q26" s="39">
         <v>0</v>
       </c>
-      <c r="R26" s="260"/>
+      <c r="R26" s="254"/>
       <c r="S26" s="11">
         <f t="shared" si="10"/>
         <v>11232</v>
@@ -8410,7 +8411,7 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="256"/>
+      <c r="A27" s="241"/>
       <c r="B27" s="12" t="s">
         <v>39</v>
       </c>
@@ -8451,7 +8452,7 @@
       <c r="Q27" s="39">
         <v>0</v>
       </c>
-      <c r="R27" s="260"/>
+      <c r="R27" s="254"/>
       <c r="S27" s="11">
         <f t="shared" si="10"/>
         <v>1742</v>
@@ -8521,7 +8522,7 @@
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="256"/>
+      <c r="A28" s="241"/>
       <c r="B28" s="36" t="s">
         <v>40</v>
       </c>
@@ -8562,7 +8563,7 @@
       <c r="Q28" s="39">
         <v>0</v>
       </c>
-      <c r="R28" s="260"/>
+      <c r="R28" s="254"/>
       <c r="S28" s="11">
         <f t="shared" si="10"/>
         <v>7800</v>
@@ -8632,7 +8633,7 @@
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="256"/>
+      <c r="A29" s="241"/>
       <c r="B29" s="36" t="s">
         <v>41</v>
       </c>
@@ -8673,7 +8674,7 @@
       <c r="Q29" s="39">
         <v>0</v>
       </c>
-      <c r="R29" s="260"/>
+      <c r="R29" s="254"/>
       <c r="S29" s="11">
         <f t="shared" si="10"/>
         <v>2620.8000000000002</v>
@@ -8743,7 +8744,7 @@
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="256"/>
+      <c r="A30" s="241"/>
       <c r="B30" s="36" t="s">
         <v>42</v>
       </c>
@@ -8784,7 +8785,7 @@
       <c r="Q30" s="39">
         <v>0</v>
       </c>
-      <c r="R30" s="260"/>
+      <c r="R30" s="254"/>
       <c r="S30" s="11">
         <f t="shared" si="10"/>
         <v>2433.6</v>
@@ -8854,7 +8855,7 @@
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="256"/>
+      <c r="A31" s="241"/>
       <c r="B31" s="36" t="s">
         <v>43</v>
       </c>
@@ -8895,7 +8896,7 @@
       <c r="Q31" s="39">
         <v>0</v>
       </c>
-      <c r="R31" s="260"/>
+      <c r="R31" s="254"/>
       <c r="S31" s="11">
         <f t="shared" si="10"/>
         <v>2246.4</v>
@@ -8965,24 +8966,24 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="265" t="s">
+      <c r="A32" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="266"/>
-      <c r="C32" s="266"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="266"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="249" t="s">
+      <c r="B32" s="260"/>
+      <c r="C32" s="260"/>
+      <c r="D32" s="260"/>
+      <c r="E32" s="260"/>
+      <c r="F32" s="261"/>
+      <c r="G32" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="250"/>
+      <c r="H32" s="245"/>
       <c r="I32" s="109"/>
       <c r="J32" s="109"/>
-      <c r="K32" s="251" t="s">
+      <c r="K32" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="252"/>
+      <c r="L32" s="250"/>
       <c r="M32" s="118"/>
       <c r="N32" s="102"/>
       <c r="O32" s="102"/>
@@ -8994,7 +8995,7 @@
         <f>SUM(Q18:Q31)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="261"/>
+      <c r="R32" s="255"/>
       <c r="S32" s="15" t="s">
         <v>23</v>
       </c>
@@ -9101,63 +9102,63 @@
       <c r="AK33" s="47"/>
     </row>
     <row r="34" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="255">
+      <c r="A34" s="264">
         <v>42654</v>
       </c>
-      <c r="B34" s="256" t="s">
+      <c r="B34" s="241" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="256" t="s">
+      <c r="D34" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="248" t="s">
+      <c r="E34" s="241"/>
+      <c r="F34" s="241"/>
+      <c r="G34" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="248" t="s">
+      <c r="H34" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="229" t="s">
+      <c r="I34" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="229"/>
-      <c r="K34" s="229"/>
-      <c r="L34" s="229"/>
-      <c r="M34" s="245" t="s">
+      <c r="J34" s="231"/>
+      <c r="K34" s="231"/>
+      <c r="L34" s="231"/>
+      <c r="M34" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="N34" s="246" t="s">
+      <c r="N34" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="O34" s="246" t="s">
+      <c r="O34" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="P34" s="257" t="s">
+      <c r="P34" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" s="257" t="s">
+      <c r="Q34" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="259"/>
+      <c r="R34" s="253"/>
       <c r="S34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U34" s="262" t="s">
+      <c r="U34" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="V34" s="263"/>
-      <c r="W34" s="263"/>
-      <c r="X34" s="263"/>
-      <c r="Y34" s="263"/>
-      <c r="Z34" s="263"/>
-      <c r="AA34" s="264"/>
+      <c r="V34" s="257"/>
+      <c r="W34" s="257"/>
+      <c r="X34" s="257"/>
+      <c r="Y34" s="257"/>
+      <c r="Z34" s="257"/>
+      <c r="AA34" s="258"/>
       <c r="AB34" s="54">
         <v>0.33</v>
       </c>
@@ -9170,8 +9171,8 @@
       </c>
     </row>
     <row r="35" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="256"/>
-      <c r="B35" s="256"/>
+      <c r="A35" s="241"/>
+      <c r="B35" s="241"/>
       <c r="C35" s="56" t="s">
         <v>81</v>
       </c>
@@ -9184,8 +9185,8 @@
       <c r="F35" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="231"/>
-      <c r="H35" s="232"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="234"/>
       <c r="I35" s="112" t="s">
         <v>107</v>
       </c>
@@ -9198,12 +9199,12 @@
       <c r="L35" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="231"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="235"/>
-      <c r="P35" s="258"/>
-      <c r="Q35" s="258"/>
-      <c r="R35" s="260"/>
+      <c r="M35" s="233"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="237"/>
+      <c r="P35" s="252"/>
+      <c r="Q35" s="252"/>
+      <c r="R35" s="254"/>
       <c r="S35" s="13">
         <v>3</v>
       </c>
@@ -9261,7 +9262,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="256"/>
+      <c r="A36" s="241"/>
       <c r="B36" s="48" t="s">
         <v>51</v>
       </c>
@@ -9314,7 +9315,7 @@
       <c r="Q36" s="52">
         <v>-7035</v>
       </c>
-      <c r="R36" s="260"/>
+      <c r="R36" s="254"/>
       <c r="S36" s="11">
         <f t="shared" ref="S36:S45" si="26">K36+((K36/100)*S$35)</f>
         <v>3774.95</v>
@@ -9384,7 +9385,7 @@
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="256"/>
+      <c r="A37" s="241"/>
       <c r="B37" s="4" t="s">
         <v>52</v>
       </c>
@@ -9437,7 +9438,7 @@
       <c r="Q37" s="6">
         <v>7711</v>
       </c>
-      <c r="R37" s="260"/>
+      <c r="R37" s="254"/>
       <c r="S37" s="11">
         <f t="shared" si="26"/>
         <v>10351.5</v>
@@ -9507,7 +9508,7 @@
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="256"/>
+      <c r="A38" s="241"/>
       <c r="B38" s="48" t="s">
         <v>4</v>
       </c>
@@ -9560,7 +9561,7 @@
       <c r="Q38" s="52">
         <v>-4219</v>
       </c>
-      <c r="R38" s="260"/>
+      <c r="R38" s="254"/>
       <c r="S38" s="11">
         <f t="shared" si="26"/>
         <v>4701.95</v>
@@ -9630,7 +9631,7 @@
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="256"/>
+      <c r="A39" s="241"/>
       <c r="B39" s="48" t="s">
         <v>53</v>
       </c>
@@ -9683,7 +9684,7 @@
       <c r="Q39" s="52">
         <v>-7329</v>
       </c>
-      <c r="R39" s="260"/>
+      <c r="R39" s="254"/>
       <c r="S39" s="11">
         <f t="shared" si="26"/>
         <v>5829.8</v>
@@ -9753,7 +9754,7 @@
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="256"/>
+      <c r="A40" s="241"/>
       <c r="B40" s="48" t="s">
         <v>58</v>
       </c>
@@ -9806,7 +9807,7 @@
       <c r="Q40" s="52">
         <v>-6806</v>
       </c>
-      <c r="R40" s="260"/>
+      <c r="R40" s="254"/>
       <c r="S40" s="11">
         <f t="shared" si="26"/>
         <v>6756.8</v>
@@ -9876,7 +9877,7 @@
       </c>
     </row>
     <row r="41" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="256"/>
+      <c r="A41" s="241"/>
       <c r="B41" s="53" t="s">
         <v>59</v>
       </c>
@@ -9929,7 +9930,7 @@
       <c r="Q41" s="6">
         <v>7810</v>
       </c>
-      <c r="R41" s="260"/>
+      <c r="R41" s="254"/>
       <c r="S41" s="11">
         <f t="shared" si="26"/>
         <v>4866.75</v>
@@ -9999,7 +10000,7 @@
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="256"/>
+      <c r="A42" s="241"/>
       <c r="B42" s="50" t="s">
         <v>54</v>
       </c>
@@ -10052,7 +10053,7 @@
       <c r="Q42" s="52">
         <v>-7463</v>
       </c>
-      <c r="R42" s="260"/>
+      <c r="R42" s="254"/>
       <c r="S42" s="11">
         <f t="shared" si="26"/>
         <v>3069.4</v>
@@ -10122,7 +10123,7 @@
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="256"/>
+      <c r="A43" s="241"/>
       <c r="B43" s="50" t="s">
         <v>55</v>
       </c>
@@ -10175,7 +10176,7 @@
       <c r="Q43" s="52">
         <v>-7026</v>
       </c>
-      <c r="R43" s="260"/>
+      <c r="R43" s="254"/>
       <c r="S43" s="11">
         <f t="shared" si="26"/>
         <v>7931</v>
@@ -10245,7 +10246,7 @@
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="256"/>
+      <c r="A44" s="241"/>
       <c r="B44" s="50" t="s">
         <v>56</v>
       </c>
@@ -10298,7 +10299,7 @@
       <c r="Q44" s="52">
         <v>-7394</v>
       </c>
-      <c r="R44" s="260"/>
+      <c r="R44" s="254"/>
       <c r="S44" s="11">
         <f t="shared" si="26"/>
         <v>6612.6</v>
@@ -10368,7 +10369,7 @@
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="256"/>
+      <c r="A45" s="241"/>
       <c r="B45" s="50" t="s">
         <v>57</v>
       </c>
@@ -10421,7 +10422,7 @@
       <c r="Q45" s="52">
         <v>-4396</v>
       </c>
-      <c r="R45" s="260"/>
+      <c r="R45" s="254"/>
       <c r="S45" s="11">
         <f t="shared" si="26"/>
         <v>7024.6</v>
@@ -10491,24 +10492,24 @@
       </c>
     </row>
     <row r="46" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="265" t="s">
+      <c r="A46" s="259" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="266"/>
-      <c r="C46" s="266"/>
-      <c r="D46" s="266"/>
-      <c r="E46" s="266"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="249" t="s">
+      <c r="B46" s="260"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="250"/>
+      <c r="H46" s="245"/>
       <c r="I46" s="109"/>
       <c r="J46" s="109"/>
-      <c r="K46" s="251" t="s">
+      <c r="K46" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="252"/>
+      <c r="L46" s="250"/>
       <c r="M46" s="96"/>
       <c r="N46" s="96"/>
       <c r="O46" s="102"/>
@@ -10520,7 +10521,7 @@
         <f>SUM(Q36:Q45)</f>
         <v>-36147</v>
       </c>
-      <c r="R46" s="261"/>
+      <c r="R46" s="255"/>
       <c r="S46" s="15" t="s">
         <v>23</v>
       </c>
@@ -10627,63 +10628,63 @@
       <c r="AK47" s="47"/>
     </row>
     <row r="48" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="247">
+      <c r="A48" s="242">
         <v>42655</v>
       </c>
-      <c r="B48" s="229" t="s">
+      <c r="B48" s="231" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="256" t="s">
+      <c r="D48" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="256"/>
-      <c r="F48" s="256"/>
-      <c r="G48" s="248" t="s">
+      <c r="E48" s="241"/>
+      <c r="F48" s="241"/>
+      <c r="G48" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="H48" s="248" t="s">
+      <c r="H48" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="229" t="s">
+      <c r="I48" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="229"/>
-      <c r="K48" s="229"/>
-      <c r="L48" s="229"/>
-      <c r="M48" s="245" t="s">
+      <c r="J48" s="231"/>
+      <c r="K48" s="231"/>
+      <c r="L48" s="231"/>
+      <c r="M48" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="N48" s="246" t="s">
+      <c r="N48" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="O48" s="246" t="s">
+      <c r="O48" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="P48" s="236" t="s">
+      <c r="P48" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="236" t="s">
+      <c r="Q48" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="R48" s="215"/>
+      <c r="R48" s="217"/>
       <c r="S48" s="58" t="s">
         <v>18</v>
       </c>
       <c r="T48" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="U48" s="229" t="s">
+      <c r="U48" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="V48" s="229"/>
-      <c r="W48" s="229"/>
-      <c r="X48" s="229"/>
-      <c r="Y48" s="229"/>
-      <c r="Z48" s="229"/>
-      <c r="AA48" s="229"/>
+      <c r="V48" s="231"/>
+      <c r="W48" s="231"/>
+      <c r="X48" s="231"/>
+      <c r="Y48" s="231"/>
+      <c r="Z48" s="231"/>
+      <c r="AA48" s="231"/>
       <c r="AB48" s="59">
         <v>0.33</v>
       </c>
@@ -10701,8 +10702,8 @@
       <c r="AJ48" s="75"/>
     </row>
     <row r="49" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="247"/>
-      <c r="B49" s="229"/>
+      <c r="A49" s="242"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="56" t="s">
         <v>81</v>
       </c>
@@ -10715,8 +10716,8 @@
       <c r="F49" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="231"/>
-      <c r="H49" s="232"/>
+      <c r="G49" s="233"/>
+      <c r="H49" s="234"/>
       <c r="I49" s="112" t="s">
         <v>107</v>
       </c>
@@ -10729,12 +10730,12 @@
       <c r="L49" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="231"/>
-      <c r="N49" s="213"/>
-      <c r="O49" s="235"/>
-      <c r="P49" s="213"/>
-      <c r="Q49" s="213"/>
-      <c r="R49" s="215"/>
+      <c r="M49" s="233"/>
+      <c r="N49" s="215"/>
+      <c r="O49" s="237"/>
+      <c r="P49" s="215"/>
+      <c r="Q49" s="215"/>
+      <c r="R49" s="217"/>
       <c r="S49" s="58">
         <v>3.3</v>
       </c>
@@ -10792,7 +10793,7 @@
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="247"/>
+      <c r="A50" s="242"/>
       <c r="B50" s="53" t="s">
         <v>1</v>
       </c>
@@ -10845,7 +10846,7 @@
       <c r="Q50" s="76">
         <v>7243</v>
       </c>
-      <c r="R50" s="215"/>
+      <c r="R50" s="217"/>
       <c r="S50" s="11">
         <f t="shared" ref="S50:S60" si="42">K50+((K50/100)*S$49)</f>
         <v>4643.335</v>
@@ -10915,7 +10916,7 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="247"/>
+      <c r="A51" s="242"/>
       <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
@@ -10968,7 +10969,7 @@
       <c r="Q51" s="68">
         <v>-7099</v>
       </c>
-      <c r="R51" s="215"/>
+      <c r="R51" s="217"/>
       <c r="S51" s="11">
         <f t="shared" si="42"/>
         <v>3037.02</v>
@@ -11038,7 +11039,7 @@
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="247"/>
+      <c r="A52" s="242"/>
       <c r="B52" s="53" t="s">
         <v>64</v>
       </c>
@@ -11091,7 +11092,7 @@
       <c r="Q52" s="76">
         <v>7240</v>
       </c>
-      <c r="R52" s="215"/>
+      <c r="R52" s="217"/>
       <c r="S52" s="11">
         <f t="shared" si="42"/>
         <v>1554.665</v>
@@ -11161,7 +11162,7 @@
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="247"/>
+      <c r="A53" s="242"/>
       <c r="B53" s="53" t="s">
         <v>65</v>
       </c>
@@ -11214,7 +11215,7 @@
       <c r="Q53" s="76">
         <v>4073</v>
       </c>
-      <c r="R53" s="215"/>
+      <c r="R53" s="217"/>
       <c r="S53" s="11">
         <f t="shared" si="42"/>
         <v>4389.2169999999996</v>
@@ -11284,7 +11285,7 @@
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="247"/>
+      <c r="A54" s="242"/>
       <c r="B54" s="9" t="s">
         <v>66</v>
       </c>
@@ -11337,7 +11338,7 @@
       <c r="Q54" s="68">
         <v>-6723</v>
       </c>
-      <c r="R54" s="215"/>
+      <c r="R54" s="217"/>
       <c r="S54" s="11">
         <f t="shared" si="42"/>
         <v>9730.86</v>
@@ -11407,7 +11408,7 @@
       </c>
     </row>
     <row r="55" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="247"/>
+      <c r="A55" s="242"/>
       <c r="B55" s="53" t="s">
         <v>67</v>
       </c>
@@ -11460,7 +11461,7 @@
       <c r="Q55" s="76">
         <v>7324</v>
       </c>
-      <c r="R55" s="215"/>
+      <c r="R55" s="217"/>
       <c r="S55" s="11">
         <f t="shared" si="42"/>
         <v>4075.1849999999999</v>
@@ -11530,7 +11531,7 @@
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="247"/>
+      <c r="A56" s="242"/>
       <c r="B56" s="9" t="s">
         <v>68</v>
       </c>
@@ -11583,7 +11584,7 @@
       <c r="Q56" s="68">
         <v>-6598</v>
       </c>
-      <c r="R56" s="215"/>
+      <c r="R56" s="217"/>
       <c r="S56" s="11">
         <f t="shared" si="42"/>
         <v>5361.27</v>
@@ -11653,7 +11654,7 @@
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="247"/>
+      <c r="A57" s="242"/>
       <c r="B57" s="53" t="s">
         <v>69</v>
       </c>
@@ -11706,7 +11707,7 @@
       <c r="Q57" s="76">
         <v>7145</v>
       </c>
-      <c r="R57" s="215"/>
+      <c r="R57" s="217"/>
       <c r="S57" s="11">
         <f t="shared" si="42"/>
         <v>4426.4049999999997</v>
@@ -11776,7 +11777,7 @@
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="247"/>
+      <c r="A58" s="242"/>
       <c r="B58" s="53" t="s">
         <v>70</v>
       </c>
@@ -11829,7 +11830,7 @@
       <c r="Q58" s="76">
         <v>7063</v>
       </c>
-      <c r="R58" s="215"/>
+      <c r="R58" s="217"/>
       <c r="S58" s="11">
         <f t="shared" si="42"/>
         <v>2375.9</v>
@@ -11899,7 +11900,7 @@
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="247"/>
+      <c r="A59" s="242"/>
       <c r="B59" s="9" t="s">
         <v>71</v>
       </c>
@@ -11952,7 +11953,7 @@
       <c r="Q59" s="68">
         <v>-6843</v>
       </c>
-      <c r="R59" s="215"/>
+      <c r="R59" s="217"/>
       <c r="S59" s="11">
         <f t="shared" si="42"/>
         <v>2820.09</v>
@@ -12022,7 +12023,7 @@
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="247"/>
+      <c r="A60" s="242"/>
       <c r="B60" s="53" t="s">
         <v>72</v>
       </c>
@@ -12075,7 +12076,7 @@
       <c r="Q60" s="76">
         <v>814</v>
       </c>
-      <c r="R60" s="215"/>
+      <c r="R60" s="217"/>
       <c r="S60" s="11">
         <f t="shared" si="42"/>
         <v>3486.375</v>
@@ -12145,24 +12146,24 @@
       </c>
     </row>
     <row r="61" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="268" t="s">
+      <c r="A61" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="269"/>
-      <c r="C61" s="269"/>
-      <c r="D61" s="269"/>
-      <c r="E61" s="269"/>
-      <c r="F61" s="270"/>
-      <c r="G61" s="249" t="s">
+      <c r="B61" s="239"/>
+      <c r="C61" s="239"/>
+      <c r="D61" s="239"/>
+      <c r="E61" s="239"/>
+      <c r="F61" s="240"/>
+      <c r="G61" s="244" t="s">
         <v>95</v>
       </c>
-      <c r="H61" s="250"/>
+      <c r="H61" s="245"/>
       <c r="I61" s="109"/>
       <c r="J61" s="109"/>
-      <c r="K61" s="251" t="s">
+      <c r="K61" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="252"/>
+      <c r="L61" s="250"/>
       <c r="M61" s="118"/>
       <c r="N61" s="102"/>
       <c r="O61" s="102"/>
@@ -12174,7 +12175,7 @@
         <f>SUM(Q50:Q60)</f>
         <v>13639</v>
       </c>
-      <c r="R61" s="215"/>
+      <c r="R61" s="217"/>
       <c r="S61" s="15" t="s">
         <v>23</v>
       </c>
@@ -12281,63 +12282,63 @@
       <c r="AK62" s="47"/>
     </row>
     <row r="63" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="247">
+      <c r="A63" s="242">
         <v>42656</v>
       </c>
-      <c r="B63" s="229" t="s">
+      <c r="B63" s="231" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="229" t="s">
+      <c r="D63" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="229"/>
-      <c r="F63" s="229"/>
-      <c r="G63" s="248" t="s">
+      <c r="E63" s="231"/>
+      <c r="F63" s="231"/>
+      <c r="G63" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="248" t="s">
+      <c r="H63" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="229" t="s">
+      <c r="I63" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="229"/>
-      <c r="K63" s="229"/>
-      <c r="L63" s="229"/>
-      <c r="M63" s="245" t="s">
+      <c r="J63" s="231"/>
+      <c r="K63" s="231"/>
+      <c r="L63" s="231"/>
+      <c r="M63" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="N63" s="246" t="s">
+      <c r="N63" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="O63" s="246" t="s">
+      <c r="O63" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="P63" s="236" t="s">
+      <c r="P63" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="Q63" s="236" t="s">
+      <c r="Q63" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="R63" s="215"/>
+      <c r="R63" s="217"/>
       <c r="S63" s="58" t="s">
         <v>18</v>
       </c>
       <c r="T63" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="U63" s="229" t="s">
+      <c r="U63" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="V63" s="229"/>
-      <c r="W63" s="229"/>
-      <c r="X63" s="229"/>
-      <c r="Y63" s="229"/>
-      <c r="Z63" s="229"/>
-      <c r="AA63" s="229"/>
+      <c r="V63" s="231"/>
+      <c r="W63" s="231"/>
+      <c r="X63" s="231"/>
+      <c r="Y63" s="231"/>
+      <c r="Z63" s="231"/>
+      <c r="AA63" s="231"/>
       <c r="AB63" s="59">
         <v>0.33</v>
       </c>
@@ -12355,8 +12356,8 @@
       <c r="AJ63" s="75"/>
     </row>
     <row r="64" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="247"/>
-      <c r="B64" s="229"/>
+      <c r="A64" s="242"/>
+      <c r="B64" s="231"/>
       <c r="C64" s="59" t="s">
         <v>81</v>
       </c>
@@ -12369,8 +12370,8 @@
       <c r="F64" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="231"/>
-      <c r="H64" s="232"/>
+      <c r="G64" s="233"/>
+      <c r="H64" s="234"/>
       <c r="I64" s="112" t="s">
         <v>107</v>
       </c>
@@ -12383,12 +12384,12 @@
       <c r="L64" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M64" s="231"/>
-      <c r="N64" s="213"/>
-      <c r="O64" s="235"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="213"/>
-      <c r="R64" s="215"/>
+      <c r="M64" s="233"/>
+      <c r="N64" s="215"/>
+      <c r="O64" s="237"/>
+      <c r="P64" s="215"/>
+      <c r="Q64" s="215"/>
+      <c r="R64" s="217"/>
       <c r="S64" s="58">
         <v>3.3</v>
       </c>
@@ -12446,7 +12447,7 @@
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="247"/>
+      <c r="A65" s="242"/>
       <c r="B65" s="12" t="s">
         <v>70</v>
       </c>
@@ -12499,7 +12500,7 @@
       <c r="Q65" s="95">
         <v>8797</v>
       </c>
-      <c r="R65" s="215"/>
+      <c r="R65" s="217"/>
       <c r="S65" s="11">
         <f t="shared" ref="S65:S72" si="58">K65+((K65/100)*S$64)</f>
         <v>2820.09</v>
@@ -12569,7 +12570,7 @@
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="247"/>
+      <c r="A66" s="242"/>
       <c r="B66" s="12" t="s">
         <v>40</v>
       </c>
@@ -12622,7 +12623,7 @@
       <c r="Q66" s="95">
         <v>8793</v>
       </c>
-      <c r="R66" s="215"/>
+      <c r="R66" s="217"/>
       <c r="S66" s="11">
         <f t="shared" si="58"/>
         <v>8728.85</v>
@@ -12692,7 +12693,7 @@
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="247"/>
+      <c r="A67" s="242"/>
       <c r="B67" s="12" t="s">
         <v>85</v>
       </c>
@@ -12745,7 +12746,7 @@
       <c r="Q67" s="95">
         <v>-9270</v>
       </c>
-      <c r="R67" s="215"/>
+      <c r="R67" s="217"/>
       <c r="S67" s="11">
         <f t="shared" si="58"/>
         <v>5877.77</v>
@@ -12815,7 +12816,7 @@
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="247"/>
+      <c r="A68" s="242"/>
       <c r="B68" s="12" t="s">
         <v>67</v>
       </c>
@@ -12868,7 +12869,7 @@
       <c r="Q68" s="95">
         <v>-8659</v>
       </c>
-      <c r="R68" s="215"/>
+      <c r="R68" s="217"/>
       <c r="S68" s="11">
         <f t="shared" si="58"/>
         <v>3997.71</v>
@@ -12938,7 +12939,7 @@
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="247"/>
+      <c r="A69" s="242"/>
       <c r="B69" s="12" t="s">
         <v>86</v>
       </c>
@@ -12991,7 +12992,7 @@
       <c r="Q69" s="95">
         <v>-6715</v>
       </c>
-      <c r="R69" s="215"/>
+      <c r="R69" s="217"/>
       <c r="S69" s="11">
         <f t="shared" si="58"/>
         <v>6342.62</v>
@@ -13061,7 +13062,7 @@
       </c>
     </row>
     <row r="70" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="247"/>
+      <c r="A70" s="242"/>
       <c r="B70" s="12" t="s">
         <v>55</v>
       </c>
@@ -13114,7 +13115,7 @@
       <c r="Q70" s="95">
         <v>8577</v>
       </c>
-      <c r="R70" s="215"/>
+      <c r="R70" s="217"/>
       <c r="S70" s="11">
         <f t="shared" si="58"/>
         <v>9131.7199999999993</v>
@@ -13184,7 +13185,7 @@
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="247"/>
+      <c r="A71" s="242"/>
       <c r="B71" s="12" t="s">
         <v>87</v>
       </c>
@@ -13237,7 +13238,7 @@
       <c r="Q71" s="95">
         <v>-9088</v>
       </c>
-      <c r="R71" s="215"/>
+      <c r="R71" s="217"/>
       <c r="S71" s="11">
         <f t="shared" si="58"/>
         <v>8233.01</v>
@@ -13307,7 +13308,7 @@
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="247"/>
+      <c r="A72" s="242"/>
       <c r="B72" s="12" t="s">
         <v>88</v>
       </c>
@@ -13360,7 +13361,7 @@
       <c r="Q72" s="95">
         <v>-8636</v>
       </c>
-      <c r="R72" s="215"/>
+      <c r="R72" s="217"/>
       <c r="S72" s="11">
         <f t="shared" si="58"/>
         <v>27322.85</v>
@@ -13430,24 +13431,24 @@
       </c>
     </row>
     <row r="73" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="268" t="s">
+      <c r="A73" s="238" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="269"/>
-      <c r="C73" s="269"/>
-      <c r="D73" s="269"/>
-      <c r="E73" s="269"/>
-      <c r="F73" s="270"/>
-      <c r="G73" s="249" t="s">
+      <c r="B73" s="239"/>
+      <c r="C73" s="239"/>
+      <c r="D73" s="239"/>
+      <c r="E73" s="239"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="H73" s="250"/>
+      <c r="H73" s="245"/>
       <c r="I73" s="109"/>
       <c r="J73" s="109"/>
-      <c r="K73" s="251" t="s">
+      <c r="K73" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="L73" s="252"/>
+      <c r="L73" s="250"/>
       <c r="M73" s="118"/>
       <c r="N73" s="102"/>
       <c r="O73" s="102"/>
@@ -13459,7 +13460,7 @@
         <f>SUM(Q65:Q72)</f>
         <v>-16201</v>
       </c>
-      <c r="R73" s="215"/>
+      <c r="R73" s="217"/>
       <c r="S73" s="15" t="s">
         <v>23</v>
       </c>
@@ -13566,63 +13567,63 @@
       <c r="AK74" s="47"/>
     </row>
     <row r="75" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="247">
+      <c r="A75" s="242">
         <v>42657</v>
       </c>
-      <c r="B75" s="229" t="s">
+      <c r="B75" s="231" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="229" t="s">
+      <c r="D75" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="229"/>
-      <c r="F75" s="229"/>
-      <c r="G75" s="248" t="s">
+      <c r="E75" s="231"/>
+      <c r="F75" s="231"/>
+      <c r="G75" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="H75" s="248" t="s">
+      <c r="H75" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="229" t="s">
+      <c r="I75" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="J75" s="229"/>
-      <c r="K75" s="229"/>
-      <c r="L75" s="229"/>
-      <c r="M75" s="245" t="s">
+      <c r="J75" s="231"/>
+      <c r="K75" s="231"/>
+      <c r="L75" s="231"/>
+      <c r="M75" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="N75" s="246" t="s">
+      <c r="N75" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="O75" s="246" t="s">
+      <c r="O75" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="P75" s="236" t="s">
+      <c r="P75" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="Q75" s="236" t="s">
+      <c r="Q75" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="R75" s="215"/>
+      <c r="R75" s="217"/>
       <c r="S75" s="58" t="s">
         <v>18</v>
       </c>
       <c r="T75" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="U75" s="229" t="s">
+      <c r="U75" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="V75" s="229"/>
-      <c r="W75" s="229"/>
-      <c r="X75" s="229"/>
-      <c r="Y75" s="229"/>
-      <c r="Z75" s="229"/>
-      <c r="AA75" s="229"/>
+      <c r="V75" s="231"/>
+      <c r="W75" s="231"/>
+      <c r="X75" s="231"/>
+      <c r="Y75" s="231"/>
+      <c r="Z75" s="231"/>
+      <c r="AA75" s="231"/>
       <c r="AB75" s="88">
         <v>0.33</v>
       </c>
@@ -13640,8 +13641,8 @@
       <c r="AJ75" s="75"/>
     </row>
     <row r="76" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="247"/>
-      <c r="B76" s="229"/>
+      <c r="A76" s="242"/>
+      <c r="B76" s="231"/>
       <c r="C76" s="88" t="s">
         <v>74</v>
       </c>
@@ -13654,8 +13655,8 @@
       <c r="F76" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="G76" s="231"/>
-      <c r="H76" s="232"/>
+      <c r="G76" s="233"/>
+      <c r="H76" s="234"/>
       <c r="I76" s="112" t="s">
         <v>107</v>
       </c>
@@ -13668,12 +13669,12 @@
       <c r="L76" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="M76" s="231"/>
-      <c r="N76" s="213"/>
-      <c r="O76" s="235"/>
-      <c r="P76" s="213"/>
-      <c r="Q76" s="213"/>
-      <c r="R76" s="215"/>
+      <c r="M76" s="233"/>
+      <c r="N76" s="215"/>
+      <c r="O76" s="237"/>
+      <c r="P76" s="215"/>
+      <c r="Q76" s="215"/>
+      <c r="R76" s="217"/>
       <c r="S76" s="58">
         <v>4</v>
       </c>
@@ -13731,7 +13732,7 @@
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="247"/>
+      <c r="A77" s="242"/>
       <c r="B77" s="12" t="s">
         <v>97</v>
       </c>
@@ -13784,7 +13785,7 @@
       <c r="Q77" s="95">
         <v>-13305</v>
       </c>
-      <c r="R77" s="215"/>
+      <c r="R77" s="217"/>
       <c r="S77" s="11">
         <f t="shared" ref="S77:S86" si="74">K77+((K77/100)*S$76)</f>
         <v>4804.8</v>
@@ -13854,7 +13855,7 @@
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="247"/>
+      <c r="A78" s="242"/>
       <c r="B78" s="12" t="s">
         <v>52</v>
       </c>
@@ -13907,7 +13908,7 @@
       <c r="Q78" s="95">
         <v>14262</v>
       </c>
-      <c r="R78" s="215"/>
+      <c r="R78" s="217"/>
       <c r="S78" s="11">
         <f t="shared" si="74"/>
         <v>10504</v>
@@ -13977,7 +13978,7 @@
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="247"/>
+      <c r="A79" s="242"/>
       <c r="B79" s="12" t="s">
         <v>98</v>
       </c>
@@ -14030,7 +14031,7 @@
       <c r="Q79" s="95">
         <v>-13334</v>
       </c>
-      <c r="R79" s="215"/>
+      <c r="R79" s="217"/>
       <c r="S79" s="11">
         <f t="shared" si="74"/>
         <v>5813.6</v>
@@ -14100,7 +14101,7 @@
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="247"/>
+      <c r="A80" s="242"/>
       <c r="B80" s="12" t="s">
         <v>99</v>
       </c>
@@ -14153,7 +14154,7 @@
       <c r="Q80" s="95">
         <v>-13512</v>
       </c>
-      <c r="R80" s="215"/>
+      <c r="R80" s="217"/>
       <c r="S80" s="11">
         <f t="shared" si="74"/>
         <v>2886</v>
@@ -14223,7 +14224,7 @@
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="247"/>
+      <c r="A81" s="242"/>
       <c r="B81" s="12" t="s">
         <v>100</v>
       </c>
@@ -14276,7 +14277,7 @@
       <c r="Q81" s="95">
         <v>-13846</v>
       </c>
-      <c r="R81" s="215"/>
+      <c r="R81" s="217"/>
       <c r="S81" s="11">
         <f t="shared" si="74"/>
         <v>5865.6</v>
@@ -14346,7 +14347,7 @@
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="247"/>
+      <c r="A82" s="242"/>
       <c r="B82" s="12" t="s">
         <v>42</v>
       </c>
@@ -14399,7 +14400,7 @@
       <c r="Q82" s="95">
         <v>-14949</v>
       </c>
-      <c r="R82" s="215"/>
+      <c r="R82" s="217"/>
       <c r="S82" s="11">
         <f t="shared" si="74"/>
         <v>2574</v>
@@ -14469,7 +14470,7 @@
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="247"/>
+      <c r="A83" s="242"/>
       <c r="B83" s="12" t="s">
         <v>101</v>
       </c>
@@ -14522,7 +14523,7 @@
       <c r="Q83" s="95">
         <v>-13509</v>
       </c>
-      <c r="R83" s="215"/>
+      <c r="R83" s="217"/>
       <c r="S83" s="11">
         <f t="shared" si="74"/>
         <v>5761.6</v>
@@ -14592,7 +14593,7 @@
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="247"/>
+      <c r="A84" s="242"/>
       <c r="B84" s="12" t="s">
         <v>102</v>
       </c>
@@ -14645,7 +14646,7 @@
       <c r="Q84" s="95">
         <v>14913</v>
       </c>
-      <c r="R84" s="215"/>
+      <c r="R84" s="217"/>
       <c r="S84" s="11">
         <f t="shared" si="74"/>
         <v>5616</v>
@@ -14715,7 +14716,7 @@
       </c>
     </row>
     <row r="85" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="247"/>
+      <c r="A85" s="242"/>
       <c r="B85" s="12" t="s">
         <v>103</v>
       </c>
@@ -14768,7 +14769,7 @@
       <c r="Q85" s="95">
         <v>0</v>
       </c>
-      <c r="R85" s="215"/>
+      <c r="R85" s="217"/>
       <c r="S85" s="11">
         <f t="shared" si="74"/>
         <v>4487.6000000000004</v>
@@ -14838,7 +14839,7 @@
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="247"/>
+      <c r="A86" s="242"/>
       <c r="B86" s="12" t="s">
         <v>104</v>
       </c>
@@ -14891,7 +14892,7 @@
       <c r="Q86" s="95">
         <v>14568</v>
       </c>
-      <c r="R86" s="215"/>
+      <c r="R86" s="217"/>
       <c r="S86" s="11">
         <f t="shared" si="74"/>
         <v>7020</v>
@@ -14961,24 +14962,24 @@
       </c>
     </row>
     <row r="87" spans="1:37" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="268" t="s">
+      <c r="A87" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="269"/>
-      <c r="C87" s="269"/>
-      <c r="D87" s="269"/>
-      <c r="E87" s="269"/>
-      <c r="F87" s="270"/>
-      <c r="G87" s="249" t="s">
+      <c r="B87" s="239"/>
+      <c r="C87" s="239"/>
+      <c r="D87" s="239"/>
+      <c r="E87" s="239"/>
+      <c r="F87" s="240"/>
+      <c r="G87" s="244" t="s">
         <v>105</v>
       </c>
-      <c r="H87" s="250"/>
+      <c r="H87" s="245"/>
       <c r="I87" s="109"/>
       <c r="J87" s="109"/>
-      <c r="K87" s="251" t="s">
+      <c r="K87" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="L87" s="252"/>
+      <c r="L87" s="250"/>
       <c r="M87" s="118"/>
       <c r="N87" s="102"/>
       <c r="O87" s="102"/>
@@ -14990,7 +14991,7 @@
         <f>SUM(Q77:Q86)</f>
         <v>-38712</v>
       </c>
-      <c r="R87" s="215"/>
+      <c r="R87" s="217"/>
       <c r="S87" s="15" t="s">
         <v>23</v>
       </c>
@@ -15097,48 +15098,48 @@
       <c r="AK88" s="47"/>
     </row>
     <row r="89" spans="1:37" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="247">
+      <c r="A89" s="242">
         <v>42660</v>
       </c>
-      <c r="B89" s="229" t="s">
+      <c r="B89" s="231" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="229" t="s">
+      <c r="D89" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="229"/>
-      <c r="F89" s="229"/>
-      <c r="G89" s="248" t="s">
+      <c r="E89" s="231"/>
+      <c r="F89" s="231"/>
+      <c r="G89" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="H89" s="248" t="s">
+      <c r="H89" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="I89" s="229" t="s">
+      <c r="I89" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="J89" s="229"/>
-      <c r="K89" s="229"/>
-      <c r="L89" s="229"/>
-      <c r="M89" s="245" t="s">
+      <c r="J89" s="231"/>
+      <c r="K89" s="231"/>
+      <c r="L89" s="231"/>
+      <c r="M89" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="N89" s="246" t="s">
+      <c r="N89" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="O89" s="246" t="s">
+      <c r="O89" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="P89" s="236" t="s">
+      <c r="P89" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="Q89" s="236" t="s">
+      <c r="Q89" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="R89" s="215"/>
+      <c r="R89" s="217"/>
       <c r="AA89"/>
       <c r="AB89"/>
       <c r="AC89"/>
@@ -15146,8 +15147,8 @@
       <c r="AE89"/>
     </row>
     <row r="90" spans="1:37" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="247"/>
-      <c r="B90" s="229"/>
+      <c r="A90" s="242"/>
+      <c r="B90" s="231"/>
       <c r="C90" s="128" t="s">
         <v>74</v>
       </c>
@@ -15160,8 +15161,8 @@
       <c r="F90" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="G90" s="231"/>
-      <c r="H90" s="232"/>
+      <c r="G90" s="233"/>
+      <c r="H90" s="234"/>
       <c r="I90" s="112" t="s">
         <v>107</v>
       </c>
@@ -15174,12 +15175,12 @@
       <c r="L90" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="M90" s="231"/>
-      <c r="N90" s="213"/>
-      <c r="O90" s="235"/>
-      <c r="P90" s="213"/>
-      <c r="Q90" s="213"/>
-      <c r="R90" s="215"/>
+      <c r="M90" s="233"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="237"/>
+      <c r="P90" s="215"/>
+      <c r="Q90" s="215"/>
+      <c r="R90" s="217"/>
       <c r="AA90"/>
       <c r="AB90"/>
       <c r="AC90"/>
@@ -15187,7 +15188,7 @@
       <c r="AE90"/>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="247"/>
+      <c r="A91" s="242"/>
       <c r="B91" s="12" t="s">
         <v>56</v>
       </c>
@@ -15241,7 +15242,7 @@
       <c r="Q91" s="95">
         <v>-3513</v>
       </c>
-      <c r="R91" s="215"/>
+      <c r="R91" s="217"/>
       <c r="AA91"/>
       <c r="AB91"/>
       <c r="AC91"/>
@@ -15249,7 +15250,7 @@
       <c r="AE91"/>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="247"/>
+      <c r="A92" s="242"/>
       <c r="B92" s="12" t="s">
         <v>134</v>
       </c>
@@ -15303,7 +15304,7 @@
       <c r="Q92" s="95">
         <v>-3632</v>
       </c>
-      <c r="R92" s="215"/>
+      <c r="R92" s="217"/>
       <c r="AA92"/>
       <c r="AB92"/>
       <c r="AC92"/>
@@ -15311,7 +15312,7 @@
       <c r="AE92"/>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="247"/>
+      <c r="A93" s="242"/>
       <c r="B93" s="12" t="s">
         <v>104</v>
       </c>
@@ -15365,7 +15366,7 @@
       <c r="Q93" s="95">
         <v>-4200</v>
       </c>
-      <c r="R93" s="215"/>
+      <c r="R93" s="217"/>
       <c r="AA93"/>
       <c r="AB93"/>
       <c r="AC93"/>
@@ -15373,7 +15374,7 @@
       <c r="AE93"/>
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="247"/>
+      <c r="A94" s="242"/>
       <c r="B94" s="12" t="s">
         <v>135</v>
       </c>
@@ -15427,7 +15428,7 @@
       <c r="Q94" s="95">
         <v>3482</v>
       </c>
-      <c r="R94" s="215"/>
+      <c r="R94" s="217"/>
       <c r="AA94"/>
       <c r="AB94"/>
       <c r="AC94"/>
@@ -15435,7 +15436,7 @@
       <c r="AE94"/>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="247"/>
+      <c r="A95" s="242"/>
       <c r="B95" s="12" t="s">
         <v>55</v>
       </c>
@@ -15489,7 +15490,7 @@
       <c r="Q95" s="95">
         <v>0</v>
       </c>
-      <c r="R95" s="215"/>
+      <c r="R95" s="217"/>
       <c r="AA95"/>
       <c r="AB95"/>
       <c r="AC95"/>
@@ -15497,7 +15498,7 @@
       <c r="AE95"/>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="247"/>
+      <c r="A96" s="242"/>
       <c r="B96" s="12" t="s">
         <v>87</v>
       </c>
@@ -15551,7 +15552,7 @@
       <c r="Q96" s="95">
         <v>-4740</v>
       </c>
-      <c r="R96" s="215"/>
+      <c r="R96" s="217"/>
       <c r="AA96"/>
       <c r="AB96"/>
       <c r="AC96"/>
@@ -15559,20 +15560,20 @@
       <c r="AE96"/>
     </row>
     <row r="97" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A97" s="238"/>
-      <c r="B97" s="239"/>
-      <c r="C97" s="239"/>
-      <c r="D97" s="239"/>
-      <c r="E97" s="239"/>
-      <c r="F97" s="240"/>
-      <c r="G97" s="241"/>
-      <c r="H97" s="242"/>
+      <c r="A97" s="266"/>
+      <c r="B97" s="267"/>
+      <c r="C97" s="267"/>
+      <c r="D97" s="267"/>
+      <c r="E97" s="267"/>
+      <c r="F97" s="268"/>
+      <c r="G97" s="269"/>
+      <c r="H97" s="270"/>
       <c r="I97" s="140"/>
       <c r="J97" s="140"/>
-      <c r="K97" s="243" t="s">
+      <c r="K97" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="L97" s="244"/>
+      <c r="L97" s="272"/>
       <c r="M97" s="141"/>
       <c r="N97" s="142"/>
       <c r="O97" s="142"/>
@@ -15584,7 +15585,7 @@
         <f>SUM(Q91:Q96)</f>
         <v>-12603</v>
       </c>
-      <c r="R97" s="237"/>
+      <c r="R97" s="265"/>
       <c r="AA97"/>
       <c r="AB97"/>
       <c r="AC97"/>
@@ -15592,49 +15593,49 @@
       <c r="AE97"/>
     </row>
     <row r="98" spans="1:31" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="226">
+      <c r="A98" s="228">
         <v>42661</v>
       </c>
-      <c r="B98" s="228" t="s">
+      <c r="B98" s="230" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="228" t="s">
+      <c r="D98" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="228"/>
-      <c r="F98" s="228"/>
-      <c r="G98" s="230" t="s">
+      <c r="E98" s="230"/>
+      <c r="F98" s="230"/>
+      <c r="G98" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="H98" s="230" t="s">
+      <c r="H98" s="232" t="s">
         <v>142</v>
       </c>
-      <c r="I98" s="228" t="s">
+      <c r="I98" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="J98" s="228"/>
-      <c r="K98" s="228"/>
-      <c r="L98" s="228"/>
-      <c r="M98" s="233" t="s">
+      <c r="J98" s="230"/>
+      <c r="K98" s="230"/>
+      <c r="L98" s="230"/>
+      <c r="M98" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="N98" s="234" t="s">
+      <c r="N98" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="O98" s="234" t="s">
+      <c r="O98" s="236" t="s">
         <v>111</v>
       </c>
-      <c r="P98" s="212" t="s">
+      <c r="P98" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="Q98" s="212" t="s">
+      <c r="Q98" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="R98" s="214"/>
-      <c r="S98" s="217" t="s">
+      <c r="R98" s="216"/>
+      <c r="S98" s="219" t="s">
         <v>143</v>
       </c>
       <c r="AA98"/>
@@ -15644,8 +15645,8 @@
       <c r="AE98"/>
     </row>
     <row r="99" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="227"/>
-      <c r="B99" s="229"/>
+      <c r="A99" s="229"/>
+      <c r="B99" s="231"/>
       <c r="C99" s="130" t="s">
         <v>74</v>
       </c>
@@ -15658,8 +15659,8 @@
       <c r="F99" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="G99" s="231"/>
-      <c r="H99" s="232"/>
+      <c r="G99" s="233"/>
+      <c r="H99" s="234"/>
       <c r="I99" s="112" t="s">
         <v>107</v>
       </c>
@@ -15672,13 +15673,13 @@
       <c r="L99" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="M99" s="231"/>
-      <c r="N99" s="213"/>
-      <c r="O99" s="235"/>
-      <c r="P99" s="213"/>
-      <c r="Q99" s="213"/>
-      <c r="R99" s="215"/>
-      <c r="S99" s="218"/>
+      <c r="M99" s="233"/>
+      <c r="N99" s="215"/>
+      <c r="O99" s="237"/>
+      <c r="P99" s="215"/>
+      <c r="Q99" s="215"/>
+      <c r="R99" s="217"/>
+      <c r="S99" s="220"/>
       <c r="AA99"/>
       <c r="AB99"/>
       <c r="AC99"/>
@@ -15686,7 +15687,7 @@
       <c r="AE99"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="227"/>
+      <c r="A100" s="229"/>
       <c r="B100" s="137" t="s">
         <v>52</v>
       </c>
@@ -15740,7 +15741,7 @@
       <c r="Q100" s="134">
         <v>274</v>
       </c>
-      <c r="R100" s="215"/>
+      <c r="R100" s="217"/>
       <c r="S100" s="146" t="s">
         <v>145</v>
       </c>
@@ -15751,7 +15752,7 @@
       <c r="AE100"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="227"/>
+      <c r="A101" s="229"/>
       <c r="B101" s="137" t="s">
         <v>63</v>
       </c>
@@ -15805,7 +15806,7 @@
       <c r="Q101" s="134">
         <v>-2388</v>
       </c>
-      <c r="R101" s="215"/>
+      <c r="R101" s="217"/>
       <c r="S101" s="146" t="s">
         <v>145</v>
       </c>
@@ -15816,7 +15817,7 @@
       <c r="AE101"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="227"/>
+      <c r="A102" s="229"/>
       <c r="B102" s="137" t="s">
         <v>135</v>
       </c>
@@ -15870,7 +15871,7 @@
       <c r="Q102" s="134">
         <v>-2404</v>
       </c>
-      <c r="R102" s="215"/>
+      <c r="R102" s="217"/>
       <c r="S102" s="146" t="s">
         <v>145</v>
       </c>
@@ -15881,7 +15882,7 @@
       <c r="AE102"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="227"/>
+      <c r="A103" s="229"/>
       <c r="B103" s="137" t="s">
         <v>137</v>
       </c>
@@ -15935,7 +15936,7 @@
       <c r="Q103" s="134">
         <v>3812</v>
       </c>
-      <c r="R103" s="215"/>
+      <c r="R103" s="217"/>
       <c r="S103" s="146" t="s">
         <v>145</v>
       </c>
@@ -15946,7 +15947,7 @@
       <c r="AE103"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="227"/>
+      <c r="A104" s="229"/>
       <c r="B104" s="137" t="s">
         <v>138</v>
       </c>
@@ -16000,7 +16001,7 @@
       <c r="Q104" s="134">
         <v>-3099</v>
       </c>
-      <c r="R104" s="215"/>
+      <c r="R104" s="217"/>
       <c r="S104" s="146" t="s">
         <v>145</v>
       </c>
@@ -16011,7 +16012,7 @@
       <c r="AE104"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="227"/>
+      <c r="A105" s="229"/>
       <c r="B105" s="137" t="s">
         <v>85</v>
       </c>
@@ -16065,7 +16066,7 @@
       <c r="Q105" s="134">
         <v>-2846</v>
       </c>
-      <c r="R105" s="215"/>
+      <c r="R105" s="217"/>
       <c r="S105" s="146" t="s">
         <v>145</v>
       </c>
@@ -16076,7 +16077,7 @@
       <c r="AE105"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="227"/>
+      <c r="A106" s="229"/>
       <c r="B106" s="137" t="s">
         <v>52</v>
       </c>
@@ -16130,7 +16131,7 @@
       <c r="Q106" s="134">
         <v>0</v>
       </c>
-      <c r="R106" s="215"/>
+      <c r="R106" s="217"/>
       <c r="S106" s="146" t="s">
         <v>145</v>
       </c>
@@ -16141,7 +16142,7 @@
       <c r="AE106"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="227"/>
+      <c r="A107" s="229"/>
       <c r="B107" s="137" t="s">
         <v>137</v>
       </c>
@@ -16195,7 +16196,7 @@
       <c r="Q107" s="134">
         <v>0</v>
       </c>
-      <c r="R107" s="215"/>
+      <c r="R107" s="217"/>
       <c r="S107" s="146" t="s">
         <v>145</v>
       </c>
@@ -16206,7 +16207,7 @@
       <c r="AE107"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="227"/>
+      <c r="A108" s="229"/>
       <c r="B108" s="137" t="s">
         <v>139</v>
       </c>
@@ -16260,7 +16261,7 @@
       <c r="Q108" s="134">
         <v>658</v>
       </c>
-      <c r="R108" s="215"/>
+      <c r="R108" s="217"/>
       <c r="S108" s="146" t="s">
         <v>145</v>
       </c>
@@ -16271,7 +16272,7 @@
       <c r="AE108"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="227"/>
+      <c r="A109" s="229"/>
       <c r="B109" s="137" t="s">
         <v>140</v>
       </c>
@@ -16325,7 +16326,7 @@
       <c r="Q109" s="134">
         <v>758</v>
       </c>
-      <c r="R109" s="215"/>
+      <c r="R109" s="217"/>
       <c r="S109" s="146" t="s">
         <v>145</v>
       </c>
@@ -16336,7 +16337,7 @@
       <c r="AE109"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="227"/>
+      <c r="A110" s="229"/>
       <c r="B110" s="137" t="s">
         <v>56</v>
       </c>
@@ -16390,7 +16391,7 @@
       <c r="Q110" s="134">
         <v>724</v>
       </c>
-      <c r="R110" s="215"/>
+      <c r="R110" s="217"/>
       <c r="S110" s="146" t="s">
         <v>145</v>
       </c>
@@ -16401,22 +16402,22 @@
       <c r="AE110"/>
     </row>
     <row r="111" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A111" s="219" t="s">
+      <c r="A111" s="221" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="220"/>
-      <c r="C111" s="220"/>
-      <c r="D111" s="220"/>
-      <c r="E111" s="220"/>
-      <c r="F111" s="221"/>
-      <c r="G111" s="222"/>
-      <c r="H111" s="223"/>
+      <c r="B111" s="222"/>
+      <c r="C111" s="222"/>
+      <c r="D111" s="222"/>
+      <c r="E111" s="222"/>
+      <c r="F111" s="223"/>
+      <c r="G111" s="224"/>
+      <c r="H111" s="225"/>
       <c r="I111" s="147"/>
       <c r="J111" s="147"/>
-      <c r="K111" s="224" t="s">
+      <c r="K111" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="L111" s="225"/>
+      <c r="L111" s="227"/>
       <c r="M111" s="148"/>
       <c r="N111" s="149"/>
       <c r="O111" s="149"/>
@@ -16428,7 +16429,7 @@
         <f>SUM(Q100:Q110)</f>
         <v>-4511</v>
       </c>
-      <c r="R111" s="216"/>
+      <c r="R111" s="218"/>
       <c r="S111" s="152"/>
       <c r="AA111"/>
       <c r="AB111"/>
@@ -16437,49 +16438,49 @@
       <c r="AE111"/>
     </row>
     <row r="112" spans="1:31" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="226">
+      <c r="A112" s="228">
         <v>42662</v>
       </c>
-      <c r="B112" s="228" t="s">
+      <c r="B112" s="230" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="228" t="s">
+      <c r="D112" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="228"/>
-      <c r="F112" s="228"/>
-      <c r="G112" s="230" t="s">
+      <c r="E112" s="230"/>
+      <c r="F112" s="230"/>
+      <c r="G112" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="H112" s="230" t="s">
+      <c r="H112" s="232" t="s">
         <v>142</v>
       </c>
-      <c r="I112" s="228" t="s">
+      <c r="I112" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="J112" s="228"/>
-      <c r="K112" s="228"/>
-      <c r="L112" s="228"/>
-      <c r="M112" s="233" t="s">
+      <c r="J112" s="230"/>
+      <c r="K112" s="230"/>
+      <c r="L112" s="230"/>
+      <c r="M112" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="N112" s="234" t="s">
+      <c r="N112" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="O112" s="234" t="s">
+      <c r="O112" s="236" t="s">
         <v>111</v>
       </c>
-      <c r="P112" s="212" t="s">
+      <c r="P112" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="Q112" s="212" t="s">
+      <c r="Q112" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="R112" s="214"/>
-      <c r="S112" s="217" t="s">
+      <c r="R112" s="216"/>
+      <c r="S112" s="219" t="s">
         <v>143</v>
       </c>
       <c r="AA112"/>
@@ -16489,8 +16490,8 @@
       <c r="AE112"/>
     </row>
     <row r="113" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="227"/>
-      <c r="B113" s="229"/>
+      <c r="A113" s="229"/>
+      <c r="B113" s="231"/>
       <c r="C113" s="130" t="s">
         <v>74</v>
       </c>
@@ -16503,8 +16504,8 @@
       <c r="F113" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="G113" s="231"/>
-      <c r="H113" s="232"/>
+      <c r="G113" s="233"/>
+      <c r="H113" s="234"/>
       <c r="I113" s="112" t="s">
         <v>107</v>
       </c>
@@ -16517,13 +16518,13 @@
       <c r="L113" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="M113" s="231"/>
-      <c r="N113" s="213"/>
-      <c r="O113" s="235"/>
-      <c r="P113" s="213"/>
-      <c r="Q113" s="213"/>
-      <c r="R113" s="215"/>
-      <c r="S113" s="218"/>
+      <c r="M113" s="233"/>
+      <c r="N113" s="215"/>
+      <c r="O113" s="237"/>
+      <c r="P113" s="215"/>
+      <c r="Q113" s="215"/>
+      <c r="R113" s="217"/>
+      <c r="S113" s="220"/>
       <c r="AA113"/>
       <c r="AB113"/>
       <c r="AC113"/>
@@ -16531,7 +16532,7 @@
       <c r="AE113"/>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="227"/>
+      <c r="A114" s="229"/>
       <c r="B114" s="137" t="s">
         <v>147</v>
       </c>
@@ -16586,7 +16587,7 @@
       <c r="Q114" s="134">
         <v>332</v>
       </c>
-      <c r="R114" s="215"/>
+      <c r="R114" s="217"/>
       <c r="S114" s="146" t="s">
         <v>154</v>
       </c>
@@ -16597,7 +16598,7 @@
       <c r="AE114"/>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="227"/>
+      <c r="A115" s="229"/>
       <c r="B115" s="137" t="s">
         <v>148</v>
       </c>
@@ -16652,7 +16653,7 @@
       <c r="Q115" s="134">
         <v>-2625</v>
       </c>
-      <c r="R115" s="215"/>
+      <c r="R115" s="217"/>
       <c r="S115" s="146" t="s">
         <v>155</v>
       </c>
@@ -16663,7 +16664,7 @@
       <c r="AE115"/>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="227"/>
+      <c r="A116" s="229"/>
       <c r="B116" s="137" t="s">
         <v>149</v>
       </c>
@@ -16718,7 +16719,7 @@
       <c r="Q116" s="134">
         <v>660</v>
       </c>
-      <c r="R116" s="215"/>
+      <c r="R116" s="217"/>
       <c r="S116" s="146" t="s">
         <v>156</v>
       </c>
@@ -16729,7 +16730,7 @@
       <c r="AE116"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="227"/>
+      <c r="A117" s="229"/>
       <c r="B117" s="137" t="s">
         <v>150</v>
       </c>
@@ -16784,7 +16785,7 @@
       <c r="Q117" s="134">
         <v>626</v>
       </c>
-      <c r="R117" s="215"/>
+      <c r="R117" s="217"/>
       <c r="S117" s="146" t="s">
         <v>154</v>
       </c>
@@ -16795,22 +16796,22 @@
       <c r="AE117"/>
     </row>
     <row r="118" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A118" s="219" t="s">
+      <c r="A118" s="221" t="s">
         <v>146</v>
       </c>
-      <c r="B118" s="220"/>
-      <c r="C118" s="220"/>
-      <c r="D118" s="220"/>
-      <c r="E118" s="220"/>
-      <c r="F118" s="221"/>
-      <c r="G118" s="222"/>
-      <c r="H118" s="223"/>
+      <c r="B118" s="222"/>
+      <c r="C118" s="222"/>
+      <c r="D118" s="222"/>
+      <c r="E118" s="222"/>
+      <c r="F118" s="223"/>
+      <c r="G118" s="224"/>
+      <c r="H118" s="225"/>
       <c r="I118" s="147"/>
       <c r="J118" s="147"/>
-      <c r="K118" s="224" t="s">
+      <c r="K118" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="L118" s="225"/>
+      <c r="L118" s="227"/>
       <c r="M118" s="148"/>
       <c r="N118" s="149"/>
       <c r="O118" s="149"/>
@@ -16822,7 +16823,7 @@
         <f>SUM(Q114:Q117)</f>
         <v>-1007</v>
       </c>
-      <c r="R118" s="216"/>
+      <c r="R118" s="218"/>
       <c r="S118" s="152"/>
       <c r="AA118"/>
       <c r="AB118"/>
@@ -16831,49 +16832,49 @@
       <c r="AE118"/>
     </row>
     <row r="119" spans="1:31" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="226">
+      <c r="A119" s="228">
         <v>42663</v>
       </c>
-      <c r="B119" s="228" t="s">
+      <c r="B119" s="230" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="228" t="s">
+      <c r="D119" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="228"/>
-      <c r="F119" s="228"/>
-      <c r="G119" s="230" t="s">
+      <c r="E119" s="230"/>
+      <c r="F119" s="230"/>
+      <c r="G119" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="H119" s="230" t="s">
+      <c r="H119" s="232" t="s">
         <v>142</v>
       </c>
-      <c r="I119" s="228" t="s">
+      <c r="I119" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="J119" s="228"/>
-      <c r="K119" s="228"/>
-      <c r="L119" s="228"/>
-      <c r="M119" s="233" t="s">
+      <c r="J119" s="230"/>
+      <c r="K119" s="230"/>
+      <c r="L119" s="230"/>
+      <c r="M119" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="N119" s="234" t="s">
+      <c r="N119" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="O119" s="234" t="s">
+      <c r="O119" s="236" t="s">
         <v>111</v>
       </c>
-      <c r="P119" s="212" t="s">
+      <c r="P119" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="Q119" s="212" t="s">
+      <c r="Q119" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="R119" s="214"/>
-      <c r="S119" s="217" t="s">
+      <c r="R119" s="216"/>
+      <c r="S119" s="219" t="s">
         <v>143</v>
       </c>
       <c r="AA119"/>
@@ -16883,8 +16884,8 @@
       <c r="AE119"/>
     </row>
     <row r="120" spans="1:31" ht="35.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="227"/>
-      <c r="B120" s="229"/>
+      <c r="A120" s="229"/>
+      <c r="B120" s="231"/>
       <c r="C120" s="139" t="s">
         <v>74</v>
       </c>
@@ -16897,8 +16898,8 @@
       <c r="F120" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="G120" s="231"/>
-      <c r="H120" s="232"/>
+      <c r="G120" s="233"/>
+      <c r="H120" s="234"/>
       <c r="I120" s="112" t="s">
         <v>107</v>
       </c>
@@ -16911,13 +16912,13 @@
       <c r="L120" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="M120" s="231"/>
-      <c r="N120" s="213"/>
-      <c r="O120" s="235"/>
-      <c r="P120" s="213"/>
-      <c r="Q120" s="213"/>
-      <c r="R120" s="215"/>
-      <c r="S120" s="218"/>
+      <c r="M120" s="233"/>
+      <c r="N120" s="215"/>
+      <c r="O120" s="237"/>
+      <c r="P120" s="215"/>
+      <c r="Q120" s="215"/>
+      <c r="R120" s="217"/>
+      <c r="S120" s="220"/>
       <c r="AA120"/>
       <c r="AB120"/>
       <c r="AC120"/>
@@ -16925,7 +16926,7 @@
       <c r="AE120"/>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="227"/>
+      <c r="A121" s="229"/>
       <c r="B121" s="137" t="s">
         <v>157</v>
       </c>
@@ -16978,7 +16979,7 @@
         <v>0.67719424460431643</v>
       </c>
       <c r="Q121" s="134"/>
-      <c r="R121" s="215"/>
+      <c r="R121" s="217"/>
       <c r="S121" s="146"/>
       <c r="AA121"/>
       <c r="AB121"/>
@@ -16987,7 +16988,7 @@
       <c r="AE121"/>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="227"/>
+      <c r="A122" s="229"/>
       <c r="B122" s="137" t="s">
         <v>157</v>
       </c>
@@ -17040,7 +17041,7 @@
         <v>0.67430416068866572</v>
       </c>
       <c r="Q122" s="134"/>
-      <c r="R122" s="215"/>
+      <c r="R122" s="217"/>
       <c r="S122" s="146"/>
       <c r="AA122"/>
       <c r="AB122"/>
@@ -17049,7 +17050,7 @@
       <c r="AE122"/>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="227"/>
+      <c r="A123" s="229"/>
       <c r="B123" s="137" t="s">
         <v>157</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>-2.6222636103151862</v>
       </c>
       <c r="Q123" s="134"/>
-      <c r="R123" s="215"/>
+      <c r="R123" s="217"/>
       <c r="S123" s="146"/>
       <c r="AA123"/>
       <c r="AB123"/>
@@ -17111,7 +17112,7 @@
       <c r="AE123"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="227"/>
+      <c r="A124" s="229"/>
       <c r="B124" s="137" t="s">
         <v>157</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>-2.5039130434782608</v>
       </c>
       <c r="Q124" s="134"/>
-      <c r="R124" s="215"/>
+      <c r="R124" s="217"/>
       <c r="S124" s="146"/>
       <c r="AA124"/>
       <c r="AB124"/>
@@ -17173,7 +17174,7 @@
       <c r="AE124"/>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="227"/>
+      <c r="A125" s="229"/>
       <c r="B125" s="137" t="s">
         <v>157</v>
       </c>
@@ -17226,7 +17227,7 @@
         <v>0.10731778425655975</v>
       </c>
       <c r="Q125" s="134"/>
-      <c r="R125" s="215"/>
+      <c r="R125" s="217"/>
       <c r="S125" s="146"/>
       <c r="AA125"/>
       <c r="AB125"/>
@@ -17235,7 +17236,7 @@
       <c r="AE125"/>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="227"/>
+      <c r="A126" s="229"/>
       <c r="B126" s="137" t="s">
         <v>148</v>
       </c>
@@ -17288,7 +17289,7 @@
         <v>-2.83</v>
       </c>
       <c r="Q126" s="134"/>
-      <c r="R126" s="215"/>
+      <c r="R126" s="217"/>
       <c r="S126" s="146"/>
       <c r="AA126"/>
       <c r="AB126"/>
@@ -17297,7 +17298,7 @@
       <c r="AE126"/>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="227"/>
+      <c r="A127" s="229"/>
       <c r="B127" s="137" t="s">
         <v>157</v>
       </c>
@@ -17350,7 +17351,7 @@
         <v>-2.482080344332855</v>
       </c>
       <c r="Q127" s="134"/>
-      <c r="R127" s="215"/>
+      <c r="R127" s="217"/>
       <c r="S127" s="146"/>
       <c r="AA127"/>
       <c r="AB127"/>
@@ -17359,7 +17360,7 @@
       <c r="AE127"/>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="227"/>
+      <c r="A128" s="229"/>
       <c r="B128" s="137" t="s">
         <v>149</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>0.72680317040951126</v>
       </c>
       <c r="Q128" s="134"/>
-      <c r="R128" s="215"/>
+      <c r="R128" s="217"/>
       <c r="S128" s="146"/>
       <c r="AA128"/>
       <c r="AB128"/>
@@ -17421,7 +17422,7 @@
       <c r="AE128"/>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="227"/>
+      <c r="A129" s="229"/>
       <c r="B129" s="137" t="s">
         <v>157</v>
       </c>
@@ -17474,7 +17475,7 @@
         <v>0.10604651162790696</v>
       </c>
       <c r="Q129" s="134"/>
-      <c r="R129" s="215"/>
+      <c r="R129" s="217"/>
       <c r="S129" s="146"/>
       <c r="AA129"/>
       <c r="AB129"/>
@@ -17483,7 +17484,7 @@
       <c r="AE129"/>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="227"/>
+      <c r="A130" s="229"/>
       <c r="B130" s="137" t="s">
         <v>86</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>-2.5209233176838812</v>
       </c>
       <c r="Q130" s="134"/>
-      <c r="R130" s="215"/>
+      <c r="R130" s="217"/>
       <c r="S130" s="146"/>
       <c r="AA130"/>
       <c r="AB130"/>
@@ -17545,7 +17546,7 @@
       <c r="AE130"/>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="227"/>
+      <c r="A131" s="229"/>
       <c r="B131" s="137" t="s">
         <v>158</v>
       </c>
@@ -17598,7 +17599,7 @@
         <v>0.37754716981132069</v>
       </c>
       <c r="Q131" s="134"/>
-      <c r="R131" s="215"/>
+      <c r="R131" s="217"/>
       <c r="S131" s="146"/>
       <c r="AA131"/>
       <c r="AB131"/>
@@ -17607,22 +17608,22 @@
       <c r="AE131"/>
     </row>
     <row r="132" spans="1:31" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A132" s="219" t="s">
+      <c r="A132" s="221" t="s">
         <v>146</v>
       </c>
-      <c r="B132" s="220"/>
-      <c r="C132" s="220"/>
-      <c r="D132" s="220"/>
-      <c r="E132" s="220"/>
-      <c r="F132" s="221"/>
-      <c r="G132" s="222"/>
-      <c r="H132" s="223"/>
+      <c r="B132" s="222"/>
+      <c r="C132" s="222"/>
+      <c r="D132" s="222"/>
+      <c r="E132" s="222"/>
+      <c r="F132" s="223"/>
+      <c r="G132" s="224"/>
+      <c r="H132" s="225"/>
       <c r="I132" s="147"/>
       <c r="J132" s="147"/>
-      <c r="K132" s="224" t="s">
+      <c r="K132" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="L132" s="225"/>
+      <c r="L132" s="227"/>
       <c r="M132" s="148"/>
       <c r="N132" s="149"/>
       <c r="O132" s="149"/>
@@ -17634,7 +17635,7 @@
         <f>SUM(Q121:Q131)</f>
         <v>0</v>
       </c>
-      <c r="R132" s="216"/>
+      <c r="R132" s="218"/>
       <c r="S132" s="152"/>
       <c r="AA132"/>
       <c r="AB132"/>
@@ -17644,97 +17645,47 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R132"/>
-    <mergeCell ref="S119:S120"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="A119:A131"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="R98:R111"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="S98:S99"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A48:A60"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R63:R73"/>
-    <mergeCell ref="U63:AA63"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="R48:R61"/>
-    <mergeCell ref="U48:AA48"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R46"/>
-    <mergeCell ref="U34:AA34"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="P112:P113"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="R112:R118"/>
+    <mergeCell ref="S112:S113"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="N112:N113"/>
+    <mergeCell ref="O112:O113"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R97"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
     <mergeCell ref="P75:P76"/>
     <mergeCell ref="Q75:Q76"/>
     <mergeCell ref="R75:R87"/>
@@ -17759,47 +17710,97 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A16:A31"/>
     <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R97"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="P112:P113"/>
-    <mergeCell ref="Q112:Q113"/>
-    <mergeCell ref="R112:R118"/>
-    <mergeCell ref="S112:S113"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="N112:N113"/>
-    <mergeCell ref="O112:O113"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="R48:R61"/>
+    <mergeCell ref="U48:AA48"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R46"/>
+    <mergeCell ref="U34:AA34"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R63:R73"/>
+    <mergeCell ref="U63:AA63"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A48:A60"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="R98:R111"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R132"/>
+    <mergeCell ref="S119:S120"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="A119:A131"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="O119:O120"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17868,7 +17869,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="272">
+      <c r="B3" s="274">
         <v>42664</v>
       </c>
       <c r="C3" s="173" t="s">
@@ -17901,12 +17902,12 @@
       <c r="K3" s="190">
         <v>2.7</v>
       </c>
-      <c r="L3" s="271" t="s">
+      <c r="L3" s="273" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="273"/>
+      <c r="B4" s="275"/>
       <c r="C4" s="173" t="s">
         <v>170</v>
       </c>
@@ -17937,10 +17938,10 @@
       <c r="K4" s="190">
         <v>2.56</v>
       </c>
-      <c r="L4" s="271"/>
+      <c r="L4" s="273"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="273"/>
+      <c r="B5" s="275"/>
       <c r="C5" s="173" t="s">
         <v>171</v>
       </c>
@@ -17971,10 +17972,10 @@
       <c r="K5" s="190">
         <v>2.73</v>
       </c>
-      <c r="L5" s="271"/>
+      <c r="L5" s="273"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="273"/>
+      <c r="B6" s="275"/>
       <c r="C6" s="173" t="s">
         <v>173</v>
       </c>
@@ -18003,10 +18004,10 @@
       <c r="K6" s="190">
         <v>0.4</v>
       </c>
-      <c r="L6" s="271"/>
+      <c r="L6" s="273"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="273"/>
+      <c r="B7" s="275"/>
       <c r="C7" s="173" t="s">
         <v>174</v>
       </c>
@@ -18035,10 +18036,10 @@
       <c r="K7" s="190">
         <v>0.21</v>
       </c>
-      <c r="L7" s="271"/>
+      <c r="L7" s="273"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="273"/>
+      <c r="B8" s="275"/>
       <c r="C8" s="173" t="s">
         <v>175</v>
       </c>
@@ -18067,10 +18068,10 @@
       <c r="K8" s="190">
         <v>0.2</v>
       </c>
-      <c r="L8" s="271"/>
+      <c r="L8" s="273"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="273"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="173" t="s">
         <v>176</v>
       </c>
@@ -18101,10 +18102,10 @@
       <c r="K9" s="190">
         <v>2.73</v>
       </c>
-      <c r="L9" s="271"/>
+      <c r="L9" s="273"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="273"/>
+      <c r="B10" s="275"/>
       <c r="C10" s="173" t="s">
         <v>177</v>
       </c>
@@ -18133,10 +18134,10 @@
       <c r="K10" s="190">
         <v>1.2</v>
       </c>
-      <c r="L10" s="271"/>
+      <c r="L10" s="273"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="273"/>
+      <c r="B11" s="275"/>
       <c r="C11" s="173" t="s">
         <v>178</v>
       </c>
@@ -18167,10 +18168,10 @@
       <c r="K11" s="190">
         <v>2.72</v>
       </c>
-      <c r="L11" s="271"/>
+      <c r="L11" s="273"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="273"/>
+      <c r="B12" s="275"/>
       <c r="C12" s="174" t="s">
         <v>179</v>
       </c>
@@ -18201,10 +18202,10 @@
       <c r="K12" s="188">
         <v>2.56</v>
       </c>
-      <c r="L12" s="271"/>
+      <c r="L12" s="273"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="273"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="174" t="s">
         <v>180</v>
       </c>
@@ -18233,10 +18234,10 @@
       <c r="K13" s="190">
         <v>2.5299999999999998</v>
       </c>
-      <c r="L13" s="271"/>
+      <c r="L13" s="273"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="273"/>
+      <c r="B14" s="275"/>
       <c r="C14" s="175" t="s">
         <v>181</v>
       </c>
@@ -18265,10 +18266,10 @@
       <c r="K14" s="190">
         <v>1.83</v>
       </c>
-      <c r="L14" s="271"/>
+      <c r="L14" s="273"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="273"/>
+      <c r="B15" s="275"/>
       <c r="C15" s="175" t="s">
         <v>166</v>
       </c>
@@ -18299,10 +18300,10 @@
       <c r="K15" s="190">
         <v>-1.53</v>
       </c>
-      <c r="L15" s="271"/>
+      <c r="L15" s="273"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="273"/>
+      <c r="B16" s="275"/>
       <c r="C16" s="175" t="s">
         <v>182</v>
       </c>
@@ -18331,10 +18332,10 @@
       <c r="K16" s="190">
         <v>-1.42</v>
       </c>
-      <c r="L16" s="271"/>
+      <c r="L16" s="273"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="273"/>
+      <c r="B17" s="275"/>
       <c r="C17" s="175" t="s">
         <v>183</v>
       </c>
@@ -18363,10 +18364,10 @@
       <c r="K17" s="190">
         <v>-1.56</v>
       </c>
-      <c r="L17" s="271"/>
+      <c r="L17" s="273"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="273"/>
+      <c r="B18" s="275"/>
       <c r="C18" s="175" t="s">
         <v>184</v>
       </c>
@@ -18395,10 +18396,10 @@
       <c r="K18" s="190">
         <v>-1.58</v>
       </c>
-      <c r="L18" s="271"/>
+      <c r="L18" s="273"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="273"/>
+      <c r="B19" s="275"/>
       <c r="C19" s="175" t="s">
         <v>185</v>
       </c>
@@ -18427,10 +18428,10 @@
       <c r="K19" s="190">
         <v>-1.46</v>
       </c>
-      <c r="L19" s="271"/>
+      <c r="L19" s="273"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="273"/>
+      <c r="B20" s="275"/>
       <c r="C20" s="175" t="s">
         <v>186</v>
       </c>
@@ -18461,10 +18462,10 @@
       <c r="K20" s="190">
         <v>-1.23</v>
       </c>
-      <c r="L20" s="271"/>
+      <c r="L20" s="273"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="273"/>
+      <c r="B21" s="275"/>
       <c r="C21" s="175" t="s">
         <v>187</v>
       </c>
@@ -18493,10 +18494,10 @@
       <c r="K21" s="190">
         <v>-1.41</v>
       </c>
-      <c r="L21" s="271"/>
+      <c r="L21" s="273"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="273"/>
+      <c r="B22" s="275"/>
       <c r="C22" s="176" t="s">
         <v>188</v>
       </c>
@@ -18527,10 +18528,10 @@
       <c r="K22" s="190">
         <v>-1.03</v>
       </c>
-      <c r="L22" s="271"/>
+      <c r="L22" s="273"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="273"/>
+      <c r="B23" s="275"/>
       <c r="C23" s="175" t="s">
         <v>189</v>
       </c>
@@ -18559,10 +18560,10 @@
       <c r="K23" s="190">
         <v>-1.64</v>
       </c>
-      <c r="L23" s="271"/>
+      <c r="L23" s="273"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="273"/>
+      <c r="B24" s="275"/>
       <c r="C24" s="175" t="s">
         <v>190</v>
       </c>
@@ -18591,10 +18592,10 @@
       <c r="K24" s="190">
         <v>-1.34</v>
       </c>
-      <c r="L24" s="271"/>
+      <c r="L24" s="273"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="273"/>
+      <c r="B25" s="275"/>
       <c r="C25" s="175" t="s">
         <v>191</v>
       </c>
@@ -18623,10 +18624,10 @@
       <c r="K25" s="190">
         <v>-1.41</v>
       </c>
-      <c r="L25" s="271"/>
+      <c r="L25" s="273"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="273"/>
+      <c r="B26" s="275"/>
       <c r="C26" s="175" t="s">
         <v>192</v>
       </c>
@@ -18655,10 +18656,10 @@
       <c r="K26" s="190">
         <v>-1.23</v>
       </c>
-      <c r="L26" s="271"/>
+      <c r="L26" s="273"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="273"/>
+      <c r="B27" s="275"/>
       <c r="C27" s="175" t="s">
         <v>193</v>
       </c>
@@ -18687,10 +18688,10 @@
       <c r="K27" s="190">
         <v>-1.37</v>
       </c>
-      <c r="L27" s="271"/>
+      <c r="L27" s="273"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="273"/>
+      <c r="B28" s="275"/>
       <c r="C28" s="177" t="s">
         <v>194</v>
       </c>
@@ -18719,10 +18720,10 @@
       <c r="K28" s="190">
         <v>-1.53</v>
       </c>
-      <c r="L28" s="271"/>
+      <c r="L28" s="273"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="273"/>
+      <c r="B29" s="275"/>
       <c r="C29" s="177" t="s">
         <v>195</v>
       </c>
@@ -18751,10 +18752,10 @@
       <c r="K29" s="190">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="L29" s="271"/>
+      <c r="L29" s="273"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="273"/>
+      <c r="B30" s="275"/>
       <c r="C30" s="175" t="s">
         <v>196</v>
       </c>
@@ -18783,10 +18784,10 @@
       <c r="K30" s="190">
         <v>-3.92</v>
       </c>
-      <c r="L30" s="271"/>
+      <c r="L30" s="273"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="273"/>
+      <c r="B31" s="275"/>
       <c r="C31" s="175" t="s">
         <v>197</v>
       </c>
@@ -18815,10 +18816,10 @@
       <c r="K31" s="190">
         <v>-1.59</v>
       </c>
-      <c r="L31" s="271"/>
+      <c r="L31" s="273"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="273"/>
+      <c r="B32" s="275"/>
       <c r="C32" s="175" t="s">
         <v>198</v>
       </c>
@@ -18847,10 +18848,10 @@
       <c r="K32" s="190">
         <v>-2.64</v>
       </c>
-      <c r="L32" s="271"/>
+      <c r="L32" s="273"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="273"/>
+      <c r="B33" s="275"/>
       <c r="C33" s="175" t="s">
         <v>199</v>
       </c>
@@ -18879,10 +18880,10 @@
       <c r="K33" s="190">
         <v>-1.46</v>
       </c>
-      <c r="L33" s="271"/>
+      <c r="L33" s="273"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="273"/>
+      <c r="B34" s="275"/>
       <c r="C34" s="175" t="s">
         <v>200</v>
       </c>
@@ -18911,10 +18912,10 @@
       <c r="K34" s="190">
         <v>-1.45</v>
       </c>
-      <c r="L34" s="271"/>
+      <c r="L34" s="273"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="273"/>
+      <c r="B35" s="275"/>
       <c r="C35" s="175" t="s">
         <v>201</v>
       </c>
@@ -18943,10 +18944,10 @@
       <c r="K35" s="190">
         <v>-1.39</v>
       </c>
-      <c r="L35" s="271"/>
+      <c r="L35" s="273"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="273"/>
+      <c r="B36" s="275"/>
       <c r="C36" s="175" t="s">
         <v>104</v>
       </c>
@@ -18975,10 +18976,10 @@
       <c r="K36" s="190">
         <v>-1.55</v>
       </c>
-      <c r="L36" s="271"/>
+      <c r="L36" s="273"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="273"/>
+      <c r="B37" s="275"/>
       <c r="C37" s="177" t="s">
         <v>202</v>
       </c>
@@ -19009,10 +19010,10 @@
       <c r="K37" s="190">
         <v>-1.47</v>
       </c>
-      <c r="L37" s="271"/>
+      <c r="L37" s="273"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="273"/>
+      <c r="B38" s="275"/>
       <c r="C38" s="175" t="s">
         <v>203</v>
       </c>
@@ -19041,10 +19042,10 @@
       <c r="K38" s="190">
         <v>-1.55</v>
       </c>
-      <c r="L38" s="271"/>
+      <c r="L38" s="273"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="273"/>
+      <c r="B39" s="275"/>
       <c r="C39" s="175" t="s">
         <v>204</v>
       </c>
@@ -19073,10 +19074,10 @@
       <c r="K39" s="190">
         <v>-1.42</v>
       </c>
-      <c r="L39" s="271"/>
+      <c r="L39" s="273"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="273"/>
+      <c r="B40" s="275"/>
       <c r="C40" s="175" t="s">
         <v>205</v>
       </c>
@@ -19105,10 +19106,10 @@
       <c r="K40" s="190">
         <v>-2.37</v>
       </c>
-      <c r="L40" s="271"/>
+      <c r="L40" s="273"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="273"/>
+      <c r="B41" s="275"/>
       <c r="C41" s="175" t="s">
         <v>51</v>
       </c>
@@ -19137,10 +19138,10 @@
       <c r="K41" s="190">
         <v>-1.65</v>
       </c>
-      <c r="L41" s="271"/>
+      <c r="L41" s="273"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="273"/>
+      <c r="B42" s="275"/>
       <c r="C42" s="175" t="s">
         <v>206</v>
       </c>
@@ -19169,10 +19170,10 @@
       <c r="K42" s="190">
         <v>-3.78</v>
       </c>
-      <c r="L42" s="271"/>
+      <c r="L42" s="273"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="273"/>
+      <c r="B43" s="275"/>
       <c r="C43" s="175" t="s">
         <v>207</v>
       </c>
@@ -19201,10 +19202,10 @@
       <c r="K43" s="190">
         <v>-1.49</v>
       </c>
-      <c r="L43" s="271"/>
+      <c r="L43" s="273"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="273"/>
+      <c r="B44" s="275"/>
       <c r="C44" s="175" t="s">
         <v>208</v>
       </c>
@@ -19233,10 +19234,10 @@
       <c r="K44" s="190">
         <v>-1.5</v>
       </c>
-      <c r="L44" s="271"/>
+      <c r="L44" s="273"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="273"/>
+      <c r="B45" s="275"/>
       <c r="C45" s="177" t="s">
         <v>209</v>
       </c>
@@ -19265,10 +19266,10 @@
       <c r="K45" s="190">
         <v>-1.55</v>
       </c>
-      <c r="L45" s="271"/>
+      <c r="L45" s="273"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="273"/>
+      <c r="B46" s="275"/>
       <c r="C46" s="175" t="s">
         <v>210</v>
       </c>
@@ -19297,10 +19298,10 @@
       <c r="K46" s="190">
         <v>-1.48</v>
       </c>
-      <c r="L46" s="271"/>
+      <c r="L46" s="273"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="273"/>
+      <c r="B47" s="275"/>
       <c r="C47" s="178" t="s">
         <v>211</v>
       </c>
@@ -19329,10 +19330,10 @@
       <c r="K47" s="190">
         <v>-2.3199999999999998</v>
       </c>
-      <c r="L47" s="271"/>
+      <c r="L47" s="273"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="273"/>
+      <c r="B48" s="275"/>
       <c r="C48" s="178" t="s">
         <v>212</v>
       </c>
@@ -19361,10 +19362,10 @@
       <c r="K48" s="190">
         <v>0.11</v>
       </c>
-      <c r="L48" s="271"/>
+      <c r="L48" s="273"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="273"/>
+      <c r="B49" s="275"/>
       <c r="C49" s="178" t="s">
         <v>213</v>
       </c>
@@ -19393,12 +19394,12 @@
       <c r="K49" s="190">
         <v>0.69</v>
       </c>
-      <c r="L49" s="271" t="s">
+      <c r="L49" s="273" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="273"/>
+      <c r="B50" s="275"/>
       <c r="C50" s="178" t="s">
         <v>190</v>
       </c>
@@ -19427,10 +19428,10 @@
       <c r="K50" s="190">
         <v>0.08</v>
       </c>
-      <c r="L50" s="271"/>
+      <c r="L50" s="273"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="273"/>
+      <c r="B51" s="275"/>
       <c r="C51" s="178" t="s">
         <v>137</v>
       </c>
@@ -19459,10 +19460,10 @@
       <c r="K51" s="190">
         <v>0.22</v>
       </c>
-      <c r="L51" s="271"/>
+      <c r="L51" s="273"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="274"/>
+      <c r="B52" s="276"/>
       <c r="C52" s="178" t="s">
         <v>104</v>
       </c>
@@ -19491,7 +19492,7 @@
       <c r="K52" s="190">
         <v>0.69</v>
       </c>
-      <c r="L52" s="271"/>
+      <c r="L52" s="273"/>
     </row>
   </sheetData>
   <autoFilter ref="E2:J52"/>
@@ -19512,12 +19513,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:T99"/>
+  <dimension ref="B2:T107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R89" sqref="R89"/>
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M99" sqref="M99:O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -19562,60 +19562,60 @@
       <c r="C2" s="180" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="207" t="s">
         <v>326</v>
       </c>
-      <c r="E2" s="208" t="s">
+      <c r="E2" s="207" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="F2" s="208" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="208" t="s">
+      <c r="G2" s="207" t="s">
         <v>323</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="208" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="209" t="s">
+      <c r="I2" s="208" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="209" t="s">
+      <c r="J2" s="208" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="209" t="s">
+      <c r="K2" s="208" t="s">
         <v>267</v>
       </c>
-      <c r="L2" s="210" t="s">
+      <c r="L2" s="209" t="s">
         <v>327</v>
       </c>
-      <c r="M2" s="209" t="s">
+      <c r="M2" s="208" t="s">
         <v>229</v>
       </c>
-      <c r="N2" s="208" t="s">
+      <c r="N2" s="207" t="s">
         <v>324</v>
       </c>
-      <c r="O2" s="211" t="s">
+      <c r="O2" s="210" t="s">
         <v>230</v>
       </c>
-      <c r="P2" s="209" t="s">
+      <c r="P2" s="208" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" s="280" t="s">
+      <c r="Q2" s="212" t="s">
         <v>330</v>
       </c>
-      <c r="R2" s="281" t="s">
+      <c r="R2" s="213" t="s">
         <v>328</v>
       </c>
-      <c r="S2" s="280" t="s">
+      <c r="S2" s="212" t="s">
         <v>331</v>
       </c>
-      <c r="T2" s="281" t="s">
+      <c r="T2" s="213" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="257" t="s">
+      <c r="B3" s="251" t="s">
         <v>232</v>
       </c>
       <c r="C3" s="196" t="s">
@@ -19628,13 +19628,13 @@
       <c r="H3" s="197">
         <v>3285</v>
       </c>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279">
+      <c r="I3" s="211"/>
+      <c r="J3" s="211">
         <v>3790</v>
       </c>
-      <c r="K3" s="279"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="207">
+      <c r="K3" s="211"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="206">
         <v>12.8</v>
       </c>
       <c r="N3" s="197">
@@ -19644,14 +19644,14 @@
         <v>2.7</v>
       </c>
       <c r="P3" s="196"/>
-      <c r="Q3" s="279">
+      <c r="Q3" s="211">
         <v>3840</v>
       </c>
       <c r="R3" s="199">
         <f>(Q3-J3)*100/J3</f>
         <v>1.3192612137203166</v>
       </c>
-      <c r="S3" s="279">
+      <c r="S3" s="211">
         <v>3780</v>
       </c>
       <c r="T3" s="199">
@@ -19660,7 +19660,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="275"/>
+      <c r="B4" s="277"/>
       <c r="C4" s="196" t="s">
         <v>170</v>
       </c>
@@ -19671,13 +19671,13 @@
       <c r="H4" s="197">
         <v>1820</v>
       </c>
-      <c r="I4" s="279"/>
-      <c r="J4" s="279">
+      <c r="I4" s="211"/>
+      <c r="J4" s="211">
         <v>1900</v>
       </c>
-      <c r="K4" s="279"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="207">
+      <c r="K4" s="211"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="206">
         <v>15.8</v>
       </c>
       <c r="N4" s="197">
@@ -19687,23 +19687,23 @@
         <v>2.56</v>
       </c>
       <c r="P4" s="196"/>
-      <c r="Q4" s="279">
+      <c r="Q4" s="211">
         <v>2070</v>
       </c>
       <c r="R4" s="199">
-        <f t="shared" ref="R4:R52" si="0">(Q4-J4)*100/J4</f>
+        <f t="shared" ref="R4:R46" si="0">(Q4-J4)*100/J4</f>
         <v>8.9473684210526319</v>
       </c>
-      <c r="S4" s="279">
+      <c r="S4" s="211">
         <v>2090</v>
       </c>
       <c r="T4" s="199">
-        <f t="shared" ref="T4:T52" si="1">(S4-J4)*100/J4</f>
+        <f t="shared" ref="T4:T46" si="1">(S4-J4)*100/J4</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="275"/>
+      <c r="B5" s="277"/>
       <c r="C5" s="196" t="s">
         <v>171</v>
       </c>
@@ -19714,13 +19714,13 @@
       <c r="H5" s="197">
         <v>8000</v>
       </c>
-      <c r="I5" s="279"/>
-      <c r="J5" s="279">
+      <c r="I5" s="211"/>
+      <c r="J5" s="211">
         <v>8150</v>
       </c>
-      <c r="K5" s="279"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="207">
+      <c r="K5" s="211"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="206">
         <v>16</v>
       </c>
       <c r="N5" s="197">
@@ -19730,14 +19730,14 @@
         <v>2.73</v>
       </c>
       <c r="P5" s="196"/>
-      <c r="Q5" s="279">
+      <c r="Q5" s="211">
         <v>7800</v>
       </c>
       <c r="R5" s="199">
         <f t="shared" si="0"/>
         <v>-4.294478527607362</v>
       </c>
-      <c r="S5" s="279">
+      <c r="S5" s="211">
         <v>7520</v>
       </c>
       <c r="T5" s="199">
@@ -19746,7 +19746,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="275"/>
+      <c r="B6" s="277"/>
       <c r="C6" s="196" t="s">
         <v>173</v>
       </c>
@@ -19757,13 +19757,13 @@
       <c r="H6" s="197">
         <v>9050</v>
       </c>
-      <c r="I6" s="279"/>
-      <c r="J6" s="279">
+      <c r="I6" s="211"/>
+      <c r="J6" s="211">
         <v>9490</v>
       </c>
-      <c r="K6" s="279"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="207">
+      <c r="K6" s="211"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="206">
         <v>0.4</v>
       </c>
       <c r="N6" s="197">
@@ -19773,14 +19773,14 @@
         <v>0.4</v>
       </c>
       <c r="P6" s="196"/>
-      <c r="Q6" s="279">
+      <c r="Q6" s="211">
         <v>9900</v>
       </c>
       <c r="R6" s="199">
         <f t="shared" si="0"/>
         <v>4.3203371970495255</v>
       </c>
-      <c r="S6" s="279">
+      <c r="S6" s="211">
         <v>9350</v>
       </c>
       <c r="T6" s="199">
@@ -19789,7 +19789,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="275"/>
+      <c r="B7" s="277"/>
       <c r="C7" s="196" t="s">
         <v>174</v>
       </c>
@@ -19800,13 +19800,13 @@
       <c r="H7" s="197">
         <v>4515</v>
       </c>
-      <c r="I7" s="279"/>
-      <c r="J7" s="279">
+      <c r="I7" s="211"/>
+      <c r="J7" s="211">
         <v>4600</v>
       </c>
-      <c r="K7" s="279"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="207">
+      <c r="K7" s="211"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="206">
         <v>1</v>
       </c>
       <c r="N7" s="197">
@@ -19816,14 +19816,14 @@
         <v>0.21</v>
       </c>
       <c r="P7" s="196"/>
-      <c r="Q7" s="279">
+      <c r="Q7" s="211">
         <v>4065</v>
       </c>
       <c r="R7" s="199">
         <f t="shared" si="0"/>
         <v>-11.630434782608695</v>
       </c>
-      <c r="S7" s="279">
+      <c r="S7" s="211">
         <v>3815</v>
       </c>
       <c r="T7" s="199">
@@ -19832,7 +19832,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="275"/>
+      <c r="B8" s="277"/>
       <c r="C8" s="196" t="s">
         <v>175</v>
       </c>
@@ -19843,13 +19843,13 @@
       <c r="H8" s="197">
         <v>7340</v>
       </c>
-      <c r="I8" s="279"/>
-      <c r="J8" s="279">
+      <c r="I8" s="211"/>
+      <c r="J8" s="211">
         <v>7510</v>
       </c>
-      <c r="K8" s="279"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="207">
+      <c r="K8" s="211"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="206">
         <v>2</v>
       </c>
       <c r="N8" s="197">
@@ -19859,14 +19859,14 @@
         <v>0.2</v>
       </c>
       <c r="P8" s="196"/>
-      <c r="Q8" s="279">
+      <c r="Q8" s="211">
         <v>8580</v>
       </c>
       <c r="R8" s="199">
         <f t="shared" si="0"/>
         <v>14.247669773635153</v>
       </c>
-      <c r="S8" s="279">
+      <c r="S8" s="211">
         <v>8420</v>
       </c>
       <c r="T8" s="199">
@@ -19875,7 +19875,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="275"/>
+      <c r="B9" s="277"/>
       <c r="C9" s="196" t="s">
         <v>176</v>
       </c>
@@ -19886,13 +19886,13 @@
       <c r="H9" s="197">
         <v>5000</v>
       </c>
-      <c r="I9" s="279"/>
-      <c r="J9" s="279">
+      <c r="I9" s="211"/>
+      <c r="J9" s="211">
         <v>5220</v>
       </c>
-      <c r="K9" s="279"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="207">
+      <c r="K9" s="211"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="206">
         <v>10.4</v>
       </c>
       <c r="N9" s="197">
@@ -19902,14 +19902,14 @@
         <v>2.73</v>
       </c>
       <c r="P9" s="196"/>
-      <c r="Q9" s="279">
+      <c r="Q9" s="211">
         <v>6560</v>
       </c>
       <c r="R9" s="199">
         <f t="shared" si="0"/>
         <v>25.670498084291189</v>
       </c>
-      <c r="S9" s="279">
+      <c r="S9" s="211">
         <v>7620</v>
       </c>
       <c r="T9" s="199">
@@ -19918,7 +19918,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="275"/>
+      <c r="B10" s="277"/>
       <c r="C10" s="196" t="s">
         <v>177</v>
       </c>
@@ -19929,13 +19929,13 @@
       <c r="H10" s="197">
         <v>3840</v>
       </c>
-      <c r="I10" s="279"/>
-      <c r="J10" s="279">
+      <c r="I10" s="211"/>
+      <c r="J10" s="211">
         <v>3900</v>
       </c>
-      <c r="K10" s="279"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="207">
+      <c r="K10" s="211"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="206">
         <v>1.6</v>
       </c>
       <c r="N10" s="197">
@@ -19945,14 +19945,14 @@
         <v>1.2</v>
       </c>
       <c r="P10" s="196"/>
-      <c r="Q10" s="279">
+      <c r="Q10" s="211">
         <v>3890</v>
       </c>
       <c r="R10" s="199">
         <f t="shared" si="0"/>
         <v>-0.25641025641025639</v>
       </c>
-      <c r="S10" s="279">
+      <c r="S10" s="211">
         <v>3600</v>
       </c>
       <c r="T10" s="199">
@@ -19961,7 +19961,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="275"/>
+      <c r="B11" s="277"/>
       <c r="C11" s="196" t="s">
         <v>178</v>
       </c>
@@ -19972,13 +19972,13 @@
       <c r="H11" s="197">
         <v>3700</v>
       </c>
-      <c r="I11" s="279"/>
-      <c r="J11" s="279">
+      <c r="I11" s="211"/>
+      <c r="J11" s="211">
         <v>3925</v>
       </c>
-      <c r="K11" s="279"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="207">
+      <c r="K11" s="211"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="206">
         <v>12.2</v>
       </c>
       <c r="N11" s="197">
@@ -19988,14 +19988,14 @@
         <v>2.72</v>
       </c>
       <c r="P11" s="196"/>
-      <c r="Q11" s="279">
+      <c r="Q11" s="211">
         <v>3885</v>
       </c>
       <c r="R11" s="199">
         <f t="shared" si="0"/>
         <v>-1.0191082802547771</v>
       </c>
-      <c r="S11" s="279">
+      <c r="S11" s="211">
         <v>3520</v>
       </c>
       <c r="T11" s="199">
@@ -20004,7 +20004,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="275"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="196" t="s">
         <v>179</v>
       </c>
@@ -20015,13 +20015,13 @@
       <c r="H12" s="197">
         <v>1485</v>
       </c>
-      <c r="I12" s="279"/>
-      <c r="J12" s="279">
+      <c r="I12" s="211"/>
+      <c r="J12" s="211">
         <v>1550</v>
       </c>
-      <c r="K12" s="279"/>
-      <c r="L12" s="205"/>
-      <c r="M12" s="207">
+      <c r="K12" s="211"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="206">
         <v>10</v>
       </c>
       <c r="N12" s="197">
@@ -20031,14 +20031,14 @@
         <v>2.56</v>
       </c>
       <c r="P12" s="196"/>
-      <c r="Q12" s="279">
+      <c r="Q12" s="211">
         <v>1605</v>
       </c>
       <c r="R12" s="199">
         <f t="shared" si="0"/>
         <v>3.5483870967741935</v>
       </c>
-      <c r="S12" s="279">
+      <c r="S12" s="211">
         <v>1595</v>
       </c>
       <c r="T12" s="199">
@@ -20047,7 +20047,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="275"/>
+      <c r="B13" s="277"/>
       <c r="C13" s="196" t="s">
         <v>180</v>
       </c>
@@ -20058,13 +20058,13 @@
       <c r="H13" s="197">
         <v>9830</v>
       </c>
-      <c r="I13" s="279"/>
-      <c r="J13" s="279">
+      <c r="I13" s="211"/>
+      <c r="J13" s="211">
         <v>10450</v>
       </c>
-      <c r="K13" s="279"/>
-      <c r="L13" s="205"/>
-      <c r="M13" s="207">
+      <c r="K13" s="211"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="206">
         <v>5</v>
       </c>
       <c r="N13" s="197">
@@ -20074,14 +20074,14 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="P13" s="196"/>
-      <c r="Q13" s="279">
+      <c r="Q13" s="211">
         <v>13900</v>
       </c>
       <c r="R13" s="199">
         <f t="shared" si="0"/>
         <v>33.014354066985646</v>
       </c>
-      <c r="S13" s="279">
+      <c r="S13" s="211">
         <v>18050</v>
       </c>
       <c r="T13" s="199">
@@ -20090,7 +20090,7 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="275"/>
+      <c r="B14" s="277"/>
       <c r="C14" s="196" t="s">
         <v>181</v>
       </c>
@@ -20101,13 +20101,13 @@
       <c r="H14" s="197">
         <v>9040</v>
       </c>
-      <c r="I14" s="279"/>
-      <c r="J14" s="279">
+      <c r="I14" s="211"/>
+      <c r="J14" s="211">
         <v>9700</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="205"/>
-      <c r="M14" s="207">
+      <c r="K14" s="211"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="206">
         <v>2.8</v>
       </c>
       <c r="N14" s="197">
@@ -20117,14 +20117,14 @@
         <v>1.83</v>
       </c>
       <c r="P14" s="196"/>
-      <c r="Q14" s="279">
+      <c r="Q14" s="211">
         <v>9990</v>
       </c>
       <c r="R14" s="199">
         <f t="shared" si="0"/>
         <v>2.9896907216494846</v>
       </c>
-      <c r="S14" s="279">
+      <c r="S14" s="211">
         <v>9820</v>
       </c>
       <c r="T14" s="199">
@@ -20132,8 +20132,8 @@
         <v>1.2371134020618557</v>
       </c>
     </row>
-    <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="275"/>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="277"/>
       <c r="C15" s="196" t="s">
         <v>166</v>
       </c>
@@ -20144,13 +20144,13 @@
       <c r="H15" s="197">
         <v>4125</v>
       </c>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279">
+      <c r="I15" s="211"/>
+      <c r="J15" s="211">
         <v>4135</v>
       </c>
-      <c r="K15" s="279"/>
-      <c r="L15" s="205"/>
-      <c r="M15" s="207">
+      <c r="K15" s="211"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="206">
         <v>12</v>
       </c>
       <c r="N15" s="197">
@@ -20160,14 +20160,14 @@
         <v>-1.53</v>
       </c>
       <c r="P15" s="196"/>
-      <c r="Q15" s="279">
+      <c r="Q15" s="211">
         <v>3830</v>
       </c>
       <c r="R15" s="199">
         <f t="shared" si="0"/>
         <v>-7.3760580411124543</v>
       </c>
-      <c r="S15" s="279">
+      <c r="S15" s="211">
         <v>3620</v>
       </c>
       <c r="T15" s="199">
@@ -20175,8 +20175,8 @@
         <v>-12.454655380894801</v>
       </c>
     </row>
-    <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="275"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="277"/>
       <c r="C16" s="196" t="s">
         <v>182</v>
       </c>
@@ -20187,13 +20187,13 @@
       <c r="H16" s="197">
         <v>6380</v>
       </c>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279">
+      <c r="I16" s="211"/>
+      <c r="J16" s="211">
         <v>6380</v>
       </c>
-      <c r="K16" s="279"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="207">
+      <c r="K16" s="211"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="206">
         <v>1.8</v>
       </c>
       <c r="N16" s="197">
@@ -20203,14 +20203,14 @@
         <v>-1.42</v>
       </c>
       <c r="P16" s="196"/>
-      <c r="Q16" s="279">
+      <c r="Q16" s="211">
         <v>6210</v>
       </c>
       <c r="R16" s="199">
         <f t="shared" si="0"/>
         <v>-2.6645768025078369</v>
       </c>
-      <c r="S16" s="279">
+      <c r="S16" s="211">
         <v>6700</v>
       </c>
       <c r="T16" s="199">
@@ -20218,8 +20218,8 @@
         <v>5.015673981191223</v>
       </c>
     </row>
-    <row r="17" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="275"/>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="277"/>
       <c r="C17" s="196" t="s">
         <v>183</v>
       </c>
@@ -20230,13 +20230,13 @@
       <c r="H17" s="197">
         <v>2070</v>
       </c>
-      <c r="I17" s="279"/>
-      <c r="J17" s="279">
+      <c r="I17" s="211"/>
+      <c r="J17" s="211">
         <v>2020</v>
       </c>
-      <c r="K17" s="279"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="207">
+      <c r="K17" s="211"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="206">
         <v>3.2</v>
       </c>
       <c r="N17" s="197">
@@ -20246,14 +20246,14 @@
         <v>-1.56</v>
       </c>
       <c r="P17" s="196"/>
-      <c r="Q17" s="279">
+      <c r="Q17" s="211">
         <v>1990</v>
       </c>
       <c r="R17" s="199">
         <f t="shared" si="0"/>
         <v>-1.4851485148514851</v>
       </c>
-      <c r="S17" s="279">
+      <c r="S17" s="211">
         <v>2005</v>
       </c>
       <c r="T17" s="199">
@@ -20261,8 +20261,8 @@
         <v>-0.74257425742574257</v>
       </c>
     </row>
-    <row r="18" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="275"/>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="277"/>
       <c r="C18" s="196" t="s">
         <v>184</v>
       </c>
@@ -20273,13 +20273,13 @@
       <c r="H18" s="197">
         <v>4020</v>
       </c>
-      <c r="I18" s="279"/>
-      <c r="J18" s="279">
+      <c r="I18" s="211"/>
+      <c r="J18" s="211">
         <v>3970</v>
       </c>
-      <c r="K18" s="279"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="207">
+      <c r="K18" s="211"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="206">
         <v>2.2000000000000002</v>
       </c>
       <c r="N18" s="197">
@@ -20289,14 +20289,14 @@
         <v>-1.58</v>
       </c>
       <c r="P18" s="196"/>
-      <c r="Q18" s="279">
+      <c r="Q18" s="211">
         <v>3890</v>
       </c>
       <c r="R18" s="199">
         <f t="shared" si="0"/>
         <v>-2.0151133501259446</v>
       </c>
-      <c r="S18" s="279">
+      <c r="S18" s="211">
         <v>3895</v>
       </c>
       <c r="T18" s="199">
@@ -20304,8 +20304,8 @@
         <v>-1.8891687657430731</v>
       </c>
     </row>
-    <row r="19" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="275"/>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="277"/>
       <c r="C19" s="196" t="s">
         <v>185</v>
       </c>
@@ -20316,13 +20316,13 @@
       <c r="H19" s="197">
         <v>5300</v>
       </c>
-      <c r="I19" s="279"/>
-      <c r="J19" s="279">
+      <c r="I19" s="211"/>
+      <c r="J19" s="211">
         <v>5280</v>
       </c>
-      <c r="K19" s="279"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="207">
+      <c r="K19" s="211"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="206">
         <v>8.1999999999999993</v>
       </c>
       <c r="N19" s="197">
@@ -20332,14 +20332,14 @@
         <v>-1.46</v>
       </c>
       <c r="P19" s="196"/>
-      <c r="Q19" s="279">
+      <c r="Q19" s="211">
         <v>5190</v>
       </c>
       <c r="R19" s="199">
         <f t="shared" si="0"/>
         <v>-1.7045454545454546</v>
       </c>
-      <c r="S19" s="279">
+      <c r="S19" s="211">
         <v>5250</v>
       </c>
       <c r="T19" s="199">
@@ -20347,8 +20347,8 @@
         <v>-0.56818181818181823</v>
       </c>
     </row>
-    <row r="20" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="275"/>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="277"/>
       <c r="C20" s="196" t="s">
         <v>186</v>
       </c>
@@ -20359,13 +20359,13 @@
       <c r="H20" s="197">
         <v>5450</v>
       </c>
-      <c r="I20" s="279"/>
-      <c r="J20" s="279">
+      <c r="I20" s="211"/>
+      <c r="J20" s="211">
         <v>5550</v>
       </c>
-      <c r="K20" s="279"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="207">
+      <c r="K20" s="211"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="206">
         <v>12.8</v>
       </c>
       <c r="N20" s="197">
@@ -20375,14 +20375,14 @@
         <v>-1.23</v>
       </c>
       <c r="P20" s="196"/>
-      <c r="Q20" s="279">
+      <c r="Q20" s="211">
         <v>5010</v>
       </c>
       <c r="R20" s="199">
         <f t="shared" si="0"/>
         <v>-9.7297297297297298</v>
       </c>
-      <c r="S20" s="279">
+      <c r="S20" s="211">
         <v>4740</v>
       </c>
       <c r="T20" s="199">
@@ -20390,8 +20390,8 @@
         <v>-14.594594594594595</v>
       </c>
     </row>
-    <row r="21" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="275"/>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="277"/>
       <c r="C21" s="196" t="s">
         <v>187</v>
       </c>
@@ -20402,13 +20402,13 @@
       <c r="H21" s="197">
         <v>3125</v>
       </c>
-      <c r="I21" s="279"/>
-      <c r="J21" s="279">
+      <c r="I21" s="211"/>
+      <c r="J21" s="211">
         <v>3225</v>
       </c>
-      <c r="K21" s="279"/>
-      <c r="L21" s="205"/>
-      <c r="M21" s="207">
+      <c r="K21" s="211"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="206">
         <v>5.4</v>
       </c>
       <c r="N21" s="197">
@@ -20418,14 +20418,14 @@
         <v>-1.41</v>
       </c>
       <c r="P21" s="196"/>
-      <c r="Q21" s="279">
+      <c r="Q21" s="211">
         <v>3245</v>
       </c>
       <c r="R21" s="199">
         <f t="shared" si="0"/>
         <v>0.62015503875968991</v>
       </c>
-      <c r="S21" s="279">
+      <c r="S21" s="211">
         <v>3235</v>
       </c>
       <c r="T21" s="199">
@@ -20433,8 +20433,8 @@
         <v>0.31007751937984496</v>
       </c>
     </row>
-    <row r="22" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="275"/>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="277"/>
       <c r="C22" s="196" t="s">
         <v>188</v>
       </c>
@@ -20445,13 +20445,13 @@
       <c r="H22" s="197">
         <v>7020</v>
       </c>
-      <c r="I22" s="279"/>
-      <c r="J22" s="279">
+      <c r="I22" s="211"/>
+      <c r="J22" s="211">
         <v>7110</v>
       </c>
-      <c r="K22" s="279"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="207">
+      <c r="K22" s="211"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="206">
         <v>22</v>
       </c>
       <c r="N22" s="197">
@@ -20461,14 +20461,14 @@
         <v>-1.03</v>
       </c>
       <c r="P22" s="196"/>
-      <c r="Q22" s="279">
+      <c r="Q22" s="211">
         <v>8020</v>
       </c>
       <c r="R22" s="199">
         <f t="shared" si="0"/>
         <v>12.79887482419128</v>
       </c>
-      <c r="S22" s="279">
+      <c r="S22" s="211">
         <v>6090</v>
       </c>
       <c r="T22" s="199">
@@ -20476,8 +20476,8 @@
         <v>-14.345991561181435</v>
       </c>
     </row>
-    <row r="23" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="275"/>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="277"/>
       <c r="C23" s="196" t="s">
         <v>189</v>
       </c>
@@ -20488,13 +20488,13 @@
       <c r="H23" s="197">
         <v>1460</v>
       </c>
-      <c r="I23" s="279"/>
-      <c r="J23" s="279">
+      <c r="I23" s="211"/>
+      <c r="J23" s="211">
         <v>1525</v>
       </c>
-      <c r="K23" s="279"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="207">
+      <c r="K23" s="211"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="206">
         <v>5</v>
       </c>
       <c r="N23" s="197">
@@ -20504,14 +20504,14 @@
         <v>-1.64</v>
       </c>
       <c r="P23" s="196"/>
-      <c r="Q23" s="279">
+      <c r="Q23" s="211">
         <v>1610</v>
       </c>
       <c r="R23" s="199">
         <f t="shared" si="0"/>
         <v>5.5737704918032787</v>
       </c>
-      <c r="S23" s="279">
+      <c r="S23" s="211">
         <v>1520</v>
       </c>
       <c r="T23" s="199">
@@ -20519,8 +20519,8 @@
         <v>-0.32786885245901637</v>
       </c>
     </row>
-    <row r="24" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="275"/>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="277"/>
       <c r="C24" s="196" t="s">
         <v>190</v>
       </c>
@@ -20531,13 +20531,13 @@
       <c r="H24" s="197">
         <v>6630</v>
       </c>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279">
+      <c r="I24" s="211"/>
+      <c r="J24" s="211">
         <v>6920</v>
       </c>
-      <c r="K24" s="279"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="207">
+      <c r="K24" s="211"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="206">
         <v>2</v>
       </c>
       <c r="N24" s="197">
@@ -20547,14 +20547,14 @@
         <v>-1.34</v>
       </c>
       <c r="P24" s="196"/>
-      <c r="Q24" s="279">
+      <c r="Q24" s="211">
         <v>7830</v>
       </c>
       <c r="R24" s="199">
         <f t="shared" si="0"/>
         <v>13.15028901734104</v>
       </c>
-      <c r="S24" s="279">
+      <c r="S24" s="211">
         <v>7740</v>
       </c>
       <c r="T24" s="199">
@@ -20562,8 +20562,8 @@
         <v>11.84971098265896</v>
       </c>
     </row>
-    <row r="25" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="275"/>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="277"/>
       <c r="C25" s="196" t="s">
         <v>191</v>
       </c>
@@ -20574,13 +20574,13 @@
       <c r="H25" s="197">
         <v>8740</v>
       </c>
-      <c r="I25" s="279"/>
-      <c r="J25" s="279">
+      <c r="I25" s="211"/>
+      <c r="J25" s="211">
         <v>9200</v>
       </c>
-      <c r="K25" s="279"/>
-      <c r="L25" s="205"/>
-      <c r="M25" s="207">
+      <c r="K25" s="211"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="206">
         <v>4.5999999999999996</v>
       </c>
       <c r="N25" s="197">
@@ -20590,14 +20590,14 @@
         <v>-1.41</v>
       </c>
       <c r="P25" s="196"/>
-      <c r="Q25" s="279">
+      <c r="Q25" s="211">
         <v>9000</v>
       </c>
       <c r="R25" s="199">
         <f t="shared" si="0"/>
         <v>-2.1739130434782608</v>
       </c>
-      <c r="S25" s="279">
+      <c r="S25" s="211">
         <v>8570</v>
       </c>
       <c r="T25" s="199">
@@ -20605,8 +20605,8 @@
         <v>-6.8478260869565215</v>
       </c>
     </row>
-    <row r="26" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="275"/>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="277"/>
       <c r="C26" s="196" t="s">
         <v>192</v>
       </c>
@@ -20617,13 +20617,13 @@
       <c r="H26" s="197">
         <v>4715</v>
       </c>
-      <c r="I26" s="279"/>
-      <c r="J26" s="279">
+      <c r="I26" s="211"/>
+      <c r="J26" s="211">
         <v>4970</v>
       </c>
-      <c r="K26" s="279"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="207">
+      <c r="K26" s="211"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="206">
         <v>1.4</v>
       </c>
       <c r="N26" s="197">
@@ -20633,14 +20633,14 @@
         <v>-1.23</v>
       </c>
       <c r="P26" s="196"/>
-      <c r="Q26" s="279">
+      <c r="Q26" s="211">
         <v>5620</v>
       </c>
       <c r="R26" s="199">
         <f t="shared" si="0"/>
         <v>13.078470824949699</v>
       </c>
-      <c r="S26" s="279">
+      <c r="S26" s="211">
         <v>5690</v>
       </c>
       <c r="T26" s="199">
@@ -20648,8 +20648,8 @@
         <v>14.486921529175051</v>
       </c>
     </row>
-    <row r="27" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="275"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="277"/>
       <c r="C27" s="196" t="s">
         <v>193</v>
       </c>
@@ -20660,13 +20660,13 @@
       <c r="H27" s="197">
         <v>12900</v>
       </c>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279">
+      <c r="I27" s="211"/>
+      <c r="J27" s="211">
         <v>14350</v>
       </c>
-      <c r="K27" s="279"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="207">
+      <c r="K27" s="211"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="206">
         <v>8.1999999999999993</v>
       </c>
       <c r="N27" s="197">
@@ -20676,14 +20676,14 @@
         <v>-1.37</v>
       </c>
       <c r="P27" s="196"/>
-      <c r="Q27" s="279">
+      <c r="Q27" s="211">
         <v>12300</v>
       </c>
       <c r="R27" s="199">
         <f t="shared" si="0"/>
         <v>-14.285714285714286</v>
       </c>
-      <c r="S27" s="279">
+      <c r="S27" s="211">
         <v>11800</v>
       </c>
       <c r="T27" s="199">
@@ -20691,8 +20691,8 @@
         <v>-17.770034843205575</v>
       </c>
     </row>
-    <row r="28" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="275"/>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="277"/>
       <c r="C28" s="196" t="s">
         <v>194</v>
       </c>
@@ -20703,13 +20703,13 @@
       <c r="H28" s="197">
         <v>930</v>
       </c>
-      <c r="I28" s="279"/>
-      <c r="J28" s="279">
+      <c r="I28" s="211"/>
+      <c r="J28" s="211">
         <v>999</v>
       </c>
-      <c r="K28" s="279"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="207">
+      <c r="K28" s="211"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="206">
         <v>9.4</v>
       </c>
       <c r="N28" s="197">
@@ -20719,14 +20719,14 @@
         <v>-1.53</v>
       </c>
       <c r="P28" s="196"/>
-      <c r="Q28" s="279">
+      <c r="Q28" s="211">
         <v>907</v>
       </c>
       <c r="R28" s="199">
         <f t="shared" si="0"/>
         <v>-9.2092092092092095</v>
       </c>
-      <c r="S28" s="279">
+      <c r="S28" s="211">
         <v>910</v>
       </c>
       <c r="T28" s="199">
@@ -20734,8 +20734,8 @@
         <v>-8.9089089089089093</v>
       </c>
     </row>
-    <row r="29" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="275"/>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="277"/>
       <c r="C29" s="196" t="s">
         <v>195</v>
       </c>
@@ -20746,13 +20746,13 @@
       <c r="H29" s="197">
         <v>1145</v>
       </c>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279">
+      <c r="I29" s="211"/>
+      <c r="J29" s="211">
         <v>1235</v>
       </c>
-      <c r="K29" s="279"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="207">
+      <c r="K29" s="211"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="206">
         <v>8.8000000000000007</v>
       </c>
       <c r="N29" s="197">
@@ -20762,14 +20762,14 @@
         <v>-1.1399999999999999</v>
       </c>
       <c r="P29" s="196"/>
-      <c r="Q29" s="279">
+      <c r="Q29" s="211">
         <v>1035</v>
       </c>
       <c r="R29" s="199">
         <f t="shared" si="0"/>
         <v>-16.194331983805668</v>
       </c>
-      <c r="S29" s="279">
+      <c r="S29" s="211">
         <v>1005</v>
       </c>
       <c r="T29" s="199">
@@ -20777,8 +20777,8 @@
         <v>-18.623481781376519</v>
       </c>
     </row>
-    <row r="30" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="275"/>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="277"/>
       <c r="C30" s="196" t="s">
         <v>196</v>
       </c>
@@ -20789,13 +20789,13 @@
       <c r="H30" s="197">
         <v>8100</v>
       </c>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279">
+      <c r="I30" s="211"/>
+      <c r="J30" s="211">
         <v>8890</v>
       </c>
-      <c r="K30" s="279"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="207">
+      <c r="K30" s="211"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="206">
         <v>1.4</v>
       </c>
       <c r="N30" s="197">
@@ -20805,14 +20805,14 @@
         <v>-3.92</v>
       </c>
       <c r="P30" s="196"/>
-      <c r="Q30" s="279">
+      <c r="Q30" s="211">
         <v>8500</v>
       </c>
       <c r="R30" s="199">
         <f t="shared" si="0"/>
         <v>-4.3869516310461192</v>
       </c>
-      <c r="S30" s="279">
+      <c r="S30" s="211">
         <v>8600</v>
       </c>
       <c r="T30" s="199">
@@ -20820,8 +20820,8 @@
         <v>-3.2620922384701911</v>
       </c>
     </row>
-    <row r="31" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="275"/>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="277"/>
       <c r="C31" s="196" t="s">
         <v>197</v>
       </c>
@@ -20832,13 +20832,13 @@
       <c r="H31" s="197">
         <v>6990</v>
       </c>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279">
+      <c r="I31" s="211"/>
+      <c r="J31" s="211">
         <v>7090</v>
       </c>
-      <c r="K31" s="279"/>
-      <c r="L31" s="205"/>
-      <c r="M31" s="207">
+      <c r="K31" s="211"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="206">
         <v>4.5999999999999996</v>
       </c>
       <c r="N31" s="197">
@@ -20848,14 +20848,14 @@
         <v>-1.59</v>
       </c>
       <c r="P31" s="196"/>
-      <c r="Q31" s="279">
+      <c r="Q31" s="211">
         <v>6800</v>
       </c>
       <c r="R31" s="199">
         <f t="shared" si="0"/>
         <v>-4.090267983074753</v>
       </c>
-      <c r="S31" s="279">
+      <c r="S31" s="211">
         <v>6370</v>
       </c>
       <c r="T31" s="199">
@@ -20863,8 +20863,8 @@
         <v>-10.155148095909732</v>
       </c>
     </row>
-    <row r="32" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="275"/>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="277"/>
       <c r="C32" s="196" t="s">
         <v>198</v>
       </c>
@@ -20875,13 +20875,13 @@
       <c r="H32" s="197">
         <v>1835</v>
       </c>
-      <c r="I32" s="279"/>
-      <c r="J32" s="279">
+      <c r="I32" s="211"/>
+      <c r="J32" s="211">
         <v>1940</v>
       </c>
-      <c r="K32" s="279"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="207">
+      <c r="K32" s="211"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="206">
         <v>2.2000000000000002</v>
       </c>
       <c r="N32" s="197">
@@ -20891,14 +20891,14 @@
         <v>-2.64</v>
       </c>
       <c r="P32" s="196"/>
-      <c r="Q32" s="279">
+      <c r="Q32" s="211">
         <v>1910</v>
       </c>
       <c r="R32" s="199">
         <f t="shared" si="0"/>
         <v>-1.5463917525773196</v>
       </c>
-      <c r="S32" s="279">
+      <c r="S32" s="211">
         <v>1820</v>
       </c>
       <c r="T32" s="199">
@@ -20906,8 +20906,8 @@
         <v>-6.1855670103092786</v>
       </c>
     </row>
-    <row r="33" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="275"/>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="277"/>
       <c r="C33" s="196" t="s">
         <v>199</v>
       </c>
@@ -20918,13 +20918,13 @@
       <c r="H33" s="197">
         <v>4545</v>
       </c>
-      <c r="I33" s="279"/>
-      <c r="J33" s="279">
+      <c r="I33" s="211"/>
+      <c r="J33" s="211">
         <v>4860</v>
       </c>
-      <c r="K33" s="279"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="207">
+      <c r="K33" s="211"/>
+      <c r="L33" s="204"/>
+      <c r="M33" s="206">
         <v>4.2</v>
       </c>
       <c r="N33" s="197">
@@ -20934,14 +20934,14 @@
         <v>-1.46</v>
       </c>
       <c r="P33" s="196"/>
-      <c r="Q33" s="279">
+      <c r="Q33" s="211">
         <v>4990</v>
       </c>
       <c r="R33" s="199">
         <f t="shared" si="0"/>
         <v>2.6748971193415638</v>
       </c>
-      <c r="S33" s="279">
+      <c r="S33" s="211">
         <v>4800</v>
       </c>
       <c r="T33" s="199">
@@ -20949,8 +20949,8 @@
         <v>-1.2345679012345678</v>
       </c>
     </row>
-    <row r="34" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="275"/>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="277"/>
       <c r="C34" s="196" t="s">
         <v>200</v>
       </c>
@@ -20961,13 +20961,13 @@
       <c r="H34" s="197">
         <v>2490</v>
       </c>
-      <c r="I34" s="279"/>
-      <c r="J34" s="279">
+      <c r="I34" s="211"/>
+      <c r="J34" s="211">
         <v>2665</v>
       </c>
-      <c r="K34" s="279"/>
-      <c r="L34" s="205"/>
-      <c r="M34" s="207">
+      <c r="K34" s="211"/>
+      <c r="L34" s="204"/>
+      <c r="M34" s="206">
         <v>4.4000000000000004</v>
       </c>
       <c r="N34" s="197">
@@ -20977,14 +20977,14 @@
         <v>-1.45</v>
       </c>
       <c r="P34" s="196"/>
-      <c r="Q34" s="279">
+      <c r="Q34" s="211">
         <v>2495</v>
       </c>
       <c r="R34" s="199">
         <f t="shared" si="0"/>
         <v>-6.3789868667917444</v>
       </c>
-      <c r="S34" s="279">
+      <c r="S34" s="211">
         <v>2345</v>
       </c>
       <c r="T34" s="199">
@@ -20992,8 +20992,8 @@
         <v>-12.007504690431519</v>
       </c>
     </row>
-    <row r="35" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="275"/>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="277"/>
       <c r="C35" s="196" t="s">
         <v>201</v>
       </c>
@@ -21004,13 +21004,13 @@
       <c r="H35" s="197">
         <v>17900</v>
       </c>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279">
+      <c r="I35" s="211"/>
+      <c r="J35" s="211">
         <v>18850</v>
       </c>
-      <c r="K35" s="279"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="207">
+      <c r="K35" s="211"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="206">
         <v>2</v>
       </c>
       <c r="N35" s="197">
@@ -21020,14 +21020,14 @@
         <v>-1.39</v>
       </c>
       <c r="P35" s="196"/>
-      <c r="Q35" s="279">
+      <c r="Q35" s="211">
         <v>19500</v>
       </c>
       <c r="R35" s="199">
         <f t="shared" si="0"/>
         <v>3.4482758620689653</v>
       </c>
-      <c r="S35" s="279">
+      <c r="S35" s="211">
         <v>22000</v>
       </c>
       <c r="T35" s="199">
@@ -21035,8 +21035,8 @@
         <v>16.710875331564988</v>
       </c>
     </row>
-    <row r="36" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="275"/>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="277"/>
       <c r="C36" s="196" t="s">
         <v>104</v>
       </c>
@@ -21047,13 +21047,13 @@
       <c r="H36" s="197">
         <v>6340</v>
       </c>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279">
+      <c r="I36" s="211"/>
+      <c r="J36" s="211">
         <v>6520</v>
       </c>
-      <c r="K36" s="279"/>
-      <c r="L36" s="205"/>
-      <c r="M36" s="207">
+      <c r="K36" s="211"/>
+      <c r="L36" s="204"/>
+      <c r="M36" s="206">
         <v>2.4</v>
       </c>
       <c r="N36" s="197">
@@ -21063,14 +21063,14 @@
         <v>-1.55</v>
       </c>
       <c r="P36" s="196"/>
-      <c r="Q36" s="279">
+      <c r="Q36" s="211">
         <v>7450</v>
       </c>
       <c r="R36" s="199">
         <f t="shared" si="0"/>
         <v>14.263803680981596</v>
       </c>
-      <c r="S36" s="279">
+      <c r="S36" s="211">
         <v>7280</v>
       </c>
       <c r="T36" s="199">
@@ -21078,8 +21078,8 @@
         <v>11.656441717791411</v>
       </c>
     </row>
-    <row r="37" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="275"/>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="277"/>
       <c r="C37" s="196" t="s">
         <v>202</v>
       </c>
@@ -21090,13 +21090,13 @@
       <c r="H37" s="197">
         <v>58200</v>
       </c>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279">
+      <c r="I37" s="211"/>
+      <c r="J37" s="211">
         <v>61000</v>
       </c>
-      <c r="K37" s="279"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="207">
+      <c r="K37" s="211"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="206">
         <v>10.199999999999999</v>
       </c>
       <c r="N37" s="197">
@@ -21106,14 +21106,14 @@
         <v>-1.47</v>
       </c>
       <c r="P37" s="196"/>
-      <c r="Q37" s="279">
+      <c r="Q37" s="211">
         <v>57400</v>
       </c>
       <c r="R37" s="199">
         <f t="shared" si="0"/>
         <v>-5.9016393442622954</v>
       </c>
-      <c r="S37" s="279">
+      <c r="S37" s="211">
         <v>57300</v>
       </c>
       <c r="T37" s="199">
@@ -21121,8 +21121,8 @@
         <v>-6.0655737704918034</v>
       </c>
     </row>
-    <row r="38" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="275"/>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="277"/>
       <c r="C38" s="196" t="s">
         <v>203</v>
       </c>
@@ -21133,13 +21133,13 @@
       <c r="H38" s="197">
         <v>1565</v>
       </c>
-      <c r="I38" s="279"/>
-      <c r="J38" s="279">
+      <c r="I38" s="211"/>
+      <c r="J38" s="211">
         <v>1635</v>
       </c>
-      <c r="K38" s="279"/>
-      <c r="L38" s="205"/>
-      <c r="M38" s="207">
+      <c r="K38" s="211"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="206">
         <v>3</v>
       </c>
       <c r="N38" s="197">
@@ -21149,14 +21149,14 @@
         <v>-1.55</v>
       </c>
       <c r="P38" s="196"/>
-      <c r="Q38" s="279">
+      <c r="Q38" s="211">
         <v>1595</v>
       </c>
       <c r="R38" s="199">
         <f t="shared" si="0"/>
         <v>-2.4464831804281344</v>
       </c>
-      <c r="S38" s="279">
+      <c r="S38" s="211">
         <v>1690</v>
       </c>
       <c r="T38" s="199">
@@ -21164,8 +21164,8 @@
         <v>3.3639143730886851</v>
       </c>
     </row>
-    <row r="39" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="275"/>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="277"/>
       <c r="C39" s="196" t="s">
         <v>204</v>
       </c>
@@ -21176,13 +21176,13 @@
       <c r="H39" s="197">
         <v>6990</v>
       </c>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279">
+      <c r="I39" s="211"/>
+      <c r="J39" s="211">
         <v>7300</v>
       </c>
-      <c r="K39" s="279"/>
-      <c r="L39" s="205"/>
-      <c r="M39" s="207">
+      <c r="K39" s="211"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="206">
         <v>5.2</v>
       </c>
       <c r="N39" s="197">
@@ -21192,14 +21192,14 @@
         <v>-1.42</v>
       </c>
       <c r="P39" s="196"/>
-      <c r="Q39" s="279">
+      <c r="Q39" s="211">
         <v>7060</v>
       </c>
       <c r="R39" s="199">
         <f t="shared" si="0"/>
         <v>-3.2876712328767121</v>
       </c>
-      <c r="S39" s="279">
+      <c r="S39" s="211">
         <v>7050</v>
       </c>
       <c r="T39" s="199">
@@ -21207,8 +21207,8 @@
         <v>-3.4246575342465753</v>
       </c>
     </row>
-    <row r="40" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="275"/>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="277"/>
       <c r="C40" s="196" t="s">
         <v>205</v>
       </c>
@@ -21219,13 +21219,13 @@
       <c r="H40" s="197">
         <v>3300</v>
       </c>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279">
+      <c r="I40" s="211"/>
+      <c r="J40" s="211">
         <v>3420</v>
       </c>
-      <c r="K40" s="279"/>
-      <c r="L40" s="205"/>
-      <c r="M40" s="207">
+      <c r="K40" s="211"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="206">
         <v>4.4000000000000004</v>
       </c>
       <c r="N40" s="197">
@@ -21235,14 +21235,14 @@
         <v>-2.37</v>
       </c>
       <c r="P40" s="196"/>
-      <c r="Q40" s="279">
+      <c r="Q40" s="211">
         <v>3780</v>
       </c>
       <c r="R40" s="199">
         <f t="shared" si="0"/>
         <v>10.526315789473685</v>
       </c>
-      <c r="S40" s="279">
+      <c r="S40" s="211">
         <v>3790</v>
       </c>
       <c r="T40" s="199">
@@ -21250,8 +21250,8 @@
         <v>10.818713450292398</v>
       </c>
     </row>
-    <row r="41" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="275"/>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="277"/>
       <c r="C41" s="196" t="s">
         <v>51</v>
       </c>
@@ -21262,13 +21262,13 @@
       <c r="H41" s="197">
         <v>2900</v>
       </c>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279">
+      <c r="I41" s="211"/>
+      <c r="J41" s="211">
         <v>3030</v>
       </c>
-      <c r="K41" s="279"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="207">
+      <c r="K41" s="211"/>
+      <c r="L41" s="204"/>
+      <c r="M41" s="206">
         <v>0.2</v>
       </c>
       <c r="N41" s="197">
@@ -21278,14 +21278,14 @@
         <v>-1.65</v>
       </c>
       <c r="P41" s="196"/>
-      <c r="Q41" s="279">
+      <c r="Q41" s="211">
         <v>3010</v>
       </c>
       <c r="R41" s="199">
         <f t="shared" si="0"/>
         <v>-0.66006600660066006</v>
       </c>
-      <c r="S41" s="279">
+      <c r="S41" s="211">
         <v>2995</v>
       </c>
       <c r="T41" s="199">
@@ -21293,8 +21293,8 @@
         <v>-1.1551155115511551</v>
       </c>
     </row>
-    <row r="42" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="275"/>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="277"/>
       <c r="C42" s="196" t="s">
         <v>206</v>
       </c>
@@ -21305,13 +21305,13 @@
       <c r="H42" s="197">
         <v>4270</v>
       </c>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279">
+      <c r="I42" s="211"/>
+      <c r="J42" s="211">
         <v>4625</v>
       </c>
-      <c r="K42" s="279"/>
-      <c r="L42" s="205"/>
-      <c r="M42" s="207">
+      <c r="K42" s="211"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="206">
         <v>4</v>
       </c>
       <c r="N42" s="197">
@@ -21321,14 +21321,14 @@
         <v>-3.78</v>
       </c>
       <c r="P42" s="196"/>
-      <c r="Q42" s="279">
+      <c r="Q42" s="211">
         <v>4745</v>
       </c>
       <c r="R42" s="199">
         <f t="shared" si="0"/>
         <v>2.5945945945945947</v>
       </c>
-      <c r="S42" s="279">
+      <c r="S42" s="211">
         <v>4550</v>
       </c>
       <c r="T42" s="199">
@@ -21336,8 +21336,8 @@
         <v>-1.6216216216216217</v>
       </c>
     </row>
-    <row r="43" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="275"/>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="277"/>
       <c r="C43" s="196" t="s">
         <v>207</v>
       </c>
@@ -21348,13 +21348,13 @@
       <c r="H43" s="197">
         <v>2865</v>
       </c>
-      <c r="I43" s="279"/>
-      <c r="J43" s="279">
+      <c r="I43" s="211"/>
+      <c r="J43" s="211">
         <v>3015</v>
       </c>
-      <c r="K43" s="279"/>
-      <c r="L43" s="205"/>
-      <c r="M43" s="207">
+      <c r="K43" s="211"/>
+      <c r="L43" s="204"/>
+      <c r="M43" s="206">
         <v>4.2</v>
       </c>
       <c r="N43" s="197">
@@ -21364,14 +21364,14 @@
         <v>-1.49</v>
       </c>
       <c r="P43" s="196"/>
-      <c r="Q43" s="279">
+      <c r="Q43" s="211">
         <v>2805</v>
       </c>
       <c r="R43" s="199">
         <f t="shared" si="0"/>
         <v>-6.9651741293532341</v>
       </c>
-      <c r="S43" s="279">
+      <c r="S43" s="211">
         <v>2735</v>
       </c>
       <c r="T43" s="199">
@@ -21379,8 +21379,8 @@
         <v>-9.2868988391376455</v>
       </c>
     </row>
-    <row r="44" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="275"/>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="277"/>
       <c r="C44" s="196" t="s">
         <v>208</v>
       </c>
@@ -21391,13 +21391,13 @@
       <c r="H44" s="197">
         <v>15550</v>
       </c>
-      <c r="I44" s="279"/>
-      <c r="J44" s="279">
+      <c r="I44" s="211"/>
+      <c r="J44" s="211">
         <v>17000</v>
       </c>
-      <c r="K44" s="279"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="207">
+      <c r="K44" s="211"/>
+      <c r="L44" s="204"/>
+      <c r="M44" s="206">
         <v>6.4</v>
       </c>
       <c r="N44" s="197">
@@ -21407,14 +21407,14 @@
         <v>-1.5</v>
       </c>
       <c r="P44" s="196"/>
-      <c r="Q44" s="279">
+      <c r="Q44" s="211">
         <v>18750</v>
       </c>
       <c r="R44" s="199">
         <f t="shared" si="0"/>
         <v>10.294117647058824</v>
       </c>
-      <c r="S44" s="279">
+      <c r="S44" s="211">
         <v>18000</v>
       </c>
       <c r="T44" s="199">
@@ -21422,8 +21422,8 @@
         <v>5.882352941176471</v>
       </c>
     </row>
-    <row r="45" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="275"/>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="277"/>
       <c r="C45" s="196" t="s">
         <v>209</v>
       </c>
@@ -21434,13 +21434,13 @@
       <c r="H45" s="197">
         <v>1550</v>
       </c>
-      <c r="I45" s="279"/>
-      <c r="J45" s="279">
+      <c r="I45" s="211"/>
+      <c r="J45" s="211">
         <v>1630</v>
       </c>
-      <c r="K45" s="279"/>
-      <c r="L45" s="205"/>
-      <c r="M45" s="207">
+      <c r="K45" s="211"/>
+      <c r="L45" s="204"/>
+      <c r="M45" s="206">
         <v>9.1999999999999993</v>
       </c>
       <c r="N45" s="197">
@@ -21450,14 +21450,14 @@
         <v>-1.55</v>
       </c>
       <c r="P45" s="196"/>
-      <c r="Q45" s="279">
+      <c r="Q45" s="211">
         <v>1660</v>
       </c>
       <c r="R45" s="199">
         <f t="shared" si="0"/>
         <v>1.8404907975460123</v>
       </c>
-      <c r="S45" s="279">
+      <c r="S45" s="211">
         <v>1655</v>
       </c>
       <c r="T45" s="199">
@@ -21465,8 +21465,8 @@
         <v>1.5337423312883436</v>
       </c>
     </row>
-    <row r="46" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="275"/>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="277"/>
       <c r="C46" s="196" t="s">
         <v>210</v>
       </c>
@@ -21477,13 +21477,13 @@
       <c r="H46" s="197">
         <v>3530</v>
       </c>
-      <c r="I46" s="279"/>
-      <c r="J46" s="279">
+      <c r="I46" s="211"/>
+      <c r="J46" s="211">
         <v>3905</v>
       </c>
-      <c r="K46" s="279"/>
-      <c r="L46" s="205"/>
-      <c r="M46" s="207">
+      <c r="K46" s="211"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="206">
         <v>1.6</v>
       </c>
       <c r="N46" s="197">
@@ -21493,14 +21493,14 @@
         <v>-1.48</v>
       </c>
       <c r="P46" s="196"/>
-      <c r="Q46" s="279">
+      <c r="Q46" s="211">
         <v>3860</v>
       </c>
       <c r="R46" s="199">
         <f t="shared" si="0"/>
         <v>-1.1523687580025608</v>
       </c>
-      <c r="S46" s="279">
+      <c r="S46" s="211">
         <v>3950</v>
       </c>
       <c r="T46" s="199">
@@ -21508,8 +21508,8 @@
         <v>1.1523687580025608</v>
       </c>
     </row>
-    <row r="47" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="275"/>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="277"/>
       <c r="C47" s="196" t="s">
         <v>211</v>
       </c>
@@ -21520,11 +21520,11 @@
       <c r="H47" s="197">
         <v>845</v>
       </c>
-      <c r="I47" s="279"/>
-      <c r="J47" s="279"/>
-      <c r="K47" s="279"/>
-      <c r="L47" s="205"/>
-      <c r="M47" s="207">
+      <c r="I47" s="211"/>
+      <c r="J47" s="211"/>
+      <c r="K47" s="211"/>
+      <c r="L47" s="204"/>
+      <c r="M47" s="206">
         <v>17.2</v>
       </c>
       <c r="N47" s="197">
@@ -21534,13 +21534,13 @@
         <v>-2.3199999999999998</v>
       </c>
       <c r="P47" s="196"/>
-      <c r="Q47" s="279"/>
+      <c r="Q47" s="211"/>
       <c r="R47" s="199"/>
-      <c r="S47" s="279"/>
+      <c r="S47" s="211"/>
       <c r="T47" s="199"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="275"/>
+      <c r="B48" s="277"/>
       <c r="C48" s="196" t="s">
         <v>212</v>
       </c>
@@ -21551,11 +21551,11 @@
       <c r="H48" s="197">
         <v>3155</v>
       </c>
-      <c r="I48" s="279"/>
-      <c r="J48" s="279"/>
-      <c r="K48" s="279"/>
-      <c r="L48" s="205"/>
-      <c r="M48" s="207">
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="206">
         <v>2</v>
       </c>
       <c r="N48" s="197">
@@ -21565,13 +21565,13 @@
         <v>0.11</v>
       </c>
       <c r="P48" s="196"/>
-      <c r="Q48" s="279"/>
+      <c r="Q48" s="211"/>
       <c r="R48" s="199"/>
-      <c r="S48" s="279"/>
+      <c r="S48" s="211"/>
       <c r="T48" s="199"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="275"/>
+      <c r="B49" s="277"/>
       <c r="C49" s="196" t="s">
         <v>213</v>
       </c>
@@ -21582,11 +21582,11 @@
       <c r="H49" s="197">
         <v>3955</v>
       </c>
-      <c r="I49" s="279"/>
-      <c r="J49" s="279"/>
-      <c r="K49" s="279"/>
-      <c r="L49" s="205"/>
-      <c r="M49" s="207">
+      <c r="I49" s="211"/>
+      <c r="J49" s="211"/>
+      <c r="K49" s="211"/>
+      <c r="L49" s="204"/>
+      <c r="M49" s="206">
         <v>3.8</v>
       </c>
       <c r="N49" s="197">
@@ -21596,13 +21596,13 @@
         <v>0.69</v>
       </c>
       <c r="P49" s="196"/>
-      <c r="Q49" s="279"/>
+      <c r="Q49" s="211"/>
       <c r="R49" s="199"/>
-      <c r="S49" s="279"/>
+      <c r="S49" s="211"/>
       <c r="T49" s="199"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="275"/>
+      <c r="B50" s="277"/>
       <c r="C50" s="196" t="s">
         <v>190</v>
       </c>
@@ -21613,11 +21613,11 @@
       <c r="H50" s="197">
         <v>6630</v>
       </c>
-      <c r="I50" s="279"/>
-      <c r="J50" s="279"/>
-      <c r="K50" s="279"/>
-      <c r="L50" s="205"/>
-      <c r="M50" s="207">
+      <c r="I50" s="211"/>
+      <c r="J50" s="211"/>
+      <c r="K50" s="211"/>
+      <c r="L50" s="204"/>
+      <c r="M50" s="206">
         <v>0.2</v>
       </c>
       <c r="N50" s="197">
@@ -21627,13 +21627,13 @@
         <v>0.08</v>
       </c>
       <c r="P50" s="196"/>
-      <c r="Q50" s="279"/>
+      <c r="Q50" s="211"/>
       <c r="R50" s="199"/>
-      <c r="S50" s="279"/>
+      <c r="S50" s="211"/>
       <c r="T50" s="199"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="275"/>
+      <c r="B51" s="277"/>
       <c r="C51" s="196" t="s">
         <v>137</v>
       </c>
@@ -21644,11 +21644,11 @@
       <c r="H51" s="197">
         <v>3255</v>
       </c>
-      <c r="I51" s="279"/>
-      <c r="J51" s="279"/>
-      <c r="K51" s="279"/>
-      <c r="L51" s="205"/>
-      <c r="M51" s="207">
+      <c r="I51" s="211"/>
+      <c r="J51" s="211"/>
+      <c r="K51" s="211"/>
+      <c r="L51" s="204"/>
+      <c r="M51" s="206">
         <v>0.8</v>
       </c>
       <c r="N51" s="197">
@@ -21658,13 +21658,13 @@
         <v>0.22</v>
       </c>
       <c r="P51" s="196"/>
-      <c r="Q51" s="279"/>
+      <c r="Q51" s="211"/>
       <c r="R51" s="199"/>
-      <c r="S51" s="279"/>
+      <c r="S51" s="211"/>
       <c r="T51" s="199"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="258"/>
+      <c r="B52" s="252"/>
       <c r="C52" s="196" t="s">
         <v>104</v>
       </c>
@@ -21675,11 +21675,11 @@
       <c r="H52" s="197">
         <v>6340</v>
       </c>
-      <c r="I52" s="279"/>
-      <c r="J52" s="279"/>
-      <c r="K52" s="279"/>
-      <c r="L52" s="205"/>
-      <c r="M52" s="207">
+      <c r="I52" s="211"/>
+      <c r="J52" s="211"/>
+      <c r="K52" s="211"/>
+      <c r="L52" s="204"/>
+      <c r="M52" s="206">
         <v>3.4</v>
       </c>
       <c r="N52" s="197">
@@ -21689,13 +21689,13 @@
         <v>0.69</v>
       </c>
       <c r="P52" s="196"/>
-      <c r="Q52" s="279"/>
+      <c r="Q52" s="211"/>
       <c r="R52" s="199"/>
-      <c r="S52" s="279"/>
+      <c r="S52" s="211"/>
       <c r="T52" s="199"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="257" t="s">
+      <c r="B53" s="251" t="s">
         <v>233</v>
       </c>
       <c r="C53" s="196" t="s">
@@ -21719,11 +21719,11 @@
         <v>6280</v>
       </c>
       <c r="K53" s="197"/>
-      <c r="L53" s="205">
+      <c r="L53" s="204">
         <f t="shared" ref="L53:L98" si="2">(I53-J53)*100/J53</f>
         <v>4.4585987261146496</v>
       </c>
-      <c r="M53" s="207">
+      <c r="M53" s="206">
         <v>10</v>
       </c>
       <c r="N53" s="197">
@@ -21732,17 +21732,17 @@
       <c r="O53" s="199">
         <v>0.16</v>
       </c>
-      <c r="P53" s="276" t="s">
+      <c r="P53" s="278" t="s">
         <v>235</v>
       </c>
-      <c r="Q53" s="279">
+      <c r="Q53" s="211">
         <v>7620</v>
       </c>
       <c r="R53" s="199">
         <f>(Q53-J53)*100/J53</f>
         <v>21.337579617834393</v>
       </c>
-      <c r="S53" s="279">
+      <c r="S53" s="211">
         <v>7600</v>
       </c>
       <c r="T53" s="199">
@@ -21751,7 +21751,7 @@
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="275"/>
+      <c r="B54" s="277"/>
       <c r="C54" s="196" t="s">
         <v>236</v>
       </c>
@@ -21773,11 +21773,11 @@
         <v>7730</v>
       </c>
       <c r="K54" s="197"/>
-      <c r="L54" s="205">
+      <c r="L54" s="204">
         <f t="shared" si="2"/>
         <v>4.7865459249676583</v>
       </c>
-      <c r="M54" s="207">
+      <c r="M54" s="206">
         <v>10.4</v>
       </c>
       <c r="N54" s="197">
@@ -21786,15 +21786,15 @@
       <c r="O54" s="199">
         <v>0.2</v>
       </c>
-      <c r="P54" s="277"/>
-      <c r="Q54" s="279">
+      <c r="P54" s="279"/>
+      <c r="Q54" s="211">
         <v>8300</v>
       </c>
       <c r="R54" s="199">
         <f t="shared" ref="R54:R98" si="3">(Q54-J54)*100/J54</f>
         <v>7.3738680465717978</v>
       </c>
-      <c r="S54" s="279">
+      <c r="S54" s="211">
         <v>7910</v>
       </c>
       <c r="T54" s="199">
@@ -21802,8 +21802,8 @@
         <v>2.3285899094437257</v>
       </c>
     </row>
-    <row r="55" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="275"/>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="277"/>
       <c r="C55" s="196" t="s">
         <v>237</v>
       </c>
@@ -21825,11 +21825,11 @@
         <v>21400</v>
       </c>
       <c r="K55" s="197"/>
-      <c r="L55" s="205">
+      <c r="L55" s="204">
         <f t="shared" si="2"/>
         <v>10.280373831775702</v>
       </c>
-      <c r="M55" s="207">
+      <c r="M55" s="206">
         <v>10</v>
       </c>
       <c r="N55" s="197">
@@ -21838,15 +21838,15 @@
       <c r="O55" s="199">
         <v>-2.42</v>
       </c>
-      <c r="P55" s="277"/>
-      <c r="Q55" s="279">
+      <c r="P55" s="279"/>
+      <c r="Q55" s="211">
         <v>22200</v>
       </c>
       <c r="R55" s="199">
         <f t="shared" si="3"/>
         <v>3.7383177570093458</v>
       </c>
-      <c r="S55" s="279">
+      <c r="S55" s="211">
         <v>19600</v>
       </c>
       <c r="T55" s="199">
@@ -21854,8 +21854,8 @@
         <v>-8.4112149532710276</v>
       </c>
     </row>
-    <row r="56" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="275"/>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="277"/>
       <c r="C56" s="196" t="s">
         <v>239</v>
       </c>
@@ -21877,11 +21877,11 @@
         <v>5740</v>
       </c>
       <c r="K56" s="197"/>
-      <c r="L56" s="205">
+      <c r="L56" s="204">
         <f t="shared" si="2"/>
         <v>0.69686411149825789</v>
       </c>
-      <c r="M56" s="207">
+      <c r="M56" s="206">
         <v>28.4</v>
       </c>
       <c r="N56" s="197">
@@ -21890,15 +21890,15 @@
       <c r="O56" s="199">
         <v>-2.17</v>
       </c>
-      <c r="P56" s="277"/>
-      <c r="Q56" s="279">
+      <c r="P56" s="279"/>
+      <c r="Q56" s="211">
         <v>5410</v>
       </c>
       <c r="R56" s="199">
         <f t="shared" si="3"/>
         <v>-5.7491289198606275</v>
       </c>
-      <c r="S56" s="279">
+      <c r="S56" s="211">
         <v>4915</v>
       </c>
       <c r="T56" s="199">
@@ -21906,8 +21906,8 @@
         <v>-14.372822299651569</v>
       </c>
     </row>
-    <row r="57" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="275"/>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="277"/>
       <c r="C57" s="196" t="s">
         <v>240</v>
       </c>
@@ -21929,11 +21929,11 @@
         <v>7100</v>
       </c>
       <c r="K57" s="197"/>
-      <c r="L57" s="205">
+      <c r="L57" s="204">
         <f t="shared" si="2"/>
         <v>0.70422535211267601</v>
       </c>
-      <c r="M57" s="207">
+      <c r="M57" s="206">
         <v>11.2</v>
       </c>
       <c r="N57" s="197">
@@ -21942,15 +21942,15 @@
       <c r="O57" s="199">
         <v>-2.4300000000000002</v>
       </c>
-      <c r="P57" s="277"/>
-      <c r="Q57" s="279">
+      <c r="P57" s="279"/>
+      <c r="Q57" s="211">
         <v>8000</v>
       </c>
       <c r="R57" s="199">
         <f t="shared" si="3"/>
         <v>12.67605633802817</v>
       </c>
-      <c r="S57" s="279">
+      <c r="S57" s="211">
         <v>6720</v>
       </c>
       <c r="T57" s="199">
@@ -21958,8 +21958,8 @@
         <v>-5.352112676056338</v>
       </c>
     </row>
-    <row r="58" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="275"/>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="277"/>
       <c r="C58" s="196" t="s">
         <v>147</v>
       </c>
@@ -21981,11 +21981,11 @@
         <v>6060</v>
       </c>
       <c r="K58" s="197"/>
-      <c r="L58" s="205">
+      <c r="L58" s="204">
         <f t="shared" si="2"/>
         <v>14.521452145214521</v>
       </c>
-      <c r="M58" s="207">
+      <c r="M58" s="206">
         <v>23.4</v>
       </c>
       <c r="N58" s="197">
@@ -21994,15 +21994,15 @@
       <c r="O58" s="199">
         <v>-2.46</v>
       </c>
-      <c r="P58" s="277"/>
-      <c r="Q58" s="279">
+      <c r="P58" s="279"/>
+      <c r="Q58" s="211">
         <v>6480</v>
       </c>
       <c r="R58" s="199">
         <f t="shared" si="3"/>
         <v>6.9306930693069306</v>
       </c>
-      <c r="S58" s="279">
+      <c r="S58" s="211">
         <v>5820</v>
       </c>
       <c r="T58" s="199">
@@ -22010,8 +22010,8 @@
         <v>-3.9603960396039604</v>
       </c>
     </row>
-    <row r="59" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="258"/>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="252"/>
       <c r="C59" s="196" t="s">
         <v>140</v>
       </c>
@@ -22033,11 +22033,11 @@
         <v>3095</v>
       </c>
       <c r="K59" s="197"/>
-      <c r="L59" s="205">
+      <c r="L59" s="204">
         <f t="shared" si="2"/>
         <v>0.16155088852988692</v>
       </c>
-      <c r="M59" s="207">
+      <c r="M59" s="206">
         <v>12.8</v>
       </c>
       <c r="N59" s="197">
@@ -22046,15 +22046,15 @@
       <c r="O59" s="199">
         <v>-2.74</v>
       </c>
-      <c r="P59" s="278"/>
-      <c r="Q59" s="279">
+      <c r="P59" s="280"/>
+      <c r="Q59" s="211">
         <v>2990</v>
       </c>
       <c r="R59" s="199">
         <f t="shared" si="3"/>
         <v>-3.3925686591276252</v>
       </c>
-      <c r="S59" s="279">
+      <c r="S59" s="211">
         <v>3230</v>
       </c>
       <c r="T59" s="199">
@@ -22063,7 +22063,7 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="257" t="s">
+      <c r="B60" s="251" t="s">
         <v>241</v>
       </c>
       <c r="C60" s="196" t="s">
@@ -22087,11 +22087,11 @@
         <v>3800</v>
       </c>
       <c r="K60" s="197"/>
-      <c r="L60" s="205">
+      <c r="L60" s="204">
         <f t="shared" si="2"/>
         <v>3.9473684210526314</v>
       </c>
-      <c r="M60" s="207">
+      <c r="M60" s="206">
         <v>19</v>
       </c>
       <c r="N60" s="197">
@@ -22100,17 +22100,17 @@
       <c r="O60" s="199">
         <v>0.73</v>
       </c>
-      <c r="P60" s="276" t="s">
+      <c r="P60" s="278" t="s">
         <v>235</v>
       </c>
-      <c r="Q60" s="279">
+      <c r="Q60" s="211">
         <v>3745</v>
       </c>
       <c r="R60" s="199">
         <f t="shared" si="3"/>
         <v>-1.4473684210526316</v>
       </c>
-      <c r="S60" s="279">
+      <c r="S60" s="211">
         <v>3550</v>
       </c>
       <c r="T60" s="199">
@@ -22119,7 +22119,7 @@
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="275"/>
+      <c r="B61" s="277"/>
       <c r="C61" s="196" t="s">
         <v>180</v>
       </c>
@@ -22141,11 +22141,11 @@
         <v>15900</v>
       </c>
       <c r="K61" s="197"/>
-      <c r="L61" s="205">
+      <c r="L61" s="204">
         <f t="shared" si="2"/>
         <v>13.522012578616351</v>
       </c>
-      <c r="M61" s="207">
+      <c r="M61" s="206">
         <v>28</v>
       </c>
       <c r="N61" s="197">
@@ -22154,15 +22154,15 @@
       <c r="O61" s="199">
         <v>0.62</v>
       </c>
-      <c r="P61" s="277"/>
-      <c r="Q61" s="279">
+      <c r="P61" s="279"/>
+      <c r="Q61" s="211">
         <v>19350</v>
       </c>
       <c r="R61" s="199">
         <f t="shared" si="3"/>
         <v>21.69811320754717</v>
       </c>
-      <c r="S61" s="279">
+      <c r="S61" s="211">
         <v>18650</v>
       </c>
       <c r="T61" s="199">
@@ -22171,7 +22171,7 @@
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="275"/>
+      <c r="B62" s="277"/>
       <c r="C62" s="196" t="s">
         <v>65</v>
       </c>
@@ -22193,11 +22193,11 @@
         <v>4925</v>
       </c>
       <c r="K62" s="197"/>
-      <c r="L62" s="205">
+      <c r="L62" s="204">
         <f t="shared" si="2"/>
         <v>7.2081218274111674</v>
       </c>
-      <c r="M62" s="207">
+      <c r="M62" s="206">
         <v>13.4</v>
       </c>
       <c r="N62" s="197">
@@ -22206,15 +22206,15 @@
       <c r="O62" s="199">
         <v>0.69</v>
       </c>
-      <c r="P62" s="277"/>
-      <c r="Q62" s="279">
+      <c r="P62" s="279"/>
+      <c r="Q62" s="211">
         <v>4425</v>
       </c>
       <c r="R62" s="199">
         <f t="shared" si="3"/>
         <v>-10.152284263959391</v>
       </c>
-      <c r="S62" s="279">
+      <c r="S62" s="211">
         <v>4300</v>
       </c>
       <c r="T62" s="199">
@@ -22222,8 +22222,8 @@
         <v>-12.690355329949238</v>
       </c>
     </row>
-    <row r="63" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="275"/>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="277"/>
       <c r="C63" s="196" t="s">
         <v>243</v>
       </c>
@@ -22245,11 +22245,11 @@
         <v>1010</v>
       </c>
       <c r="K63" s="197"/>
-      <c r="L63" s="205">
+      <c r="L63" s="204">
         <f t="shared" si="2"/>
         <v>0.49504950495049505</v>
       </c>
-      <c r="M63" s="207">
+      <c r="M63" s="206">
         <v>13.5</v>
       </c>
       <c r="N63" s="197">
@@ -22258,15 +22258,15 @@
       <c r="O63" s="199">
         <v>-2.1</v>
       </c>
-      <c r="P63" s="277"/>
-      <c r="Q63" s="279">
+      <c r="P63" s="279"/>
+      <c r="Q63" s="211">
         <v>942</v>
       </c>
       <c r="R63" s="199">
         <f t="shared" si="3"/>
         <v>-6.7326732673267324</v>
       </c>
-      <c r="S63" s="279">
+      <c r="S63" s="211">
         <v>909</v>
       </c>
       <c r="T63" s="199">
@@ -22275,7 +22275,7 @@
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="275"/>
+      <c r="B64" s="277"/>
       <c r="C64" s="196" t="s">
         <v>244</v>
       </c>
@@ -22297,11 +22297,11 @@
         <v>2835</v>
       </c>
       <c r="K64" s="197"/>
-      <c r="L64" s="205">
+      <c r="L64" s="204">
         <f t="shared" si="2"/>
         <v>1.9400352733686066</v>
       </c>
-      <c r="M64" s="207">
+      <c r="M64" s="206">
         <v>12.3</v>
       </c>
       <c r="N64" s="197">
@@ -22310,15 +22310,15 @@
       <c r="O64" s="199">
         <v>0.74</v>
       </c>
-      <c r="P64" s="277"/>
-      <c r="Q64" s="279">
+      <c r="P64" s="279"/>
+      <c r="Q64" s="211">
         <v>2940</v>
       </c>
       <c r="R64" s="199">
         <f t="shared" si="3"/>
         <v>3.7037037037037037</v>
       </c>
-      <c r="S64" s="279">
+      <c r="S64" s="211">
         <v>2890</v>
       </c>
       <c r="T64" s="199">
@@ -22327,7 +22327,7 @@
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="275"/>
+      <c r="B65" s="277"/>
       <c r="C65" s="196" t="s">
         <v>245</v>
       </c>
@@ -22349,11 +22349,11 @@
         <v>12150</v>
       </c>
       <c r="K65" s="197"/>
-      <c r="L65" s="205">
+      <c r="L65" s="204">
         <f t="shared" si="2"/>
         <v>5.761316872427984</v>
       </c>
-      <c r="M65" s="207">
+      <c r="M65" s="206">
         <v>17.3</v>
       </c>
       <c r="N65" s="197">
@@ -22362,15 +22362,15 @@
       <c r="O65" s="199">
         <v>0.91</v>
       </c>
-      <c r="P65" s="277"/>
-      <c r="Q65" s="279">
+      <c r="P65" s="279"/>
+      <c r="Q65" s="211">
         <v>12750</v>
       </c>
       <c r="R65" s="199">
         <f t="shared" si="3"/>
         <v>4.9382716049382713</v>
       </c>
-      <c r="S65" s="279">
+      <c r="S65" s="211">
         <v>11700</v>
       </c>
       <c r="T65" s="199">
@@ -22379,7 +22379,7 @@
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="275"/>
+      <c r="B66" s="277"/>
       <c r="C66" s="196" t="s">
         <v>246</v>
       </c>
@@ -22401,11 +22401,11 @@
         <v>3550</v>
       </c>
       <c r="K66" s="197"/>
-      <c r="L66" s="205">
+      <c r="L66" s="204">
         <f t="shared" si="2"/>
         <v>5.070422535211268</v>
       </c>
-      <c r="M66" s="207">
+      <c r="M66" s="206">
         <v>13</v>
       </c>
       <c r="N66" s="197">
@@ -22414,15 +22414,15 @@
       <c r="O66" s="199">
         <v>0.66</v>
       </c>
-      <c r="P66" s="277"/>
-      <c r="Q66" s="279">
+      <c r="P66" s="279"/>
+      <c r="Q66" s="211">
         <v>3570</v>
       </c>
       <c r="R66" s="199">
         <f t="shared" si="3"/>
         <v>0.56338028169014087</v>
       </c>
-      <c r="S66" s="279">
+      <c r="S66" s="211">
         <v>3210</v>
       </c>
       <c r="T66" s="199">
@@ -22430,8 +22430,8 @@
         <v>-9.577464788732394</v>
       </c>
     </row>
-    <row r="67" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="275"/>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="277"/>
       <c r="C67" s="196" t="s">
         <v>247</v>
       </c>
@@ -22453,11 +22453,11 @@
         <v>3270</v>
       </c>
       <c r="K67" s="197"/>
-      <c r="L67" s="205">
+      <c r="L67" s="204">
         <f t="shared" si="2"/>
         <v>5.3516819571865444</v>
       </c>
-      <c r="M67" s="207">
+      <c r="M67" s="206">
         <v>12.5</v>
       </c>
       <c r="N67" s="197">
@@ -22466,15 +22466,15 @@
       <c r="O67" s="199">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="P67" s="277"/>
-      <c r="Q67" s="279">
+      <c r="P67" s="279"/>
+      <c r="Q67" s="211">
         <v>3235</v>
       </c>
       <c r="R67" s="199">
         <f t="shared" si="3"/>
         <v>-1.070336391437309</v>
       </c>
-      <c r="S67" s="279">
+      <c r="S67" s="211">
         <v>3025</v>
       </c>
       <c r="T67" s="199">
@@ -22482,8 +22482,8 @@
         <v>-7.4923547400611623</v>
       </c>
     </row>
-    <row r="68" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="275"/>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="277"/>
       <c r="C68" s="196" t="s">
         <v>236</v>
       </c>
@@ -22505,11 +22505,11 @@
         <v>8150</v>
       </c>
       <c r="K68" s="197"/>
-      <c r="L68" s="205">
+      <c r="L68" s="204">
         <f t="shared" si="2"/>
         <v>1.8404907975460123</v>
       </c>
-      <c r="M68" s="207">
+      <c r="M68" s="206">
         <v>12.8</v>
       </c>
       <c r="N68" s="197">
@@ -22518,15 +22518,15 @@
       <c r="O68" s="199">
         <v>-2.2799999999999998</v>
       </c>
-      <c r="P68" s="277"/>
-      <c r="Q68" s="279">
+      <c r="P68" s="279"/>
+      <c r="Q68" s="211">
         <v>7910</v>
       </c>
       <c r="R68" s="199">
         <f t="shared" si="3"/>
         <v>-2.9447852760736195</v>
       </c>
-      <c r="S68" s="279">
+      <c r="S68" s="211">
         <v>7590</v>
       </c>
       <c r="T68" s="199">
@@ -22535,7 +22535,7 @@
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="275"/>
+      <c r="B69" s="277"/>
       <c r="C69" s="196" t="s">
         <v>176</v>
       </c>
@@ -22557,11 +22557,11 @@
         <v>6630</v>
       </c>
       <c r="K69" s="197"/>
-      <c r="L69" s="205">
+      <c r="L69" s="204">
         <f t="shared" si="2"/>
         <v>14.932126696832579</v>
       </c>
-      <c r="M69" s="207">
+      <c r="M69" s="206">
         <v>20.5</v>
       </c>
       <c r="N69" s="197">
@@ -22570,15 +22570,15 @@
       <c r="O69" s="199">
         <v>0.43</v>
       </c>
-      <c r="P69" s="277"/>
-      <c r="Q69" s="279">
+      <c r="P69" s="279"/>
+      <c r="Q69" s="211">
         <v>7600</v>
       </c>
       <c r="R69" s="199">
         <f t="shared" si="3"/>
         <v>14.630467571644042</v>
       </c>
-      <c r="S69" s="279">
+      <c r="S69" s="211">
         <v>7000</v>
       </c>
       <c r="T69" s="199">
@@ -22587,7 +22587,7 @@
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="275"/>
+      <c r="B70" s="277"/>
       <c r="C70" s="196" t="s">
         <v>248</v>
       </c>
@@ -22609,11 +22609,11 @@
         <v>7030</v>
       </c>
       <c r="K70" s="197"/>
-      <c r="L70" s="205">
+      <c r="L70" s="204">
         <f t="shared" si="2"/>
         <v>7.6813655761024178</v>
       </c>
-      <c r="M70" s="207">
+      <c r="M70" s="206">
         <v>21.5</v>
       </c>
       <c r="N70" s="197">
@@ -22622,15 +22622,15 @@
       <c r="O70" s="199">
         <v>0.67</v>
       </c>
-      <c r="P70" s="277"/>
-      <c r="Q70" s="279">
+      <c r="P70" s="279"/>
+      <c r="Q70" s="211">
         <v>7320</v>
       </c>
       <c r="R70" s="199">
         <f t="shared" si="3"/>
         <v>4.1251778093883358</v>
       </c>
-      <c r="S70" s="279">
+      <c r="S70" s="211">
         <v>8500</v>
       </c>
       <c r="T70" s="199">
@@ -22638,8 +22638,8 @@
         <v>20.910384068278805</v>
       </c>
     </row>
-    <row r="71" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="275"/>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="277"/>
       <c r="C71" s="196" t="s">
         <v>249</v>
       </c>
@@ -22661,11 +22661,11 @@
         <v>2710</v>
       </c>
       <c r="K71" s="197"/>
-      <c r="L71" s="205">
+      <c r="L71" s="204">
         <f t="shared" si="2"/>
         <v>0.92250922509225097</v>
       </c>
-      <c r="M71" s="207">
+      <c r="M71" s="206">
         <v>15.5</v>
       </c>
       <c r="N71" s="197">
@@ -22674,15 +22674,15 @@
       <c r="O71" s="199">
         <v>-2.34</v>
       </c>
-      <c r="P71" s="277"/>
-      <c r="Q71" s="279">
+      <c r="P71" s="279"/>
+      <c r="Q71" s="211">
         <v>2355</v>
       </c>
       <c r="R71" s="199">
         <f t="shared" si="3"/>
         <v>-13.099630996309964</v>
       </c>
-      <c r="S71" s="279">
+      <c r="S71" s="211">
         <v>2355</v>
       </c>
       <c r="T71" s="199">
@@ -22691,7 +22691,7 @@
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="275"/>
+      <c r="B72" s="277"/>
       <c r="C72" s="196" t="s">
         <v>201</v>
       </c>
@@ -22713,11 +22713,11 @@
         <v>20700</v>
       </c>
       <c r="K72" s="197"/>
-      <c r="L72" s="205">
+      <c r="L72" s="204">
         <f t="shared" si="2"/>
         <v>6.2801932367149762</v>
       </c>
-      <c r="M72" s="207">
+      <c r="M72" s="206">
         <v>13.5</v>
       </c>
       <c r="N72" s="197">
@@ -22726,15 +22726,15 @@
       <c r="O72" s="199">
         <v>0.64</v>
       </c>
-      <c r="P72" s="277"/>
-      <c r="Q72" s="279">
+      <c r="P72" s="279"/>
+      <c r="Q72" s="211">
         <v>21400</v>
       </c>
       <c r="R72" s="199">
         <f t="shared" si="3"/>
         <v>3.3816425120772946</v>
       </c>
-      <c r="S72" s="279">
+      <c r="S72" s="211">
         <v>21400</v>
       </c>
       <c r="T72" s="199">
@@ -22743,7 +22743,7 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="275"/>
+      <c r="B73" s="277"/>
       <c r="C73" s="196" t="s">
         <v>250</v>
       </c>
@@ -22765,11 +22765,11 @@
         <v>2250</v>
       </c>
       <c r="K73" s="197"/>
-      <c r="L73" s="205">
+      <c r="L73" s="204">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M73" s="207">
+      <c r="M73" s="206">
         <v>20.8</v>
       </c>
       <c r="N73" s="197">
@@ -22778,15 +22778,15 @@
       <c r="O73" s="199">
         <v>0.79</v>
       </c>
-      <c r="P73" s="278"/>
-      <c r="Q73" s="279">
+      <c r="P73" s="280"/>
+      <c r="Q73" s="211">
         <v>2195</v>
       </c>
       <c r="R73" s="199">
         <f t="shared" si="3"/>
         <v>-2.4444444444444446</v>
       </c>
-      <c r="S73" s="279">
+      <c r="S73" s="211">
         <v>2135</v>
       </c>
       <c r="T73" s="199">
@@ -22794,8 +22794,8 @@
         <v>-5.1111111111111107</v>
       </c>
     </row>
-    <row r="74" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="275"/>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="277"/>
       <c r="C74" s="196" t="s">
         <v>248</v>
       </c>
@@ -22817,11 +22817,11 @@
         <v>7340</v>
       </c>
       <c r="K74" s="197"/>
-      <c r="L74" s="205">
+      <c r="L74" s="204">
         <f t="shared" si="2"/>
         <v>3.1335149863760217</v>
       </c>
-      <c r="M74" s="207">
+      <c r="M74" s="206">
         <v>24.9</v>
       </c>
       <c r="N74" s="197">
@@ -22830,17 +22830,17 @@
       <c r="O74" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="P74" s="276" t="s">
+      <c r="P74" s="278" t="s">
         <v>251</v>
       </c>
-      <c r="Q74" s="279">
+      <c r="Q74" s="211">
         <v>7320</v>
       </c>
       <c r="R74" s="199">
         <f t="shared" si="3"/>
         <v>-0.27247956403269757</v>
       </c>
-      <c r="S74" s="279">
+      <c r="S74" s="211">
         <v>8500</v>
       </c>
       <c r="T74" s="199">
@@ -22848,8 +22848,8 @@
         <v>15.803814713896458</v>
       </c>
     </row>
-    <row r="75" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="258"/>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="252"/>
       <c r="C75" s="196" t="s">
         <v>250</v>
       </c>
@@ -22871,11 +22871,11 @@
         <v>2350</v>
       </c>
       <c r="K75" s="197"/>
-      <c r="L75" s="205">
+      <c r="L75" s="204">
         <f t="shared" si="2"/>
         <v>5.3191489361702127</v>
       </c>
-      <c r="M75" s="207">
+      <c r="M75" s="206">
         <v>20.9</v>
       </c>
       <c r="N75" s="197">
@@ -22884,15 +22884,15 @@
       <c r="O75" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="P75" s="278"/>
-      <c r="Q75" s="279">
+      <c r="P75" s="280"/>
+      <c r="Q75" s="211">
         <v>2195</v>
       </c>
       <c r="R75" s="199">
         <f t="shared" si="3"/>
         <v>-6.5957446808510642</v>
       </c>
-      <c r="S75" s="279">
+      <c r="S75" s="211">
         <v>2135</v>
       </c>
       <c r="T75" s="199">
@@ -22901,7 +22901,7 @@
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="256" t="s">
+      <c r="B76" s="241" t="s">
         <v>252</v>
       </c>
       <c r="C76" s="196" t="s">
@@ -22925,11 +22925,11 @@
         <v>7810</v>
       </c>
       <c r="K76" s="197"/>
-      <c r="L76" s="205">
+      <c r="L76" s="204">
         <f t="shared" si="2"/>
         <v>5.1216389244558256</v>
       </c>
-      <c r="M76" s="207">
+      <c r="M76" s="206">
         <v>15.7</v>
       </c>
       <c r="N76" s="197">
@@ -22938,24 +22938,24 @@
       <c r="O76" s="199">
         <v>1.22</v>
       </c>
-      <c r="P76" s="271" t="s">
+      <c r="P76" s="273" t="s">
         <v>235</v>
       </c>
-      <c r="Q76" s="279">
+      <c r="Q76" s="211">
         <v>7910</v>
       </c>
       <c r="R76" s="199">
         <f t="shared" si="3"/>
         <v>1.2804097311139564</v>
       </c>
-      <c r="S76" s="279"/>
+      <c r="S76" s="211"/>
       <c r="T76" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="256"/>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="241"/>
       <c r="C77" s="196" t="s">
         <v>140</v>
       </c>
@@ -22977,11 +22977,11 @@
         <v>3100</v>
       </c>
       <c r="K77" s="197"/>
-      <c r="L77" s="205">
+      <c r="L77" s="204">
         <f t="shared" si="2"/>
         <v>4.193548387096774</v>
       </c>
-      <c r="M77" s="207">
+      <c r="M77" s="206">
         <v>13.3</v>
       </c>
       <c r="N77" s="197">
@@ -22990,22 +22990,22 @@
       <c r="O77" s="199">
         <v>-6.45</v>
       </c>
-      <c r="P77" s="271"/>
-      <c r="Q77" s="279">
+      <c r="P77" s="273"/>
+      <c r="Q77" s="211">
         <v>2835</v>
       </c>
       <c r="R77" s="199">
         <f t="shared" si="3"/>
         <v>-8.5483870967741939</v>
       </c>
-      <c r="S77" s="279"/>
+      <c r="S77" s="211"/>
       <c r="T77" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="78" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="256"/>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="241"/>
       <c r="C78" s="196" t="s">
         <v>187</v>
       </c>
@@ -23027,11 +23027,11 @@
         <v>2480</v>
       </c>
       <c r="K78" s="197"/>
-      <c r="L78" s="205">
+      <c r="L78" s="204">
         <f t="shared" si="2"/>
         <v>13.306451612903226</v>
       </c>
-      <c r="M78" s="207">
+      <c r="M78" s="206">
         <v>18</v>
       </c>
       <c r="N78" s="197">
@@ -23040,22 +23040,22 @@
       <c r="O78" s="199">
         <v>-1.22</v>
       </c>
-      <c r="P78" s="271"/>
-      <c r="Q78" s="279">
+      <c r="P78" s="273"/>
+      <c r="Q78" s="211">
         <v>2625</v>
       </c>
       <c r="R78" s="199">
         <f t="shared" si="3"/>
         <v>5.846774193548387</v>
       </c>
-      <c r="S78" s="279"/>
+      <c r="S78" s="211"/>
       <c r="T78" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="79" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="256"/>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="241"/>
       <c r="C79" s="196" t="s">
         <v>195</v>
       </c>
@@ -23077,11 +23077,11 @@
         <v>1070</v>
       </c>
       <c r="K79" s="197"/>
-      <c r="L79" s="205">
+      <c r="L79" s="204">
         <f t="shared" si="2"/>
         <v>1.8691588785046729</v>
       </c>
-      <c r="M79" s="207">
+      <c r="M79" s="206">
         <v>14</v>
       </c>
       <c r="N79" s="197">
@@ -23090,22 +23090,22 @@
       <c r="O79" s="199">
         <v>-2.65</v>
       </c>
-      <c r="P79" s="271"/>
-      <c r="Q79" s="279">
+      <c r="P79" s="273"/>
+      <c r="Q79" s="211">
         <v>999</v>
       </c>
       <c r="R79" s="199">
         <f t="shared" si="3"/>
         <v>-6.6355140186915884</v>
       </c>
-      <c r="S79" s="279"/>
+      <c r="S79" s="211"/>
       <c r="T79" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="80" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="256"/>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="241"/>
       <c r="C80" s="196" t="s">
         <v>254</v>
       </c>
@@ -23127,11 +23127,11 @@
         <v>1190</v>
       </c>
       <c r="K80" s="197"/>
-      <c r="L80" s="205">
+      <c r="L80" s="204">
         <f t="shared" si="2"/>
         <v>1.680672268907563</v>
       </c>
-      <c r="M80" s="207">
+      <c r="M80" s="206">
         <v>22.7</v>
       </c>
       <c r="N80" s="197">
@@ -23140,22 +23140,22 @@
       <c r="O80" s="199">
         <v>-2.83</v>
       </c>
-      <c r="P80" s="271"/>
-      <c r="Q80" s="279">
+      <c r="P80" s="273"/>
+      <c r="Q80" s="211">
         <v>1210</v>
       </c>
       <c r="R80" s="199">
         <f t="shared" si="3"/>
         <v>1.680672268907563</v>
       </c>
-      <c r="S80" s="279"/>
+      <c r="S80" s="211"/>
       <c r="T80" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="81" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="256"/>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="241"/>
       <c r="C81" s="196" t="s">
         <v>255</v>
       </c>
@@ -23177,11 +23177,11 @@
         <v>2080</v>
       </c>
       <c r="K81" s="197"/>
-      <c r="L81" s="205">
+      <c r="L81" s="204">
         <f t="shared" si="2"/>
         <v>1.9230769230769231</v>
       </c>
-      <c r="M81" s="207">
+      <c r="M81" s="206">
         <v>14.7</v>
       </c>
       <c r="N81" s="197">
@@ -23190,22 +23190,22 @@
       <c r="O81" s="199">
         <v>-2.95</v>
       </c>
-      <c r="P81" s="271"/>
-      <c r="Q81" s="279">
+      <c r="P81" s="273"/>
+      <c r="Q81" s="211">
         <v>1875</v>
       </c>
       <c r="R81" s="199">
         <f t="shared" si="3"/>
         <v>-9.8557692307692299</v>
       </c>
-      <c r="S81" s="279"/>
+      <c r="S81" s="211"/>
       <c r="T81" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="256"/>
+      <c r="B82" s="241"/>
       <c r="C82" s="196" t="s">
         <v>135</v>
       </c>
@@ -23227,11 +23227,11 @@
         <v>8200</v>
       </c>
       <c r="K82" s="197"/>
-      <c r="L82" s="205">
+      <c r="L82" s="204">
         <f t="shared" si="2"/>
         <v>2.4390243902439024</v>
       </c>
-      <c r="M82" s="207">
+      <c r="M82" s="206">
         <v>13.3</v>
       </c>
       <c r="N82" s="197">
@@ -23240,22 +23240,22 @@
       <c r="O82" s="199">
         <v>1.63</v>
       </c>
-      <c r="P82" s="271"/>
-      <c r="Q82" s="279">
+      <c r="P82" s="273"/>
+      <c r="Q82" s="211">
         <v>8140</v>
       </c>
       <c r="R82" s="199">
         <f t="shared" si="3"/>
         <v>-0.73170731707317072</v>
       </c>
-      <c r="S82" s="279"/>
+      <c r="S82" s="211"/>
       <c r="T82" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="83" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="256"/>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="241"/>
       <c r="C83" s="196" t="s">
         <v>236</v>
       </c>
@@ -23277,11 +23277,11 @@
         <v>7700</v>
       </c>
       <c r="K83" s="197"/>
-      <c r="L83" s="205">
+      <c r="L83" s="204">
         <f t="shared" si="2"/>
         <v>2.7272727272727271</v>
       </c>
-      <c r="M83" s="207">
+      <c r="M83" s="206">
         <v>17.3</v>
       </c>
       <c r="N83" s="197">
@@ -23290,22 +23290,22 @@
       <c r="O83" s="199">
         <v>-2.67</v>
       </c>
-      <c r="P83" s="271"/>
-      <c r="Q83" s="279">
+      <c r="P83" s="273"/>
+      <c r="Q83" s="211">
         <v>7590</v>
       </c>
       <c r="R83" s="199">
         <f t="shared" si="3"/>
         <v>-1.4285714285714286</v>
       </c>
-      <c r="S83" s="279"/>
+      <c r="S83" s="211"/>
       <c r="T83" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="84" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="256"/>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="241"/>
       <c r="C84" s="196" t="s">
         <v>209</v>
       </c>
@@ -23327,11 +23327,11 @@
         <v>1715</v>
       </c>
       <c r="K84" s="197"/>
-      <c r="L84" s="205">
+      <c r="L84" s="204">
         <f t="shared" si="2"/>
         <v>1.4577259475218658</v>
       </c>
-      <c r="M84" s="207">
+      <c r="M84" s="206">
         <v>16.3</v>
       </c>
       <c r="N84" s="197">
@@ -23340,22 +23340,22 @@
       <c r="O84" s="199">
         <v>-4.68</v>
       </c>
-      <c r="P84" s="271"/>
-      <c r="Q84" s="279">
+      <c r="P84" s="273"/>
+      <c r="Q84" s="211">
         <v>1645</v>
       </c>
       <c r="R84" s="199">
         <f t="shared" si="3"/>
         <v>-4.0816326530612246</v>
       </c>
-      <c r="S84" s="279"/>
+      <c r="S84" s="211"/>
       <c r="T84" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="85" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="256"/>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="241"/>
       <c r="C85" s="196" t="s">
         <v>51</v>
       </c>
@@ -23377,11 +23377,11 @@
         <v>3500</v>
       </c>
       <c r="K85" s="197"/>
-      <c r="L85" s="205">
+      <c r="L85" s="204">
         <f t="shared" si="2"/>
         <v>8.7142857142857135</v>
       </c>
-      <c r="M85" s="207">
+      <c r="M85" s="206">
         <v>13</v>
       </c>
       <c r="N85" s="197">
@@ -23390,22 +23390,22 @@
       <c r="O85" s="199">
         <v>-4.3099999999999996</v>
       </c>
-      <c r="P85" s="271"/>
-      <c r="Q85" s="279">
+      <c r="P85" s="273"/>
+      <c r="Q85" s="211">
         <v>4845</v>
       </c>
       <c r="R85" s="199">
         <f t="shared" si="3"/>
         <v>38.428571428571431</v>
       </c>
-      <c r="S85" s="279"/>
+      <c r="S85" s="211"/>
       <c r="T85" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="86" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="256"/>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="241"/>
       <c r="C86" s="196" t="s">
         <v>187</v>
       </c>
@@ -23427,11 +23427,11 @@
         <v>2730</v>
       </c>
       <c r="K86" s="197"/>
-      <c r="L86" s="205">
+      <c r="L86" s="204">
         <f t="shared" si="2"/>
         <v>2.9304029304029302</v>
       </c>
-      <c r="M86" s="207">
+      <c r="M86" s="206">
         <v>18</v>
       </c>
       <c r="N86" s="197">
@@ -23440,22 +23440,22 @@
       <c r="O86" s="199">
         <v>-1.22</v>
       </c>
-      <c r="P86" s="271"/>
-      <c r="Q86" s="279">
+      <c r="P86" s="273"/>
+      <c r="Q86" s="211">
         <v>2625</v>
       </c>
       <c r="R86" s="199">
         <f t="shared" si="3"/>
         <v>-3.8461538461538463</v>
       </c>
-      <c r="S86" s="279"/>
+      <c r="S86" s="211"/>
       <c r="T86" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="256"/>
+      <c r="B87" s="241"/>
       <c r="C87" s="196" t="s">
         <v>256</v>
       </c>
@@ -23477,11 +23477,11 @@
         <v>5740</v>
       </c>
       <c r="K87" s="197"/>
-      <c r="L87" s="205">
+      <c r="L87" s="204">
         <f t="shared" si="2"/>
         <v>3.484320557491289</v>
       </c>
-      <c r="M87" s="207">
+      <c r="M87" s="206">
         <v>14.3</v>
       </c>
       <c r="N87" s="197">
@@ -23490,22 +23490,22 @@
       <c r="O87" s="199">
         <v>1.42</v>
       </c>
-      <c r="P87" s="271"/>
-      <c r="Q87" s="279">
+      <c r="P87" s="273"/>
+      <c r="Q87" s="211">
         <v>5800</v>
       </c>
       <c r="R87" s="199">
         <f t="shared" si="3"/>
         <v>1.0452961672473868</v>
       </c>
-      <c r="S87" s="279"/>
+      <c r="S87" s="211"/>
       <c r="T87" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="88" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="256"/>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="241"/>
       <c r="C88" s="196" t="s">
         <v>257</v>
       </c>
@@ -23527,11 +23527,11 @@
         <v>3380</v>
       </c>
       <c r="K88" s="197"/>
-      <c r="L88" s="205">
+      <c r="L88" s="204">
         <f t="shared" si="2"/>
         <v>0.29585798816568049</v>
       </c>
-      <c r="M88" s="207">
+      <c r="M88" s="206">
         <v>15.3</v>
       </c>
       <c r="N88" s="197">
@@ -23540,22 +23540,22 @@
       <c r="O88" s="199">
         <v>-1.79</v>
       </c>
-      <c r="P88" s="271"/>
-      <c r="Q88" s="279">
+      <c r="P88" s="273"/>
+      <c r="Q88" s="211">
         <v>3345</v>
       </c>
       <c r="R88" s="199">
         <f t="shared" si="3"/>
         <v>-1.0355029585798816</v>
       </c>
-      <c r="S88" s="279"/>
+      <c r="S88" s="211"/>
       <c r="T88" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="256"/>
+      <c r="B89" s="241"/>
       <c r="C89" s="196" t="s">
         <v>258</v>
       </c>
@@ -23577,11 +23577,11 @@
         <v>2774</v>
       </c>
       <c r="K89" s="197"/>
-      <c r="L89" s="205">
+      <c r="L89" s="204">
         <f t="shared" si="2"/>
         <v>5.6236481614996396</v>
       </c>
-      <c r="M89" s="207">
+      <c r="M89" s="206">
         <v>14.3</v>
       </c>
       <c r="N89" s="197">
@@ -23590,22 +23590,22 @@
       <c r="O89" s="199">
         <v>2.4</v>
       </c>
-      <c r="P89" s="271"/>
-      <c r="Q89" s="279">
+      <c r="P89" s="273"/>
+      <c r="Q89" s="211">
         <v>2725</v>
       </c>
       <c r="R89" s="199">
         <f t="shared" si="3"/>
         <v>-1.7664023071377073</v>
       </c>
-      <c r="S89" s="279"/>
+      <c r="S89" s="211"/>
       <c r="T89" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="256" t="s">
+      <c r="B90" s="241" t="s">
         <v>259</v>
       </c>
       <c r="C90" s="196" t="s">
@@ -23636,11 +23636,11 @@
       <c r="K90" s="197">
         <v>6040</v>
       </c>
-      <c r="L90" s="205">
+      <c r="L90" s="204">
         <f t="shared" si="2"/>
         <v>5.0420168067226889</v>
       </c>
-      <c r="M90" s="207">
+      <c r="M90" s="206">
         <v>13.5</v>
       </c>
       <c r="N90" s="197">
@@ -23649,22 +23649,22 @@
       <c r="O90" s="199">
         <v>1.01</v>
       </c>
-      <c r="P90" s="271" t="s">
+      <c r="P90" s="273" t="s">
         <v>235</v>
       </c>
-      <c r="Q90" s="279"/>
+      <c r="Q90" s="211"/>
       <c r="R90" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S90" s="279"/>
+      <c r="S90" s="211"/>
       <c r="T90" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="256"/>
+      <c r="B91" s="241"/>
       <c r="C91" s="196" t="s">
         <v>51</v>
       </c>
@@ -23693,11 +23693,11 @@
       <c r="K91" s="197">
         <v>4445</v>
       </c>
-      <c r="L91" s="205">
+      <c r="L91" s="204">
         <f t="shared" si="2"/>
         <v>10.364464692482915</v>
       </c>
-      <c r="M91" s="207">
+      <c r="M91" s="206">
         <v>13.5</v>
       </c>
       <c r="N91" s="197">
@@ -23706,20 +23706,20 @@
       <c r="O91" s="199">
         <v>0.92</v>
       </c>
-      <c r="P91" s="271"/>
-      <c r="Q91" s="279"/>
+      <c r="P91" s="273"/>
+      <c r="Q91" s="211"/>
       <c r="R91" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S91" s="279"/>
+      <c r="S91" s="211"/>
       <c r="T91" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="256"/>
+      <c r="B92" s="241"/>
       <c r="C92" s="196" t="s">
         <v>263</v>
       </c>
@@ -23748,11 +23748,11 @@
       <c r="K92" s="197">
         <v>4750</v>
       </c>
-      <c r="L92" s="205">
+      <c r="L92" s="204">
         <f t="shared" si="2"/>
         <v>13.859275053304904</v>
       </c>
-      <c r="M92" s="207">
+      <c r="M92" s="206">
         <v>21.75</v>
       </c>
       <c r="N92" s="197">
@@ -23761,20 +23761,20 @@
       <c r="O92" s="199">
         <v>0.95</v>
       </c>
-      <c r="P92" s="271"/>
-      <c r="Q92" s="279"/>
+      <c r="P92" s="273"/>
+      <c r="Q92" s="211"/>
       <c r="R92" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S92" s="279"/>
+      <c r="S92" s="211"/>
       <c r="T92" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="256"/>
+      <c r="B93" s="241"/>
       <c r="C93" s="196" t="s">
         <v>264</v>
       </c>
@@ -23803,11 +23803,11 @@
       <c r="K93" s="197">
         <v>1395</v>
       </c>
-      <c r="L93" s="205">
+      <c r="L93" s="204">
         <f t="shared" si="2"/>
         <v>1.0830324909747293</v>
       </c>
-      <c r="M93" s="207">
+      <c r="M93" s="206">
         <v>14.75</v>
       </c>
       <c r="N93" s="197">
@@ -23816,20 +23816,20 @@
       <c r="O93" s="199">
         <v>0.39</v>
       </c>
-      <c r="P93" s="271"/>
-      <c r="Q93" s="279"/>
+      <c r="P93" s="273"/>
+      <c r="Q93" s="211"/>
       <c r="R93" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S93" s="279"/>
+      <c r="S93" s="211"/>
       <c r="T93" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="94" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="256"/>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="241"/>
       <c r="C94" s="196" t="s">
         <v>265</v>
       </c>
@@ -23858,11 +23858,11 @@
       <c r="K94" s="197">
         <v>9760</v>
       </c>
-      <c r="L94" s="205">
+      <c r="L94" s="204">
         <f t="shared" si="2"/>
         <v>0.90361445783132532</v>
       </c>
-      <c r="M94" s="207">
+      <c r="M94" s="206">
         <v>19.75</v>
       </c>
       <c r="N94" s="197">
@@ -23871,20 +23871,20 @@
       <c r="O94" s="199">
         <v>-2.33</v>
       </c>
-      <c r="P94" s="271"/>
-      <c r="Q94" s="279"/>
+      <c r="P94" s="273"/>
+      <c r="Q94" s="211"/>
       <c r="R94" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S94" s="279"/>
+      <c r="S94" s="211"/>
       <c r="T94" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="256"/>
+      <c r="B95" s="241"/>
       <c r="C95" s="196" t="s">
         <v>248</v>
       </c>
@@ -23913,11 +23913,11 @@
       <c r="K95" s="197">
         <v>7650</v>
       </c>
-      <c r="L95" s="205">
+      <c r="L95" s="204">
         <f t="shared" si="2"/>
         <v>12.597695058948204</v>
       </c>
-      <c r="M95" s="207">
+      <c r="M95" s="206">
         <v>19.920000000000002</v>
       </c>
       <c r="N95" s="197">
@@ -23926,20 +23926,20 @@
       <c r="O95" s="199">
         <v>1</v>
       </c>
-      <c r="P95" s="271"/>
-      <c r="Q95" s="279"/>
+      <c r="P95" s="273"/>
+      <c r="Q95" s="211"/>
       <c r="R95" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S95" s="279"/>
+      <c r="S95" s="211"/>
       <c r="T95" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="96" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="256"/>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="241"/>
       <c r="C96" s="196" t="s">
         <v>320</v>
       </c>
@@ -23968,11 +23968,11 @@
       <c r="K96" s="197">
         <v>3350</v>
       </c>
-      <c r="L96" s="205">
+      <c r="L96" s="204">
         <f t="shared" si="2"/>
         <v>1.1904761904761905</v>
       </c>
-      <c r="M96" s="207">
+      <c r="M96" s="206">
         <v>23.86</v>
       </c>
       <c r="N96" s="197">
@@ -23981,22 +23981,22 @@
       <c r="O96" s="199">
         <v>-0.63</v>
       </c>
-      <c r="P96" s="271" t="s">
+      <c r="P96" s="273" t="s">
         <v>322</v>
       </c>
-      <c r="Q96" s="279"/>
+      <c r="Q96" s="211"/>
       <c r="R96" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S96" s="279"/>
+      <c r="S96" s="211"/>
       <c r="T96" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="97" spans="2:20" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="256"/>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="241"/>
       <c r="C97" s="196" t="s">
         <v>248</v>
       </c>
@@ -24025,11 +24025,11 @@
       <c r="K97" s="197">
         <v>7821</v>
       </c>
-      <c r="L97" s="205">
+      <c r="L97" s="204">
         <f t="shared" si="2"/>
         <v>7.5949367088607591</v>
       </c>
-      <c r="M97" s="207">
+      <c r="M97" s="206">
         <v>23.86</v>
       </c>
       <c r="N97" s="197">
@@ -24038,20 +24038,20 @@
       <c r="O97" s="199">
         <v>-1.33</v>
       </c>
-      <c r="P97" s="271"/>
-      <c r="Q97" s="279"/>
+      <c r="P97" s="273"/>
+      <c r="Q97" s="211"/>
       <c r="R97" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S97" s="279"/>
+      <c r="S97" s="211"/>
       <c r="T97" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="256"/>
+      <c r="B98" s="241"/>
       <c r="C98" s="196" t="s">
         <v>248</v>
       </c>
@@ -24080,11 +24080,11 @@
       <c r="K98" s="197">
         <v>8060</v>
       </c>
-      <c r="L98" s="205">
+      <c r="L98" s="204">
         <f t="shared" si="2"/>
         <v>7.8680203045685282</v>
       </c>
-      <c r="M98" s="207">
+      <c r="M98" s="206">
         <v>13.92</v>
       </c>
       <c r="N98" s="197">
@@ -24093,30 +24093,327 @@
       <c r="O98" s="199">
         <v>1.95</v>
       </c>
-      <c r="P98" s="271"/>
-      <c r="Q98" s="279"/>
+      <c r="P98" s="273"/>
+      <c r="Q98" s="211"/>
       <c r="R98" s="199">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="S98" s="279"/>
+      <c r="S98" s="211"/>
       <c r="T98" s="199">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="G99" s="204"/>
+      <c r="B99" s="241" t="s">
+        <v>332</v>
+      </c>
+      <c r="C99" s="196"/>
+      <c r="D99" s="202"/>
+      <c r="E99" s="202"/>
+      <c r="F99" s="131">
+        <f>E99-D99</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="203"/>
+      <c r="H99" s="197"/>
+      <c r="I99" s="197"/>
+      <c r="J99" s="197"/>
+      <c r="K99" s="197"/>
+      <c r="L99" s="204" t="e">
+        <f t="shared" ref="L99:L107" si="6">(I99-J99)*100/J99</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M99" s="206"/>
+      <c r="N99" s="197"/>
+      <c r="O99" s="199"/>
+      <c r="P99" s="273" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q99" s="211"/>
+      <c r="R99" s="199" t="e">
+        <f t="shared" ref="R99:R107" si="7">(Q99-J99)*100/J99</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S99" s="211"/>
+      <c r="T99" s="199" t="e">
+        <f t="shared" ref="T99:T107" si="8">(S99-J99)*100/J99</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="241"/>
+      <c r="C100" s="196"/>
+      <c r="D100" s="202"/>
+      <c r="E100" s="202"/>
+      <c r="F100" s="131">
+        <f t="shared" ref="F100:F107" si="9">E100-D100</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="203"/>
+      <c r="H100" s="197"/>
+      <c r="I100" s="197"/>
+      <c r="J100" s="197"/>
+      <c r="K100" s="197"/>
+      <c r="L100" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M100" s="206"/>
+      <c r="N100" s="197"/>
+      <c r="O100" s="199"/>
+      <c r="P100" s="273"/>
+      <c r="Q100" s="211"/>
+      <c r="R100" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S100" s="211"/>
+      <c r="T100" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="241"/>
+      <c r="C101" s="196"/>
+      <c r="D101" s="202"/>
+      <c r="E101" s="202"/>
+      <c r="F101" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="203"/>
+      <c r="H101" s="197"/>
+      <c r="I101" s="197"/>
+      <c r="J101" s="197"/>
+      <c r="K101" s="197"/>
+      <c r="L101" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="206"/>
+      <c r="N101" s="197"/>
+      <c r="O101" s="199"/>
+      <c r="P101" s="273"/>
+      <c r="Q101" s="211"/>
+      <c r="R101" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S101" s="211"/>
+      <c r="T101" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="241"/>
+      <c r="C102" s="196"/>
+      <c r="D102" s="202"/>
+      <c r="E102" s="202"/>
+      <c r="F102" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="203"/>
+      <c r="H102" s="197"/>
+      <c r="I102" s="197"/>
+      <c r="J102" s="197"/>
+      <c r="K102" s="197"/>
+      <c r="L102" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M102" s="206"/>
+      <c r="N102" s="197"/>
+      <c r="O102" s="199"/>
+      <c r="P102" s="273"/>
+      <c r="Q102" s="211"/>
+      <c r="R102" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S102" s="211"/>
+      <c r="T102" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="241"/>
+      <c r="C103" s="196"/>
+      <c r="D103" s="202"/>
+      <c r="E103" s="202"/>
+      <c r="F103" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="203"/>
+      <c r="H103" s="197"/>
+      <c r="I103" s="197"/>
+      <c r="J103" s="197"/>
+      <c r="K103" s="197"/>
+      <c r="L103" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M103" s="206"/>
+      <c r="N103" s="197"/>
+      <c r="O103" s="199"/>
+      <c r="P103" s="273"/>
+      <c r="Q103" s="211"/>
+      <c r="R103" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S103" s="211"/>
+      <c r="T103" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="241"/>
+      <c r="C104" s="196"/>
+      <c r="D104" s="202"/>
+      <c r="E104" s="202"/>
+      <c r="F104" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="203"/>
+      <c r="H104" s="197"/>
+      <c r="I104" s="197"/>
+      <c r="J104" s="197"/>
+      <c r="K104" s="197"/>
+      <c r="L104" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M104" s="206"/>
+      <c r="N104" s="197"/>
+      <c r="O104" s="199"/>
+      <c r="P104" s="273"/>
+      <c r="Q104" s="211"/>
+      <c r="R104" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S104" s="211"/>
+      <c r="T104" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="241"/>
+      <c r="C105" s="196"/>
+      <c r="D105" s="202"/>
+      <c r="E105" s="202"/>
+      <c r="F105" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="203"/>
+      <c r="H105" s="197"/>
+      <c r="I105" s="197"/>
+      <c r="J105" s="197"/>
+      <c r="K105" s="197"/>
+      <c r="L105" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M105" s="206"/>
+      <c r="N105" s="197"/>
+      <c r="O105" s="199"/>
+      <c r="P105" s="273" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q105" s="211"/>
+      <c r="R105" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S105" s="211"/>
+      <c r="T105" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="241"/>
+      <c r="C106" s="196"/>
+      <c r="D106" s="202"/>
+      <c r="E106" s="202"/>
+      <c r="F106" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="203"/>
+      <c r="H106" s="197"/>
+      <c r="I106" s="197"/>
+      <c r="J106" s="197"/>
+      <c r="K106" s="197"/>
+      <c r="L106" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M106" s="206"/>
+      <c r="N106" s="197"/>
+      <c r="O106" s="199"/>
+      <c r="P106" s="273"/>
+      <c r="Q106" s="211"/>
+      <c r="R106" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S106" s="211"/>
+      <c r="T106" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="241"/>
+      <c r="C107" s="196"/>
+      <c r="D107" s="202"/>
+      <c r="E107" s="202"/>
+      <c r="F107" s="131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="203"/>
+      <c r="H107" s="197"/>
+      <c r="I107" s="197"/>
+      <c r="J107" s="197"/>
+      <c r="K107" s="197"/>
+      <c r="L107" s="204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M107" s="206"/>
+      <c r="N107" s="197"/>
+      <c r="O107" s="199"/>
+      <c r="P107" s="273"/>
+      <c r="Q107" s="211"/>
+      <c r="R107" s="199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S107" s="211"/>
+      <c r="T107" s="199" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D2:O98">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="0"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="11">
+  <autoFilter ref="D2:O98"/>
+  <mergeCells count="14">
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="P99:P104"/>
+    <mergeCell ref="P105:P107"/>
     <mergeCell ref="B90:B98"/>
     <mergeCell ref="P96:P98"/>
     <mergeCell ref="P90:P95"/>
@@ -25496,14 +25793,14 @@
       <c r="G2" t="s">
         <v>279</v>
       </c>
-      <c r="H2" s="206" t="s">
+      <c r="H2" s="205" t="s">
         <v>280</v>
       </c>
       <c r="I2" t="s">
         <v>281</v>
       </c>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
@@ -25524,16 +25821,16 @@
       <c r="G3" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="206" t="s">
+      <c r="H3" s="205" t="s">
         <v>286</v>
       </c>
       <c r="I3" t="s">
         <v>261</v>
       </c>
-      <c r="J3" s="206" t="s">
+      <c r="J3" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="206">
+      <c r="K3" s="205">
         <v>13.5</v>
       </c>
       <c r="L3" t="s">
@@ -25569,16 +25866,16 @@
       <c r="G4" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="206" t="s">
+      <c r="H4" s="205" t="s">
         <v>286</v>
       </c>
       <c r="I4" t="s">
         <v>261</v>
       </c>
-      <c r="J4" s="206" t="s">
+      <c r="J4" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="206">
+      <c r="K4" s="205">
         <v>13.5</v>
       </c>
       <c r="L4" t="s">
@@ -25614,16 +25911,16 @@
       <c r="G5" t="s">
         <v>294</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="H5" s="205" t="s">
         <v>286</v>
       </c>
       <c r="I5" t="s">
         <v>261</v>
       </c>
-      <c r="J5" s="206" t="s">
+      <c r="J5" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="K5" s="206">
+      <c r="K5" s="205">
         <v>21.75</v>
       </c>
       <c r="L5" t="s">
@@ -25659,16 +25956,16 @@
       <c r="G6" t="s">
         <v>299</v>
       </c>
-      <c r="H6" s="206" t="s">
+      <c r="H6" s="205" t="s">
         <v>286</v>
       </c>
       <c r="I6" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="206" t="s">
+      <c r="J6" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="K6" s="206">
+      <c r="K6" s="205">
         <v>14.75</v>
       </c>
       <c r="L6" t="s">
@@ -25704,16 +26001,16 @@
       <c r="G7" t="s">
         <v>304</v>
       </c>
-      <c r="H7" s="206" t="s">
+      <c r="H7" s="205" t="s">
         <v>286</v>
       </c>
       <c r="I7" t="s">
         <v>261</v>
       </c>
-      <c r="J7" s="206" t="s">
+      <c r="J7" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="206">
+      <c r="K7" s="205">
         <v>19.75</v>
       </c>
       <c r="L7" t="s">
